--- a/~2022-10-31 1인프로젝트/설계서/프로젝트 일정 계획서_MVP-최동영.xlsx
+++ b/~2022-10-31 1인프로젝트/설계서/프로젝트 일정 계획서_MVP-최동영.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CHOIDONGYOUNG\Desktop\Work\~2022-10-31 1인프로젝트\설계서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469AD152-F9C4-4547-A3E6-066D20314F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD8F309-051B-4C3C-8D41-C5DE19D1B62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-165" yWindow="2295" windowWidth="21600" windowHeight="12735" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26955" yWindow="1410" windowWidth="21600" windowHeight="12735" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="4" r:id="rId1"/>
@@ -4779,6 +4779,48 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="104" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4812,6 +4854,24 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="103" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="8" fillId="2" borderId="68" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -4824,256 +4884,196 @@
     <xf numFmtId="177" fontId="8" fillId="2" borderId="65" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="104" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="104" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="117" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="118" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="107" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="122" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="123" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="124" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="125" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="126" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="127" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="121" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="107" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="106" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="106" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="128" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="8" fillId="2" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="117" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="118" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="107" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="104" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="121" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="104" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="106" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="107" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="122" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="123" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="124" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="125" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="126" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="127" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="106" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="128" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5826,20 +5826,20 @@
     </row>
     <row r="6" spans="2:12" ht="9.9499999999999993" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I7" s="209" t="s">
+      <c r="I7" s="223" t="s">
         <v>232</v>
       </c>
-      <c r="J7" s="209"/>
-      <c r="K7" s="209"/>
-      <c r="L7" s="209"/>
+      <c r="J7" s="223"/>
+      <c r="K7" s="223"/>
+      <c r="L7" s="223"/>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I8" s="210">
+      <c r="I8" s="224">
         <v>44053</v>
       </c>
-      <c r="J8" s="210"/>
-      <c r="K8" s="210"/>
-      <c r="L8" s="210"/>
+      <c r="J8" s="224"/>
+      <c r="K8" s="224"/>
+      <c r="L8" s="224"/>
     </row>
     <row r="9" spans="2:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I9" s="159"/>
@@ -5848,10 +5848,10 @@
       <c r="L9" s="160"/>
     </row>
     <row r="10" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="211" t="s">
+      <c r="E10" s="225" t="s">
         <v>197</v>
       </c>
-      <c r="F10" s="212"/>
+      <c r="F10" s="226"/>
       <c r="G10" s="161" t="s">
         <v>198</v>
       </c>
@@ -5863,7 +5863,7 @@
       </c>
     </row>
     <row r="11" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="213" t="s">
+      <c r="E11" s="227" t="s">
         <v>218</v>
       </c>
       <c r="F11" s="162" t="s">
@@ -5878,7 +5878,7 @@
       </c>
     </row>
     <row r="12" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="214"/>
+      <c r="E12" s="228"/>
       <c r="F12" s="162" t="s">
         <v>202</v>
       </c>
@@ -5887,7 +5887,7 @@
       <c r="I12" s="164"/>
     </row>
     <row r="13" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E13" s="215"/>
+      <c r="E13" s="229"/>
       <c r="F13" s="162" t="s">
         <v>203</v>
       </c>
@@ -5898,53 +5898,53 @@
       <c r="I13" s="164"/>
     </row>
     <row r="14" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E14" s="216" t="s">
+      <c r="E14" s="230" t="s">
         <v>204</v>
       </c>
-      <c r="F14" s="217"/>
+      <c r="F14" s="231"/>
       <c r="G14" s="163"/>
       <c r="H14" s="163"/>
       <c r="I14" s="164"/>
     </row>
     <row r="15" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="216" t="s">
+      <c r="E15" s="230" t="s">
         <v>204</v>
       </c>
-      <c r="F15" s="217"/>
+      <c r="F15" s="231"/>
       <c r="G15" s="163"/>
       <c r="H15" s="163"/>
       <c r="I15" s="164"/>
     </row>
     <row r="16" spans="2:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="207" t="s">
+      <c r="B17" s="221" t="s">
         <v>205</v>
       </c>
-      <c r="C17" s="207"/>
-      <c r="D17" s="207"/>
-      <c r="E17" s="207"/>
-      <c r="F17" s="207"/>
-      <c r="G17" s="207"/>
-      <c r="H17" s="207"/>
-      <c r="I17" s="207"/>
-      <c r="J17" s="207"/>
-      <c r="K17" s="207"/>
-      <c r="L17" s="207"/>
+      <c r="C17" s="221"/>
+      <c r="D17" s="221"/>
+      <c r="E17" s="221"/>
+      <c r="F17" s="221"/>
+      <c r="G17" s="221"/>
+      <c r="H17" s="221"/>
+      <c r="I17" s="221"/>
+      <c r="J17" s="221"/>
+      <c r="K17" s="221"/>
+      <c r="L17" s="221"/>
     </row>
     <row r="18" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="208" t="s">
+      <c r="B18" s="222" t="s">
         <v>206</v>
       </c>
-      <c r="C18" s="208"/>
-      <c r="D18" s="208"/>
-      <c r="E18" s="208"/>
-      <c r="F18" s="208"/>
-      <c r="G18" s="208"/>
-      <c r="H18" s="208"/>
-      <c r="I18" s="208"/>
-      <c r="J18" s="208"/>
-      <c r="K18" s="208"/>
-      <c r="L18" s="208"/>
+      <c r="C18" s="222"/>
+      <c r="D18" s="222"/>
+      <c r="E18" s="222"/>
+      <c r="F18" s="222"/>
+      <c r="G18" s="222"/>
+      <c r="H18" s="222"/>
+      <c r="I18" s="222"/>
+      <c r="J18" s="222"/>
+      <c r="K18" s="222"/>
+      <c r="L18" s="222"/>
     </row>
     <row r="19" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6216,7 +6216,7 @@
       <pane xSplit="7" ySplit="10" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomRight" activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6232,19 +6232,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:127" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="232" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
-      <c r="E1" s="251"/>
-      <c r="F1" s="251"/>
-      <c r="G1" s="251"/>
-      <c r="H1" s="251"/>
-      <c r="I1" s="251"/>
-      <c r="J1" s="251"/>
-      <c r="K1" s="251"/>
+      <c r="B1" s="232"/>
+      <c r="C1" s="232"/>
+      <c r="D1" s="232"/>
+      <c r="E1" s="232"/>
+      <c r="F1" s="232"/>
+      <c r="G1" s="232"/>
+      <c r="H1" s="232"/>
+      <c r="I1" s="232"/>
+      <c r="J1" s="232"/>
+      <c r="K1" s="232"/>
       <c r="L1" s="50"/>
       <c r="M1" s="50"/>
       <c r="N1" s="50"/>
@@ -6366,10 +6366,10 @@
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="258" t="s">
+      <c r="B2" s="246" t="s">
         <v>233</v>
       </c>
-      <c r="C2" s="258"/>
+      <c r="C2" s="246"/>
       <c r="D2" s="7"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -6497,8 +6497,8 @@
     </row>
     <row r="3" spans="1:127" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
-      <c r="B3" s="258"/>
-      <c r="C3" s="258"/>
+      <c r="B3" s="246"/>
+      <c r="C3" s="246"/>
       <c r="D3" s="7"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -6628,10 +6628,10 @@
       <c r="A4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="259">
+      <c r="B4" s="247">
         <v>44840</v>
       </c>
-      <c r="C4" s="258"/>
+      <c r="C4" s="246"/>
       <c r="D4" s="7"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -6763,33 +6763,33 @@
       <c r="A5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="258" t="s">
+      <c r="B5" s="246" t="s">
         <v>229</v>
       </c>
-      <c r="C5" s="258"/>
+      <c r="C5" s="246"/>
       <c r="D5" s="7"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="252" t="s">
+      <c r="I5" s="242" t="s">
         <v>245</v>
       </c>
-      <c r="J5" s="252"/>
-      <c r="K5" s="254" t="s">
+      <c r="J5" s="242"/>
+      <c r="K5" s="244" t="s">
         <v>196</v>
       </c>
-      <c r="L5" s="254"/>
-      <c r="M5" s="296" t="s">
+      <c r="L5" s="244"/>
+      <c r="M5" s="245" t="s">
         <v>247</v>
       </c>
-      <c r="N5" s="296"/>
-      <c r="O5" s="282"/>
-      <c r="P5" s="282"/>
-      <c r="Q5" s="282"/>
-      <c r="R5" s="282"/>
-      <c r="S5" s="282"/>
-      <c r="T5" s="282"/>
+      <c r="N5" s="245"/>
+      <c r="O5" s="243"/>
+      <c r="P5" s="243"/>
+      <c r="Q5" s="243"/>
+      <c r="R5" s="243"/>
+      <c r="S5" s="243"/>
+      <c r="T5" s="243"/>
       <c r="U5" s="150"/>
       <c r="V5" s="150"/>
       <c r="W5" s="50"/>
@@ -7157,523 +7157,523 @@
       <c r="DW7" s="8"/>
     </row>
     <row r="8" spans="1:127" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="236" t="s">
+      <c r="A8" s="248" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="244" t="s">
+      <c r="B8" s="257" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="245"/>
-      <c r="D8" s="248" t="s">
+      <c r="C8" s="258"/>
+      <c r="D8" s="233" t="s">
         <v>186</v>
       </c>
-      <c r="E8" s="248" t="s">
+      <c r="E8" s="233" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="240" t="s">
+      <c r="F8" s="253" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="241"/>
-      <c r="H8" s="243" t="s">
+      <c r="G8" s="254"/>
+      <c r="H8" s="256" t="s">
         <v>162</v>
       </c>
-      <c r="I8" s="224"/>
-      <c r="J8" s="224"/>
-      <c r="K8" s="224"/>
-      <c r="L8" s="225"/>
-      <c r="M8" s="223" t="s">
+      <c r="I8" s="236"/>
+      <c r="J8" s="236"/>
+      <c r="K8" s="236"/>
+      <c r="L8" s="237"/>
+      <c r="M8" s="235" t="s">
         <v>163</v>
       </c>
-      <c r="N8" s="224"/>
-      <c r="O8" s="224"/>
-      <c r="P8" s="224"/>
-      <c r="Q8" s="225"/>
-      <c r="R8" s="223" t="s">
+      <c r="N8" s="236"/>
+      <c r="O8" s="236"/>
+      <c r="P8" s="236"/>
+      <c r="Q8" s="237"/>
+      <c r="R8" s="235" t="s">
         <v>164</v>
       </c>
-      <c r="S8" s="224"/>
-      <c r="T8" s="224"/>
-      <c r="U8" s="224"/>
-      <c r="V8" s="225"/>
-      <c r="W8" s="223" t="s">
+      <c r="S8" s="236"/>
+      <c r="T8" s="236"/>
+      <c r="U8" s="236"/>
+      <c r="V8" s="237"/>
+      <c r="W8" s="235" t="s">
         <v>165</v>
       </c>
-      <c r="X8" s="224"/>
-      <c r="Y8" s="224"/>
-      <c r="Z8" s="224"/>
-      <c r="AA8" s="225"/>
-      <c r="AB8" s="223" t="s">
+      <c r="X8" s="236"/>
+      <c r="Y8" s="236"/>
+      <c r="Z8" s="236"/>
+      <c r="AA8" s="237"/>
+      <c r="AB8" s="235" t="s">
         <v>166</v>
       </c>
-      <c r="AC8" s="224"/>
-      <c r="AD8" s="224"/>
-      <c r="AE8" s="224"/>
-      <c r="AF8" s="225"/>
-      <c r="AG8" s="223" t="s">
+      <c r="AC8" s="236"/>
+      <c r="AD8" s="236"/>
+      <c r="AE8" s="236"/>
+      <c r="AF8" s="237"/>
+      <c r="AG8" s="235" t="s">
         <v>167</v>
       </c>
-      <c r="AH8" s="224"/>
-      <c r="AI8" s="224"/>
-      <c r="AJ8" s="224"/>
-      <c r="AK8" s="225"/>
-      <c r="AL8" s="223" t="s">
+      <c r="AH8" s="236"/>
+      <c r="AI8" s="236"/>
+      <c r="AJ8" s="236"/>
+      <c r="AK8" s="237"/>
+      <c r="AL8" s="235" t="s">
         <v>168</v>
       </c>
-      <c r="AM8" s="224"/>
-      <c r="AN8" s="224"/>
-      <c r="AO8" s="224"/>
-      <c r="AP8" s="225"/>
-      <c r="AQ8" s="223" t="s">
+      <c r="AM8" s="236"/>
+      <c r="AN8" s="236"/>
+      <c r="AO8" s="236"/>
+      <c r="AP8" s="237"/>
+      <c r="AQ8" s="235" t="s">
         <v>169</v>
       </c>
-      <c r="AR8" s="224"/>
-      <c r="AS8" s="224"/>
-      <c r="AT8" s="224"/>
-      <c r="AU8" s="225"/>
-      <c r="AV8" s="223" t="s">
+      <c r="AR8" s="236"/>
+      <c r="AS8" s="236"/>
+      <c r="AT8" s="236"/>
+      <c r="AU8" s="237"/>
+      <c r="AV8" s="235" t="s">
         <v>170</v>
       </c>
-      <c r="AW8" s="224"/>
-      <c r="AX8" s="224"/>
-      <c r="AY8" s="224"/>
-      <c r="AZ8" s="225"/>
-      <c r="BA8" s="223" t="s">
+      <c r="AW8" s="236"/>
+      <c r="AX8" s="236"/>
+      <c r="AY8" s="236"/>
+      <c r="AZ8" s="237"/>
+      <c r="BA8" s="235" t="s">
         <v>171</v>
       </c>
-      <c r="BB8" s="224"/>
-      <c r="BC8" s="224"/>
-      <c r="BD8" s="224"/>
-      <c r="BE8" s="225"/>
-      <c r="BF8" s="223" t="s">
+      <c r="BB8" s="236"/>
+      <c r="BC8" s="236"/>
+      <c r="BD8" s="236"/>
+      <c r="BE8" s="237"/>
+      <c r="BF8" s="235" t="s">
         <v>172</v>
       </c>
-      <c r="BG8" s="224"/>
-      <c r="BH8" s="224"/>
-      <c r="BI8" s="224"/>
-      <c r="BJ8" s="225"/>
-      <c r="BK8" s="223" t="s">
+      <c r="BG8" s="236"/>
+      <c r="BH8" s="236"/>
+      <c r="BI8" s="236"/>
+      <c r="BJ8" s="237"/>
+      <c r="BK8" s="235" t="s">
         <v>173</v>
       </c>
-      <c r="BL8" s="224"/>
-      <c r="BM8" s="224"/>
-      <c r="BN8" s="224"/>
-      <c r="BO8" s="225"/>
-      <c r="BP8" s="223" t="s">
+      <c r="BL8" s="236"/>
+      <c r="BM8" s="236"/>
+      <c r="BN8" s="236"/>
+      <c r="BO8" s="237"/>
+      <c r="BP8" s="235" t="s">
         <v>174</v>
       </c>
-      <c r="BQ8" s="224"/>
-      <c r="BR8" s="224"/>
-      <c r="BS8" s="224"/>
-      <c r="BT8" s="225"/>
-      <c r="BU8" s="223" t="s">
+      <c r="BQ8" s="236"/>
+      <c r="BR8" s="236"/>
+      <c r="BS8" s="236"/>
+      <c r="BT8" s="237"/>
+      <c r="BU8" s="235" t="s">
         <v>175</v>
       </c>
-      <c r="BV8" s="224"/>
-      <c r="BW8" s="224"/>
-      <c r="BX8" s="224"/>
-      <c r="BY8" s="225"/>
-      <c r="BZ8" s="223" t="s">
+      <c r="BV8" s="236"/>
+      <c r="BW8" s="236"/>
+      <c r="BX8" s="236"/>
+      <c r="BY8" s="237"/>
+      <c r="BZ8" s="235" t="s">
         <v>176</v>
       </c>
-      <c r="CA8" s="224"/>
-      <c r="CB8" s="224"/>
-      <c r="CC8" s="224"/>
-      <c r="CD8" s="225"/>
-      <c r="CE8" s="223" t="s">
+      <c r="CA8" s="236"/>
+      <c r="CB8" s="236"/>
+      <c r="CC8" s="236"/>
+      <c r="CD8" s="237"/>
+      <c r="CE8" s="235" t="s">
         <v>177</v>
       </c>
-      <c r="CF8" s="224"/>
-      <c r="CG8" s="224"/>
-      <c r="CH8" s="224"/>
-      <c r="CI8" s="225"/>
-      <c r="CJ8" s="223" t="s">
+      <c r="CF8" s="236"/>
+      <c r="CG8" s="236"/>
+      <c r="CH8" s="236"/>
+      <c r="CI8" s="237"/>
+      <c r="CJ8" s="235" t="s">
         <v>178</v>
       </c>
-      <c r="CK8" s="224"/>
-      <c r="CL8" s="224"/>
-      <c r="CM8" s="224"/>
-      <c r="CN8" s="225"/>
-      <c r="CO8" s="223" t="s">
+      <c r="CK8" s="236"/>
+      <c r="CL8" s="236"/>
+      <c r="CM8" s="236"/>
+      <c r="CN8" s="237"/>
+      <c r="CO8" s="235" t="s">
         <v>179</v>
       </c>
-      <c r="CP8" s="224"/>
-      <c r="CQ8" s="224"/>
-      <c r="CR8" s="224"/>
-      <c r="CS8" s="225"/>
-      <c r="CT8" s="223" t="s">
+      <c r="CP8" s="236"/>
+      <c r="CQ8" s="236"/>
+      <c r="CR8" s="236"/>
+      <c r="CS8" s="237"/>
+      <c r="CT8" s="235" t="s">
         <v>180</v>
       </c>
-      <c r="CU8" s="224"/>
-      <c r="CV8" s="224"/>
-      <c r="CW8" s="224"/>
-      <c r="CX8" s="225"/>
-      <c r="CY8" s="223" t="s">
+      <c r="CU8" s="236"/>
+      <c r="CV8" s="236"/>
+      <c r="CW8" s="236"/>
+      <c r="CX8" s="237"/>
+      <c r="CY8" s="235" t="s">
         <v>181</v>
       </c>
-      <c r="CZ8" s="224"/>
-      <c r="DA8" s="224"/>
-      <c r="DB8" s="224"/>
-      <c r="DC8" s="225"/>
-      <c r="DD8" s="223" t="s">
+      <c r="CZ8" s="236"/>
+      <c r="DA8" s="236"/>
+      <c r="DB8" s="236"/>
+      <c r="DC8" s="237"/>
+      <c r="DD8" s="235" t="s">
         <v>182</v>
       </c>
-      <c r="DE8" s="224"/>
-      <c r="DF8" s="224"/>
-      <c r="DG8" s="224"/>
-      <c r="DH8" s="225"/>
-      <c r="DI8" s="223" t="s">
+      <c r="DE8" s="236"/>
+      <c r="DF8" s="236"/>
+      <c r="DG8" s="236"/>
+      <c r="DH8" s="237"/>
+      <c r="DI8" s="235" t="s">
         <v>183</v>
       </c>
-      <c r="DJ8" s="224"/>
-      <c r="DK8" s="224"/>
-      <c r="DL8" s="224"/>
-      <c r="DM8" s="225"/>
-      <c r="DN8" s="223" t="s">
+      <c r="DJ8" s="236"/>
+      <c r="DK8" s="236"/>
+      <c r="DL8" s="236"/>
+      <c r="DM8" s="237"/>
+      <c r="DN8" s="235" t="s">
         <v>184</v>
       </c>
-      <c r="DO8" s="224"/>
-      <c r="DP8" s="224"/>
-      <c r="DQ8" s="224"/>
-      <c r="DR8" s="225"/>
-      <c r="DS8" s="223" t="s">
+      <c r="DO8" s="236"/>
+      <c r="DP8" s="236"/>
+      <c r="DQ8" s="236"/>
+      <c r="DR8" s="237"/>
+      <c r="DS8" s="235" t="s">
         <v>185</v>
       </c>
-      <c r="DT8" s="224"/>
-      <c r="DU8" s="224"/>
-      <c r="DV8" s="224"/>
-      <c r="DW8" s="226"/>
+      <c r="DT8" s="236"/>
+      <c r="DU8" s="236"/>
+      <c r="DV8" s="236"/>
+      <c r="DW8" s="280"/>
     </row>
     <row r="9" spans="1:127" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="237"/>
-      <c r="B9" s="246"/>
-      <c r="C9" s="247"/>
-      <c r="D9" s="249"/>
-      <c r="E9" s="249"/>
+      <c r="A9" s="249"/>
+      <c r="B9" s="259"/>
+      <c r="C9" s="260"/>
+      <c r="D9" s="234"/>
+      <c r="E9" s="234"/>
       <c r="F9" s="12" t="s">
         <v>160</v>
       </c>
       <c r="G9" s="13">
         <v>44823</v>
       </c>
-      <c r="H9" s="242">
+      <c r="H9" s="255">
         <f>G9</f>
         <v>44823</v>
       </c>
-      <c r="I9" s="219"/>
+      <c r="I9" s="239"/>
       <c r="J9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="K9" s="220">
+      <c r="K9" s="240">
         <f>L10</f>
         <v>44827</v>
       </c>
-      <c r="L9" s="221"/>
-      <c r="M9" s="218">
+      <c r="L9" s="241"/>
+      <c r="M9" s="238">
         <f>M10</f>
         <v>44830</v>
       </c>
-      <c r="N9" s="219"/>
+      <c r="N9" s="239"/>
       <c r="O9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="P9" s="220">
+      <c r="P9" s="240">
         <f>Q10</f>
         <v>44834</v>
       </c>
-      <c r="Q9" s="221"/>
-      <c r="R9" s="218">
+      <c r="Q9" s="241"/>
+      <c r="R9" s="238">
         <f>R10</f>
         <v>44837</v>
       </c>
-      <c r="S9" s="219"/>
+      <c r="S9" s="239"/>
       <c r="T9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="U9" s="220">
+      <c r="U9" s="240">
         <f>V10</f>
         <v>44841</v>
       </c>
-      <c r="V9" s="221"/>
-      <c r="W9" s="218">
+      <c r="V9" s="241"/>
+      <c r="W9" s="238">
         <f>W10</f>
         <v>44844</v>
       </c>
-      <c r="X9" s="219"/>
+      <c r="X9" s="239"/>
       <c r="Y9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="Z9" s="220">
+      <c r="Z9" s="240">
         <f>AA10</f>
         <v>44848</v>
       </c>
-      <c r="AA9" s="221"/>
-      <c r="AB9" s="218">
+      <c r="AA9" s="241"/>
+      <c r="AB9" s="238">
         <f>AB10</f>
         <v>44851</v>
       </c>
-      <c r="AC9" s="219"/>
+      <c r="AC9" s="239"/>
       <c r="AD9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="AE9" s="220">
+      <c r="AE9" s="240">
         <f>AF10</f>
         <v>44855</v>
       </c>
-      <c r="AF9" s="221"/>
-      <c r="AG9" s="218">
+      <c r="AF9" s="241"/>
+      <c r="AG9" s="238">
         <f>AG10</f>
         <v>44858</v>
       </c>
-      <c r="AH9" s="219"/>
+      <c r="AH9" s="239"/>
       <c r="AI9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="AJ9" s="220">
+      <c r="AJ9" s="240">
         <f>AK10</f>
         <v>44862</v>
       </c>
-      <c r="AK9" s="221"/>
-      <c r="AL9" s="218">
+      <c r="AK9" s="241"/>
+      <c r="AL9" s="238">
         <f>AL10</f>
         <v>44865</v>
       </c>
-      <c r="AM9" s="219"/>
+      <c r="AM9" s="239"/>
       <c r="AN9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="AO9" s="220">
+      <c r="AO9" s="240">
         <f>AP10</f>
         <v>44869</v>
       </c>
-      <c r="AP9" s="221"/>
-      <c r="AQ9" s="218">
+      <c r="AP9" s="241"/>
+      <c r="AQ9" s="238">
         <f>AQ10</f>
         <v>44872</v>
       </c>
-      <c r="AR9" s="219"/>
+      <c r="AR9" s="239"/>
       <c r="AS9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="AT9" s="220">
+      <c r="AT9" s="240">
         <f>AU10</f>
         <v>44876</v>
       </c>
-      <c r="AU9" s="221"/>
-      <c r="AV9" s="218">
+      <c r="AU9" s="241"/>
+      <c r="AV9" s="238">
         <f>AV10</f>
         <v>44879</v>
       </c>
-      <c r="AW9" s="219"/>
+      <c r="AW9" s="239"/>
       <c r="AX9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="AY9" s="220">
+      <c r="AY9" s="240">
         <f>AZ10</f>
         <v>44883</v>
       </c>
-      <c r="AZ9" s="221"/>
-      <c r="BA9" s="218">
+      <c r="AZ9" s="241"/>
+      <c r="BA9" s="238">
         <f>BA10</f>
         <v>44886</v>
       </c>
-      <c r="BB9" s="219"/>
+      <c r="BB9" s="239"/>
       <c r="BC9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="BD9" s="220">
+      <c r="BD9" s="240">
         <f>BE10</f>
         <v>44890</v>
       </c>
-      <c r="BE9" s="221"/>
-      <c r="BF9" s="218">
+      <c r="BE9" s="241"/>
+      <c r="BF9" s="238">
         <f>BF10</f>
         <v>44893</v>
       </c>
-      <c r="BG9" s="219"/>
+      <c r="BG9" s="239"/>
       <c r="BH9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="BI9" s="220">
+      <c r="BI9" s="240">
         <f>BJ10</f>
         <v>44897</v>
       </c>
-      <c r="BJ9" s="221"/>
-      <c r="BK9" s="218">
+      <c r="BJ9" s="241"/>
+      <c r="BK9" s="238">
         <f>BK10</f>
         <v>44900</v>
       </c>
-      <c r="BL9" s="219"/>
+      <c r="BL9" s="239"/>
       <c r="BM9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="BN9" s="220">
+      <c r="BN9" s="240">
         <f>BO10</f>
         <v>44904</v>
       </c>
-      <c r="BO9" s="221"/>
-      <c r="BP9" s="218">
+      <c r="BO9" s="241"/>
+      <c r="BP9" s="238">
         <f>BP10</f>
         <v>44907</v>
       </c>
-      <c r="BQ9" s="219"/>
+      <c r="BQ9" s="239"/>
       <c r="BR9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="BS9" s="220">
+      <c r="BS9" s="240">
         <f>BT10</f>
         <v>44911</v>
       </c>
-      <c r="BT9" s="221"/>
-      <c r="BU9" s="218">
+      <c r="BT9" s="241"/>
+      <c r="BU9" s="238">
         <f>BU10</f>
         <v>44914</v>
       </c>
-      <c r="BV9" s="219"/>
+      <c r="BV9" s="239"/>
       <c r="BW9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="BX9" s="220">
+      <c r="BX9" s="240">
         <f>BY10</f>
         <v>44918</v>
       </c>
-      <c r="BY9" s="221"/>
-      <c r="BZ9" s="218">
+      <c r="BY9" s="241"/>
+      <c r="BZ9" s="238">
         <f>BZ10</f>
         <v>44921</v>
       </c>
-      <c r="CA9" s="219"/>
+      <c r="CA9" s="239"/>
       <c r="CB9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="CC9" s="220">
+      <c r="CC9" s="240">
         <f>CD10</f>
         <v>44925</v>
       </c>
-      <c r="CD9" s="221"/>
-      <c r="CE9" s="218">
+      <c r="CD9" s="241"/>
+      <c r="CE9" s="238">
         <f>CE10</f>
         <v>44928</v>
       </c>
-      <c r="CF9" s="219"/>
+      <c r="CF9" s="239"/>
       <c r="CG9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="CH9" s="220">
+      <c r="CH9" s="240">
         <f>CI10</f>
         <v>44932</v>
       </c>
-      <c r="CI9" s="221"/>
-      <c r="CJ9" s="218">
+      <c r="CI9" s="241"/>
+      <c r="CJ9" s="238">
         <f>CJ10</f>
         <v>44935</v>
       </c>
-      <c r="CK9" s="219"/>
+      <c r="CK9" s="239"/>
       <c r="CL9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="CM9" s="220">
+      <c r="CM9" s="240">
         <f>CN10</f>
         <v>44939</v>
       </c>
-      <c r="CN9" s="221"/>
-      <c r="CO9" s="218">
+      <c r="CN9" s="241"/>
+      <c r="CO9" s="238">
         <f>CO10</f>
         <v>44942</v>
       </c>
-      <c r="CP9" s="219"/>
+      <c r="CP9" s="239"/>
       <c r="CQ9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="CR9" s="220">
+      <c r="CR9" s="240">
         <f>CS10</f>
         <v>44946</v>
       </c>
-      <c r="CS9" s="221"/>
-      <c r="CT9" s="218">
+      <c r="CS9" s="241"/>
+      <c r="CT9" s="238">
         <f>CT10</f>
         <v>44949</v>
       </c>
-      <c r="CU9" s="219"/>
+      <c r="CU9" s="239"/>
       <c r="CV9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="CW9" s="220">
+      <c r="CW9" s="240">
         <f>CX10</f>
         <v>44953</v>
       </c>
-      <c r="CX9" s="221"/>
-      <c r="CY9" s="218">
+      <c r="CX9" s="241"/>
+      <c r="CY9" s="238">
         <f>CY10</f>
         <v>44956</v>
       </c>
-      <c r="CZ9" s="219"/>
+      <c r="CZ9" s="239"/>
       <c r="DA9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="DB9" s="220">
+      <c r="DB9" s="240">
         <f>DC10</f>
         <v>44960</v>
       </c>
-      <c r="DC9" s="221"/>
-      <c r="DD9" s="218">
+      <c r="DC9" s="241"/>
+      <c r="DD9" s="238">
         <f>DD10</f>
         <v>44963</v>
       </c>
-      <c r="DE9" s="219"/>
+      <c r="DE9" s="239"/>
       <c r="DF9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="DG9" s="220">
+      <c r="DG9" s="240">
         <f>DH10</f>
         <v>44967</v>
       </c>
-      <c r="DH9" s="221"/>
-      <c r="DI9" s="218">
+      <c r="DH9" s="241"/>
+      <c r="DI9" s="238">
         <f>DI10</f>
         <v>44970</v>
       </c>
-      <c r="DJ9" s="219"/>
+      <c r="DJ9" s="239"/>
       <c r="DK9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="DL9" s="220">
+      <c r="DL9" s="240">
         <f>DM10</f>
         <v>44974</v>
       </c>
-      <c r="DM9" s="221"/>
-      <c r="DN9" s="218">
+      <c r="DM9" s="241"/>
+      <c r="DN9" s="238">
         <f>DN10</f>
         <v>44977</v>
       </c>
-      <c r="DO9" s="219"/>
+      <c r="DO9" s="239"/>
       <c r="DP9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="DQ9" s="220">
+      <c r="DQ9" s="240">
         <f>DR10</f>
         <v>44981</v>
       </c>
-      <c r="DR9" s="221"/>
-      <c r="DS9" s="218">
+      <c r="DR9" s="241"/>
+      <c r="DS9" s="238">
         <f>DS10</f>
         <v>44984</v>
       </c>
-      <c r="DT9" s="219"/>
+      <c r="DT9" s="239"/>
       <c r="DU9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="DV9" s="220">
+      <c r="DV9" s="240">
         <f>DW10</f>
         <v>44988</v>
       </c>
-      <c r="DW9" s="222"/>
+      <c r="DW9" s="281"/>
     </row>
     <row r="10" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A10" s="238"/>
-      <c r="B10" s="246"/>
-      <c r="C10" s="247"/>
-      <c r="D10" s="249"/>
-      <c r="E10" s="249"/>
+      <c r="A10" s="250"/>
+      <c r="B10" s="259"/>
+      <c r="C10" s="260"/>
+      <c r="D10" s="234"/>
+      <c r="E10" s="234"/>
       <c r="F10" s="26" t="s">
         <v>48</v>
       </c>
@@ -8162,16 +8162,16 @@
       </c>
     </row>
     <row r="11" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A11" s="250" t="s">
+      <c r="A11" s="261" t="s">
         <v>191</v>
       </c>
-      <c r="B11" s="239" t="s">
+      <c r="B11" s="251" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="192" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="293" t="s">
+      <c r="D11" s="277" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="192" t="s">
@@ -8188,9 +8188,9 @@
       <c r="J11" s="67"/>
       <c r="K11" s="67"/>
       <c r="L11" s="68"/>
-      <c r="M11" s="283"/>
-      <c r="N11" s="283"/>
-      <c r="O11" s="278"/>
+      <c r="M11" s="208"/>
+      <c r="N11" s="208"/>
+      <c r="O11" s="207"/>
       <c r="P11" s="67"/>
       <c r="Q11" s="68"/>
       <c r="R11" s="69"/>
@@ -8213,7 +8213,7 @@
       <c r="AI11" s="67"/>
       <c r="AJ11" s="67"/>
       <c r="AK11" s="68"/>
-      <c r="AL11" s="297"/>
+      <c r="AL11" s="212"/>
       <c r="AM11" s="67"/>
       <c r="AN11" s="67"/>
       <c r="AO11" s="67"/>
@@ -8305,12 +8305,12 @@
       <c r="DW11" s="70"/>
     </row>
     <row r="12" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A12" s="250"/>
-      <c r="B12" s="230"/>
+      <c r="A12" s="261"/>
+      <c r="B12" s="252"/>
       <c r="C12" s="192" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="294"/>
+      <c r="D12" s="278"/>
       <c r="E12" s="192" t="s">
         <v>53</v>
       </c>
@@ -8332,8 +8332,8 @@
       <c r="Q12" s="73"/>
       <c r="R12" s="74"/>
       <c r="S12" s="72"/>
-      <c r="T12" s="283"/>
-      <c r="U12" s="278"/>
+      <c r="T12" s="208"/>
+      <c r="U12" s="207"/>
       <c r="V12" s="73"/>
       <c r="W12" s="74"/>
       <c r="X12" s="72"/>
@@ -8350,7 +8350,7 @@
       <c r="AI12" s="72"/>
       <c r="AJ12" s="72"/>
       <c r="AK12" s="73"/>
-      <c r="AL12" s="298"/>
+      <c r="AL12" s="213"/>
       <c r="AM12" s="72"/>
       <c r="AN12" s="72"/>
       <c r="AO12" s="72"/>
@@ -8442,12 +8442,12 @@
       <c r="DW12" s="75"/>
     </row>
     <row r="13" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A13" s="250"/>
-      <c r="B13" s="230"/>
+      <c r="A13" s="261"/>
+      <c r="B13" s="252"/>
       <c r="C13" s="192" t="s">
         <v>234</v>
       </c>
-      <c r="D13" s="294"/>
+      <c r="D13" s="278"/>
       <c r="E13" s="192" t="s">
         <v>239</v>
       </c>
@@ -8457,14 +8457,14 @@
       <c r="G13" s="186">
         <v>44832</v>
       </c>
-      <c r="H13" s="283"/>
-      <c r="I13" s="283"/>
-      <c r="J13" s="283"/>
-      <c r="K13" s="283"/>
-      <c r="L13" s="283"/>
-      <c r="M13" s="283"/>
-      <c r="N13" s="283"/>
-      <c r="O13" s="278"/>
+      <c r="H13" s="208"/>
+      <c r="I13" s="208"/>
+      <c r="J13" s="208"/>
+      <c r="K13" s="208"/>
+      <c r="L13" s="208"/>
+      <c r="M13" s="208"/>
+      <c r="N13" s="208"/>
+      <c r="O13" s="207"/>
       <c r="P13" s="62"/>
       <c r="Q13" s="63"/>
       <c r="R13" s="64"/>
@@ -8487,7 +8487,7 @@
       <c r="AI13" s="62"/>
       <c r="AJ13" s="62"/>
       <c r="AK13" s="63"/>
-      <c r="AL13" s="299"/>
+      <c r="AL13" s="214"/>
       <c r="AM13" s="62"/>
       <c r="AN13" s="62"/>
       <c r="AO13" s="62"/>
@@ -8579,14 +8579,14 @@
       <c r="DW13" s="65"/>
     </row>
     <row r="14" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="233"/>
+      <c r="A14" s="262"/>
       <c r="B14" s="202" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="193" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="294"/>
+      <c r="D14" s="278"/>
       <c r="E14" s="193"/>
       <c r="F14" s="186">
         <v>44830</v>
@@ -8599,7 +8599,7 @@
       <c r="J14" s="77"/>
       <c r="K14" s="77"/>
       <c r="L14" s="78"/>
-      <c r="M14" s="278"/>
+      <c r="M14" s="207"/>
       <c r="N14" s="77"/>
       <c r="O14" s="77"/>
       <c r="P14" s="77"/>
@@ -8624,7 +8624,7 @@
       <c r="AI14" s="77"/>
       <c r="AJ14" s="77"/>
       <c r="AK14" s="78"/>
-      <c r="AL14" s="300"/>
+      <c r="AL14" s="215"/>
       <c r="AM14" s="77"/>
       <c r="AN14" s="77"/>
       <c r="AO14" s="77"/>
@@ -8716,16 +8716,16 @@
       <c r="DW14" s="80"/>
     </row>
     <row r="15" spans="1:127" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="232" t="s">
+      <c r="A15" s="267" t="s">
         <v>235</v>
       </c>
-      <c r="B15" s="235" t="s">
+      <c r="B15" s="274" t="s">
         <v>236</v>
       </c>
       <c r="C15" s="192" t="s">
         <v>244</v>
       </c>
-      <c r="D15" s="294"/>
+      <c r="D15" s="278"/>
       <c r="E15" s="192" t="s">
         <v>243</v>
       </c>
@@ -8745,8 +8745,8 @@
       <c r="Q15" s="58"/>
       <c r="R15" s="59"/>
       <c r="S15" s="57"/>
-      <c r="T15" s="283"/>
-      <c r="U15" s="57"/>
+      <c r="T15" s="208"/>
+      <c r="U15" s="208"/>
       <c r="V15" s="58"/>
       <c r="W15" s="59"/>
       <c r="X15" s="57"/>
@@ -8763,7 +8763,7 @@
       <c r="AI15" s="57"/>
       <c r="AJ15" s="57"/>
       <c r="AK15" s="58"/>
-      <c r="AL15" s="301"/>
+      <c r="AL15" s="216"/>
       <c r="AM15" s="57"/>
       <c r="AN15" s="57"/>
       <c r="AO15" s="57"/>
@@ -8855,13 +8855,13 @@
       <c r="DW15" s="60"/>
     </row>
     <row r="16" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A16" s="232"/>
-      <c r="B16" s="279"/>
+      <c r="A16" s="267"/>
+      <c r="B16" s="276"/>
       <c r="C16" s="192" t="s">
         <v>246</v>
       </c>
-      <c r="D16" s="294"/>
-      <c r="E16" s="290" t="s">
+      <c r="D16" s="278"/>
+      <c r="E16" s="209" t="s">
         <v>246</v>
       </c>
       <c r="F16" s="186">
@@ -8875,13 +8875,13 @@
       <c r="L16" s="58"/>
       <c r="M16" s="59"/>
       <c r="N16" s="57"/>
-      <c r="O16" s="291"/>
-      <c r="P16" s="291"/>
-      <c r="Q16" s="292"/>
+      <c r="O16" s="210"/>
+      <c r="P16" s="210"/>
+      <c r="Q16" s="211"/>
       <c r="R16" s="64"/>
-      <c r="S16" s="291"/>
-      <c r="T16" s="283"/>
-      <c r="U16" s="57"/>
+      <c r="S16" s="210"/>
+      <c r="T16" s="208"/>
+      <c r="U16" s="208"/>
       <c r="V16" s="58"/>
       <c r="W16" s="59"/>
       <c r="X16" s="57"/>
@@ -8898,7 +8898,7 @@
       <c r="AI16" s="57"/>
       <c r="AJ16" s="57"/>
       <c r="AK16" s="58"/>
-      <c r="AL16" s="301"/>
+      <c r="AL16" s="216"/>
       <c r="AM16" s="57"/>
       <c r="AN16" s="57"/>
       <c r="AO16" s="57"/>
@@ -8990,13 +8990,13 @@
       <c r="DW16" s="60"/>
     </row>
     <row r="17" spans="1:127" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="232"/>
-      <c r="B17" s="279"/>
+      <c r="A17" s="267"/>
+      <c r="B17" s="276"/>
       <c r="C17" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="294"/>
-      <c r="E17" s="280" t="s">
+      <c r="D17" s="278"/>
+      <c r="E17" s="265" t="s">
         <v>242</v>
       </c>
       <c r="F17" s="186">
@@ -9012,12 +9012,12 @@
       <c r="L17" s="58"/>
       <c r="M17" s="59"/>
       <c r="N17" s="57"/>
-      <c r="O17" s="283"/>
-      <c r="P17" s="283"/>
-      <c r="Q17" s="283"/>
-      <c r="R17" s="283"/>
-      <c r="S17" s="283"/>
-      <c r="T17" s="278"/>
+      <c r="O17" s="208"/>
+      <c r="P17" s="208"/>
+      <c r="Q17" s="208"/>
+      <c r="R17" s="208"/>
+      <c r="S17" s="208"/>
+      <c r="T17" s="207"/>
       <c r="U17" s="57"/>
       <c r="V17" s="58"/>
       <c r="W17" s="59"/>
@@ -9035,7 +9035,7 @@
       <c r="AI17" s="57"/>
       <c r="AJ17" s="57"/>
       <c r="AK17" s="58"/>
-      <c r="AL17" s="301"/>
+      <c r="AL17" s="216"/>
       <c r="AM17" s="57"/>
       <c r="AN17" s="57"/>
       <c r="AO17" s="57"/>
@@ -9127,13 +9127,13 @@
       <c r="DW17" s="60"/>
     </row>
     <row r="18" spans="1:127" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="250"/>
-      <c r="B18" s="229"/>
+      <c r="A18" s="261"/>
+      <c r="B18" s="275"/>
       <c r="C18" s="192" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="294"/>
-      <c r="E18" s="281"/>
+      <c r="D18" s="278"/>
+      <c r="E18" s="266"/>
       <c r="F18" s="186">
         <v>44838</v>
       </c>
@@ -9151,7 +9151,7 @@
       <c r="P18" s="57"/>
       <c r="Q18" s="58"/>
       <c r="R18" s="59"/>
-      <c r="S18" s="278"/>
+      <c r="S18" s="207"/>
       <c r="T18" s="57"/>
       <c r="U18" s="57"/>
       <c r="V18" s="58"/>
@@ -9170,7 +9170,7 @@
       <c r="AI18" s="57"/>
       <c r="AJ18" s="57"/>
       <c r="AK18" s="58"/>
-      <c r="AL18" s="301"/>
+      <c r="AL18" s="216"/>
       <c r="AM18" s="57"/>
       <c r="AN18" s="57"/>
       <c r="AO18" s="57"/>
@@ -9262,17 +9262,17 @@
       <c r="DW18" s="60"/>
     </row>
     <row r="19" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A19" s="287" t="s">
+      <c r="A19" s="271" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="230" t="s">
+      <c r="B19" s="252" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="192" t="s">
         <v>240</v>
       </c>
-      <c r="D19" s="294"/>
-      <c r="E19" s="230" t="s">
+      <c r="D19" s="278"/>
+      <c r="E19" s="252" t="s">
         <v>241</v>
       </c>
       <c r="F19" s="186"/>
@@ -9307,7 +9307,7 @@
       <c r="AI19" s="97"/>
       <c r="AJ19" s="97"/>
       <c r="AK19" s="98"/>
-      <c r="AL19" s="302"/>
+      <c r="AL19" s="217"/>
       <c r="AM19" s="97"/>
       <c r="AN19" s="97"/>
       <c r="AO19" s="97"/>
@@ -9399,13 +9399,13 @@
       <c r="DW19" s="100"/>
     </row>
     <row r="20" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A20" s="288"/>
-      <c r="B20" s="230"/>
+      <c r="A20" s="272"/>
+      <c r="B20" s="252"/>
       <c r="C20" s="192" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="294"/>
-      <c r="E20" s="230"/>
+      <c r="D20" s="278"/>
+      <c r="E20" s="252"/>
       <c r="F20" s="186"/>
       <c r="G20" s="186"/>
       <c r="H20" s="197"/>
@@ -9438,7 +9438,7 @@
       <c r="AI20" s="57"/>
       <c r="AJ20" s="57"/>
       <c r="AK20" s="58"/>
-      <c r="AL20" s="301"/>
+      <c r="AL20" s="216"/>
       <c r="AM20" s="57"/>
       <c r="AN20" s="57"/>
       <c r="AO20" s="57"/>
@@ -9530,14 +9530,14 @@
       <c r="DW20" s="60"/>
     </row>
     <row r="21" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="289"/>
+      <c r="A21" s="273"/>
       <c r="B21" s="205" t="s">
         <v>237</v>
       </c>
       <c r="C21" s="192" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="294"/>
+      <c r="D21" s="278"/>
       <c r="E21" s="206"/>
       <c r="F21" s="186"/>
       <c r="G21" s="186"/>
@@ -9571,7 +9571,7 @@
       <c r="AI21" s="57"/>
       <c r="AJ21" s="57"/>
       <c r="AK21" s="58"/>
-      <c r="AL21" s="301"/>
+      <c r="AL21" s="216"/>
       <c r="AM21" s="57"/>
       <c r="AN21" s="57"/>
       <c r="AO21" s="57"/>
@@ -9663,16 +9663,16 @@
       <c r="DW21" s="60"/>
     </row>
     <row r="22" spans="1:127" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="284" t="s">
+      <c r="A22" s="268" t="s">
         <v>228</v>
       </c>
-      <c r="B22" s="235" t="s">
+      <c r="B22" s="274" t="s">
         <v>226</v>
       </c>
       <c r="C22" s="192" t="s">
         <v>112</v>
       </c>
-      <c r="D22" s="294"/>
+      <c r="D22" s="278"/>
       <c r="E22" s="192" t="s">
         <v>134</v>
       </c>
@@ -9708,7 +9708,7 @@
       <c r="AI22" s="87"/>
       <c r="AJ22" s="87"/>
       <c r="AK22" s="88"/>
-      <c r="AL22" s="303"/>
+      <c r="AL22" s="218"/>
       <c r="AM22" s="87"/>
       <c r="AN22" s="87"/>
       <c r="AO22" s="87"/>
@@ -9800,12 +9800,12 @@
       <c r="DW22" s="90"/>
     </row>
     <row r="23" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A23" s="285"/>
-      <c r="B23" s="229"/>
+      <c r="A23" s="269"/>
+      <c r="B23" s="275"/>
       <c r="C23" s="192" t="s">
         <v>109</v>
       </c>
-      <c r="D23" s="294"/>
+      <c r="D23" s="278"/>
       <c r="E23" s="192"/>
       <c r="F23" s="186"/>
       <c r="G23" s="186"/>
@@ -9839,7 +9839,7 @@
       <c r="AI23" s="106"/>
       <c r="AJ23" s="106"/>
       <c r="AK23" s="107"/>
-      <c r="AL23" s="304"/>
+      <c r="AL23" s="219"/>
       <c r="AM23" s="106"/>
       <c r="AN23" s="106"/>
       <c r="AO23" s="106"/>
@@ -9931,14 +9931,14 @@
       <c r="DW23" s="109"/>
     </row>
     <row r="24" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A24" s="285"/>
+      <c r="A24" s="269"/>
       <c r="B24" s="192" t="s">
         <v>227</v>
       </c>
       <c r="C24" s="192" t="s">
         <v>115</v>
       </c>
-      <c r="D24" s="294"/>
+      <c r="D24" s="278"/>
       <c r="E24" s="192" t="s">
         <v>136</v>
       </c>
@@ -9974,7 +9974,7 @@
       <c r="AI24" s="87"/>
       <c r="AJ24" s="87"/>
       <c r="AK24" s="88"/>
-      <c r="AL24" s="303"/>
+      <c r="AL24" s="218"/>
       <c r="AM24" s="87"/>
       <c r="AN24" s="87"/>
       <c r="AO24" s="87"/>
@@ -10066,14 +10066,14 @@
       <c r="DW24" s="90"/>
     </row>
     <row r="25" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="286"/>
+      <c r="A25" s="270"/>
       <c r="B25" s="193" t="s">
         <v>117</v>
       </c>
       <c r="C25" s="193" t="s">
         <v>118</v>
       </c>
-      <c r="D25" s="294"/>
+      <c r="D25" s="278"/>
       <c r="E25" s="193"/>
       <c r="F25" s="186"/>
       <c r="G25" s="191"/>
@@ -10107,7 +10107,7 @@
       <c r="AI25" s="77"/>
       <c r="AJ25" s="77"/>
       <c r="AK25" s="78"/>
-      <c r="AL25" s="300"/>
+      <c r="AL25" s="215"/>
       <c r="AM25" s="77"/>
       <c r="AN25" s="77"/>
       <c r="AO25" s="77"/>
@@ -10199,7 +10199,7 @@
       <c r="DW25" s="80"/>
     </row>
     <row r="26" spans="1:127" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="227" t="s">
+      <c r="A26" s="263" t="s">
         <v>224</v>
       </c>
       <c r="B26" s="194" t="s">
@@ -10208,7 +10208,7 @@
       <c r="C26" s="194" t="s">
         <v>124</v>
       </c>
-      <c r="D26" s="294"/>
+      <c r="D26" s="278"/>
       <c r="E26" s="194" t="s">
         <v>140</v>
       </c>
@@ -10244,7 +10244,7 @@
       <c r="AI26" s="62"/>
       <c r="AJ26" s="62"/>
       <c r="AK26" s="63"/>
-      <c r="AL26" s="299"/>
+      <c r="AL26" s="214"/>
       <c r="AM26" s="62"/>
       <c r="AN26" s="62"/>
       <c r="AO26" s="62"/>
@@ -10336,14 +10336,14 @@
       <c r="DW26" s="65"/>
     </row>
     <row r="27" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A27" s="227"/>
+      <c r="A27" s="263"/>
       <c r="B27" s="205" t="s">
         <v>225</v>
       </c>
       <c r="C27" s="192" t="s">
         <v>128</v>
       </c>
-      <c r="D27" s="294"/>
+      <c r="D27" s="278"/>
       <c r="E27" s="192"/>
       <c r="F27" s="186"/>
       <c r="G27" s="186"/>
@@ -10377,7 +10377,7 @@
       <c r="AI27" s="57"/>
       <c r="AJ27" s="57"/>
       <c r="AK27" s="58"/>
-      <c r="AL27" s="301"/>
+      <c r="AL27" s="216"/>
       <c r="AM27" s="57"/>
       <c r="AN27" s="57"/>
       <c r="AO27" s="57"/>
@@ -10469,12 +10469,12 @@
       <c r="DW27" s="60"/>
     </row>
     <row r="28" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="228"/>
+      <c r="A28" s="264"/>
       <c r="B28" s="203" t="s">
         <v>92</v>
       </c>
       <c r="C28" s="203"/>
-      <c r="D28" s="295"/>
+      <c r="D28" s="279"/>
       <c r="E28" s="203" t="s">
         <v>143</v>
       </c>
@@ -10510,7 +10510,7 @@
       <c r="AI28" s="110"/>
       <c r="AJ28" s="110"/>
       <c r="AK28" s="111"/>
-      <c r="AL28" s="305"/>
+      <c r="AL28" s="220"/>
       <c r="AM28" s="110"/>
       <c r="AN28" s="110"/>
       <c r="AO28" s="110"/>
@@ -10603,11 +10603,82 @@
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="R8:V8"/>
-    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="CO9:CP9"/>
+    <mergeCell ref="CR9:CS9"/>
+    <mergeCell ref="CT9:CU9"/>
+    <mergeCell ref="CW9:CX9"/>
+    <mergeCell ref="CY9:CZ9"/>
+    <mergeCell ref="DN9:DO9"/>
+    <mergeCell ref="DQ9:DR9"/>
+    <mergeCell ref="DS9:DT9"/>
+    <mergeCell ref="DV9:DW9"/>
+    <mergeCell ref="DB9:DC9"/>
+    <mergeCell ref="DD9:DE9"/>
+    <mergeCell ref="DG9:DH9"/>
+    <mergeCell ref="DI9:DJ9"/>
+    <mergeCell ref="DL9:DM9"/>
+    <mergeCell ref="AL9:AM9"/>
+    <mergeCell ref="AO9:AP9"/>
+    <mergeCell ref="BS9:BT9"/>
+    <mergeCell ref="BU9:BV9"/>
+    <mergeCell ref="BX9:BY9"/>
+    <mergeCell ref="BD9:BE9"/>
+    <mergeCell ref="BF9:BG9"/>
+    <mergeCell ref="BI9:BJ9"/>
+    <mergeCell ref="BK9:BL9"/>
+    <mergeCell ref="BN9:BO9"/>
+    <mergeCell ref="BP9:BQ9"/>
+    <mergeCell ref="BU8:BY8"/>
+    <mergeCell ref="BZ8:CD8"/>
+    <mergeCell ref="CE8:CI8"/>
+    <mergeCell ref="CJ8:CN8"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="AY9:AZ9"/>
+    <mergeCell ref="BA9:BB9"/>
+    <mergeCell ref="BZ9:CA9"/>
+    <mergeCell ref="CC9:CD9"/>
+    <mergeCell ref="CE9:CF9"/>
+    <mergeCell ref="CH9:CI9"/>
+    <mergeCell ref="CJ9:CK9"/>
+    <mergeCell ref="CM9:CN9"/>
+    <mergeCell ref="AV8:AZ8"/>
+    <mergeCell ref="BA8:BE8"/>
+    <mergeCell ref="BF8:BJ8"/>
+    <mergeCell ref="BK8:BO8"/>
+    <mergeCell ref="BP8:BT8"/>
+    <mergeCell ref="DN8:DR8"/>
+    <mergeCell ref="DS8:DW8"/>
+    <mergeCell ref="CO8:CS8"/>
+    <mergeCell ref="CT8:CX8"/>
+    <mergeCell ref="CY8:DC8"/>
+    <mergeCell ref="DD8:DH8"/>
+    <mergeCell ref="DI8:DM8"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="D11:D28"/>
+    <mergeCell ref="AL8:AP8"/>
+    <mergeCell ref="AQ8:AU8"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="B8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="AQ9:AR9"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AJ9:AK9"/>
     <mergeCell ref="AB8:AF8"/>
     <mergeCell ref="AG8:AK8"/>
     <mergeCell ref="M9:N9"/>
@@ -10623,86 +10694,15 @@
     <mergeCell ref="W9:X9"/>
     <mergeCell ref="Z9:AA9"/>
     <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="W8:AA8"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="AL8:AP8"/>
-    <mergeCell ref="AQ8:AU8"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="B8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="AQ9:AR9"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="D11:D28"/>
-    <mergeCell ref="DN8:DR8"/>
-    <mergeCell ref="DS8:DW8"/>
-    <mergeCell ref="CO8:CS8"/>
-    <mergeCell ref="CT8:CX8"/>
-    <mergeCell ref="CY8:DC8"/>
-    <mergeCell ref="DD8:DH8"/>
-    <mergeCell ref="DI8:DM8"/>
-    <mergeCell ref="AV8:AZ8"/>
-    <mergeCell ref="BA8:BE8"/>
-    <mergeCell ref="BF8:BJ8"/>
-    <mergeCell ref="BK8:BO8"/>
-    <mergeCell ref="BP8:BT8"/>
-    <mergeCell ref="BU8:BY8"/>
-    <mergeCell ref="BZ8:CD8"/>
-    <mergeCell ref="CE8:CI8"/>
-    <mergeCell ref="CJ8:CN8"/>
-    <mergeCell ref="AV9:AW9"/>
-    <mergeCell ref="AY9:AZ9"/>
-    <mergeCell ref="BA9:BB9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AJ9:AK9"/>
-    <mergeCell ref="AL9:AM9"/>
-    <mergeCell ref="AO9:AP9"/>
-    <mergeCell ref="BS9:BT9"/>
-    <mergeCell ref="BU9:BV9"/>
-    <mergeCell ref="BX9:BY9"/>
-    <mergeCell ref="BZ9:CA9"/>
-    <mergeCell ref="BD9:BE9"/>
-    <mergeCell ref="BF9:BG9"/>
-    <mergeCell ref="BI9:BJ9"/>
-    <mergeCell ref="BK9:BL9"/>
-    <mergeCell ref="BN9:BO9"/>
-    <mergeCell ref="BP9:BQ9"/>
-    <mergeCell ref="DN9:DO9"/>
-    <mergeCell ref="DQ9:DR9"/>
-    <mergeCell ref="DS9:DT9"/>
-    <mergeCell ref="DV9:DW9"/>
-    <mergeCell ref="DB9:DC9"/>
-    <mergeCell ref="DD9:DE9"/>
-    <mergeCell ref="DG9:DH9"/>
-    <mergeCell ref="DI9:DJ9"/>
-    <mergeCell ref="DL9:DM9"/>
-    <mergeCell ref="CO9:CP9"/>
-    <mergeCell ref="CR9:CS9"/>
-    <mergeCell ref="CT9:CU9"/>
-    <mergeCell ref="CW9:CX9"/>
-    <mergeCell ref="CY9:CZ9"/>
-    <mergeCell ref="CC9:CD9"/>
-    <mergeCell ref="CE9:CF9"/>
-    <mergeCell ref="CH9:CI9"/>
-    <mergeCell ref="CJ9:CK9"/>
-    <mergeCell ref="CM9:CN9"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="H13:DW28">
@@ -10726,22 +10726,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:S12 U12:DW12">
-    <cfRule type="expression" dxfId="11" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="19" stopIfTrue="1">
       <formula>(IF((H$10=$G12),1,2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="20" stopIfTrue="1">
       <formula>(IF((H$10&lt;=$G12),(IF(($D11="기획")*(H$10&gt;=$F12),1,2)),3)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="21" stopIfTrue="1">
       <formula>(IF((H$10&lt;=$G12),(IF(($D11="디자인")*(H$10&gt;=$F12),1,2)),3)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="22" stopIfTrue="1">
       <formula>(IF((H$10&lt;=$G12),(IF(($D11="퍼블리싱")*(H$10&gt;=$F12),1,2)),3)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="23" stopIfTrue="1">
       <formula>(IF((H$10&lt;=$G12),(IF(($D11="개발")*(H$10&gt;=$F12),1,2)),3)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="24" stopIfTrue="1">
       <formula>(IF((H$10&lt;=$G12),(IF(($D11="고객")*(H$10&gt;=$F12),1,2)),3)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10766,22 +10766,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T12">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="1" stopIfTrue="1">
       <formula>(IF((T$10=$G12),1,2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
       <formula>(IF((T$10&lt;=$G12),(IF(($D12="기획")*(T$10&gt;=$F12),1,2)),3)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
       <formula>(IF((T$10&lt;=$G12),(IF(($D12="디자인")*(T$10&gt;=$F12),1,2)),3)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
       <formula>(IF((T$10&lt;=$G12),(IF(($D12="퍼블리싱")*(T$10&gt;=$F12),1,2)),3)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
       <formula>(IF((T$10&lt;=$G12),(IF(($D12="개발")*(T$10&gt;=$F12),1,2)),3)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
       <formula>(IF((T$10&lt;=$G12),(IF(($D12="고객")*(T$10&gt;=$F12),1,2)),3)=1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10826,19 +10826,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:127" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="232" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
-      <c r="E1" s="251"/>
-      <c r="F1" s="251"/>
-      <c r="G1" s="251"/>
-      <c r="H1" s="251"/>
-      <c r="I1" s="251"/>
-      <c r="J1" s="251"/>
-      <c r="K1" s="251"/>
+      <c r="B1" s="232"/>
+      <c r="C1" s="232"/>
+      <c r="D1" s="232"/>
+      <c r="E1" s="232"/>
+      <c r="F1" s="232"/>
+      <c r="G1" s="232"/>
+      <c r="H1" s="232"/>
+      <c r="I1" s="232"/>
+      <c r="J1" s="232"/>
+      <c r="K1" s="232"/>
       <c r="L1" s="50"/>
       <c r="M1" s="50"/>
       <c r="N1" s="50"/>
@@ -10960,8 +10960,8 @@
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="258"/>
-      <c r="C2" s="258"/>
+      <c r="B2" s="246"/>
+      <c r="C2" s="246"/>
       <c r="D2" s="7"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -11091,8 +11091,8 @@
       <c r="A3" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="B3" s="258"/>
-      <c r="C3" s="258"/>
+      <c r="B3" s="246"/>
+      <c r="C3" s="246"/>
       <c r="D3" s="7"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -11222,8 +11222,8 @@
       <c r="A4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="258"/>
-      <c r="C4" s="258"/>
+      <c r="B4" s="246"/>
+      <c r="C4" s="246"/>
       <c r="D4" s="7"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -11353,37 +11353,37 @@
       <c r="A5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="258"/>
-      <c r="C5" s="258"/>
+      <c r="B5" s="246"/>
+      <c r="C5" s="246"/>
       <c r="D5" s="7"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="252" t="s">
+      <c r="I5" s="242" t="s">
         <v>191</v>
       </c>
-      <c r="J5" s="252"/>
-      <c r="K5" s="255" t="s">
+      <c r="J5" s="242"/>
+      <c r="K5" s="305" t="s">
         <v>192</v>
       </c>
-      <c r="L5" s="255"/>
-      <c r="M5" s="256" t="s">
+      <c r="L5" s="305"/>
+      <c r="M5" s="302" t="s">
         <v>193</v>
       </c>
-      <c r="N5" s="256"/>
-      <c r="O5" s="253" t="s">
+      <c r="N5" s="302"/>
+      <c r="O5" s="303" t="s">
         <v>194</v>
       </c>
-      <c r="P5" s="253"/>
-      <c r="Q5" s="257" t="s">
+      <c r="P5" s="303"/>
+      <c r="Q5" s="304" t="s">
         <v>195</v>
       </c>
-      <c r="R5" s="257"/>
-      <c r="S5" s="254" t="s">
+      <c r="R5" s="304"/>
+      <c r="S5" s="244" t="s">
         <v>196</v>
       </c>
-      <c r="T5" s="254"/>
+      <c r="T5" s="244"/>
       <c r="U5" s="150"/>
       <c r="V5" s="150"/>
       <c r="W5" s="50"/>
@@ -11751,523 +11751,523 @@
       <c r="DW7" s="8"/>
     </row>
     <row r="8" spans="1:127" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="236" t="s">
+      <c r="A8" s="248" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="244" t="s">
+      <c r="B8" s="257" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="245"/>
-      <c r="D8" s="248" t="s">
+      <c r="C8" s="258"/>
+      <c r="D8" s="233" t="s">
         <v>186</v>
       </c>
-      <c r="E8" s="248" t="s">
+      <c r="E8" s="233" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="240" t="s">
+      <c r="F8" s="253" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="241"/>
-      <c r="H8" s="243" t="s">
+      <c r="G8" s="254"/>
+      <c r="H8" s="256" t="s">
         <v>162</v>
       </c>
-      <c r="I8" s="224"/>
-      <c r="J8" s="224"/>
-      <c r="K8" s="224"/>
-      <c r="L8" s="225"/>
-      <c r="M8" s="223" t="s">
+      <c r="I8" s="236"/>
+      <c r="J8" s="236"/>
+      <c r="K8" s="236"/>
+      <c r="L8" s="237"/>
+      <c r="M8" s="235" t="s">
         <v>163</v>
       </c>
-      <c r="N8" s="224"/>
-      <c r="O8" s="224"/>
-      <c r="P8" s="224"/>
-      <c r="Q8" s="225"/>
-      <c r="R8" s="223" t="s">
+      <c r="N8" s="236"/>
+      <c r="O8" s="236"/>
+      <c r="P8" s="236"/>
+      <c r="Q8" s="237"/>
+      <c r="R8" s="235" t="s">
         <v>164</v>
       </c>
-      <c r="S8" s="224"/>
-      <c r="T8" s="224"/>
-      <c r="U8" s="224"/>
-      <c r="V8" s="225"/>
-      <c r="W8" s="223" t="s">
+      <c r="S8" s="236"/>
+      <c r="T8" s="236"/>
+      <c r="U8" s="236"/>
+      <c r="V8" s="237"/>
+      <c r="W8" s="235" t="s">
         <v>165</v>
       </c>
-      <c r="X8" s="224"/>
-      <c r="Y8" s="224"/>
-      <c r="Z8" s="224"/>
-      <c r="AA8" s="225"/>
-      <c r="AB8" s="223" t="s">
+      <c r="X8" s="236"/>
+      <c r="Y8" s="236"/>
+      <c r="Z8" s="236"/>
+      <c r="AA8" s="237"/>
+      <c r="AB8" s="235" t="s">
         <v>166</v>
       </c>
-      <c r="AC8" s="224"/>
-      <c r="AD8" s="224"/>
-      <c r="AE8" s="224"/>
-      <c r="AF8" s="225"/>
-      <c r="AG8" s="223" t="s">
+      <c r="AC8" s="236"/>
+      <c r="AD8" s="236"/>
+      <c r="AE8" s="236"/>
+      <c r="AF8" s="237"/>
+      <c r="AG8" s="235" t="s">
         <v>167</v>
       </c>
-      <c r="AH8" s="224"/>
-      <c r="AI8" s="224"/>
-      <c r="AJ8" s="224"/>
-      <c r="AK8" s="225"/>
-      <c r="AL8" s="223" t="s">
+      <c r="AH8" s="236"/>
+      <c r="AI8" s="236"/>
+      <c r="AJ8" s="236"/>
+      <c r="AK8" s="237"/>
+      <c r="AL8" s="235" t="s">
         <v>168</v>
       </c>
-      <c r="AM8" s="224"/>
-      <c r="AN8" s="224"/>
-      <c r="AO8" s="224"/>
-      <c r="AP8" s="225"/>
-      <c r="AQ8" s="223" t="s">
+      <c r="AM8" s="236"/>
+      <c r="AN8" s="236"/>
+      <c r="AO8" s="236"/>
+      <c r="AP8" s="237"/>
+      <c r="AQ8" s="235" t="s">
         <v>169</v>
       </c>
-      <c r="AR8" s="224"/>
-      <c r="AS8" s="224"/>
-      <c r="AT8" s="224"/>
-      <c r="AU8" s="225"/>
-      <c r="AV8" s="223" t="s">
+      <c r="AR8" s="236"/>
+      <c r="AS8" s="236"/>
+      <c r="AT8" s="236"/>
+      <c r="AU8" s="237"/>
+      <c r="AV8" s="235" t="s">
         <v>170</v>
       </c>
-      <c r="AW8" s="224"/>
-      <c r="AX8" s="224"/>
-      <c r="AY8" s="224"/>
-      <c r="AZ8" s="225"/>
-      <c r="BA8" s="223" t="s">
+      <c r="AW8" s="236"/>
+      <c r="AX8" s="236"/>
+      <c r="AY8" s="236"/>
+      <c r="AZ8" s="237"/>
+      <c r="BA8" s="235" t="s">
         <v>171</v>
       </c>
-      <c r="BB8" s="224"/>
-      <c r="BC8" s="224"/>
-      <c r="BD8" s="224"/>
-      <c r="BE8" s="225"/>
-      <c r="BF8" s="223" t="s">
+      <c r="BB8" s="236"/>
+      <c r="BC8" s="236"/>
+      <c r="BD8" s="236"/>
+      <c r="BE8" s="237"/>
+      <c r="BF8" s="235" t="s">
         <v>172</v>
       </c>
-      <c r="BG8" s="224"/>
-      <c r="BH8" s="224"/>
-      <c r="BI8" s="224"/>
-      <c r="BJ8" s="225"/>
-      <c r="BK8" s="223" t="s">
+      <c r="BG8" s="236"/>
+      <c r="BH8" s="236"/>
+      <c r="BI8" s="236"/>
+      <c r="BJ8" s="237"/>
+      <c r="BK8" s="235" t="s">
         <v>173</v>
       </c>
-      <c r="BL8" s="224"/>
-      <c r="BM8" s="224"/>
-      <c r="BN8" s="224"/>
-      <c r="BO8" s="225"/>
-      <c r="BP8" s="223" t="s">
+      <c r="BL8" s="236"/>
+      <c r="BM8" s="236"/>
+      <c r="BN8" s="236"/>
+      <c r="BO8" s="237"/>
+      <c r="BP8" s="235" t="s">
         <v>174</v>
       </c>
-      <c r="BQ8" s="224"/>
-      <c r="BR8" s="224"/>
-      <c r="BS8" s="224"/>
-      <c r="BT8" s="225"/>
-      <c r="BU8" s="223" t="s">
+      <c r="BQ8" s="236"/>
+      <c r="BR8" s="236"/>
+      <c r="BS8" s="236"/>
+      <c r="BT8" s="237"/>
+      <c r="BU8" s="235" t="s">
         <v>175</v>
       </c>
-      <c r="BV8" s="224"/>
-      <c r="BW8" s="224"/>
-      <c r="BX8" s="224"/>
-      <c r="BY8" s="225"/>
-      <c r="BZ8" s="223" t="s">
+      <c r="BV8" s="236"/>
+      <c r="BW8" s="236"/>
+      <c r="BX8" s="236"/>
+      <c r="BY8" s="237"/>
+      <c r="BZ8" s="235" t="s">
         <v>176</v>
       </c>
-      <c r="CA8" s="224"/>
-      <c r="CB8" s="224"/>
-      <c r="CC8" s="224"/>
-      <c r="CD8" s="225"/>
-      <c r="CE8" s="223" t="s">
+      <c r="CA8" s="236"/>
+      <c r="CB8" s="236"/>
+      <c r="CC8" s="236"/>
+      <c r="CD8" s="237"/>
+      <c r="CE8" s="235" t="s">
         <v>177</v>
       </c>
-      <c r="CF8" s="224"/>
-      <c r="CG8" s="224"/>
-      <c r="CH8" s="224"/>
-      <c r="CI8" s="225"/>
-      <c r="CJ8" s="223" t="s">
+      <c r="CF8" s="236"/>
+      <c r="CG8" s="236"/>
+      <c r="CH8" s="236"/>
+      <c r="CI8" s="237"/>
+      <c r="CJ8" s="235" t="s">
         <v>178</v>
       </c>
-      <c r="CK8" s="224"/>
-      <c r="CL8" s="224"/>
-      <c r="CM8" s="224"/>
-      <c r="CN8" s="225"/>
-      <c r="CO8" s="223" t="s">
+      <c r="CK8" s="236"/>
+      <c r="CL8" s="236"/>
+      <c r="CM8" s="236"/>
+      <c r="CN8" s="237"/>
+      <c r="CO8" s="235" t="s">
         <v>179</v>
       </c>
-      <c r="CP8" s="224"/>
-      <c r="CQ8" s="224"/>
-      <c r="CR8" s="224"/>
-      <c r="CS8" s="225"/>
-      <c r="CT8" s="223" t="s">
+      <c r="CP8" s="236"/>
+      <c r="CQ8" s="236"/>
+      <c r="CR8" s="236"/>
+      <c r="CS8" s="237"/>
+      <c r="CT8" s="235" t="s">
         <v>180</v>
       </c>
-      <c r="CU8" s="224"/>
-      <c r="CV8" s="224"/>
-      <c r="CW8" s="224"/>
-      <c r="CX8" s="225"/>
-      <c r="CY8" s="223" t="s">
+      <c r="CU8" s="236"/>
+      <c r="CV8" s="236"/>
+      <c r="CW8" s="236"/>
+      <c r="CX8" s="237"/>
+      <c r="CY8" s="235" t="s">
         <v>181</v>
       </c>
-      <c r="CZ8" s="224"/>
-      <c r="DA8" s="224"/>
-      <c r="DB8" s="224"/>
-      <c r="DC8" s="225"/>
-      <c r="DD8" s="223" t="s">
+      <c r="CZ8" s="236"/>
+      <c r="DA8" s="236"/>
+      <c r="DB8" s="236"/>
+      <c r="DC8" s="237"/>
+      <c r="DD8" s="235" t="s">
         <v>182</v>
       </c>
-      <c r="DE8" s="224"/>
-      <c r="DF8" s="224"/>
-      <c r="DG8" s="224"/>
-      <c r="DH8" s="225"/>
-      <c r="DI8" s="223" t="s">
+      <c r="DE8" s="236"/>
+      <c r="DF8" s="236"/>
+      <c r="DG8" s="236"/>
+      <c r="DH8" s="237"/>
+      <c r="DI8" s="235" t="s">
         <v>183</v>
       </c>
-      <c r="DJ8" s="224"/>
-      <c r="DK8" s="224"/>
-      <c r="DL8" s="224"/>
-      <c r="DM8" s="225"/>
-      <c r="DN8" s="223" t="s">
+      <c r="DJ8" s="236"/>
+      <c r="DK8" s="236"/>
+      <c r="DL8" s="236"/>
+      <c r="DM8" s="237"/>
+      <c r="DN8" s="235" t="s">
         <v>184</v>
       </c>
-      <c r="DO8" s="224"/>
-      <c r="DP8" s="224"/>
-      <c r="DQ8" s="224"/>
-      <c r="DR8" s="225"/>
-      <c r="DS8" s="223" t="s">
+      <c r="DO8" s="236"/>
+      <c r="DP8" s="236"/>
+      <c r="DQ8" s="236"/>
+      <c r="DR8" s="237"/>
+      <c r="DS8" s="235" t="s">
         <v>185</v>
       </c>
-      <c r="DT8" s="224"/>
-      <c r="DU8" s="224"/>
-      <c r="DV8" s="224"/>
-      <c r="DW8" s="226"/>
+      <c r="DT8" s="236"/>
+      <c r="DU8" s="236"/>
+      <c r="DV8" s="236"/>
+      <c r="DW8" s="280"/>
     </row>
     <row r="9" spans="1:127" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="237"/>
-      <c r="B9" s="246"/>
-      <c r="C9" s="247"/>
-      <c r="D9" s="249"/>
-      <c r="E9" s="249"/>
+      <c r="A9" s="249"/>
+      <c r="B9" s="259"/>
+      <c r="C9" s="260"/>
+      <c r="D9" s="234"/>
+      <c r="E9" s="234"/>
       <c r="F9" s="12" t="s">
         <v>160</v>
       </c>
       <c r="G9" s="13">
         <v>41061</v>
       </c>
-      <c r="H9" s="242">
+      <c r="H9" s="255">
         <f>G9</f>
         <v>41061</v>
       </c>
-      <c r="I9" s="219"/>
+      <c r="I9" s="239"/>
       <c r="J9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="K9" s="220">
+      <c r="K9" s="240">
         <f>L10</f>
         <v>41065</v>
       </c>
-      <c r="L9" s="221"/>
-      <c r="M9" s="218">
+      <c r="L9" s="241"/>
+      <c r="M9" s="238">
         <f>M10</f>
         <v>41068</v>
       </c>
-      <c r="N9" s="219"/>
+      <c r="N9" s="239"/>
       <c r="O9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="P9" s="220">
+      <c r="P9" s="240">
         <f>Q10</f>
         <v>41072</v>
       </c>
-      <c r="Q9" s="221"/>
-      <c r="R9" s="218">
+      <c r="Q9" s="241"/>
+      <c r="R9" s="238">
         <f>R10</f>
         <v>41075</v>
       </c>
-      <c r="S9" s="219"/>
+      <c r="S9" s="239"/>
       <c r="T9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="U9" s="220">
+      <c r="U9" s="240">
         <f>V10</f>
         <v>41079</v>
       </c>
-      <c r="V9" s="221"/>
-      <c r="W9" s="218">
+      <c r="V9" s="241"/>
+      <c r="W9" s="238">
         <f>W10</f>
         <v>41082</v>
       </c>
-      <c r="X9" s="219"/>
+      <c r="X9" s="239"/>
       <c r="Y9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="Z9" s="220">
+      <c r="Z9" s="240">
         <f>AA10</f>
         <v>41086</v>
       </c>
-      <c r="AA9" s="221"/>
-      <c r="AB9" s="218">
+      <c r="AA9" s="241"/>
+      <c r="AB9" s="238">
         <f>AB10</f>
         <v>41089</v>
       </c>
-      <c r="AC9" s="219"/>
+      <c r="AC9" s="239"/>
       <c r="AD9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="AE9" s="220">
+      <c r="AE9" s="240">
         <f>AF10</f>
         <v>41093</v>
       </c>
-      <c r="AF9" s="221"/>
-      <c r="AG9" s="218">
+      <c r="AF9" s="241"/>
+      <c r="AG9" s="238">
         <f>AG10</f>
         <v>41096</v>
       </c>
-      <c r="AH9" s="219"/>
+      <c r="AH9" s="239"/>
       <c r="AI9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="AJ9" s="220">
+      <c r="AJ9" s="240">
         <f>AK10</f>
         <v>41100</v>
       </c>
-      <c r="AK9" s="221"/>
-      <c r="AL9" s="218">
+      <c r="AK9" s="241"/>
+      <c r="AL9" s="238">
         <f>AL10</f>
         <v>41103</v>
       </c>
-      <c r="AM9" s="219"/>
+      <c r="AM9" s="239"/>
       <c r="AN9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="AO9" s="220">
+      <c r="AO9" s="240">
         <f>AP10</f>
         <v>41107</v>
       </c>
-      <c r="AP9" s="221"/>
-      <c r="AQ9" s="218">
+      <c r="AP9" s="241"/>
+      <c r="AQ9" s="238">
         <f>AQ10</f>
         <v>41110</v>
       </c>
-      <c r="AR9" s="219"/>
+      <c r="AR9" s="239"/>
       <c r="AS9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="AT9" s="220">
+      <c r="AT9" s="240">
         <f>AU10</f>
         <v>41114</v>
       </c>
-      <c r="AU9" s="221"/>
-      <c r="AV9" s="218">
+      <c r="AU9" s="241"/>
+      <c r="AV9" s="238">
         <f>AV10</f>
         <v>41117</v>
       </c>
-      <c r="AW9" s="219"/>
+      <c r="AW9" s="239"/>
       <c r="AX9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="AY9" s="220">
+      <c r="AY9" s="240">
         <f>AZ10</f>
         <v>41121</v>
       </c>
-      <c r="AZ9" s="221"/>
-      <c r="BA9" s="218">
+      <c r="AZ9" s="241"/>
+      <c r="BA9" s="238">
         <f>BA10</f>
         <v>41124</v>
       </c>
-      <c r="BB9" s="219"/>
+      <c r="BB9" s="239"/>
       <c r="BC9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="BD9" s="220">
+      <c r="BD9" s="240">
         <f>BE10</f>
         <v>41128</v>
       </c>
-      <c r="BE9" s="221"/>
-      <c r="BF9" s="218">
+      <c r="BE9" s="241"/>
+      <c r="BF9" s="238">
         <f>BF10</f>
         <v>41131</v>
       </c>
-      <c r="BG9" s="219"/>
+      <c r="BG9" s="239"/>
       <c r="BH9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="BI9" s="220">
+      <c r="BI9" s="240">
         <f>BJ10</f>
         <v>41135</v>
       </c>
-      <c r="BJ9" s="221"/>
-      <c r="BK9" s="218">
+      <c r="BJ9" s="241"/>
+      <c r="BK9" s="238">
         <f>BK10</f>
         <v>41138</v>
       </c>
-      <c r="BL9" s="219"/>
+      <c r="BL9" s="239"/>
       <c r="BM9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="BN9" s="220">
+      <c r="BN9" s="240">
         <f>BO10</f>
         <v>41142</v>
       </c>
-      <c r="BO9" s="221"/>
-      <c r="BP9" s="218">
+      <c r="BO9" s="241"/>
+      <c r="BP9" s="238">
         <f>BP10</f>
         <v>41145</v>
       </c>
-      <c r="BQ9" s="219"/>
+      <c r="BQ9" s="239"/>
       <c r="BR9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="BS9" s="220">
+      <c r="BS9" s="240">
         <f>BT10</f>
         <v>41149</v>
       </c>
-      <c r="BT9" s="221"/>
-      <c r="BU9" s="218">
+      <c r="BT9" s="241"/>
+      <c r="BU9" s="238">
         <f>BU10</f>
         <v>41152</v>
       </c>
-      <c r="BV9" s="219"/>
+      <c r="BV9" s="239"/>
       <c r="BW9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="BX9" s="220">
+      <c r="BX9" s="240">
         <f>BY10</f>
         <v>41156</v>
       </c>
-      <c r="BY9" s="221"/>
-      <c r="BZ9" s="218">
+      <c r="BY9" s="241"/>
+      <c r="BZ9" s="238">
         <f>BZ10</f>
         <v>41159</v>
       </c>
-      <c r="CA9" s="219"/>
+      <c r="CA9" s="239"/>
       <c r="CB9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="CC9" s="220">
+      <c r="CC9" s="240">
         <f>CD10</f>
         <v>41163</v>
       </c>
-      <c r="CD9" s="221"/>
-      <c r="CE9" s="218">
+      <c r="CD9" s="241"/>
+      <c r="CE9" s="238">
         <f>CE10</f>
         <v>41166</v>
       </c>
-      <c r="CF9" s="219"/>
+      <c r="CF9" s="239"/>
       <c r="CG9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="CH9" s="220">
+      <c r="CH9" s="240">
         <f>CI10</f>
         <v>41170</v>
       </c>
-      <c r="CI9" s="221"/>
-      <c r="CJ9" s="218">
+      <c r="CI9" s="241"/>
+      <c r="CJ9" s="238">
         <f>CJ10</f>
         <v>41173</v>
       </c>
-      <c r="CK9" s="219"/>
+      <c r="CK9" s="239"/>
       <c r="CL9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="CM9" s="220">
+      <c r="CM9" s="240">
         <f>CN10</f>
         <v>41177</v>
       </c>
-      <c r="CN9" s="221"/>
-      <c r="CO9" s="218">
+      <c r="CN9" s="241"/>
+      <c r="CO9" s="238">
         <f>CO10</f>
         <v>41180</v>
       </c>
-      <c r="CP9" s="219"/>
+      <c r="CP9" s="239"/>
       <c r="CQ9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="CR9" s="220">
+      <c r="CR9" s="240">
         <f>CS10</f>
         <v>41184</v>
       </c>
-      <c r="CS9" s="221"/>
-      <c r="CT9" s="218">
+      <c r="CS9" s="241"/>
+      <c r="CT9" s="238">
         <f>CT10</f>
         <v>41187</v>
       </c>
-      <c r="CU9" s="219"/>
+      <c r="CU9" s="239"/>
       <c r="CV9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="CW9" s="220">
+      <c r="CW9" s="240">
         <f>CX10</f>
         <v>41191</v>
       </c>
-      <c r="CX9" s="221"/>
-      <c r="CY9" s="218">
+      <c r="CX9" s="241"/>
+      <c r="CY9" s="238">
         <f>CY10</f>
         <v>41194</v>
       </c>
-      <c r="CZ9" s="219"/>
+      <c r="CZ9" s="239"/>
       <c r="DA9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="DB9" s="220">
+      <c r="DB9" s="240">
         <f>DC10</f>
         <v>41198</v>
       </c>
-      <c r="DC9" s="221"/>
-      <c r="DD9" s="218">
+      <c r="DC9" s="241"/>
+      <c r="DD9" s="238">
         <f>DD10</f>
         <v>41201</v>
       </c>
-      <c r="DE9" s="219"/>
+      <c r="DE9" s="239"/>
       <c r="DF9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="DG9" s="220">
+      <c r="DG9" s="240">
         <f>DH10</f>
         <v>41205</v>
       </c>
-      <c r="DH9" s="221"/>
-      <c r="DI9" s="218">
+      <c r="DH9" s="241"/>
+      <c r="DI9" s="238">
         <f>DI10</f>
         <v>41208</v>
       </c>
-      <c r="DJ9" s="219"/>
+      <c r="DJ9" s="239"/>
       <c r="DK9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="DL9" s="220">
+      <c r="DL9" s="240">
         <f>DM10</f>
         <v>41212</v>
       </c>
-      <c r="DM9" s="221"/>
-      <c r="DN9" s="218">
+      <c r="DM9" s="241"/>
+      <c r="DN9" s="238">
         <f>DN10</f>
         <v>41215</v>
       </c>
-      <c r="DO9" s="219"/>
+      <c r="DO9" s="239"/>
       <c r="DP9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="DQ9" s="220">
+      <c r="DQ9" s="240">
         <f>DR10</f>
         <v>41219</v>
       </c>
-      <c r="DR9" s="221"/>
-      <c r="DS9" s="218">
+      <c r="DR9" s="241"/>
+      <c r="DS9" s="238">
         <f>DS10</f>
         <v>41222</v>
       </c>
-      <c r="DT9" s="219"/>
+      <c r="DT9" s="239"/>
       <c r="DU9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="DV9" s="220">
+      <c r="DV9" s="240">
         <f>DW10</f>
         <v>41226</v>
       </c>
-      <c r="DW9" s="222"/>
+      <c r="DW9" s="281"/>
     </row>
     <row r="10" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="238"/>
-      <c r="B10" s="246"/>
-      <c r="C10" s="247"/>
-      <c r="D10" s="249"/>
-      <c r="E10" s="249"/>
+      <c r="A10" s="250"/>
+      <c r="B10" s="259"/>
+      <c r="C10" s="260"/>
+      <c r="D10" s="234"/>
+      <c r="E10" s="234"/>
       <c r="F10" s="26" t="s">
         <v>48</v>
       </c>
@@ -12756,10 +12756,10 @@
       </c>
     </row>
     <row r="11" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A11" s="260" t="s">
+      <c r="A11" s="297" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="261" t="s">
+      <c r="B11" s="298" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -12897,8 +12897,8 @@
       <c r="DW11" s="55"/>
     </row>
     <row r="12" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A12" s="232"/>
-      <c r="B12" s="262"/>
+      <c r="A12" s="267"/>
+      <c r="B12" s="299"/>
       <c r="C12" s="14" t="s">
         <v>2</v>
       </c>
@@ -13034,8 +13034,8 @@
       <c r="DW12" s="60"/>
     </row>
     <row r="13" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A13" s="232"/>
-      <c r="B13" s="263"/>
+      <c r="A13" s="267"/>
+      <c r="B13" s="300"/>
       <c r="C13" s="20" t="s">
         <v>3</v>
       </c>
@@ -13171,8 +13171,8 @@
       <c r="DW13" s="65"/>
     </row>
     <row r="14" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A14" s="250"/>
-      <c r="B14" s="264" t="s">
+      <c r="A14" s="261"/>
+      <c r="B14" s="301" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="34" t="s">
@@ -13310,8 +13310,8 @@
       <c r="DW14" s="70"/>
     </row>
     <row r="15" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A15" s="250"/>
-      <c r="B15" s="263"/>
+      <c r="A15" s="261"/>
+      <c r="B15" s="300"/>
       <c r="C15" s="20" t="s">
         <v>20</v>
       </c>
@@ -13447,8 +13447,8 @@
       <c r="DW15" s="65"/>
     </row>
     <row r="16" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A16" s="250"/>
-      <c r="B16" s="264" t="s">
+      <c r="A16" s="261"/>
+      <c r="B16" s="301" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="34" t="s">
@@ -13588,8 +13588,8 @@
       <c r="DW16" s="70"/>
     </row>
     <row r="17" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A17" s="250"/>
-      <c r="B17" s="262"/>
+      <c r="A17" s="261"/>
+      <c r="B17" s="299"/>
       <c r="C17" s="18" t="s">
         <v>109</v>
       </c>
@@ -13727,8 +13727,8 @@
       <c r="DW17" s="75"/>
     </row>
     <row r="18" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A18" s="250"/>
-      <c r="B18" s="262"/>
+      <c r="A18" s="261"/>
+      <c r="B18" s="299"/>
       <c r="C18" s="18" t="s">
         <v>22</v>
       </c>
@@ -13864,8 +13864,8 @@
       <c r="DW18" s="75"/>
     </row>
     <row r="19" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A19" s="250"/>
-      <c r="B19" s="263"/>
+      <c r="A19" s="261"/>
+      <c r="B19" s="300"/>
       <c r="C19" s="20" t="s">
         <v>23</v>
       </c>
@@ -14001,8 +14001,8 @@
       <c r="DW19" s="65"/>
     </row>
     <row r="20" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A20" s="250"/>
-      <c r="B20" s="264" t="s">
+      <c r="A20" s="261"/>
+      <c r="B20" s="301" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="34" t="s">
@@ -14142,8 +14142,8 @@
       <c r="DW20" s="70"/>
     </row>
     <row r="21" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A21" s="250"/>
-      <c r="B21" s="262"/>
+      <c r="A21" s="261"/>
+      <c r="B21" s="299"/>
       <c r="C21" s="18" t="s">
         <v>26</v>
       </c>
@@ -14281,8 +14281,8 @@
       <c r="DW21" s="75"/>
     </row>
     <row r="22" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A22" s="250"/>
-      <c r="B22" s="263"/>
+      <c r="A22" s="261"/>
+      <c r="B22" s="300"/>
       <c r="C22" s="20" t="s">
         <v>27</v>
       </c>
@@ -14420,7 +14420,7 @@
       <c r="DW22" s="65"/>
     </row>
     <row r="23" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="233"/>
+      <c r="A23" s="262"/>
       <c r="B23" s="36" t="s">
         <v>28</v>
       </c>
@@ -14559,10 +14559,10 @@
       <c r="DW23" s="80"/>
     </row>
     <row r="24" spans="1:127" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="231" t="s">
+      <c r="A24" s="288" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="265" t="s">
+      <c r="B24" s="284" t="s">
         <v>144</v>
       </c>
       <c r="C24" s="32" t="s">
@@ -14571,7 +14571,7 @@
       <c r="D24" s="119" t="s">
         <v>188</v>
       </c>
-      <c r="E24" s="265" t="s">
+      <c r="E24" s="284" t="s">
         <v>152</v>
       </c>
       <c r="F24" s="138">
@@ -14702,15 +14702,15 @@
       <c r="DW24" s="85"/>
     </row>
     <row r="25" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A25" s="232"/>
-      <c r="B25" s="266"/>
+      <c r="A25" s="267"/>
+      <c r="B25" s="287"/>
       <c r="C25" s="14" t="s">
         <v>146</v>
       </c>
       <c r="D25" s="120" t="s">
         <v>188</v>
       </c>
-      <c r="E25" s="266"/>
+      <c r="E25" s="287"/>
       <c r="F25" s="16">
         <v>41061</v>
       </c>
@@ -14839,15 +14839,15 @@
       <c r="DW25" s="60"/>
     </row>
     <row r="26" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A26" s="232"/>
-      <c r="B26" s="267"/>
+      <c r="A26" s="267"/>
+      <c r="B26" s="285"/>
       <c r="C26" s="20" t="s">
         <v>147</v>
       </c>
       <c r="D26" s="115" t="s">
         <v>188</v>
       </c>
-      <c r="E26" s="267"/>
+      <c r="E26" s="285"/>
       <c r="F26" s="127">
         <v>41061</v>
       </c>
@@ -14976,8 +14976,8 @@
       <c r="DW26" s="65"/>
     </row>
     <row r="27" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A27" s="232"/>
-      <c r="B27" s="266" t="s">
+      <c r="A27" s="267"/>
+      <c r="B27" s="287" t="s">
         <v>148</v>
       </c>
       <c r="C27" s="24" t="s">
@@ -14986,7 +14986,7 @@
       <c r="D27" s="121" t="s">
         <v>188</v>
       </c>
-      <c r="E27" s="266" t="s">
+      <c r="E27" s="287" t="s">
         <v>153</v>
       </c>
       <c r="F27" s="140">
@@ -15117,15 +15117,15 @@
       <c r="DW27" s="90"/>
     </row>
     <row r="28" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A28" s="232"/>
-      <c r="B28" s="266"/>
+      <c r="A28" s="267"/>
+      <c r="B28" s="287"/>
       <c r="C28" s="14" t="s">
         <v>150</v>
       </c>
       <c r="D28" s="120" t="s">
         <v>188</v>
       </c>
-      <c r="E28" s="266"/>
+      <c r="E28" s="287"/>
       <c r="F28" s="16">
         <v>41061</v>
       </c>
@@ -15254,15 +15254,15 @@
       <c r="DW28" s="60"/>
     </row>
     <row r="29" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A29" s="232"/>
-      <c r="B29" s="266"/>
+      <c r="A29" s="267"/>
+      <c r="B29" s="287"/>
       <c r="C29" s="14" t="s">
         <v>151</v>
       </c>
       <c r="D29" s="120" t="s">
         <v>188</v>
       </c>
-      <c r="E29" s="266"/>
+      <c r="E29" s="287"/>
       <c r="F29" s="16">
         <v>41061</v>
       </c>
@@ -15391,15 +15391,15 @@
       <c r="DW29" s="60"/>
     </row>
     <row r="30" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="233"/>
-      <c r="B30" s="268"/>
+      <c r="A30" s="262"/>
+      <c r="B30" s="290"/>
       <c r="C30" s="30" t="s">
         <v>109</v>
       </c>
       <c r="D30" s="122" t="s">
         <v>188</v>
       </c>
-      <c r="E30" s="268"/>
+      <c r="E30" s="290"/>
       <c r="F30" s="142">
         <v>41061</v>
       </c>
@@ -15528,10 +15528,10 @@
       <c r="DW30" s="95"/>
     </row>
     <row r="31" spans="1:127" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="231" t="s">
+      <c r="A31" s="288" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="265" t="s">
+      <c r="B31" s="284" t="s">
         <v>55</v>
       </c>
       <c r="C31" s="32" t="s">
@@ -15669,8 +15669,8 @@
       <c r="DW31" s="85"/>
     </row>
     <row r="32" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A32" s="232"/>
-      <c r="B32" s="266"/>
+      <c r="A32" s="267"/>
+      <c r="B32" s="287"/>
       <c r="C32" s="14" t="s">
         <v>57</v>
       </c>
@@ -15806,8 +15806,8 @@
       <c r="DW32" s="60"/>
     </row>
     <row r="33" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A33" s="232"/>
-      <c r="B33" s="269" t="s">
+      <c r="A33" s="267"/>
+      <c r="B33" s="286" t="s">
         <v>58</v>
       </c>
       <c r="C33" s="22" t="s">
@@ -15947,8 +15947,8 @@
       <c r="DW33" s="100"/>
     </row>
     <row r="34" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A34" s="232"/>
-      <c r="B34" s="266"/>
+      <c r="A34" s="267"/>
+      <c r="B34" s="287"/>
       <c r="C34" s="14" t="s">
         <v>60</v>
       </c>
@@ -16086,8 +16086,8 @@
       <c r="DW34" s="60"/>
     </row>
     <row r="35" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A35" s="232"/>
-      <c r="B35" s="266"/>
+      <c r="A35" s="267"/>
+      <c r="B35" s="287"/>
       <c r="C35" s="14" t="s">
         <v>61</v>
       </c>
@@ -16225,8 +16225,8 @@
       <c r="DW35" s="60"/>
     </row>
     <row r="36" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A36" s="232"/>
-      <c r="B36" s="267"/>
+      <c r="A36" s="267"/>
+      <c r="B36" s="285"/>
       <c r="C36" s="20" t="s">
         <v>62</v>
       </c>
@@ -16364,7 +16364,7 @@
       <c r="DW36" s="65"/>
     </row>
     <row r="37" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A37" s="232"/>
+      <c r="A37" s="267"/>
       <c r="B37" s="39" t="s">
         <v>63</v>
       </c>
@@ -16505,8 +16505,8 @@
       <c r="DW37" s="105"/>
     </row>
     <row r="38" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A38" s="232"/>
-      <c r="B38" s="266" t="s">
+      <c r="A38" s="267"/>
+      <c r="B38" s="287" t="s">
         <v>65</v>
       </c>
       <c r="C38" s="24" t="s">
@@ -16646,8 +16646,8 @@
       <c r="DW38" s="90"/>
     </row>
     <row r="39" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A39" s="232"/>
-      <c r="B39" s="266"/>
+      <c r="A39" s="267"/>
+      <c r="B39" s="287"/>
       <c r="C39" s="14" t="s">
         <v>67</v>
       </c>
@@ -16785,8 +16785,8 @@
       <c r="DW39" s="60"/>
     </row>
     <row r="40" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A40" s="232"/>
-      <c r="B40" s="266"/>
+      <c r="A40" s="267"/>
+      <c r="B40" s="287"/>
       <c r="C40" s="14" t="s">
         <v>65</v>
       </c>
@@ -16924,8 +16924,8 @@
       <c r="DW40" s="60"/>
     </row>
     <row r="41" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A41" s="232"/>
-      <c r="B41" s="267"/>
+      <c r="A41" s="267"/>
+      <c r="B41" s="285"/>
       <c r="C41" s="20" t="s">
         <v>68</v>
       </c>
@@ -17061,8 +17061,8 @@
       <c r="DW41" s="65"/>
     </row>
     <row r="42" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A42" s="232"/>
-      <c r="B42" s="269" t="s">
+      <c r="A42" s="267"/>
+      <c r="B42" s="286" t="s">
         <v>69</v>
       </c>
       <c r="C42" s="22" t="s">
@@ -17202,8 +17202,8 @@
       <c r="DW42" s="90"/>
     </row>
     <row r="43" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A43" s="232"/>
-      <c r="B43" s="267"/>
+      <c r="A43" s="267"/>
+      <c r="B43" s="285"/>
       <c r="C43" s="20" t="s">
         <v>68</v>
       </c>
@@ -17339,7 +17339,7 @@
       <c r="DW43" s="65"/>
     </row>
     <row r="44" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A44" s="232"/>
+      <c r="A44" s="267"/>
       <c r="B44" s="41" t="s">
         <v>71</v>
       </c>
@@ -17480,8 +17480,8 @@
       <c r="DW44" s="109"/>
     </row>
     <row r="45" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A45" s="232"/>
-      <c r="B45" s="269" t="s">
+      <c r="A45" s="267"/>
+      <c r="B45" s="286" t="s">
         <v>73</v>
       </c>
       <c r="C45" s="22" t="s">
@@ -17619,8 +17619,8 @@
       <c r="DW45" s="100"/>
     </row>
     <row r="46" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A46" s="232"/>
-      <c r="B46" s="266"/>
+      <c r="A46" s="267"/>
+      <c r="B46" s="287"/>
       <c r="C46" s="14" t="s">
         <v>75</v>
       </c>
@@ -17758,8 +17758,8 @@
       <c r="DW46" s="60"/>
     </row>
     <row r="47" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A47" s="232"/>
-      <c r="B47" s="266"/>
+      <c r="A47" s="267"/>
+      <c r="B47" s="287"/>
       <c r="C47" s="14" t="s">
         <v>154</v>
       </c>
@@ -17897,8 +17897,8 @@
       <c r="DW47" s="60"/>
     </row>
     <row r="48" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A48" s="232"/>
-      <c r="B48" s="266"/>
+      <c r="A48" s="267"/>
+      <c r="B48" s="287"/>
       <c r="C48" s="14" t="s">
         <v>155</v>
       </c>
@@ -18036,8 +18036,8 @@
       <c r="DW48" s="60"/>
     </row>
     <row r="49" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A49" s="232"/>
-      <c r="B49" s="266"/>
+      <c r="A49" s="267"/>
+      <c r="B49" s="287"/>
       <c r="C49" s="14" t="s">
         <v>76</v>
       </c>
@@ -18173,8 +18173,8 @@
       <c r="DW49" s="60"/>
     </row>
     <row r="50" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A50" s="232"/>
-      <c r="B50" s="266"/>
+      <c r="A50" s="267"/>
+      <c r="B50" s="287"/>
       <c r="C50" s="14" t="s">
         <v>109</v>
       </c>
@@ -18310,8 +18310,8 @@
       <c r="DW50" s="60"/>
     </row>
     <row r="51" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A51" s="232"/>
-      <c r="B51" s="266"/>
+      <c r="A51" s="267"/>
+      <c r="B51" s="287"/>
       <c r="C51" s="14" t="s">
         <v>68</v>
       </c>
@@ -18447,8 +18447,8 @@
       <c r="DW51" s="60"/>
     </row>
     <row r="52" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A52" s="232"/>
-      <c r="B52" s="267"/>
+      <c r="A52" s="267"/>
+      <c r="B52" s="285"/>
       <c r="C52" s="20" t="s">
         <v>77</v>
       </c>
@@ -18584,8 +18584,8 @@
       <c r="DW52" s="65"/>
     </row>
     <row r="53" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A53" s="232"/>
-      <c r="B53" s="269" t="s">
+      <c r="A53" s="267"/>
+      <c r="B53" s="286" t="s">
         <v>78</v>
       </c>
       <c r="C53" s="22" t="s">
@@ -18725,8 +18725,8 @@
       <c r="DW53" s="100"/>
     </row>
     <row r="54" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A54" s="232"/>
-      <c r="B54" s="266"/>
+      <c r="A54" s="267"/>
+      <c r="B54" s="287"/>
       <c r="C54" s="14" t="s">
         <v>80</v>
       </c>
@@ -18862,8 +18862,8 @@
       <c r="DW54" s="60"/>
     </row>
     <row r="55" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A55" s="232"/>
-      <c r="B55" s="267"/>
+      <c r="A55" s="267"/>
+      <c r="B55" s="285"/>
       <c r="C55" s="20" t="s">
         <v>68</v>
       </c>
@@ -18999,8 +18999,8 @@
       <c r="DW55" s="65"/>
     </row>
     <row r="56" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A56" s="232"/>
-      <c r="B56" s="269" t="s">
+      <c r="A56" s="267"/>
+      <c r="B56" s="286" t="s">
         <v>81</v>
       </c>
       <c r="C56" s="22" t="s">
@@ -19140,8 +19140,8 @@
       <c r="DW56" s="100"/>
     </row>
     <row r="57" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A57" s="232"/>
-      <c r="B57" s="267"/>
+      <c r="A57" s="267"/>
+      <c r="B57" s="285"/>
       <c r="C57" s="20" t="s">
         <v>80</v>
       </c>
@@ -19277,7 +19277,7 @@
       <c r="DW57" s="65"/>
     </row>
     <row r="58" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A58" s="232"/>
+      <c r="A58" s="267"/>
       <c r="B58" s="39" t="s">
         <v>83</v>
       </c>
@@ -19418,8 +19418,8 @@
       <c r="DW58" s="105"/>
     </row>
     <row r="59" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A59" s="232"/>
-      <c r="B59" s="269" t="s">
+      <c r="A59" s="267"/>
+      <c r="B59" s="286" t="s">
         <v>85</v>
       </c>
       <c r="C59" s="22" t="s">
@@ -19428,7 +19428,7 @@
       <c r="D59" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="E59" s="275" t="s">
+      <c r="E59" s="295" t="s">
         <v>107</v>
       </c>
       <c r="F59" s="130">
@@ -19559,15 +19559,15 @@
       <c r="DW59" s="100"/>
     </row>
     <row r="60" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A60" s="232"/>
-      <c r="B60" s="266"/>
+      <c r="A60" s="267"/>
+      <c r="B60" s="287"/>
       <c r="C60" s="14" t="s">
         <v>87</v>
       </c>
       <c r="D60" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E60" s="273"/>
+      <c r="E60" s="293"/>
       <c r="F60" s="16">
         <v>41061</v>
       </c>
@@ -19696,15 +19696,15 @@
       <c r="DW60" s="60"/>
     </row>
     <row r="61" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A61" s="232"/>
-      <c r="B61" s="266"/>
+      <c r="A61" s="267"/>
+      <c r="B61" s="287"/>
       <c r="C61" s="14" t="s">
         <v>88</v>
       </c>
       <c r="D61" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E61" s="273"/>
+      <c r="E61" s="293"/>
       <c r="F61" s="16">
         <v>41061</v>
       </c>
@@ -19833,15 +19833,15 @@
       <c r="DW61" s="60"/>
     </row>
     <row r="62" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A62" s="232"/>
-      <c r="B62" s="266"/>
+      <c r="A62" s="267"/>
+      <c r="B62" s="287"/>
       <c r="C62" s="14" t="s">
         <v>89</v>
       </c>
       <c r="D62" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E62" s="273"/>
+      <c r="E62" s="293"/>
       <c r="F62" s="16">
         <v>41061</v>
       </c>
@@ -19970,15 +19970,15 @@
       <c r="DW62" s="60"/>
     </row>
     <row r="63" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A63" s="232"/>
-      <c r="B63" s="267"/>
+      <c r="A63" s="267"/>
+      <c r="B63" s="285"/>
       <c r="C63" s="20" t="s">
         <v>90</v>
       </c>
       <c r="D63" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="E63" s="276"/>
+      <c r="E63" s="296"/>
       <c r="F63" s="127">
         <v>41061</v>
       </c>
@@ -20107,8 +20107,8 @@
       <c r="DW63" s="65"/>
     </row>
     <row r="64" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A64" s="232"/>
-      <c r="B64" s="266" t="s">
+      <c r="A64" s="267"/>
+      <c r="B64" s="287" t="s">
         <v>91</v>
       </c>
       <c r="C64" s="24" t="s">
@@ -20117,7 +20117,7 @@
       <c r="D64" s="121" t="s">
         <v>188</v>
       </c>
-      <c r="E64" s="266" t="s">
+      <c r="E64" s="287" t="s">
         <v>108</v>
       </c>
       <c r="F64" s="140">
@@ -20248,15 +20248,15 @@
       <c r="DW64" s="90"/>
     </row>
     <row r="65" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="233"/>
-      <c r="B65" s="268"/>
+      <c r="A65" s="262"/>
+      <c r="B65" s="290"/>
       <c r="C65" s="30" t="s">
         <v>93</v>
       </c>
       <c r="D65" s="122" t="s">
         <v>188</v>
       </c>
-      <c r="E65" s="268"/>
+      <c r="E65" s="290"/>
       <c r="F65" s="142">
         <v>41061</v>
       </c>
@@ -20385,10 +20385,10 @@
       <c r="DW65" s="95"/>
     </row>
     <row r="66" spans="1:127" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="270" t="s">
+      <c r="A66" s="291" t="s">
         <v>30</v>
       </c>
-      <c r="B66" s="265" t="s">
+      <c r="B66" s="284" t="s">
         <v>31</v>
       </c>
       <c r="C66" s="32" t="s">
@@ -20397,7 +20397,7 @@
       <c r="D66" s="119" t="s">
         <v>189</v>
       </c>
-      <c r="E66" s="265" t="s">
+      <c r="E66" s="284" t="s">
         <v>130</v>
       </c>
       <c r="F66" s="138">
@@ -20528,15 +20528,15 @@
       <c r="DW66" s="85"/>
     </row>
     <row r="67" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A67" s="271"/>
-      <c r="B67" s="266"/>
+      <c r="A67" s="282"/>
+      <c r="B67" s="287"/>
       <c r="C67" s="14" t="s">
         <v>33</v>
       </c>
       <c r="D67" s="120" t="s">
         <v>189</v>
       </c>
-      <c r="E67" s="266"/>
+      <c r="E67" s="287"/>
       <c r="F67" s="16">
         <v>41061</v>
       </c>
@@ -20665,15 +20665,15 @@
       <c r="DW67" s="60"/>
     </row>
     <row r="68" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A68" s="271"/>
-      <c r="B68" s="266"/>
+      <c r="A68" s="282"/>
+      <c r="B68" s="287"/>
       <c r="C68" s="14" t="s">
         <v>34</v>
       </c>
       <c r="D68" s="120" t="s">
         <v>189</v>
       </c>
-      <c r="E68" s="266"/>
+      <c r="E68" s="287"/>
       <c r="F68" s="16">
         <v>41061</v>
       </c>
@@ -20802,15 +20802,15 @@
       <c r="DW68" s="60"/>
     </row>
     <row r="69" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A69" s="271"/>
-      <c r="B69" s="267"/>
+      <c r="A69" s="282"/>
+      <c r="B69" s="285"/>
       <c r="C69" s="20" t="s">
         <v>35</v>
       </c>
       <c r="D69" s="115" t="s">
         <v>189</v>
       </c>
-      <c r="E69" s="267"/>
+      <c r="E69" s="285"/>
       <c r="F69" s="127">
         <v>41061</v>
       </c>
@@ -20939,8 +20939,8 @@
       <c r="DW69" s="65"/>
     </row>
     <row r="70" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A70" s="271"/>
-      <c r="B70" s="269" t="s">
+      <c r="A70" s="282"/>
+      <c r="B70" s="286" t="s">
         <v>36</v>
       </c>
       <c r="C70" s="22" t="s">
@@ -20949,7 +20949,7 @@
       <c r="D70" s="123" t="s">
         <v>190</v>
       </c>
-      <c r="E70" s="269" t="s">
+      <c r="E70" s="286" t="s">
         <v>131</v>
       </c>
       <c r="F70" s="130">
@@ -21080,15 +21080,15 @@
       <c r="DW70" s="100"/>
     </row>
     <row r="71" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A71" s="271"/>
-      <c r="B71" s="266"/>
+      <c r="A71" s="282"/>
+      <c r="B71" s="287"/>
       <c r="C71" s="14" t="s">
         <v>38</v>
       </c>
       <c r="D71" s="120" t="s">
         <v>190</v>
       </c>
-      <c r="E71" s="266"/>
+      <c r="E71" s="287"/>
       <c r="F71" s="16">
         <v>41061</v>
       </c>
@@ -21217,15 +21217,15 @@
       <c r="DW71" s="60"/>
     </row>
     <row r="72" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A72" s="271"/>
-      <c r="B72" s="267"/>
+      <c r="A72" s="282"/>
+      <c r="B72" s="285"/>
       <c r="C72" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D72" s="115" t="s">
         <v>190</v>
       </c>
-      <c r="E72" s="267"/>
+      <c r="E72" s="285"/>
       <c r="F72" s="127">
         <v>41061</v>
       </c>
@@ -21354,8 +21354,8 @@
       <c r="DW72" s="65"/>
     </row>
     <row r="73" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A73" s="271"/>
-      <c r="B73" s="266" t="s">
+      <c r="A73" s="282"/>
+      <c r="B73" s="287" t="s">
         <v>40</v>
       </c>
       <c r="C73" s="24" t="s">
@@ -21364,7 +21364,7 @@
       <c r="D73" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="E73" s="273" t="s">
+      <c r="E73" s="293" t="s">
         <v>132</v>
       </c>
       <c r="F73" s="140">
@@ -21495,15 +21495,15 @@
       <c r="DW73" s="90"/>
     </row>
     <row r="74" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A74" s="271"/>
-      <c r="B74" s="266"/>
+      <c r="A74" s="282"/>
+      <c r="B74" s="287"/>
       <c r="C74" s="14" t="s">
         <v>42</v>
       </c>
       <c r="D74" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E74" s="273"/>
+      <c r="E74" s="293"/>
       <c r="F74" s="16">
         <v>41061</v>
       </c>
@@ -21632,15 +21632,15 @@
       <c r="DW74" s="60"/>
     </row>
     <row r="75" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A75" s="271"/>
-      <c r="B75" s="266"/>
+      <c r="A75" s="282"/>
+      <c r="B75" s="287"/>
       <c r="C75" s="14" t="s">
         <v>43</v>
       </c>
       <c r="D75" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E75" s="273"/>
+      <c r="E75" s="293"/>
       <c r="F75" s="16">
         <v>41061</v>
       </c>
@@ -21769,15 +21769,15 @@
       <c r="DW75" s="60"/>
     </row>
     <row r="76" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A76" s="271"/>
-      <c r="B76" s="266"/>
+      <c r="A76" s="282"/>
+      <c r="B76" s="287"/>
       <c r="C76" s="14" t="s">
         <v>44</v>
       </c>
       <c r="D76" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E76" s="273"/>
+      <c r="E76" s="293"/>
       <c r="F76" s="16">
         <v>41061</v>
       </c>
@@ -21906,15 +21906,15 @@
       <c r="DW76" s="60"/>
     </row>
     <row r="77" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="272"/>
-      <c r="B77" s="268"/>
+      <c r="A77" s="292"/>
+      <c r="B77" s="290"/>
       <c r="C77" s="30" t="s">
         <v>45</v>
       </c>
       <c r="D77" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="E77" s="274"/>
+      <c r="E77" s="294"/>
       <c r="F77" s="142">
         <v>41061</v>
       </c>
@@ -22043,10 +22043,10 @@
       <c r="DW77" s="95"/>
     </row>
     <row r="78" spans="1:127" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="231" t="s">
+      <c r="A78" s="288" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="265" t="s">
+      <c r="B78" s="284" t="s">
         <v>110</v>
       </c>
       <c r="C78" s="32" t="s">
@@ -22186,8 +22186,8 @@
       <c r="DW78" s="85"/>
     </row>
     <row r="79" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A79" s="234"/>
-      <c r="B79" s="266"/>
+      <c r="A79" s="289"/>
+      <c r="B79" s="287"/>
       <c r="C79" s="24" t="s">
         <v>112</v>
       </c>
@@ -22325,8 +22325,8 @@
       <c r="DW79" s="90"/>
     </row>
     <row r="80" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A80" s="234"/>
-      <c r="B80" s="267"/>
+      <c r="A80" s="289"/>
+      <c r="B80" s="285"/>
       <c r="C80" s="41" t="s">
         <v>109</v>
       </c>
@@ -22462,8 +22462,8 @@
       <c r="DW80" s="109"/>
     </row>
     <row r="81" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A81" s="234"/>
-      <c r="B81" s="269" t="s">
+      <c r="A81" s="289"/>
+      <c r="B81" s="286" t="s">
         <v>113</v>
       </c>
       <c r="C81" s="22" t="s">
@@ -22603,8 +22603,8 @@
       <c r="DW81" s="100"/>
     </row>
     <row r="82" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A82" s="234"/>
-      <c r="B82" s="266"/>
+      <c r="A82" s="289"/>
+      <c r="B82" s="287"/>
       <c r="C82" s="24" t="s">
         <v>115</v>
       </c>
@@ -22742,8 +22742,8 @@
       <c r="DW82" s="90"/>
     </row>
     <row r="83" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A83" s="232"/>
-      <c r="B83" s="267"/>
+      <c r="A83" s="267"/>
+      <c r="B83" s="285"/>
       <c r="C83" s="20" t="s">
         <v>116</v>
       </c>
@@ -22881,7 +22881,7 @@
       <c r="DW83" s="65"/>
     </row>
     <row r="84" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="233"/>
+      <c r="A84" s="262"/>
       <c r="B84" s="37" t="s">
         <v>117</v>
       </c>
@@ -23022,10 +23022,10 @@
       <c r="DW84" s="80"/>
     </row>
     <row r="85" spans="1:127" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="231" t="s">
+      <c r="A85" s="288" t="s">
         <v>9</v>
       </c>
-      <c r="B85" s="265" t="s">
+      <c r="B85" s="284" t="s">
         <v>119</v>
       </c>
       <c r="C85" s="32" t="s">
@@ -23163,8 +23163,8 @@
       <c r="DW85" s="85"/>
     </row>
     <row r="86" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A86" s="234"/>
-      <c r="B86" s="267"/>
+      <c r="A86" s="289"/>
+      <c r="B86" s="285"/>
       <c r="C86" s="41" t="s">
         <v>118</v>
       </c>
@@ -23300,8 +23300,8 @@
       <c r="DW86" s="109"/>
     </row>
     <row r="87" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A87" s="232"/>
-      <c r="B87" s="266" t="s">
+      <c r="A87" s="267"/>
+      <c r="B87" s="287" t="s">
         <v>120</v>
       </c>
       <c r="C87" s="24" t="s">
@@ -23439,8 +23439,8 @@
       <c r="DW87" s="90"/>
     </row>
     <row r="88" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="233"/>
-      <c r="B88" s="268"/>
+      <c r="A88" s="262"/>
+      <c r="B88" s="290"/>
       <c r="C88" s="30" t="s">
         <v>120</v>
       </c>
@@ -23576,10 +23576,10 @@
       <c r="DW88" s="95"/>
     </row>
     <row r="89" spans="1:127" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="271" t="s">
+      <c r="A89" s="282" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="265" t="s">
+      <c r="B89" s="284" t="s">
         <v>122</v>
       </c>
       <c r="C89" s="32" t="s">
@@ -23719,8 +23719,8 @@
       <c r="DW89" s="85"/>
     </row>
     <row r="90" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A90" s="271"/>
-      <c r="B90" s="267"/>
+      <c r="A90" s="282"/>
+      <c r="B90" s="285"/>
       <c r="C90" s="20" t="s">
         <v>124</v>
       </c>
@@ -23858,8 +23858,8 @@
       <c r="DW90" s="65"/>
     </row>
     <row r="91" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A91" s="271"/>
-      <c r="B91" s="269" t="s">
+      <c r="A91" s="282"/>
+      <c r="B91" s="286" t="s">
         <v>125</v>
       </c>
       <c r="C91" s="22" t="s">
@@ -23999,8 +23999,8 @@
       <c r="DW91" s="100"/>
     </row>
     <row r="92" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A92" s="271"/>
-      <c r="B92" s="266"/>
+      <c r="A92" s="282"/>
+      <c r="B92" s="287"/>
       <c r="C92" s="14" t="s">
         <v>127</v>
       </c>
@@ -24136,8 +24136,8 @@
       <c r="DW92" s="60"/>
     </row>
     <row r="93" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A93" s="271"/>
-      <c r="B93" s="266"/>
+      <c r="A93" s="282"/>
+      <c r="B93" s="287"/>
       <c r="C93" s="14" t="s">
         <v>128</v>
       </c>
@@ -24273,8 +24273,8 @@
       <c r="DW93" s="60"/>
     </row>
     <row r="94" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A94" s="271"/>
-      <c r="B94" s="267"/>
+      <c r="A94" s="282"/>
+      <c r="B94" s="285"/>
       <c r="C94" s="20" t="s">
         <v>129</v>
       </c>
@@ -24412,7 +24412,7 @@
       <c r="DW94" s="65"/>
     </row>
     <row r="95" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="277"/>
+      <c r="A95" s="283"/>
       <c r="B95" s="43" t="s">
         <v>92</v>
       </c>
@@ -24552,39 +24552,75 @@
     </row>
   </sheetData>
   <mergeCells count="126">
-    <mergeCell ref="A89:A95"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="A78:A84"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="A85:A88"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="A66:A77"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="E66:E69"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="E70:E72"/>
-    <mergeCell ref="B73:B77"/>
-    <mergeCell ref="E73:E77"/>
-    <mergeCell ref="B45:B52"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="E59:E63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="A31:A65"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="AB8:AF8"/>
+    <mergeCell ref="AG8:AK8"/>
+    <mergeCell ref="AL8:AP8"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="AL9:AM9"/>
+    <mergeCell ref="AO9:AP9"/>
+    <mergeCell ref="CY8:DC8"/>
+    <mergeCell ref="DD8:DH8"/>
+    <mergeCell ref="DI8:DM8"/>
+    <mergeCell ref="DN8:DR8"/>
+    <mergeCell ref="DS8:DW8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="BU8:BY8"/>
+    <mergeCell ref="BZ8:CD8"/>
+    <mergeCell ref="CE8:CI8"/>
+    <mergeCell ref="CJ8:CN8"/>
+    <mergeCell ref="CO8:CS8"/>
+    <mergeCell ref="CT8:CX8"/>
+    <mergeCell ref="AQ8:AU8"/>
+    <mergeCell ref="AV8:AZ8"/>
+    <mergeCell ref="BA8:BE8"/>
+    <mergeCell ref="BF8:BJ8"/>
+    <mergeCell ref="BK8:BO8"/>
+    <mergeCell ref="BP8:BT8"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="AQ9:AR9"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="BN9:BO9"/>
+    <mergeCell ref="BP9:BQ9"/>
+    <mergeCell ref="BS9:BT9"/>
+    <mergeCell ref="BU9:BV9"/>
+    <mergeCell ref="BX9:BY9"/>
+    <mergeCell ref="BZ9:CA9"/>
+    <mergeCell ref="AY9:AZ9"/>
+    <mergeCell ref="BA9:BB9"/>
+    <mergeCell ref="BD9:BE9"/>
+    <mergeCell ref="BF9:BG9"/>
+    <mergeCell ref="BI9:BJ9"/>
+    <mergeCell ref="BK9:BL9"/>
     <mergeCell ref="DV9:DW9"/>
     <mergeCell ref="A11:A23"/>
     <mergeCell ref="B11:B13"/>
@@ -24609,94 +24645,58 @@
     <mergeCell ref="CJ9:CK9"/>
     <mergeCell ref="CM9:CN9"/>
     <mergeCell ref="CO9:CP9"/>
-    <mergeCell ref="BN9:BO9"/>
-    <mergeCell ref="BP9:BQ9"/>
-    <mergeCell ref="BS9:BT9"/>
-    <mergeCell ref="BU9:BV9"/>
-    <mergeCell ref="BX9:BY9"/>
-    <mergeCell ref="BZ9:CA9"/>
-    <mergeCell ref="AY9:AZ9"/>
-    <mergeCell ref="BA9:BB9"/>
-    <mergeCell ref="BD9:BE9"/>
-    <mergeCell ref="BF9:BG9"/>
-    <mergeCell ref="BI9:BJ9"/>
-    <mergeCell ref="BK9:BL9"/>
-    <mergeCell ref="AQ9:AR9"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AV9:AW9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="CY8:DC8"/>
-    <mergeCell ref="DD8:DH8"/>
-    <mergeCell ref="DI8:DM8"/>
-    <mergeCell ref="DN8:DR8"/>
-    <mergeCell ref="DS8:DW8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="BU8:BY8"/>
-    <mergeCell ref="BZ8:CD8"/>
-    <mergeCell ref="CE8:CI8"/>
-    <mergeCell ref="CJ8:CN8"/>
-    <mergeCell ref="CO8:CS8"/>
-    <mergeCell ref="CT8:CX8"/>
-    <mergeCell ref="AQ8:AU8"/>
-    <mergeCell ref="AV8:AZ8"/>
-    <mergeCell ref="BA8:BE8"/>
-    <mergeCell ref="BF8:BJ8"/>
-    <mergeCell ref="BK8:BO8"/>
-    <mergeCell ref="BP8:BT8"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="R8:V8"/>
-    <mergeCell ref="AG8:AK8"/>
-    <mergeCell ref="AL8:AP8"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="AJ9:AK9"/>
-    <mergeCell ref="AL9:AM9"/>
-    <mergeCell ref="AO9:AP9"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="W8:AA8"/>
-    <mergeCell ref="AB8:AF8"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="A31:A65"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A66:A77"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="E66:E69"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="E70:E72"/>
+    <mergeCell ref="B73:B77"/>
+    <mergeCell ref="E73:E77"/>
+    <mergeCell ref="B45:B52"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="E59:E63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="A89:A95"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="A78:A84"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="B87:B88"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="H11:DW95">
-    <cfRule type="expression" dxfId="23" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
       <formula>(IF((H$10=$G11),1,2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
       <formula>(IF((H$10&lt;=$G11),(IF(($D11="기획")*(H$10&gt;=$F11),1,2)),3)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>(IF((H$10&lt;=$G11),(IF(($D11="디자인")*(H$10&gt;=$F11),1,2)),3)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
       <formula>(IF((H$10&lt;=$G11),(IF(($D11="퍼블리싱")*(H$10&gt;=$F11),1,2)),3)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>(IF((H$10&lt;=$G11),(IF(($D11="개발")*(H$10&gt;=$F11),1,2)),3)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>(IF((H$10&lt;=$G11),(IF(($D11="고객")*(H$10&gt;=$F11),1,2)),3)=1)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/~2022-10-31 1인프로젝트/설계서/프로젝트 일정 계획서_MVP-최동영.xlsx
+++ b/~2022-10-31 1인프로젝트/설계서/프로젝트 일정 계획서_MVP-최동영.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CHOIDONGYOUNG\Desktop\Work\~2022-10-31 1인프로젝트\설계서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD8F309-051B-4C3C-8D41-C5DE19D1B62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA24F07B-0C7F-4C78-A2E9-50EE14724D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26955" yWindow="1410" windowWidth="21600" windowHeight="12735" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2490" yWindow="2475" windowWidth="21600" windowHeight="12735" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="4" r:id="rId1"/>
@@ -1122,7 +1122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="251">
   <si>
     <t>업무내용</t>
   </si>
@@ -1861,9 +1861,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>산출물</t>
-  </si>
-  <si>
     <t>테스트 계획</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1949,6 +1946,22 @@
   </si>
   <si>
     <t>마감</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위 테스트 시나리오 작성</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위 테스트</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위 테스트 시나리오</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위 테스트 시나리오 결과서</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2312,7 +2325,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="129">
+  <borders count="138">
     <border>
       <left/>
       <right/>
@@ -3840,17 +3853,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -4002,6 +4004,150 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4157,7 +4303,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="306">
+  <cellXfs count="311">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4719,21 +4865,9 @@
     <xf numFmtId="14" fontId="10" fillId="3" borderId="104" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="111" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="112" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="113" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="3" borderId="107" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="3" borderId="114" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="104" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4743,9 +4877,6 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="107" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4761,17 +4892,11 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="114" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="120" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="119" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="3" borderId="120" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="104" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4815,12 +4940,15 @@
     <xf numFmtId="0" fontId="9" fillId="14" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="120" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4854,226 +4982,259 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="103" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="68" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="65" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="116" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="117" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="104" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="121" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="122" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="123" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="124" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="125" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="126" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="120" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="106" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="106" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="127" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="104" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="68" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="65" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="104" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="104" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="117" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="118" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="107" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="122" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="123" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="124" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="125" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="126" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="127" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="121" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="107" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="106" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="106" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="128" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="129" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="130" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="133" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="134" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="134" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="135" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="136" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="137" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5131,7 +5292,301 @@
     <cellStyle name="표준 8" xfId="50" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
     <cellStyle name="표준 9" xfId="51" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="72">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF663300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF663300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF663300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF663300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF663300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF663300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF663300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -5826,20 +6281,20 @@
     </row>
     <row r="6" spans="2:12" ht="9.9499999999999993" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I7" s="223" t="s">
-        <v>232</v>
-      </c>
-      <c r="J7" s="223"/>
-      <c r="K7" s="223"/>
-      <c r="L7" s="223"/>
+      <c r="I7" s="217" t="s">
+        <v>231</v>
+      </c>
+      <c r="J7" s="217"/>
+      <c r="K7" s="217"/>
+      <c r="L7" s="217"/>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I8" s="224">
+      <c r="I8" s="218">
         <v>44053</v>
       </c>
-      <c r="J8" s="224"/>
-      <c r="K8" s="224"/>
-      <c r="L8" s="224"/>
+      <c r="J8" s="218"/>
+      <c r="K8" s="218"/>
+      <c r="L8" s="218"/>
     </row>
     <row r="9" spans="2:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I9" s="159"/>
@@ -5848,10 +6303,10 @@
       <c r="L9" s="160"/>
     </row>
     <row r="10" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="225" t="s">
+      <c r="E10" s="219" t="s">
         <v>197</v>
       </c>
-      <c r="F10" s="226"/>
+      <c r="F10" s="220"/>
       <c r="G10" s="161" t="s">
         <v>198</v>
       </c>
@@ -5863,7 +6318,7 @@
       </c>
     </row>
     <row r="11" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="227" t="s">
+      <c r="E11" s="221" t="s">
         <v>218</v>
       </c>
       <c r="F11" s="162" t="s">
@@ -5878,7 +6333,7 @@
       </c>
     </row>
     <row r="12" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="228"/>
+      <c r="E12" s="222"/>
       <c r="F12" s="162" t="s">
         <v>202</v>
       </c>
@@ -5887,7 +6342,7 @@
       <c r="I12" s="164"/>
     </row>
     <row r="13" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E13" s="229"/>
+      <c r="E13" s="223"/>
       <c r="F13" s="162" t="s">
         <v>203</v>
       </c>
@@ -5898,53 +6353,53 @@
       <c r="I13" s="164"/>
     </row>
     <row r="14" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E14" s="230" t="s">
+      <c r="E14" s="224" t="s">
         <v>204</v>
       </c>
-      <c r="F14" s="231"/>
+      <c r="F14" s="225"/>
       <c r="G14" s="163"/>
       <c r="H14" s="163"/>
       <c r="I14" s="164"/>
     </row>
     <row r="15" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="230" t="s">
+      <c r="E15" s="224" t="s">
         <v>204</v>
       </c>
-      <c r="F15" s="231"/>
+      <c r="F15" s="225"/>
       <c r="G15" s="163"/>
       <c r="H15" s="163"/>
       <c r="I15" s="164"/>
     </row>
     <row r="16" spans="2:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="221" t="s">
+      <c r="B17" s="215" t="s">
         <v>205</v>
       </c>
-      <c r="C17" s="221"/>
-      <c r="D17" s="221"/>
-      <c r="E17" s="221"/>
-      <c r="F17" s="221"/>
-      <c r="G17" s="221"/>
-      <c r="H17" s="221"/>
-      <c r="I17" s="221"/>
-      <c r="J17" s="221"/>
-      <c r="K17" s="221"/>
-      <c r="L17" s="221"/>
+      <c r="C17" s="215"/>
+      <c r="D17" s="215"/>
+      <c r="E17" s="215"/>
+      <c r="F17" s="215"/>
+      <c r="G17" s="215"/>
+      <c r="H17" s="215"/>
+      <c r="I17" s="215"/>
+      <c r="J17" s="215"/>
+      <c r="K17" s="215"/>
+      <c r="L17" s="215"/>
     </row>
     <row r="18" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="222" t="s">
+      <c r="B18" s="216" t="s">
         <v>206</v>
       </c>
-      <c r="C18" s="222"/>
-      <c r="D18" s="222"/>
-      <c r="E18" s="222"/>
-      <c r="F18" s="222"/>
-      <c r="G18" s="222"/>
-      <c r="H18" s="222"/>
-      <c r="I18" s="222"/>
-      <c r="J18" s="222"/>
-      <c r="K18" s="222"/>
-      <c r="L18" s="222"/>
+      <c r="C18" s="216"/>
+      <c r="D18" s="216"/>
+      <c r="E18" s="216"/>
+      <c r="F18" s="216"/>
+      <c r="G18" s="216"/>
+      <c r="H18" s="216"/>
+      <c r="I18" s="216"/>
+      <c r="J18" s="216"/>
+      <c r="K18" s="216"/>
+      <c r="L18" s="216"/>
     </row>
     <row r="19" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6062,13 +6517,13 @@
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B8" s="180" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C8" s="181">
         <v>44055</v>
       </c>
       <c r="D8" s="182" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E8" s="180" t="s">
         <v>222</v>
@@ -6210,13 +6665,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:DW28"/>
+  <dimension ref="A1:DW24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="10" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="10" topLeftCell="R11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="U15" sqref="U15"/>
+      <selection pane="bottomRight" activeCell="AI23" sqref="AI23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6232,19 +6687,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:127" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="232" t="s">
+      <c r="A1" s="270" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="232"/>
-      <c r="D1" s="232"/>
-      <c r="E1" s="232"/>
-      <c r="F1" s="232"/>
-      <c r="G1" s="232"/>
-      <c r="H1" s="232"/>
-      <c r="I1" s="232"/>
-      <c r="J1" s="232"/>
-      <c r="K1" s="232"/>
+      <c r="B1" s="270"/>
+      <c r="C1" s="270"/>
+      <c r="D1" s="270"/>
+      <c r="E1" s="270"/>
+      <c r="F1" s="270"/>
+      <c r="G1" s="270"/>
+      <c r="H1" s="270"/>
+      <c r="I1" s="270"/>
+      <c r="J1" s="270"/>
+      <c r="K1" s="270"/>
       <c r="L1" s="50"/>
       <c r="M1" s="50"/>
       <c r="N1" s="50"/>
@@ -6366,10 +6821,10 @@
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="246" t="s">
-        <v>233</v>
-      </c>
-      <c r="C2" s="246"/>
+      <c r="B2" s="271" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" s="271"/>
       <c r="D2" s="7"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -6497,8 +6952,8 @@
     </row>
     <row r="3" spans="1:127" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
-      <c r="B3" s="246"/>
-      <c r="C3" s="246"/>
+      <c r="B3" s="271"/>
+      <c r="C3" s="271"/>
       <c r="D3" s="7"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -6628,10 +7083,10 @@
       <c r="A4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="247">
+      <c r="B4" s="272">
         <v>44840</v>
       </c>
-      <c r="C4" s="246"/>
+      <c r="C4" s="272"/>
       <c r="D4" s="7"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -6763,33 +7218,33 @@
       <c r="A5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="246" t="s">
-        <v>229</v>
-      </c>
-      <c r="C5" s="246"/>
+      <c r="B5" s="271" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" s="271"/>
       <c r="D5" s="7"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="242" t="s">
-        <v>245</v>
-      </c>
-      <c r="J5" s="242"/>
-      <c r="K5" s="244" t="s">
+      <c r="I5" s="266" t="s">
+        <v>244</v>
+      </c>
+      <c r="J5" s="266"/>
+      <c r="K5" s="268" t="s">
         <v>196</v>
       </c>
-      <c r="L5" s="244"/>
-      <c r="M5" s="245" t="s">
-        <v>247</v>
-      </c>
-      <c r="N5" s="245"/>
-      <c r="O5" s="243"/>
-      <c r="P5" s="243"/>
-      <c r="Q5" s="243"/>
-      <c r="R5" s="243"/>
-      <c r="S5" s="243"/>
-      <c r="T5" s="243"/>
+      <c r="L5" s="268"/>
+      <c r="M5" s="269" t="s">
+        <v>246</v>
+      </c>
+      <c r="N5" s="269"/>
+      <c r="O5" s="267"/>
+      <c r="P5" s="267"/>
+      <c r="Q5" s="267"/>
+      <c r="R5" s="267"/>
+      <c r="S5" s="267"/>
+      <c r="T5" s="267"/>
       <c r="U5" s="150"/>
       <c r="V5" s="150"/>
       <c r="W5" s="50"/>
@@ -7157,523 +7612,523 @@
       <c r="DW7" s="8"/>
     </row>
     <row r="8" spans="1:127" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="248" t="s">
+      <c r="A8" s="251" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="257" t="s">
+      <c r="B8" s="259" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="258"/>
-      <c r="D8" s="233" t="s">
+      <c r="C8" s="260"/>
+      <c r="D8" s="263" t="s">
         <v>186</v>
       </c>
-      <c r="E8" s="233" t="s">
+      <c r="E8" s="263" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="253" t="s">
+      <c r="F8" s="255" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="254"/>
-      <c r="H8" s="256" t="s">
+      <c r="G8" s="256"/>
+      <c r="H8" s="258" t="s">
         <v>162</v>
       </c>
-      <c r="I8" s="236"/>
-      <c r="J8" s="236"/>
-      <c r="K8" s="236"/>
-      <c r="L8" s="237"/>
-      <c r="M8" s="235" t="s">
+      <c r="I8" s="232"/>
+      <c r="J8" s="232"/>
+      <c r="K8" s="232"/>
+      <c r="L8" s="233"/>
+      <c r="M8" s="231" t="s">
         <v>163</v>
       </c>
-      <c r="N8" s="236"/>
-      <c r="O8" s="236"/>
-      <c r="P8" s="236"/>
-      <c r="Q8" s="237"/>
-      <c r="R8" s="235" t="s">
+      <c r="N8" s="232"/>
+      <c r="O8" s="232"/>
+      <c r="P8" s="232"/>
+      <c r="Q8" s="233"/>
+      <c r="R8" s="231" t="s">
         <v>164</v>
       </c>
-      <c r="S8" s="236"/>
-      <c r="T8" s="236"/>
-      <c r="U8" s="236"/>
-      <c r="V8" s="237"/>
-      <c r="W8" s="235" t="s">
+      <c r="S8" s="232"/>
+      <c r="T8" s="232"/>
+      <c r="U8" s="232"/>
+      <c r="V8" s="233"/>
+      <c r="W8" s="231" t="s">
         <v>165</v>
       </c>
-      <c r="X8" s="236"/>
-      <c r="Y8" s="236"/>
-      <c r="Z8" s="236"/>
-      <c r="AA8" s="237"/>
-      <c r="AB8" s="235" t="s">
+      <c r="X8" s="232"/>
+      <c r="Y8" s="232"/>
+      <c r="Z8" s="232"/>
+      <c r="AA8" s="233"/>
+      <c r="AB8" s="231" t="s">
         <v>166</v>
       </c>
-      <c r="AC8" s="236"/>
-      <c r="AD8" s="236"/>
-      <c r="AE8" s="236"/>
-      <c r="AF8" s="237"/>
-      <c r="AG8" s="235" t="s">
+      <c r="AC8" s="232"/>
+      <c r="AD8" s="232"/>
+      <c r="AE8" s="232"/>
+      <c r="AF8" s="233"/>
+      <c r="AG8" s="231" t="s">
         <v>167</v>
       </c>
-      <c r="AH8" s="236"/>
-      <c r="AI8" s="236"/>
-      <c r="AJ8" s="236"/>
-      <c r="AK8" s="237"/>
-      <c r="AL8" s="235" t="s">
+      <c r="AH8" s="232"/>
+      <c r="AI8" s="232"/>
+      <c r="AJ8" s="232"/>
+      <c r="AK8" s="233"/>
+      <c r="AL8" s="231" t="s">
         <v>168</v>
       </c>
-      <c r="AM8" s="236"/>
-      <c r="AN8" s="236"/>
-      <c r="AO8" s="236"/>
-      <c r="AP8" s="237"/>
-      <c r="AQ8" s="235" t="s">
+      <c r="AM8" s="232"/>
+      <c r="AN8" s="232"/>
+      <c r="AO8" s="232"/>
+      <c r="AP8" s="233"/>
+      <c r="AQ8" s="231" t="s">
         <v>169</v>
       </c>
-      <c r="AR8" s="236"/>
-      <c r="AS8" s="236"/>
-      <c r="AT8" s="236"/>
-      <c r="AU8" s="237"/>
-      <c r="AV8" s="235" t="s">
+      <c r="AR8" s="232"/>
+      <c r="AS8" s="232"/>
+      <c r="AT8" s="232"/>
+      <c r="AU8" s="233"/>
+      <c r="AV8" s="231" t="s">
         <v>170</v>
       </c>
-      <c r="AW8" s="236"/>
-      <c r="AX8" s="236"/>
-      <c r="AY8" s="236"/>
-      <c r="AZ8" s="237"/>
-      <c r="BA8" s="235" t="s">
+      <c r="AW8" s="232"/>
+      <c r="AX8" s="232"/>
+      <c r="AY8" s="232"/>
+      <c r="AZ8" s="233"/>
+      <c r="BA8" s="231" t="s">
         <v>171</v>
       </c>
-      <c r="BB8" s="236"/>
-      <c r="BC8" s="236"/>
-      <c r="BD8" s="236"/>
-      <c r="BE8" s="237"/>
-      <c r="BF8" s="235" t="s">
+      <c r="BB8" s="232"/>
+      <c r="BC8" s="232"/>
+      <c r="BD8" s="232"/>
+      <c r="BE8" s="233"/>
+      <c r="BF8" s="231" t="s">
         <v>172</v>
       </c>
-      <c r="BG8" s="236"/>
-      <c r="BH8" s="236"/>
-      <c r="BI8" s="236"/>
-      <c r="BJ8" s="237"/>
-      <c r="BK8" s="235" t="s">
+      <c r="BG8" s="232"/>
+      <c r="BH8" s="232"/>
+      <c r="BI8" s="232"/>
+      <c r="BJ8" s="233"/>
+      <c r="BK8" s="231" t="s">
         <v>173</v>
       </c>
-      <c r="BL8" s="236"/>
-      <c r="BM8" s="236"/>
-      <c r="BN8" s="236"/>
-      <c r="BO8" s="237"/>
-      <c r="BP8" s="235" t="s">
+      <c r="BL8" s="232"/>
+      <c r="BM8" s="232"/>
+      <c r="BN8" s="232"/>
+      <c r="BO8" s="233"/>
+      <c r="BP8" s="231" t="s">
         <v>174</v>
       </c>
-      <c r="BQ8" s="236"/>
-      <c r="BR8" s="236"/>
-      <c r="BS8" s="236"/>
-      <c r="BT8" s="237"/>
-      <c r="BU8" s="235" t="s">
+      <c r="BQ8" s="232"/>
+      <c r="BR8" s="232"/>
+      <c r="BS8" s="232"/>
+      <c r="BT8" s="233"/>
+      <c r="BU8" s="231" t="s">
         <v>175</v>
       </c>
-      <c r="BV8" s="236"/>
-      <c r="BW8" s="236"/>
-      <c r="BX8" s="236"/>
-      <c r="BY8" s="237"/>
-      <c r="BZ8" s="235" t="s">
+      <c r="BV8" s="232"/>
+      <c r="BW8" s="232"/>
+      <c r="BX8" s="232"/>
+      <c r="BY8" s="233"/>
+      <c r="BZ8" s="231" t="s">
         <v>176</v>
       </c>
-      <c r="CA8" s="236"/>
-      <c r="CB8" s="236"/>
-      <c r="CC8" s="236"/>
-      <c r="CD8" s="237"/>
-      <c r="CE8" s="235" t="s">
+      <c r="CA8" s="232"/>
+      <c r="CB8" s="232"/>
+      <c r="CC8" s="232"/>
+      <c r="CD8" s="233"/>
+      <c r="CE8" s="231" t="s">
         <v>177</v>
       </c>
-      <c r="CF8" s="236"/>
-      <c r="CG8" s="236"/>
-      <c r="CH8" s="236"/>
-      <c r="CI8" s="237"/>
-      <c r="CJ8" s="235" t="s">
+      <c r="CF8" s="232"/>
+      <c r="CG8" s="232"/>
+      <c r="CH8" s="232"/>
+      <c r="CI8" s="233"/>
+      <c r="CJ8" s="231" t="s">
         <v>178</v>
       </c>
-      <c r="CK8" s="236"/>
-      <c r="CL8" s="236"/>
-      <c r="CM8" s="236"/>
-      <c r="CN8" s="237"/>
-      <c r="CO8" s="235" t="s">
+      <c r="CK8" s="232"/>
+      <c r="CL8" s="232"/>
+      <c r="CM8" s="232"/>
+      <c r="CN8" s="233"/>
+      <c r="CO8" s="231" t="s">
         <v>179</v>
       </c>
-      <c r="CP8" s="236"/>
-      <c r="CQ8" s="236"/>
-      <c r="CR8" s="236"/>
-      <c r="CS8" s="237"/>
-      <c r="CT8" s="235" t="s">
+      <c r="CP8" s="232"/>
+      <c r="CQ8" s="232"/>
+      <c r="CR8" s="232"/>
+      <c r="CS8" s="233"/>
+      <c r="CT8" s="231" t="s">
         <v>180</v>
       </c>
-      <c r="CU8" s="236"/>
-      <c r="CV8" s="236"/>
-      <c r="CW8" s="236"/>
-      <c r="CX8" s="237"/>
-      <c r="CY8" s="235" t="s">
+      <c r="CU8" s="232"/>
+      <c r="CV8" s="232"/>
+      <c r="CW8" s="232"/>
+      <c r="CX8" s="233"/>
+      <c r="CY8" s="231" t="s">
         <v>181</v>
       </c>
-      <c r="CZ8" s="236"/>
-      <c r="DA8" s="236"/>
-      <c r="DB8" s="236"/>
-      <c r="DC8" s="237"/>
-      <c r="DD8" s="235" t="s">
+      <c r="CZ8" s="232"/>
+      <c r="DA8" s="232"/>
+      <c r="DB8" s="232"/>
+      <c r="DC8" s="233"/>
+      <c r="DD8" s="231" t="s">
         <v>182</v>
       </c>
-      <c r="DE8" s="236"/>
-      <c r="DF8" s="236"/>
-      <c r="DG8" s="236"/>
-      <c r="DH8" s="237"/>
-      <c r="DI8" s="235" t="s">
+      <c r="DE8" s="232"/>
+      <c r="DF8" s="232"/>
+      <c r="DG8" s="232"/>
+      <c r="DH8" s="233"/>
+      <c r="DI8" s="231" t="s">
         <v>183</v>
       </c>
-      <c r="DJ8" s="236"/>
-      <c r="DK8" s="236"/>
-      <c r="DL8" s="236"/>
-      <c r="DM8" s="237"/>
-      <c r="DN8" s="235" t="s">
+      <c r="DJ8" s="232"/>
+      <c r="DK8" s="232"/>
+      <c r="DL8" s="232"/>
+      <c r="DM8" s="233"/>
+      <c r="DN8" s="231" t="s">
         <v>184</v>
       </c>
-      <c r="DO8" s="236"/>
-      <c r="DP8" s="236"/>
-      <c r="DQ8" s="236"/>
-      <c r="DR8" s="237"/>
-      <c r="DS8" s="235" t="s">
+      <c r="DO8" s="232"/>
+      <c r="DP8" s="232"/>
+      <c r="DQ8" s="232"/>
+      <c r="DR8" s="233"/>
+      <c r="DS8" s="231" t="s">
         <v>185</v>
       </c>
-      <c r="DT8" s="236"/>
-      <c r="DU8" s="236"/>
-      <c r="DV8" s="236"/>
-      <c r="DW8" s="280"/>
+      <c r="DT8" s="232"/>
+      <c r="DU8" s="232"/>
+      <c r="DV8" s="232"/>
+      <c r="DW8" s="234"/>
     </row>
     <row r="9" spans="1:127" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="249"/>
-      <c r="B9" s="259"/>
-      <c r="C9" s="260"/>
-      <c r="D9" s="234"/>
-      <c r="E9" s="234"/>
+      <c r="A9" s="252"/>
+      <c r="B9" s="261"/>
+      <c r="C9" s="262"/>
+      <c r="D9" s="264"/>
+      <c r="E9" s="264"/>
       <c r="F9" s="12" t="s">
         <v>160</v>
       </c>
       <c r="G9" s="13">
         <v>44823</v>
       </c>
-      <c r="H9" s="255">
+      <c r="H9" s="257">
         <f>G9</f>
         <v>44823</v>
       </c>
-      <c r="I9" s="239"/>
+      <c r="I9" s="227"/>
       <c r="J9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="K9" s="240">
+      <c r="K9" s="228">
         <f>L10</f>
         <v>44827</v>
       </c>
-      <c r="L9" s="241"/>
-      <c r="M9" s="238">
+      <c r="L9" s="229"/>
+      <c r="M9" s="226">
         <f>M10</f>
         <v>44830</v>
       </c>
-      <c r="N9" s="239"/>
+      <c r="N9" s="227"/>
       <c r="O9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="P9" s="240">
+      <c r="P9" s="228">
         <f>Q10</f>
         <v>44834</v>
       </c>
-      <c r="Q9" s="241"/>
-      <c r="R9" s="238">
+      <c r="Q9" s="229"/>
+      <c r="R9" s="226">
         <f>R10</f>
         <v>44837</v>
       </c>
-      <c r="S9" s="239"/>
+      <c r="S9" s="227"/>
       <c r="T9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="U9" s="240">
+      <c r="U9" s="228">
         <f>V10</f>
         <v>44841</v>
       </c>
-      <c r="V9" s="241"/>
-      <c r="W9" s="238">
+      <c r="V9" s="229"/>
+      <c r="W9" s="226">
         <f>W10</f>
         <v>44844</v>
       </c>
-      <c r="X9" s="239"/>
+      <c r="X9" s="227"/>
       <c r="Y9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="Z9" s="240">
+      <c r="Z9" s="228">
         <f>AA10</f>
         <v>44848</v>
       </c>
-      <c r="AA9" s="241"/>
-      <c r="AB9" s="238">
+      <c r="AA9" s="229"/>
+      <c r="AB9" s="226">
         <f>AB10</f>
         <v>44851</v>
       </c>
-      <c r="AC9" s="239"/>
+      <c r="AC9" s="227"/>
       <c r="AD9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="AE9" s="240">
+      <c r="AE9" s="228">
         <f>AF10</f>
         <v>44855</v>
       </c>
-      <c r="AF9" s="241"/>
-      <c r="AG9" s="238">
+      <c r="AF9" s="229"/>
+      <c r="AG9" s="226">
         <f>AG10</f>
         <v>44858</v>
       </c>
-      <c r="AH9" s="239"/>
+      <c r="AH9" s="227"/>
       <c r="AI9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="AJ9" s="240">
+      <c r="AJ9" s="228">
         <f>AK10</f>
         <v>44862</v>
       </c>
-      <c r="AK9" s="241"/>
-      <c r="AL9" s="238">
+      <c r="AK9" s="229"/>
+      <c r="AL9" s="226">
         <f>AL10</f>
         <v>44865</v>
       </c>
-      <c r="AM9" s="239"/>
+      <c r="AM9" s="227"/>
       <c r="AN9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="AO9" s="240">
+      <c r="AO9" s="228">
         <f>AP10</f>
         <v>44869</v>
       </c>
-      <c r="AP9" s="241"/>
-      <c r="AQ9" s="238">
+      <c r="AP9" s="229"/>
+      <c r="AQ9" s="226">
         <f>AQ10</f>
         <v>44872</v>
       </c>
-      <c r="AR9" s="239"/>
+      <c r="AR9" s="227"/>
       <c r="AS9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="AT9" s="240">
+      <c r="AT9" s="228">
         <f>AU10</f>
         <v>44876</v>
       </c>
-      <c r="AU9" s="241"/>
-      <c r="AV9" s="238">
+      <c r="AU9" s="229"/>
+      <c r="AV9" s="226">
         <f>AV10</f>
         <v>44879</v>
       </c>
-      <c r="AW9" s="239"/>
+      <c r="AW9" s="227"/>
       <c r="AX9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="AY9" s="240">
+      <c r="AY9" s="228">
         <f>AZ10</f>
         <v>44883</v>
       </c>
-      <c r="AZ9" s="241"/>
-      <c r="BA9" s="238">
+      <c r="AZ9" s="229"/>
+      <c r="BA9" s="226">
         <f>BA10</f>
         <v>44886</v>
       </c>
-      <c r="BB9" s="239"/>
+      <c r="BB9" s="227"/>
       <c r="BC9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="BD9" s="240">
+      <c r="BD9" s="228">
         <f>BE10</f>
         <v>44890</v>
       </c>
-      <c r="BE9" s="241"/>
-      <c r="BF9" s="238">
+      <c r="BE9" s="229"/>
+      <c r="BF9" s="226">
         <f>BF10</f>
         <v>44893</v>
       </c>
-      <c r="BG9" s="239"/>
+      <c r="BG9" s="227"/>
       <c r="BH9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="BI9" s="240">
+      <c r="BI9" s="228">
         <f>BJ10</f>
         <v>44897</v>
       </c>
-      <c r="BJ9" s="241"/>
-      <c r="BK9" s="238">
+      <c r="BJ9" s="229"/>
+      <c r="BK9" s="226">
         <f>BK10</f>
         <v>44900</v>
       </c>
-      <c r="BL9" s="239"/>
+      <c r="BL9" s="227"/>
       <c r="BM9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="BN9" s="240">
+      <c r="BN9" s="228">
         <f>BO10</f>
         <v>44904</v>
       </c>
-      <c r="BO9" s="241"/>
-      <c r="BP9" s="238">
+      <c r="BO9" s="229"/>
+      <c r="BP9" s="226">
         <f>BP10</f>
         <v>44907</v>
       </c>
-      <c r="BQ9" s="239"/>
+      <c r="BQ9" s="227"/>
       <c r="BR9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="BS9" s="240">
+      <c r="BS9" s="228">
         <f>BT10</f>
         <v>44911</v>
       </c>
-      <c r="BT9" s="241"/>
-      <c r="BU9" s="238">
+      <c r="BT9" s="229"/>
+      <c r="BU9" s="226">
         <f>BU10</f>
         <v>44914</v>
       </c>
-      <c r="BV9" s="239"/>
+      <c r="BV9" s="227"/>
       <c r="BW9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="BX9" s="240">
+      <c r="BX9" s="228">
         <f>BY10</f>
         <v>44918</v>
       </c>
-      <c r="BY9" s="241"/>
-      <c r="BZ9" s="238">
+      <c r="BY9" s="229"/>
+      <c r="BZ9" s="226">
         <f>BZ10</f>
         <v>44921</v>
       </c>
-      <c r="CA9" s="239"/>
+      <c r="CA9" s="227"/>
       <c r="CB9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="CC9" s="240">
+      <c r="CC9" s="228">
         <f>CD10</f>
         <v>44925</v>
       </c>
-      <c r="CD9" s="241"/>
-      <c r="CE9" s="238">
+      <c r="CD9" s="229"/>
+      <c r="CE9" s="226">
         <f>CE10</f>
         <v>44928</v>
       </c>
-      <c r="CF9" s="239"/>
+      <c r="CF9" s="227"/>
       <c r="CG9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="CH9" s="240">
+      <c r="CH9" s="228">
         <f>CI10</f>
         <v>44932</v>
       </c>
-      <c r="CI9" s="241"/>
-      <c r="CJ9" s="238">
+      <c r="CI9" s="229"/>
+      <c r="CJ9" s="226">
         <f>CJ10</f>
         <v>44935</v>
       </c>
-      <c r="CK9" s="239"/>
+      <c r="CK9" s="227"/>
       <c r="CL9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="CM9" s="240">
+      <c r="CM9" s="228">
         <f>CN10</f>
         <v>44939</v>
       </c>
-      <c r="CN9" s="241"/>
-      <c r="CO9" s="238">
+      <c r="CN9" s="229"/>
+      <c r="CO9" s="226">
         <f>CO10</f>
         <v>44942</v>
       </c>
-      <c r="CP9" s="239"/>
+      <c r="CP9" s="227"/>
       <c r="CQ9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="CR9" s="240">
+      <c r="CR9" s="228">
         <f>CS10</f>
         <v>44946</v>
       </c>
-      <c r="CS9" s="241"/>
-      <c r="CT9" s="238">
+      <c r="CS9" s="229"/>
+      <c r="CT9" s="226">
         <f>CT10</f>
         <v>44949</v>
       </c>
-      <c r="CU9" s="239"/>
+      <c r="CU9" s="227"/>
       <c r="CV9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="CW9" s="240">
+      <c r="CW9" s="228">
         <f>CX10</f>
         <v>44953</v>
       </c>
-      <c r="CX9" s="241"/>
-      <c r="CY9" s="238">
+      <c r="CX9" s="229"/>
+      <c r="CY9" s="226">
         <f>CY10</f>
         <v>44956</v>
       </c>
-      <c r="CZ9" s="239"/>
+      <c r="CZ9" s="227"/>
       <c r="DA9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="DB9" s="240">
+      <c r="DB9" s="228">
         <f>DC10</f>
         <v>44960</v>
       </c>
-      <c r="DC9" s="241"/>
-      <c r="DD9" s="238">
+      <c r="DC9" s="229"/>
+      <c r="DD9" s="226">
         <f>DD10</f>
         <v>44963</v>
       </c>
-      <c r="DE9" s="239"/>
+      <c r="DE9" s="227"/>
       <c r="DF9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="DG9" s="240">
+      <c r="DG9" s="228">
         <f>DH10</f>
         <v>44967</v>
       </c>
-      <c r="DH9" s="241"/>
-      <c r="DI9" s="238">
+      <c r="DH9" s="229"/>
+      <c r="DI9" s="226">
         <f>DI10</f>
         <v>44970</v>
       </c>
-      <c r="DJ9" s="239"/>
+      <c r="DJ9" s="227"/>
       <c r="DK9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="DL9" s="240">
+      <c r="DL9" s="228">
         <f>DM10</f>
         <v>44974</v>
       </c>
-      <c r="DM9" s="241"/>
-      <c r="DN9" s="238">
+      <c r="DM9" s="229"/>
+      <c r="DN9" s="226">
         <f>DN10</f>
         <v>44977</v>
       </c>
-      <c r="DO9" s="239"/>
+      <c r="DO9" s="227"/>
       <c r="DP9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="DQ9" s="240">
+      <c r="DQ9" s="228">
         <f>DR10</f>
         <v>44981</v>
       </c>
-      <c r="DR9" s="241"/>
-      <c r="DS9" s="238">
+      <c r="DR9" s="229"/>
+      <c r="DS9" s="226">
         <f>DS10</f>
         <v>44984</v>
       </c>
-      <c r="DT9" s="239"/>
+      <c r="DT9" s="227"/>
       <c r="DU9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="DV9" s="240">
+      <c r="DV9" s="228">
         <f>DW10</f>
         <v>44988</v>
       </c>
-      <c r="DW9" s="281"/>
+      <c r="DW9" s="230"/>
     </row>
     <row r="10" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A10" s="250"/>
-      <c r="B10" s="259"/>
-      <c r="C10" s="260"/>
-      <c r="D10" s="234"/>
-      <c r="E10" s="234"/>
+      <c r="A10" s="253"/>
+      <c r="B10" s="261"/>
+      <c r="C10" s="262"/>
+      <c r="D10" s="264"/>
+      <c r="E10" s="264"/>
       <c r="F10" s="26" t="s">
         <v>48</v>
       </c>
@@ -8162,182 +8617,182 @@
       </c>
     </row>
     <row r="11" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A11" s="261" t="s">
+      <c r="A11" s="239" t="s">
         <v>191</v>
       </c>
-      <c r="B11" s="251" t="s">
+      <c r="B11" s="254" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="192" t="s">
+      <c r="C11" s="188" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="277" t="s">
+      <c r="D11" s="248" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="192" t="s">
+      <c r="E11" s="188" t="s">
         <v>238</v>
       </c>
       <c r="F11" s="186">
-        <v>44830</v>
+        <v>44823</v>
       </c>
       <c r="G11" s="186">
         <v>44833</v>
       </c>
-      <c r="H11" s="187"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="208"/>
-      <c r="N11" s="208"/>
-      <c r="O11" s="207"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="69"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="67"/>
-      <c r="U11" s="67"/>
-      <c r="V11" s="68"/>
-      <c r="W11" s="69"/>
-      <c r="X11" s="67"/>
-      <c r="Y11" s="67"/>
+      <c r="H11" s="266"/>
+      <c r="I11" s="266"/>
+      <c r="J11" s="266"/>
+      <c r="K11" s="266"/>
+      <c r="L11" s="266"/>
+      <c r="M11" s="266"/>
+      <c r="N11" s="266"/>
+      <c r="O11" s="266"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="72"/>
+      <c r="S11" s="302"/>
+      <c r="T11" s="301"/>
+      <c r="U11" s="301"/>
+      <c r="V11" s="301"/>
+      <c r="W11" s="301"/>
+      <c r="X11" s="303"/>
+      <c r="Y11" s="297"/>
       <c r="Z11" s="67"/>
-      <c r="AA11" s="68"/>
-      <c r="AB11" s="69"/>
-      <c r="AC11" s="67"/>
-      <c r="AD11" s="67"/>
+      <c r="AA11" s="67"/>
+      <c r="AB11" s="67"/>
+      <c r="AC11" s="68"/>
+      <c r="AD11" s="69"/>
       <c r="AE11" s="67"/>
-      <c r="AF11" s="68"/>
-      <c r="AG11" s="69"/>
-      <c r="AH11" s="67"/>
-      <c r="AI11" s="67"/>
+      <c r="AF11" s="67"/>
+      <c r="AG11" s="67"/>
+      <c r="AH11" s="68"/>
+      <c r="AI11" s="69"/>
       <c r="AJ11" s="67"/>
-      <c r="AK11" s="68"/>
-      <c r="AL11" s="212"/>
-      <c r="AM11" s="67"/>
-      <c r="AN11" s="67"/>
+      <c r="AK11" s="67"/>
+      <c r="AL11" s="205"/>
+      <c r="AM11" s="68"/>
+      <c r="AN11" s="69"/>
       <c r="AO11" s="67"/>
-      <c r="AP11" s="68"/>
-      <c r="AQ11" s="69"/>
-      <c r="AR11" s="67"/>
-      <c r="AS11" s="67"/>
+      <c r="AP11" s="67"/>
+      <c r="AQ11" s="67"/>
+      <c r="AR11" s="68"/>
+      <c r="AS11" s="69"/>
       <c r="AT11" s="67"/>
-      <c r="AU11" s="68"/>
-      <c r="AV11" s="69"/>
-      <c r="AW11" s="67"/>
-      <c r="AX11" s="67"/>
+      <c r="AU11" s="67"/>
+      <c r="AV11" s="67"/>
+      <c r="AW11" s="68"/>
+      <c r="AX11" s="69"/>
       <c r="AY11" s="67"/>
-      <c r="AZ11" s="68"/>
-      <c r="BA11" s="69"/>
-      <c r="BB11" s="67"/>
-      <c r="BC11" s="67"/>
+      <c r="AZ11" s="67"/>
+      <c r="BA11" s="67"/>
+      <c r="BB11" s="68"/>
+      <c r="BC11" s="69"/>
       <c r="BD11" s="67"/>
-      <c r="BE11" s="68"/>
-      <c r="BF11" s="69"/>
-      <c r="BG11" s="67"/>
-      <c r="BH11" s="67"/>
+      <c r="BE11" s="67"/>
+      <c r="BF11" s="67"/>
+      <c r="BG11" s="68"/>
+      <c r="BH11" s="69"/>
       <c r="BI11" s="67"/>
-      <c r="BJ11" s="68"/>
-      <c r="BK11" s="69"/>
-      <c r="BL11" s="67"/>
-      <c r="BM11" s="67"/>
+      <c r="BJ11" s="67"/>
+      <c r="BK11" s="67"/>
+      <c r="BL11" s="68"/>
+      <c r="BM11" s="69"/>
       <c r="BN11" s="67"/>
-      <c r="BO11" s="68"/>
-      <c r="BP11" s="69"/>
-      <c r="BQ11" s="67"/>
-      <c r="BR11" s="67"/>
+      <c r="BO11" s="67"/>
+      <c r="BP11" s="67"/>
+      <c r="BQ11" s="68"/>
+      <c r="BR11" s="69"/>
       <c r="BS11" s="67"/>
-      <c r="BT11" s="68"/>
-      <c r="BU11" s="69"/>
-      <c r="BV11" s="67"/>
-      <c r="BW11" s="67"/>
+      <c r="BT11" s="67"/>
+      <c r="BU11" s="67"/>
+      <c r="BV11" s="68"/>
+      <c r="BW11" s="69"/>
       <c r="BX11" s="67"/>
-      <c r="BY11" s="68"/>
-      <c r="BZ11" s="69"/>
-      <c r="CA11" s="67"/>
-      <c r="CB11" s="67"/>
+      <c r="BY11" s="67"/>
+      <c r="BZ11" s="67"/>
+      <c r="CA11" s="68"/>
+      <c r="CB11" s="69"/>
       <c r="CC11" s="67"/>
-      <c r="CD11" s="68"/>
-      <c r="CE11" s="69"/>
-      <c r="CF11" s="67"/>
-      <c r="CG11" s="67"/>
+      <c r="CD11" s="67"/>
+      <c r="CE11" s="67"/>
+      <c r="CF11" s="68"/>
+      <c r="CG11" s="69"/>
       <c r="CH11" s="67"/>
-      <c r="CI11" s="68"/>
-      <c r="CJ11" s="69"/>
-      <c r="CK11" s="67"/>
-      <c r="CL11" s="67"/>
+      <c r="CI11" s="67"/>
+      <c r="CJ11" s="67"/>
+      <c r="CK11" s="68"/>
+      <c r="CL11" s="69"/>
       <c r="CM11" s="67"/>
-      <c r="CN11" s="68"/>
-      <c r="CO11" s="69"/>
-      <c r="CP11" s="67"/>
-      <c r="CQ11" s="67"/>
+      <c r="CN11" s="67"/>
+      <c r="CO11" s="67"/>
+      <c r="CP11" s="68"/>
+      <c r="CQ11" s="69"/>
       <c r="CR11" s="67"/>
-      <c r="CS11" s="68"/>
-      <c r="CT11" s="69"/>
-      <c r="CU11" s="67"/>
-      <c r="CV11" s="67"/>
+      <c r="CS11" s="67"/>
+      <c r="CT11" s="67"/>
+      <c r="CU11" s="68"/>
+      <c r="CV11" s="69"/>
       <c r="CW11" s="67"/>
-      <c r="CX11" s="68"/>
-      <c r="CY11" s="69"/>
-      <c r="CZ11" s="67"/>
-      <c r="DA11" s="67"/>
+      <c r="CX11" s="67"/>
+      <c r="CY11" s="67"/>
+      <c r="CZ11" s="68"/>
+      <c r="DA11" s="69"/>
       <c r="DB11" s="67"/>
-      <c r="DC11" s="68"/>
-      <c r="DD11" s="69"/>
-      <c r="DE11" s="67"/>
-      <c r="DF11" s="67"/>
+      <c r="DC11" s="67"/>
+      <c r="DD11" s="67"/>
+      <c r="DE11" s="68"/>
+      <c r="DF11" s="69"/>
       <c r="DG11" s="67"/>
-      <c r="DH11" s="68"/>
-      <c r="DI11" s="69"/>
-      <c r="DJ11" s="67"/>
-      <c r="DK11" s="67"/>
+      <c r="DH11" s="67"/>
+      <c r="DI11" s="67"/>
+      <c r="DJ11" s="68"/>
+      <c r="DK11" s="69"/>
       <c r="DL11" s="67"/>
-      <c r="DM11" s="68"/>
-      <c r="DN11" s="69"/>
-      <c r="DO11" s="67"/>
-      <c r="DP11" s="67"/>
-      <c r="DQ11" s="67"/>
-      <c r="DR11" s="68"/>
-      <c r="DS11" s="69"/>
-      <c r="DT11" s="67"/>
-      <c r="DU11" s="67"/>
-      <c r="DV11" s="67"/>
-      <c r="DW11" s="70"/>
+      <c r="DM11" s="67"/>
+      <c r="DN11" s="67"/>
+      <c r="DO11" s="70"/>
+      <c r="DP11" s="5"/>
+      <c r="DQ11" s="5"/>
+      <c r="DR11" s="5"/>
+      <c r="DS11" s="5"/>
+      <c r="DT11" s="5"/>
+      <c r="DU11" s="5"/>
+      <c r="DV11" s="5"/>
+      <c r="DW11" s="5"/>
     </row>
     <row r="12" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A12" s="261"/>
-      <c r="B12" s="252"/>
-      <c r="C12" s="192" t="s">
+      <c r="A12" s="239"/>
+      <c r="B12" s="237"/>
+      <c r="C12" s="188" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="278"/>
-      <c r="E12" s="192" t="s">
+      <c r="D12" s="249"/>
+      <c r="E12" s="188" t="s">
         <v>53</v>
       </c>
       <c r="F12" s="186">
-        <v>44839</v>
+        <v>44830</v>
       </c>
       <c r="G12" s="186">
-        <v>44840</v>
-      </c>
-      <c r="H12" s="188"/>
+        <v>44833</v>
+      </c>
+      <c r="H12" s="187"/>
       <c r="I12" s="72"/>
       <c r="J12" s="72"/>
       <c r="K12" s="72"/>
       <c r="L12" s="73"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="72"/>
-      <c r="P12" s="72"/>
+      <c r="M12" s="201"/>
+      <c r="N12" s="201"/>
+      <c r="O12" s="201"/>
+      <c r="P12" s="307"/>
       <c r="Q12" s="73"/>
-      <c r="R12" s="74"/>
-      <c r="S12" s="72"/>
-      <c r="T12" s="208"/>
-      <c r="U12" s="207"/>
-      <c r="V12" s="73"/>
-      <c r="W12" s="74"/>
-      <c r="X12" s="72"/>
-      <c r="Y12" s="72"/>
+      <c r="R12" s="298"/>
+      <c r="S12" s="304"/>
+      <c r="T12" s="304"/>
+      <c r="U12" s="304"/>
+      <c r="V12" s="304"/>
+      <c r="W12" s="304"/>
+      <c r="X12" s="304"/>
+      <c r="Y12" s="299"/>
       <c r="Z12" s="72"/>
       <c r="AA12" s="73"/>
       <c r="AB12" s="74"/>
@@ -8350,7 +8805,7 @@
       <c r="AI12" s="72"/>
       <c r="AJ12" s="72"/>
       <c r="AK12" s="73"/>
-      <c r="AL12" s="213"/>
+      <c r="AL12" s="206"/>
       <c r="AM12" s="72"/>
       <c r="AN12" s="72"/>
       <c r="AO12" s="72"/>
@@ -8441,39 +8896,39 @@
       <c r="DV12" s="72"/>
       <c r="DW12" s="75"/>
     </row>
-    <row r="13" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A13" s="261"/>
-      <c r="B13" s="252"/>
-      <c r="C13" s="192" t="s">
-        <v>234</v>
-      </c>
-      <c r="D13" s="278"/>
-      <c r="E13" s="192" t="s">
-        <v>239</v>
+    <row r="13" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="239"/>
+      <c r="B13" s="237"/>
+      <c r="C13" s="188" t="s">
+        <v>233</v>
+      </c>
+      <c r="D13" s="249"/>
+      <c r="E13" s="188" t="s">
+        <v>237</v>
       </c>
       <c r="F13" s="186">
-        <v>44823</v>
+        <v>44839</v>
       </c>
       <c r="G13" s="186">
-        <v>44832</v>
-      </c>
-      <c r="H13" s="208"/>
-      <c r="I13" s="208"/>
-      <c r="J13" s="208"/>
-      <c r="K13" s="208"/>
-      <c r="L13" s="208"/>
-      <c r="M13" s="208"/>
-      <c r="N13" s="208"/>
-      <c r="O13" s="207"/>
+        <v>44840</v>
+      </c>
+      <c r="H13" s="104"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="102"/>
+      <c r="N13" s="102"/>
+      <c r="O13" s="102"/>
       <c r="P13" s="62"/>
       <c r="Q13" s="63"/>
       <c r="R13" s="64"/>
-      <c r="S13" s="62"/>
-      <c r="T13" s="62"/>
-      <c r="U13" s="62"/>
-      <c r="V13" s="63"/>
-      <c r="W13" s="64"/>
-      <c r="X13" s="62"/>
+      <c r="S13" s="305"/>
+      <c r="T13" s="306"/>
+      <c r="U13" s="307"/>
+      <c r="V13" s="307"/>
+      <c r="W13" s="307"/>
+      <c r="X13" s="308"/>
       <c r="Y13" s="62"/>
       <c r="Z13" s="62"/>
       <c r="AA13" s="63"/>
@@ -8487,7 +8942,7 @@
       <c r="AI13" s="62"/>
       <c r="AJ13" s="62"/>
       <c r="AK13" s="63"/>
-      <c r="AL13" s="214"/>
+      <c r="AL13" s="207"/>
       <c r="AM13" s="62"/>
       <c r="AN13" s="62"/>
       <c r="AO13" s="62"/>
@@ -8578,178 +9033,180 @@
       <c r="DV13" s="62"/>
       <c r="DW13" s="65"/>
     </row>
-    <row r="14" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="262"/>
-      <c r="B14" s="202" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="193" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="278"/>
-      <c r="E14" s="193"/>
+    <row r="14" spans="1:127" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="238" t="s">
+        <v>234</v>
+      </c>
+      <c r="B14" s="246" t="s">
+        <v>235</v>
+      </c>
+      <c r="C14" s="188" t="s">
+        <v>243</v>
+      </c>
+      <c r="D14" s="249"/>
+      <c r="E14" s="188" t="s">
+        <v>242</v>
+      </c>
       <c r="F14" s="186">
-        <v>44830</v>
+        <v>44832</v>
       </c>
       <c r="G14" s="186">
-        <v>44830</v>
-      </c>
-      <c r="H14" s="189"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="207"/>
-      <c r="N14" s="77"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="77"/>
-      <c r="Q14" s="78"/>
-      <c r="R14" s="79"/>
-      <c r="S14" s="77"/>
-      <c r="T14" s="77"/>
-      <c r="U14" s="77"/>
-      <c r="V14" s="78"/>
-      <c r="W14" s="79"/>
-      <c r="X14" s="77"/>
-      <c r="Y14" s="77"/>
-      <c r="Z14" s="77"/>
-      <c r="AA14" s="78"/>
-      <c r="AB14" s="79"/>
-      <c r="AC14" s="77"/>
-      <c r="AD14" s="77"/>
-      <c r="AE14" s="77"/>
-      <c r="AF14" s="78"/>
-      <c r="AG14" s="79"/>
-      <c r="AH14" s="77"/>
-      <c r="AI14" s="77"/>
-      <c r="AJ14" s="77"/>
-      <c r="AK14" s="78"/>
-      <c r="AL14" s="215"/>
-      <c r="AM14" s="77"/>
-      <c r="AN14" s="77"/>
-      <c r="AO14" s="77"/>
-      <c r="AP14" s="78"/>
-      <c r="AQ14" s="79"/>
-      <c r="AR14" s="77"/>
-      <c r="AS14" s="77"/>
-      <c r="AT14" s="77"/>
-      <c r="AU14" s="78"/>
-      <c r="AV14" s="79"/>
-      <c r="AW14" s="77"/>
-      <c r="AX14" s="77"/>
-      <c r="AY14" s="77"/>
-      <c r="AZ14" s="78"/>
-      <c r="BA14" s="79"/>
-      <c r="BB14" s="77"/>
-      <c r="BC14" s="77"/>
-      <c r="BD14" s="77"/>
-      <c r="BE14" s="78"/>
-      <c r="BF14" s="79"/>
-      <c r="BG14" s="77"/>
-      <c r="BH14" s="77"/>
-      <c r="BI14" s="77"/>
-      <c r="BJ14" s="78"/>
-      <c r="BK14" s="79"/>
-      <c r="BL14" s="77"/>
-      <c r="BM14" s="77"/>
-      <c r="BN14" s="77"/>
-      <c r="BO14" s="78"/>
-      <c r="BP14" s="79"/>
-      <c r="BQ14" s="77"/>
-      <c r="BR14" s="77"/>
-      <c r="BS14" s="77"/>
-      <c r="BT14" s="78"/>
-      <c r="BU14" s="79"/>
-      <c r="BV14" s="77"/>
-      <c r="BW14" s="77"/>
-      <c r="BX14" s="77"/>
-      <c r="BY14" s="78"/>
-      <c r="BZ14" s="79"/>
-      <c r="CA14" s="77"/>
-      <c r="CB14" s="77"/>
-      <c r="CC14" s="77"/>
-      <c r="CD14" s="78"/>
-      <c r="CE14" s="79"/>
-      <c r="CF14" s="77"/>
-      <c r="CG14" s="77"/>
-      <c r="CH14" s="77"/>
-      <c r="CI14" s="78"/>
-      <c r="CJ14" s="79"/>
-      <c r="CK14" s="77"/>
-      <c r="CL14" s="77"/>
-      <c r="CM14" s="77"/>
-      <c r="CN14" s="78"/>
-      <c r="CO14" s="79"/>
-      <c r="CP14" s="77"/>
-      <c r="CQ14" s="77"/>
-      <c r="CR14" s="77"/>
-      <c r="CS14" s="78"/>
-      <c r="CT14" s="79"/>
-      <c r="CU14" s="77"/>
-      <c r="CV14" s="77"/>
-      <c r="CW14" s="77"/>
-      <c r="CX14" s="78"/>
-      <c r="CY14" s="79"/>
-      <c r="CZ14" s="77"/>
-      <c r="DA14" s="77"/>
-      <c r="DB14" s="77"/>
-      <c r="DC14" s="78"/>
-      <c r="DD14" s="79"/>
-      <c r="DE14" s="77"/>
-      <c r="DF14" s="77"/>
-      <c r="DG14" s="77"/>
-      <c r="DH14" s="78"/>
-      <c r="DI14" s="79"/>
-      <c r="DJ14" s="77"/>
-      <c r="DK14" s="77"/>
-      <c r="DL14" s="77"/>
-      <c r="DM14" s="78"/>
-      <c r="DN14" s="79"/>
-      <c r="DO14" s="77"/>
-      <c r="DP14" s="77"/>
-      <c r="DQ14" s="77"/>
-      <c r="DR14" s="78"/>
-      <c r="DS14" s="79"/>
-      <c r="DT14" s="77"/>
-      <c r="DU14" s="77"/>
-      <c r="DV14" s="77"/>
-      <c r="DW14" s="80"/>
+        <v>44839</v>
+      </c>
+      <c r="H14" s="192"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="87"/>
+      <c r="O14" s="201"/>
+      <c r="P14" s="201"/>
+      <c r="Q14" s="201"/>
+      <c r="R14" s="201"/>
+      <c r="S14" s="201"/>
+      <c r="T14" s="200"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="57"/>
+      <c r="X14" s="57"/>
+      <c r="Y14" s="57"/>
+      <c r="Z14" s="57"/>
+      <c r="AA14" s="58"/>
+      <c r="AB14" s="59"/>
+      <c r="AC14" s="57"/>
+      <c r="AD14" s="57"/>
+      <c r="AE14" s="57"/>
+      <c r="AF14" s="58"/>
+      <c r="AG14" s="59"/>
+      <c r="AH14" s="57"/>
+      <c r="AI14" s="57"/>
+      <c r="AJ14" s="57"/>
+      <c r="AK14" s="58"/>
+      <c r="AL14" s="209"/>
+      <c r="AM14" s="57"/>
+      <c r="AN14" s="57"/>
+      <c r="AO14" s="57"/>
+      <c r="AP14" s="58"/>
+      <c r="AQ14" s="59"/>
+      <c r="AR14" s="57"/>
+      <c r="AS14" s="57"/>
+      <c r="AT14" s="57"/>
+      <c r="AU14" s="58"/>
+      <c r="AV14" s="59"/>
+      <c r="AW14" s="57"/>
+      <c r="AX14" s="57"/>
+      <c r="AY14" s="57"/>
+      <c r="AZ14" s="58"/>
+      <c r="BA14" s="59"/>
+      <c r="BB14" s="57"/>
+      <c r="BC14" s="57"/>
+      <c r="BD14" s="57"/>
+      <c r="BE14" s="58"/>
+      <c r="BF14" s="59"/>
+      <c r="BG14" s="57"/>
+      <c r="BH14" s="57"/>
+      <c r="BI14" s="57"/>
+      <c r="BJ14" s="58"/>
+      <c r="BK14" s="59"/>
+      <c r="BL14" s="57"/>
+      <c r="BM14" s="57"/>
+      <c r="BN14" s="57"/>
+      <c r="BO14" s="58"/>
+      <c r="BP14" s="59"/>
+      <c r="BQ14" s="57"/>
+      <c r="BR14" s="57"/>
+      <c r="BS14" s="57"/>
+      <c r="BT14" s="58"/>
+      <c r="BU14" s="59"/>
+      <c r="BV14" s="57"/>
+      <c r="BW14" s="57"/>
+      <c r="BX14" s="57"/>
+      <c r="BY14" s="58"/>
+      <c r="BZ14" s="59"/>
+      <c r="CA14" s="57"/>
+      <c r="CB14" s="57"/>
+      <c r="CC14" s="57"/>
+      <c r="CD14" s="58"/>
+      <c r="CE14" s="59"/>
+      <c r="CF14" s="57"/>
+      <c r="CG14" s="57"/>
+      <c r="CH14" s="57"/>
+      <c r="CI14" s="58"/>
+      <c r="CJ14" s="59"/>
+      <c r="CK14" s="57"/>
+      <c r="CL14" s="57"/>
+      <c r="CM14" s="57"/>
+      <c r="CN14" s="58"/>
+      <c r="CO14" s="59"/>
+      <c r="CP14" s="57"/>
+      <c r="CQ14" s="57"/>
+      <c r="CR14" s="57"/>
+      <c r="CS14" s="58"/>
+      <c r="CT14" s="59"/>
+      <c r="CU14" s="57"/>
+      <c r="CV14" s="57"/>
+      <c r="CW14" s="57"/>
+      <c r="CX14" s="58"/>
+      <c r="CY14" s="59"/>
+      <c r="CZ14" s="57"/>
+      <c r="DA14" s="57"/>
+      <c r="DB14" s="57"/>
+      <c r="DC14" s="58"/>
+      <c r="DD14" s="59"/>
+      <c r="DE14" s="57"/>
+      <c r="DF14" s="57"/>
+      <c r="DG14" s="57"/>
+      <c r="DH14" s="58"/>
+      <c r="DI14" s="59"/>
+      <c r="DJ14" s="57"/>
+      <c r="DK14" s="57"/>
+      <c r="DL14" s="57"/>
+      <c r="DM14" s="58"/>
+      <c r="DN14" s="59"/>
+      <c r="DO14" s="57"/>
+      <c r="DP14" s="57"/>
+      <c r="DQ14" s="57"/>
+      <c r="DR14" s="58"/>
+      <c r="DS14" s="59"/>
+      <c r="DT14" s="57"/>
+      <c r="DU14" s="57"/>
+      <c r="DV14" s="57"/>
+      <c r="DW14" s="60"/>
     </row>
-    <row r="15" spans="1:127" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="267" t="s">
-        <v>235</v>
-      </c>
-      <c r="B15" s="274" t="s">
-        <v>236</v>
-      </c>
-      <c r="C15" s="192" t="s">
-        <v>244</v>
-      </c>
-      <c r="D15" s="278"/>
-      <c r="E15" s="192" t="s">
-        <v>243</v>
+    <row r="15" spans="1:127" x14ac:dyDescent="0.3">
+      <c r="A15" s="238"/>
+      <c r="B15" s="247"/>
+      <c r="C15" s="188" t="s">
+        <v>245</v>
+      </c>
+      <c r="D15" s="249"/>
+      <c r="E15" s="202" t="s">
+        <v>245</v>
       </c>
       <c r="F15" s="186">
         <v>44839</v>
       </c>
-      <c r="G15" s="186"/>
-      <c r="H15" s="197"/>
+      <c r="G15" s="186">
+        <v>44845</v>
+      </c>
+      <c r="H15" s="192"/>
       <c r="I15" s="57"/>
       <c r="J15" s="57"/>
       <c r="K15" s="57"/>
       <c r="L15" s="58"/>
       <c r="M15" s="59"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="208"/>
-      <c r="U15" s="208"/>
-      <c r="V15" s="58"/>
-      <c r="W15" s="59"/>
-      <c r="X15" s="57"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="203"/>
+      <c r="P15" s="203"/>
+      <c r="Q15" s="204"/>
+      <c r="R15" s="74"/>
+      <c r="S15" s="203"/>
+      <c r="T15" s="201"/>
+      <c r="U15" s="201"/>
+      <c r="V15" s="201"/>
+      <c r="W15" s="201"/>
+      <c r="X15" s="200"/>
       <c r="Y15" s="57"/>
       <c r="Z15" s="57"/>
       <c r="AA15" s="58"/>
@@ -8763,7 +9220,7 @@
       <c r="AI15" s="57"/>
       <c r="AJ15" s="57"/>
       <c r="AK15" s="58"/>
-      <c r="AL15" s="216"/>
+      <c r="AL15" s="209"/>
       <c r="AM15" s="57"/>
       <c r="AN15" s="57"/>
       <c r="AO15" s="57"/>
@@ -8854,37 +9311,39 @@
       <c r="DV15" s="57"/>
       <c r="DW15" s="60"/>
     </row>
-    <row r="16" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A16" s="267"/>
-      <c r="B16" s="276"/>
-      <c r="C16" s="192" t="s">
-        <v>246</v>
-      </c>
-      <c r="D16" s="278"/>
-      <c r="E16" s="209" t="s">
-        <v>246</v>
+    <row r="16" spans="1:127" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="238"/>
+      <c r="B16" s="247"/>
+      <c r="C16" s="188" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="249"/>
+      <c r="E16" s="213" t="s">
+        <v>241</v>
       </c>
       <c r="F16" s="186">
         <v>44839</v>
       </c>
-      <c r="G16" s="186"/>
-      <c r="H16" s="197"/>
+      <c r="G16" s="186">
+        <v>44845</v>
+      </c>
+      <c r="H16" s="192"/>
       <c r="I16" s="57"/>
       <c r="J16" s="57"/>
       <c r="K16" s="57"/>
       <c r="L16" s="58"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="210"/>
-      <c r="P16" s="210"/>
-      <c r="Q16" s="211"/>
-      <c r="R16" s="64"/>
-      <c r="S16" s="210"/>
-      <c r="T16" s="208"/>
-      <c r="U16" s="208"/>
-      <c r="V16" s="58"/>
-      <c r="W16" s="59"/>
-      <c r="X16" s="57"/>
+      <c r="M16" s="300"/>
+      <c r="N16" s="307"/>
+      <c r="O16" s="307"/>
+      <c r="P16" s="307"/>
+      <c r="Q16" s="307"/>
+      <c r="R16" s="307"/>
+      <c r="S16" s="307"/>
+      <c r="T16" s="309"/>
+      <c r="U16" s="310"/>
+      <c r="V16" s="310"/>
+      <c r="W16" s="310"/>
+      <c r="X16" s="310"/>
       <c r="Y16" s="57"/>
       <c r="Z16" s="57"/>
       <c r="AA16" s="58"/>
@@ -8898,7 +9357,7 @@
       <c r="AI16" s="57"/>
       <c r="AJ16" s="57"/>
       <c r="AK16" s="58"/>
-      <c r="AL16" s="216"/>
+      <c r="AL16" s="209"/>
       <c r="AM16" s="57"/>
       <c r="AN16" s="57"/>
       <c r="AO16" s="57"/>
@@ -8989,158 +9448,162 @@
       <c r="DV16" s="57"/>
       <c r="DW16" s="60"/>
     </row>
-    <row r="17" spans="1:127" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="267"/>
-      <c r="B17" s="276"/>
-      <c r="C17" s="192" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="278"/>
-      <c r="E17" s="265" t="s">
-        <v>242</v>
+    <row r="17" spans="1:127" x14ac:dyDescent="0.3">
+      <c r="A17" s="243" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="237" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="188" t="s">
+        <v>239</v>
+      </c>
+      <c r="D17" s="249"/>
+      <c r="E17" s="237" t="s">
+        <v>240</v>
       </c>
       <c r="F17" s="186">
-        <v>44832</v>
+        <v>44845</v>
       </c>
       <c r="G17" s="186">
-        <v>44839</v>
-      </c>
-      <c r="H17" s="197"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="208"/>
-      <c r="P17" s="208"/>
-      <c r="Q17" s="208"/>
-      <c r="R17" s="208"/>
-      <c r="S17" s="208"/>
-      <c r="T17" s="207"/>
-      <c r="U17" s="57"/>
-      <c r="V17" s="58"/>
-      <c r="W17" s="59"/>
-      <c r="X17" s="57"/>
-      <c r="Y17" s="57"/>
-      <c r="Z17" s="57"/>
-      <c r="AA17" s="58"/>
-      <c r="AB17" s="59"/>
-      <c r="AC17" s="57"/>
-      <c r="AD17" s="57"/>
-      <c r="AE17" s="57"/>
-      <c r="AF17" s="58"/>
-      <c r="AG17" s="59"/>
-      <c r="AH17" s="57"/>
-      <c r="AI17" s="57"/>
-      <c r="AJ17" s="57"/>
-      <c r="AK17" s="58"/>
-      <c r="AL17" s="216"/>
-      <c r="AM17" s="57"/>
-      <c r="AN17" s="57"/>
-      <c r="AO17" s="57"/>
-      <c r="AP17" s="58"/>
-      <c r="AQ17" s="59"/>
-      <c r="AR17" s="57"/>
-      <c r="AS17" s="57"/>
-      <c r="AT17" s="57"/>
-      <c r="AU17" s="58"/>
-      <c r="AV17" s="59"/>
-      <c r="AW17" s="57"/>
-      <c r="AX17" s="57"/>
-      <c r="AY17" s="57"/>
-      <c r="AZ17" s="58"/>
-      <c r="BA17" s="59"/>
-      <c r="BB17" s="57"/>
-      <c r="BC17" s="57"/>
-      <c r="BD17" s="57"/>
-      <c r="BE17" s="58"/>
-      <c r="BF17" s="59"/>
-      <c r="BG17" s="57"/>
-      <c r="BH17" s="57"/>
-      <c r="BI17" s="57"/>
-      <c r="BJ17" s="58"/>
-      <c r="BK17" s="59"/>
-      <c r="BL17" s="57"/>
-      <c r="BM17" s="57"/>
-      <c r="BN17" s="57"/>
-      <c r="BO17" s="58"/>
-      <c r="BP17" s="59"/>
-      <c r="BQ17" s="57"/>
-      <c r="BR17" s="57"/>
-      <c r="BS17" s="57"/>
-      <c r="BT17" s="58"/>
-      <c r="BU17" s="59"/>
-      <c r="BV17" s="57"/>
-      <c r="BW17" s="57"/>
-      <c r="BX17" s="57"/>
-      <c r="BY17" s="58"/>
-      <c r="BZ17" s="59"/>
-      <c r="CA17" s="57"/>
-      <c r="CB17" s="57"/>
-      <c r="CC17" s="57"/>
-      <c r="CD17" s="58"/>
-      <c r="CE17" s="59"/>
-      <c r="CF17" s="57"/>
-      <c r="CG17" s="57"/>
-      <c r="CH17" s="57"/>
-      <c r="CI17" s="58"/>
-      <c r="CJ17" s="59"/>
-      <c r="CK17" s="57"/>
-      <c r="CL17" s="57"/>
-      <c r="CM17" s="57"/>
-      <c r="CN17" s="58"/>
-      <c r="CO17" s="59"/>
-      <c r="CP17" s="57"/>
-      <c r="CQ17" s="57"/>
-      <c r="CR17" s="57"/>
-      <c r="CS17" s="58"/>
-      <c r="CT17" s="59"/>
-      <c r="CU17" s="57"/>
-      <c r="CV17" s="57"/>
-      <c r="CW17" s="57"/>
-      <c r="CX17" s="58"/>
-      <c r="CY17" s="59"/>
-      <c r="CZ17" s="57"/>
-      <c r="DA17" s="57"/>
-      <c r="DB17" s="57"/>
-      <c r="DC17" s="58"/>
-      <c r="DD17" s="59"/>
-      <c r="DE17" s="57"/>
-      <c r="DF17" s="57"/>
-      <c r="DG17" s="57"/>
-      <c r="DH17" s="58"/>
-      <c r="DI17" s="59"/>
-      <c r="DJ17" s="57"/>
-      <c r="DK17" s="57"/>
-      <c r="DL17" s="57"/>
-      <c r="DM17" s="58"/>
-      <c r="DN17" s="59"/>
-      <c r="DO17" s="57"/>
-      <c r="DP17" s="57"/>
-      <c r="DQ17" s="57"/>
-      <c r="DR17" s="58"/>
-      <c r="DS17" s="59"/>
-      <c r="DT17" s="57"/>
-      <c r="DU17" s="57"/>
-      <c r="DV17" s="57"/>
-      <c r="DW17" s="60"/>
+        <v>44848</v>
+      </c>
+      <c r="H17" s="191"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="97"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="99"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="88"/>
+      <c r="R17" s="89"/>
+      <c r="S17" s="87"/>
+      <c r="T17" s="97"/>
+      <c r="U17" s="97"/>
+      <c r="V17" s="98"/>
+      <c r="W17" s="99"/>
+      <c r="X17" s="201"/>
+      <c r="Y17" s="201"/>
+      <c r="Z17" s="201"/>
+      <c r="AA17" s="98"/>
+      <c r="AB17" s="99"/>
+      <c r="AC17" s="97"/>
+      <c r="AD17" s="97"/>
+      <c r="AE17" s="97"/>
+      <c r="AF17" s="98"/>
+      <c r="AG17" s="99"/>
+      <c r="AH17" s="97"/>
+      <c r="AI17" s="97"/>
+      <c r="AJ17" s="97"/>
+      <c r="AK17" s="98"/>
+      <c r="AL17" s="210"/>
+      <c r="AM17" s="97"/>
+      <c r="AN17" s="97"/>
+      <c r="AO17" s="97"/>
+      <c r="AP17" s="98"/>
+      <c r="AQ17" s="99"/>
+      <c r="AR17" s="97"/>
+      <c r="AS17" s="97"/>
+      <c r="AT17" s="97"/>
+      <c r="AU17" s="98"/>
+      <c r="AV17" s="99"/>
+      <c r="AW17" s="97"/>
+      <c r="AX17" s="97"/>
+      <c r="AY17" s="97"/>
+      <c r="AZ17" s="98"/>
+      <c r="BA17" s="99"/>
+      <c r="BB17" s="97"/>
+      <c r="BC17" s="97"/>
+      <c r="BD17" s="97"/>
+      <c r="BE17" s="98"/>
+      <c r="BF17" s="99"/>
+      <c r="BG17" s="97"/>
+      <c r="BH17" s="97"/>
+      <c r="BI17" s="97"/>
+      <c r="BJ17" s="98"/>
+      <c r="BK17" s="99"/>
+      <c r="BL17" s="97"/>
+      <c r="BM17" s="97"/>
+      <c r="BN17" s="97"/>
+      <c r="BO17" s="98"/>
+      <c r="BP17" s="99"/>
+      <c r="BQ17" s="97"/>
+      <c r="BR17" s="97"/>
+      <c r="BS17" s="97"/>
+      <c r="BT17" s="98"/>
+      <c r="BU17" s="99"/>
+      <c r="BV17" s="97"/>
+      <c r="BW17" s="97"/>
+      <c r="BX17" s="97"/>
+      <c r="BY17" s="98"/>
+      <c r="BZ17" s="99"/>
+      <c r="CA17" s="97"/>
+      <c r="CB17" s="97"/>
+      <c r="CC17" s="97"/>
+      <c r="CD17" s="98"/>
+      <c r="CE17" s="99"/>
+      <c r="CF17" s="97"/>
+      <c r="CG17" s="97"/>
+      <c r="CH17" s="97"/>
+      <c r="CI17" s="98"/>
+      <c r="CJ17" s="99"/>
+      <c r="CK17" s="97"/>
+      <c r="CL17" s="97"/>
+      <c r="CM17" s="97"/>
+      <c r="CN17" s="98"/>
+      <c r="CO17" s="99"/>
+      <c r="CP17" s="97"/>
+      <c r="CQ17" s="97"/>
+      <c r="CR17" s="97"/>
+      <c r="CS17" s="98"/>
+      <c r="CT17" s="99"/>
+      <c r="CU17" s="97"/>
+      <c r="CV17" s="97"/>
+      <c r="CW17" s="97"/>
+      <c r="CX17" s="98"/>
+      <c r="CY17" s="99"/>
+      <c r="CZ17" s="97"/>
+      <c r="DA17" s="97"/>
+      <c r="DB17" s="97"/>
+      <c r="DC17" s="98"/>
+      <c r="DD17" s="99"/>
+      <c r="DE17" s="97"/>
+      <c r="DF17" s="97"/>
+      <c r="DG17" s="97"/>
+      <c r="DH17" s="98"/>
+      <c r="DI17" s="99"/>
+      <c r="DJ17" s="97"/>
+      <c r="DK17" s="97"/>
+      <c r="DL17" s="97"/>
+      <c r="DM17" s="98"/>
+      <c r="DN17" s="99"/>
+      <c r="DO17" s="97"/>
+      <c r="DP17" s="97"/>
+      <c r="DQ17" s="97"/>
+      <c r="DR17" s="98"/>
+      <c r="DS17" s="99"/>
+      <c r="DT17" s="97"/>
+      <c r="DU17" s="97"/>
+      <c r="DV17" s="97"/>
+      <c r="DW17" s="100"/>
     </row>
-    <row r="18" spans="1:127" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="261"/>
-      <c r="B18" s="275"/>
-      <c r="C18" s="192" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="278"/>
-      <c r="E18" s="266"/>
+    <row r="18" spans="1:127" x14ac:dyDescent="0.3">
+      <c r="A18" s="244"/>
+      <c r="B18" s="237"/>
+      <c r="C18" s="188" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="249"/>
+      <c r="E18" s="237"/>
       <c r="F18" s="186">
-        <v>44838</v>
+        <v>44845</v>
       </c>
       <c r="G18" s="186">
-        <v>44838</v>
-      </c>
-      <c r="H18" s="197"/>
+        <v>44848</v>
+      </c>
+      <c r="H18" s="192"/>
       <c r="I18" s="57"/>
       <c r="J18" s="57"/>
       <c r="K18" s="57"/>
@@ -9151,14 +9614,14 @@
       <c r="P18" s="57"/>
       <c r="Q18" s="58"/>
       <c r="R18" s="59"/>
-      <c r="S18" s="207"/>
+      <c r="S18" s="57"/>
       <c r="T18" s="57"/>
       <c r="U18" s="57"/>
       <c r="V18" s="58"/>
       <c r="W18" s="59"/>
-      <c r="X18" s="57"/>
-      <c r="Y18" s="57"/>
-      <c r="Z18" s="57"/>
+      <c r="X18" s="201"/>
+      <c r="Y18" s="201"/>
+      <c r="Z18" s="201"/>
       <c r="AA18" s="58"/>
       <c r="AB18" s="59"/>
       <c r="AC18" s="57"/>
@@ -9170,7 +9633,7 @@
       <c r="AI18" s="57"/>
       <c r="AJ18" s="57"/>
       <c r="AK18" s="58"/>
-      <c r="AL18" s="216"/>
+      <c r="AL18" s="209"/>
       <c r="AM18" s="57"/>
       <c r="AN18" s="57"/>
       <c r="AO18" s="57"/>
@@ -9261,1424 +9724,849 @@
       <c r="DV18" s="57"/>
       <c r="DW18" s="60"/>
     </row>
-    <row r="19" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A19" s="271" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="252" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="192" t="s">
-        <v>240</v>
-      </c>
-      <c r="D19" s="278"/>
-      <c r="E19" s="252" t="s">
-        <v>241</v>
-      </c>
-      <c r="F19" s="186"/>
-      <c r="G19" s="186"/>
-      <c r="H19" s="196"/>
-      <c r="I19" s="97"/>
-      <c r="J19" s="97"/>
-      <c r="K19" s="97"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="99"/>
-      <c r="N19" s="97"/>
-      <c r="O19" s="97"/>
-      <c r="P19" s="97"/>
-      <c r="Q19" s="98"/>
-      <c r="R19" s="99"/>
-      <c r="S19" s="97"/>
-      <c r="T19" s="97"/>
-      <c r="U19" s="97"/>
-      <c r="V19" s="98"/>
-      <c r="W19" s="99"/>
-      <c r="X19" s="97"/>
-      <c r="Y19" s="97"/>
-      <c r="Z19" s="97"/>
-      <c r="AA19" s="98"/>
-      <c r="AB19" s="99"/>
-      <c r="AC19" s="97"/>
-      <c r="AD19" s="97"/>
-      <c r="AE19" s="97"/>
-      <c r="AF19" s="98"/>
-      <c r="AG19" s="99"/>
-      <c r="AH19" s="97"/>
-      <c r="AI19" s="97"/>
-      <c r="AJ19" s="97"/>
-      <c r="AK19" s="98"/>
-      <c r="AL19" s="217"/>
-      <c r="AM19" s="97"/>
-      <c r="AN19" s="97"/>
-      <c r="AO19" s="97"/>
-      <c r="AP19" s="98"/>
-      <c r="AQ19" s="99"/>
-      <c r="AR19" s="97"/>
-      <c r="AS19" s="97"/>
-      <c r="AT19" s="97"/>
-      <c r="AU19" s="98"/>
-      <c r="AV19" s="99"/>
-      <c r="AW19" s="97"/>
-      <c r="AX19" s="97"/>
-      <c r="AY19" s="97"/>
-      <c r="AZ19" s="98"/>
-      <c r="BA19" s="99"/>
-      <c r="BB19" s="97"/>
-      <c r="BC19" s="97"/>
-      <c r="BD19" s="97"/>
-      <c r="BE19" s="98"/>
-      <c r="BF19" s="99"/>
-      <c r="BG19" s="97"/>
-      <c r="BH19" s="97"/>
-      <c r="BI19" s="97"/>
-      <c r="BJ19" s="98"/>
-      <c r="BK19" s="99"/>
-      <c r="BL19" s="97"/>
-      <c r="BM19" s="97"/>
-      <c r="BN19" s="97"/>
-      <c r="BO19" s="98"/>
-      <c r="BP19" s="99"/>
-      <c r="BQ19" s="97"/>
-      <c r="BR19" s="97"/>
-      <c r="BS19" s="97"/>
-      <c r="BT19" s="98"/>
-      <c r="BU19" s="99"/>
-      <c r="BV19" s="97"/>
-      <c r="BW19" s="97"/>
-      <c r="BX19" s="97"/>
-      <c r="BY19" s="98"/>
-      <c r="BZ19" s="99"/>
-      <c r="CA19" s="97"/>
-      <c r="CB19" s="97"/>
-      <c r="CC19" s="97"/>
-      <c r="CD19" s="98"/>
-      <c r="CE19" s="99"/>
-      <c r="CF19" s="97"/>
-      <c r="CG19" s="97"/>
-      <c r="CH19" s="97"/>
-      <c r="CI19" s="98"/>
-      <c r="CJ19" s="99"/>
-      <c r="CK19" s="97"/>
-      <c r="CL19" s="97"/>
-      <c r="CM19" s="97"/>
-      <c r="CN19" s="98"/>
-      <c r="CO19" s="99"/>
-      <c r="CP19" s="97"/>
-      <c r="CQ19" s="97"/>
-      <c r="CR19" s="97"/>
-      <c r="CS19" s="98"/>
-      <c r="CT19" s="99"/>
-      <c r="CU19" s="97"/>
-      <c r="CV19" s="97"/>
-      <c r="CW19" s="97"/>
-      <c r="CX19" s="98"/>
-      <c r="CY19" s="99"/>
-      <c r="CZ19" s="97"/>
-      <c r="DA19" s="97"/>
-      <c r="DB19" s="97"/>
-      <c r="DC19" s="98"/>
-      <c r="DD19" s="99"/>
-      <c r="DE19" s="97"/>
-      <c r="DF19" s="97"/>
-      <c r="DG19" s="97"/>
-      <c r="DH19" s="98"/>
-      <c r="DI19" s="99"/>
-      <c r="DJ19" s="97"/>
-      <c r="DK19" s="97"/>
-      <c r="DL19" s="97"/>
-      <c r="DM19" s="98"/>
-      <c r="DN19" s="99"/>
-      <c r="DO19" s="97"/>
-      <c r="DP19" s="97"/>
-      <c r="DQ19" s="97"/>
-      <c r="DR19" s="98"/>
-      <c r="DS19" s="99"/>
-      <c r="DT19" s="97"/>
-      <c r="DU19" s="97"/>
-      <c r="DV19" s="97"/>
-      <c r="DW19" s="100"/>
+    <row r="19" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="245"/>
+      <c r="B19" s="198" t="s">
+        <v>236</v>
+      </c>
+      <c r="C19" s="188" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="249"/>
+      <c r="E19" s="199"/>
+      <c r="F19" s="186">
+        <v>44846</v>
+      </c>
+      <c r="G19" s="186">
+        <v>44848</v>
+      </c>
+      <c r="H19" s="192"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="58"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="57"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="57"/>
+      <c r="V19" s="58"/>
+      <c r="W19" s="59"/>
+      <c r="X19" s="57"/>
+      <c r="Y19" s="201"/>
+      <c r="Z19" s="201"/>
+      <c r="AA19" s="58"/>
+      <c r="AB19" s="59"/>
+      <c r="AC19" s="57"/>
+      <c r="AD19" s="57"/>
+      <c r="AE19" s="57"/>
+      <c r="AF19" s="58"/>
+      <c r="AG19" s="59"/>
+      <c r="AH19" s="57"/>
+      <c r="AI19" s="57"/>
+      <c r="AJ19" s="57"/>
+      <c r="AK19" s="58"/>
+      <c r="AL19" s="209"/>
+      <c r="AM19" s="57"/>
+      <c r="AN19" s="57"/>
+      <c r="AO19" s="57"/>
+      <c r="AP19" s="58"/>
+      <c r="AQ19" s="59"/>
+      <c r="AR19" s="57"/>
+      <c r="AS19" s="57"/>
+      <c r="AT19" s="57"/>
+      <c r="AU19" s="58"/>
+      <c r="AV19" s="59"/>
+      <c r="AW19" s="57"/>
+      <c r="AX19" s="57"/>
+      <c r="AY19" s="57"/>
+      <c r="AZ19" s="58"/>
+      <c r="BA19" s="59"/>
+      <c r="BB19" s="57"/>
+      <c r="BC19" s="57"/>
+      <c r="BD19" s="57"/>
+      <c r="BE19" s="58"/>
+      <c r="BF19" s="59"/>
+      <c r="BG19" s="57"/>
+      <c r="BH19" s="57"/>
+      <c r="BI19" s="57"/>
+      <c r="BJ19" s="58"/>
+      <c r="BK19" s="59"/>
+      <c r="BL19" s="57"/>
+      <c r="BM19" s="57"/>
+      <c r="BN19" s="57"/>
+      <c r="BO19" s="58"/>
+      <c r="BP19" s="59"/>
+      <c r="BQ19" s="57"/>
+      <c r="BR19" s="57"/>
+      <c r="BS19" s="57"/>
+      <c r="BT19" s="58"/>
+      <c r="BU19" s="59"/>
+      <c r="BV19" s="57"/>
+      <c r="BW19" s="57"/>
+      <c r="BX19" s="57"/>
+      <c r="BY19" s="58"/>
+      <c r="BZ19" s="59"/>
+      <c r="CA19" s="57"/>
+      <c r="CB19" s="57"/>
+      <c r="CC19" s="57"/>
+      <c r="CD19" s="58"/>
+      <c r="CE19" s="59"/>
+      <c r="CF19" s="57"/>
+      <c r="CG19" s="57"/>
+      <c r="CH19" s="57"/>
+      <c r="CI19" s="58"/>
+      <c r="CJ19" s="59"/>
+      <c r="CK19" s="57"/>
+      <c r="CL19" s="57"/>
+      <c r="CM19" s="57"/>
+      <c r="CN19" s="58"/>
+      <c r="CO19" s="59"/>
+      <c r="CP19" s="57"/>
+      <c r="CQ19" s="57"/>
+      <c r="CR19" s="57"/>
+      <c r="CS19" s="58"/>
+      <c r="CT19" s="59"/>
+      <c r="CU19" s="57"/>
+      <c r="CV19" s="57"/>
+      <c r="CW19" s="57"/>
+      <c r="CX19" s="58"/>
+      <c r="CY19" s="59"/>
+      <c r="CZ19" s="57"/>
+      <c r="DA19" s="57"/>
+      <c r="DB19" s="57"/>
+      <c r="DC19" s="58"/>
+      <c r="DD19" s="59"/>
+      <c r="DE19" s="57"/>
+      <c r="DF19" s="57"/>
+      <c r="DG19" s="57"/>
+      <c r="DH19" s="58"/>
+      <c r="DI19" s="59"/>
+      <c r="DJ19" s="57"/>
+      <c r="DK19" s="57"/>
+      <c r="DL19" s="57"/>
+      <c r="DM19" s="58"/>
+      <c r="DN19" s="59"/>
+      <c r="DO19" s="57"/>
+      <c r="DP19" s="57"/>
+      <c r="DQ19" s="57"/>
+      <c r="DR19" s="58"/>
+      <c r="DS19" s="59"/>
+      <c r="DT19" s="57"/>
+      <c r="DU19" s="57"/>
+      <c r="DV19" s="57"/>
+      <c r="DW19" s="60"/>
     </row>
-    <row r="20" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A20" s="272"/>
-      <c r="B20" s="252"/>
-      <c r="C20" s="192" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="278"/>
-      <c r="E20" s="252"/>
-      <c r="F20" s="186"/>
-      <c r="G20" s="186"/>
-      <c r="H20" s="197"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="58"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="57"/>
-      <c r="T20" s="57"/>
-      <c r="U20" s="57"/>
-      <c r="V20" s="58"/>
-      <c r="W20" s="59"/>
-      <c r="X20" s="57"/>
-      <c r="Y20" s="57"/>
-      <c r="Z20" s="57"/>
-      <c r="AA20" s="58"/>
-      <c r="AB20" s="59"/>
-      <c r="AC20" s="57"/>
-      <c r="AD20" s="57"/>
-      <c r="AE20" s="57"/>
-      <c r="AF20" s="58"/>
-      <c r="AG20" s="59"/>
-      <c r="AH20" s="57"/>
-      <c r="AI20" s="57"/>
-      <c r="AJ20" s="57"/>
-      <c r="AK20" s="58"/>
-      <c r="AL20" s="216"/>
-      <c r="AM20" s="57"/>
-      <c r="AN20" s="57"/>
-      <c r="AO20" s="57"/>
-      <c r="AP20" s="58"/>
-      <c r="AQ20" s="59"/>
-      <c r="AR20" s="57"/>
-      <c r="AS20" s="57"/>
-      <c r="AT20" s="57"/>
-      <c r="AU20" s="58"/>
-      <c r="AV20" s="59"/>
-      <c r="AW20" s="57"/>
-      <c r="AX20" s="57"/>
-      <c r="AY20" s="57"/>
-      <c r="AZ20" s="58"/>
-      <c r="BA20" s="59"/>
-      <c r="BB20" s="57"/>
-      <c r="BC20" s="57"/>
-      <c r="BD20" s="57"/>
-      <c r="BE20" s="58"/>
-      <c r="BF20" s="59"/>
-      <c r="BG20" s="57"/>
-      <c r="BH20" s="57"/>
-      <c r="BI20" s="57"/>
-      <c r="BJ20" s="58"/>
-      <c r="BK20" s="59"/>
-      <c r="BL20" s="57"/>
-      <c r="BM20" s="57"/>
-      <c r="BN20" s="57"/>
-      <c r="BO20" s="58"/>
-      <c r="BP20" s="59"/>
-      <c r="BQ20" s="57"/>
-      <c r="BR20" s="57"/>
-      <c r="BS20" s="57"/>
-      <c r="BT20" s="58"/>
-      <c r="BU20" s="59"/>
-      <c r="BV20" s="57"/>
-      <c r="BW20" s="57"/>
-      <c r="BX20" s="57"/>
-      <c r="BY20" s="58"/>
-      <c r="BZ20" s="59"/>
-      <c r="CA20" s="57"/>
-      <c r="CB20" s="57"/>
-      <c r="CC20" s="57"/>
-      <c r="CD20" s="58"/>
-      <c r="CE20" s="59"/>
-      <c r="CF20" s="57"/>
-      <c r="CG20" s="57"/>
-      <c r="CH20" s="57"/>
-      <c r="CI20" s="58"/>
-      <c r="CJ20" s="59"/>
-      <c r="CK20" s="57"/>
-      <c r="CL20" s="57"/>
-      <c r="CM20" s="57"/>
-      <c r="CN20" s="58"/>
-      <c r="CO20" s="59"/>
-      <c r="CP20" s="57"/>
-      <c r="CQ20" s="57"/>
-      <c r="CR20" s="57"/>
-      <c r="CS20" s="58"/>
-      <c r="CT20" s="59"/>
-      <c r="CU20" s="57"/>
-      <c r="CV20" s="57"/>
-      <c r="CW20" s="57"/>
-      <c r="CX20" s="58"/>
-      <c r="CY20" s="59"/>
-      <c r="CZ20" s="57"/>
-      <c r="DA20" s="57"/>
-      <c r="DB20" s="57"/>
-      <c r="DC20" s="58"/>
-      <c r="DD20" s="59"/>
-      <c r="DE20" s="57"/>
-      <c r="DF20" s="57"/>
-      <c r="DG20" s="57"/>
-      <c r="DH20" s="58"/>
-      <c r="DI20" s="59"/>
-      <c r="DJ20" s="57"/>
-      <c r="DK20" s="57"/>
-      <c r="DL20" s="57"/>
-      <c r="DM20" s="58"/>
-      <c r="DN20" s="59"/>
-      <c r="DO20" s="57"/>
-      <c r="DP20" s="57"/>
-      <c r="DQ20" s="57"/>
-      <c r="DR20" s="58"/>
-      <c r="DS20" s="59"/>
-      <c r="DT20" s="57"/>
-      <c r="DU20" s="57"/>
-      <c r="DV20" s="57"/>
-      <c r="DW20" s="60"/>
+    <row r="20" spans="1:127" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="240" t="s">
+        <v>227</v>
+      </c>
+      <c r="B20" s="214" t="s">
+        <v>225</v>
+      </c>
+      <c r="C20" s="188" t="s">
+        <v>247</v>
+      </c>
+      <c r="D20" s="249"/>
+      <c r="E20" s="188" t="s">
+        <v>249</v>
+      </c>
+      <c r="F20" s="186">
+        <v>44851</v>
+      </c>
+      <c r="G20" s="186">
+        <v>44853</v>
+      </c>
+      <c r="H20" s="194"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="88"/>
+      <c r="M20" s="89"/>
+      <c r="N20" s="87"/>
+      <c r="O20" s="87"/>
+      <c r="P20" s="87"/>
+      <c r="Q20" s="88"/>
+      <c r="R20" s="89"/>
+      <c r="S20" s="87"/>
+      <c r="T20" s="87"/>
+      <c r="U20" s="87"/>
+      <c r="V20" s="88"/>
+      <c r="W20" s="89"/>
+      <c r="X20" s="87"/>
+      <c r="Y20" s="87"/>
+      <c r="Z20" s="87"/>
+      <c r="AA20" s="88"/>
+      <c r="AB20" s="201"/>
+      <c r="AC20" s="201"/>
+      <c r="AD20" s="87"/>
+      <c r="AE20" s="87"/>
+      <c r="AF20" s="88"/>
+      <c r="AG20" s="89"/>
+      <c r="AH20" s="87"/>
+      <c r="AI20" s="87"/>
+      <c r="AJ20" s="87"/>
+      <c r="AK20" s="88"/>
+      <c r="AL20" s="211"/>
+      <c r="AM20" s="87"/>
+      <c r="AN20" s="87"/>
+      <c r="AO20" s="87"/>
+      <c r="AP20" s="88"/>
+      <c r="AQ20" s="89"/>
+      <c r="AR20" s="87"/>
+      <c r="AS20" s="87"/>
+      <c r="AT20" s="87"/>
+      <c r="AU20" s="88"/>
+      <c r="AV20" s="89"/>
+      <c r="AW20" s="87"/>
+      <c r="AX20" s="87"/>
+      <c r="AY20" s="87"/>
+      <c r="AZ20" s="88"/>
+      <c r="BA20" s="89"/>
+      <c r="BB20" s="87"/>
+      <c r="BC20" s="87"/>
+      <c r="BD20" s="87"/>
+      <c r="BE20" s="88"/>
+      <c r="BF20" s="89"/>
+      <c r="BG20" s="87"/>
+      <c r="BH20" s="87"/>
+      <c r="BI20" s="87"/>
+      <c r="BJ20" s="88"/>
+      <c r="BK20" s="89"/>
+      <c r="BL20" s="87"/>
+      <c r="BM20" s="87"/>
+      <c r="BN20" s="87"/>
+      <c r="BO20" s="88"/>
+      <c r="BP20" s="89"/>
+      <c r="BQ20" s="87"/>
+      <c r="BR20" s="87"/>
+      <c r="BS20" s="87"/>
+      <c r="BT20" s="88"/>
+      <c r="BU20" s="89"/>
+      <c r="BV20" s="87"/>
+      <c r="BW20" s="87"/>
+      <c r="BX20" s="87"/>
+      <c r="BY20" s="88"/>
+      <c r="BZ20" s="89"/>
+      <c r="CA20" s="87"/>
+      <c r="CB20" s="87"/>
+      <c r="CC20" s="87"/>
+      <c r="CD20" s="88"/>
+      <c r="CE20" s="89"/>
+      <c r="CF20" s="87"/>
+      <c r="CG20" s="87"/>
+      <c r="CH20" s="87"/>
+      <c r="CI20" s="88"/>
+      <c r="CJ20" s="89"/>
+      <c r="CK20" s="87"/>
+      <c r="CL20" s="87"/>
+      <c r="CM20" s="87"/>
+      <c r="CN20" s="88"/>
+      <c r="CO20" s="89"/>
+      <c r="CP20" s="87"/>
+      <c r="CQ20" s="87"/>
+      <c r="CR20" s="87"/>
+      <c r="CS20" s="88"/>
+      <c r="CT20" s="89"/>
+      <c r="CU20" s="87"/>
+      <c r="CV20" s="87"/>
+      <c r="CW20" s="87"/>
+      <c r="CX20" s="88"/>
+      <c r="CY20" s="89"/>
+      <c r="CZ20" s="87"/>
+      <c r="DA20" s="87"/>
+      <c r="DB20" s="87"/>
+      <c r="DC20" s="88"/>
+      <c r="DD20" s="89"/>
+      <c r="DE20" s="87"/>
+      <c r="DF20" s="87"/>
+      <c r="DG20" s="87"/>
+      <c r="DH20" s="88"/>
+      <c r="DI20" s="89"/>
+      <c r="DJ20" s="87"/>
+      <c r="DK20" s="87"/>
+      <c r="DL20" s="87"/>
+      <c r="DM20" s="88"/>
+      <c r="DN20" s="89"/>
+      <c r="DO20" s="87"/>
+      <c r="DP20" s="87"/>
+      <c r="DQ20" s="87"/>
+      <c r="DR20" s="88"/>
+      <c r="DS20" s="89"/>
+      <c r="DT20" s="87"/>
+      <c r="DU20" s="87"/>
+      <c r="DV20" s="87"/>
+      <c r="DW20" s="90"/>
     </row>
-    <row r="21" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="273"/>
-      <c r="B21" s="205" t="s">
-        <v>237</v>
-      </c>
-      <c r="C21" s="192" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="278"/>
-      <c r="E21" s="206"/>
-      <c r="F21" s="186"/>
-      <c r="G21" s="186"/>
-      <c r="H21" s="197"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="58"/>
-      <c r="R21" s="59"/>
-      <c r="S21" s="57"/>
-      <c r="T21" s="57"/>
-      <c r="U21" s="57"/>
-      <c r="V21" s="58"/>
-      <c r="W21" s="59"/>
-      <c r="X21" s="57"/>
-      <c r="Y21" s="57"/>
-      <c r="Z21" s="57"/>
-      <c r="AA21" s="58"/>
-      <c r="AB21" s="59"/>
-      <c r="AC21" s="57"/>
-      <c r="AD21" s="57"/>
-      <c r="AE21" s="57"/>
-      <c r="AF21" s="58"/>
-      <c r="AG21" s="59"/>
-      <c r="AH21" s="57"/>
-      <c r="AI21" s="57"/>
-      <c r="AJ21" s="57"/>
-      <c r="AK21" s="58"/>
-      <c r="AL21" s="216"/>
-      <c r="AM21" s="57"/>
-      <c r="AN21" s="57"/>
-      <c r="AO21" s="57"/>
-      <c r="AP21" s="58"/>
-      <c r="AQ21" s="59"/>
-      <c r="AR21" s="57"/>
-      <c r="AS21" s="57"/>
-      <c r="AT21" s="57"/>
-      <c r="AU21" s="58"/>
-      <c r="AV21" s="59"/>
-      <c r="AW21" s="57"/>
-      <c r="AX21" s="57"/>
-      <c r="AY21" s="57"/>
-      <c r="AZ21" s="58"/>
-      <c r="BA21" s="59"/>
-      <c r="BB21" s="57"/>
-      <c r="BC21" s="57"/>
-      <c r="BD21" s="57"/>
-      <c r="BE21" s="58"/>
-      <c r="BF21" s="59"/>
-      <c r="BG21" s="57"/>
-      <c r="BH21" s="57"/>
-      <c r="BI21" s="57"/>
-      <c r="BJ21" s="58"/>
-      <c r="BK21" s="59"/>
-      <c r="BL21" s="57"/>
-      <c r="BM21" s="57"/>
-      <c r="BN21" s="57"/>
-      <c r="BO21" s="58"/>
-      <c r="BP21" s="59"/>
-      <c r="BQ21" s="57"/>
-      <c r="BR21" s="57"/>
-      <c r="BS21" s="57"/>
-      <c r="BT21" s="58"/>
-      <c r="BU21" s="59"/>
-      <c r="BV21" s="57"/>
-      <c r="BW21" s="57"/>
-      <c r="BX21" s="57"/>
-      <c r="BY21" s="58"/>
-      <c r="BZ21" s="59"/>
-      <c r="CA21" s="57"/>
-      <c r="CB21" s="57"/>
-      <c r="CC21" s="57"/>
-      <c r="CD21" s="58"/>
-      <c r="CE21" s="59"/>
-      <c r="CF21" s="57"/>
-      <c r="CG21" s="57"/>
-      <c r="CH21" s="57"/>
-      <c r="CI21" s="58"/>
-      <c r="CJ21" s="59"/>
-      <c r="CK21" s="57"/>
-      <c r="CL21" s="57"/>
-      <c r="CM21" s="57"/>
-      <c r="CN21" s="58"/>
-      <c r="CO21" s="59"/>
-      <c r="CP21" s="57"/>
-      <c r="CQ21" s="57"/>
-      <c r="CR21" s="57"/>
-      <c r="CS21" s="58"/>
-      <c r="CT21" s="59"/>
-      <c r="CU21" s="57"/>
-      <c r="CV21" s="57"/>
-      <c r="CW21" s="57"/>
-      <c r="CX21" s="58"/>
-      <c r="CY21" s="59"/>
-      <c r="CZ21" s="57"/>
-      <c r="DA21" s="57"/>
-      <c r="DB21" s="57"/>
-      <c r="DC21" s="58"/>
-      <c r="DD21" s="59"/>
-      <c r="DE21" s="57"/>
-      <c r="DF21" s="57"/>
-      <c r="DG21" s="57"/>
-      <c r="DH21" s="58"/>
-      <c r="DI21" s="59"/>
-      <c r="DJ21" s="57"/>
-      <c r="DK21" s="57"/>
-      <c r="DL21" s="57"/>
-      <c r="DM21" s="58"/>
-      <c r="DN21" s="59"/>
-      <c r="DO21" s="57"/>
-      <c r="DP21" s="57"/>
-      <c r="DQ21" s="57"/>
-      <c r="DR21" s="58"/>
-      <c r="DS21" s="59"/>
-      <c r="DT21" s="57"/>
-      <c r="DU21" s="57"/>
-      <c r="DV21" s="57"/>
-      <c r="DW21" s="60"/>
+    <row r="21" spans="1:127" x14ac:dyDescent="0.3">
+      <c r="A21" s="241"/>
+      <c r="B21" s="188" t="s">
+        <v>226</v>
+      </c>
+      <c r="C21" s="188" t="s">
+        <v>248</v>
+      </c>
+      <c r="D21" s="249"/>
+      <c r="E21" s="188" t="s">
+        <v>250</v>
+      </c>
+      <c r="F21" s="186">
+        <v>44853</v>
+      </c>
+      <c r="G21" s="186">
+        <v>44865</v>
+      </c>
+      <c r="H21" s="194"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="87"/>
+      <c r="K21" s="87"/>
+      <c r="L21" s="88"/>
+      <c r="M21" s="89"/>
+      <c r="N21" s="87"/>
+      <c r="O21" s="87"/>
+      <c r="P21" s="87"/>
+      <c r="Q21" s="88"/>
+      <c r="R21" s="89"/>
+      <c r="S21" s="87"/>
+      <c r="T21" s="87"/>
+      <c r="U21" s="87"/>
+      <c r="V21" s="88"/>
+      <c r="W21" s="89"/>
+      <c r="X21" s="87"/>
+      <c r="Y21" s="87"/>
+      <c r="Z21" s="87"/>
+      <c r="AA21" s="88"/>
+      <c r="AB21" s="89"/>
+      <c r="AC21" s="87"/>
+      <c r="AD21" s="201"/>
+      <c r="AE21" s="201"/>
+      <c r="AF21" s="201"/>
+      <c r="AG21" s="201"/>
+      <c r="AH21" s="201"/>
+      <c r="AI21" s="201"/>
+      <c r="AJ21" s="201"/>
+      <c r="AK21" s="201"/>
+      <c r="AL21" s="211"/>
+      <c r="AM21" s="87"/>
+      <c r="AN21" s="87"/>
+      <c r="AO21" s="87"/>
+      <c r="AP21" s="88"/>
+      <c r="AQ21" s="89"/>
+      <c r="AR21" s="87"/>
+      <c r="AS21" s="87"/>
+      <c r="AT21" s="87"/>
+      <c r="AU21" s="88"/>
+      <c r="AV21" s="89"/>
+      <c r="AW21" s="87"/>
+      <c r="AX21" s="87"/>
+      <c r="AY21" s="87"/>
+      <c r="AZ21" s="88"/>
+      <c r="BA21" s="89"/>
+      <c r="BB21" s="87"/>
+      <c r="BC21" s="87"/>
+      <c r="BD21" s="87"/>
+      <c r="BE21" s="88"/>
+      <c r="BF21" s="89"/>
+      <c r="BG21" s="87"/>
+      <c r="BH21" s="87"/>
+      <c r="BI21" s="87"/>
+      <c r="BJ21" s="88"/>
+      <c r="BK21" s="89"/>
+      <c r="BL21" s="87"/>
+      <c r="BM21" s="87"/>
+      <c r="BN21" s="87"/>
+      <c r="BO21" s="88"/>
+      <c r="BP21" s="89"/>
+      <c r="BQ21" s="87"/>
+      <c r="BR21" s="87"/>
+      <c r="BS21" s="87"/>
+      <c r="BT21" s="88"/>
+      <c r="BU21" s="89"/>
+      <c r="BV21" s="87"/>
+      <c r="BW21" s="87"/>
+      <c r="BX21" s="87"/>
+      <c r="BY21" s="88"/>
+      <c r="BZ21" s="89"/>
+      <c r="CA21" s="87"/>
+      <c r="CB21" s="87"/>
+      <c r="CC21" s="87"/>
+      <c r="CD21" s="88"/>
+      <c r="CE21" s="89"/>
+      <c r="CF21" s="87"/>
+      <c r="CG21" s="87"/>
+      <c r="CH21" s="87"/>
+      <c r="CI21" s="88"/>
+      <c r="CJ21" s="89"/>
+      <c r="CK21" s="87"/>
+      <c r="CL21" s="87"/>
+      <c r="CM21" s="87"/>
+      <c r="CN21" s="88"/>
+      <c r="CO21" s="89"/>
+      <c r="CP21" s="87"/>
+      <c r="CQ21" s="87"/>
+      <c r="CR21" s="87"/>
+      <c r="CS21" s="88"/>
+      <c r="CT21" s="89"/>
+      <c r="CU21" s="87"/>
+      <c r="CV21" s="87"/>
+      <c r="CW21" s="87"/>
+      <c r="CX21" s="88"/>
+      <c r="CY21" s="89"/>
+      <c r="CZ21" s="87"/>
+      <c r="DA21" s="87"/>
+      <c r="DB21" s="87"/>
+      <c r="DC21" s="88"/>
+      <c r="DD21" s="89"/>
+      <c r="DE21" s="87"/>
+      <c r="DF21" s="87"/>
+      <c r="DG21" s="87"/>
+      <c r="DH21" s="88"/>
+      <c r="DI21" s="89"/>
+      <c r="DJ21" s="87"/>
+      <c r="DK21" s="87"/>
+      <c r="DL21" s="87"/>
+      <c r="DM21" s="88"/>
+      <c r="DN21" s="89"/>
+      <c r="DO21" s="87"/>
+      <c r="DP21" s="87"/>
+      <c r="DQ21" s="87"/>
+      <c r="DR21" s="88"/>
+      <c r="DS21" s="89"/>
+      <c r="DT21" s="87"/>
+      <c r="DU21" s="87"/>
+      <c r="DV21" s="87"/>
+      <c r="DW21" s="90"/>
     </row>
-    <row r="22" spans="1:127" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="268" t="s">
-        <v>228</v>
-      </c>
-      <c r="B22" s="274" t="s">
-        <v>226</v>
-      </c>
-      <c r="C22" s="192" t="s">
-        <v>112</v>
-      </c>
-      <c r="D22" s="278"/>
-      <c r="E22" s="192" t="s">
-        <v>134</v>
-      </c>
-      <c r="F22" s="186"/>
-      <c r="G22" s="186"/>
-      <c r="H22" s="199"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="88"/>
-      <c r="M22" s="89"/>
-      <c r="N22" s="87"/>
-      <c r="O22" s="87"/>
-      <c r="P22" s="87"/>
-      <c r="Q22" s="88"/>
-      <c r="R22" s="89"/>
-      <c r="S22" s="87"/>
-      <c r="T22" s="87"/>
-      <c r="U22" s="87"/>
-      <c r="V22" s="88"/>
-      <c r="W22" s="89"/>
-      <c r="X22" s="87"/>
-      <c r="Y22" s="87"/>
-      <c r="Z22" s="87"/>
-      <c r="AA22" s="88"/>
-      <c r="AB22" s="89"/>
-      <c r="AC22" s="87"/>
-      <c r="AD22" s="87"/>
-      <c r="AE22" s="87"/>
-      <c r="AF22" s="88"/>
-      <c r="AG22" s="89"/>
-      <c r="AH22" s="87"/>
-      <c r="AI22" s="87"/>
-      <c r="AJ22" s="87"/>
-      <c r="AK22" s="88"/>
-      <c r="AL22" s="218"/>
-      <c r="AM22" s="87"/>
-      <c r="AN22" s="87"/>
-      <c r="AO22" s="87"/>
-      <c r="AP22" s="88"/>
-      <c r="AQ22" s="89"/>
-      <c r="AR22" s="87"/>
-      <c r="AS22" s="87"/>
-      <c r="AT22" s="87"/>
-      <c r="AU22" s="88"/>
-      <c r="AV22" s="89"/>
-      <c r="AW22" s="87"/>
-      <c r="AX22" s="87"/>
-      <c r="AY22" s="87"/>
-      <c r="AZ22" s="88"/>
-      <c r="BA22" s="89"/>
-      <c r="BB22" s="87"/>
-      <c r="BC22" s="87"/>
-      <c r="BD22" s="87"/>
-      <c r="BE22" s="88"/>
-      <c r="BF22" s="89"/>
-      <c r="BG22" s="87"/>
-      <c r="BH22" s="87"/>
-      <c r="BI22" s="87"/>
-      <c r="BJ22" s="88"/>
-      <c r="BK22" s="89"/>
-      <c r="BL22" s="87"/>
-      <c r="BM22" s="87"/>
-      <c r="BN22" s="87"/>
-      <c r="BO22" s="88"/>
-      <c r="BP22" s="89"/>
-      <c r="BQ22" s="87"/>
-      <c r="BR22" s="87"/>
-      <c r="BS22" s="87"/>
-      <c r="BT22" s="88"/>
-      <c r="BU22" s="89"/>
-      <c r="BV22" s="87"/>
-      <c r="BW22" s="87"/>
-      <c r="BX22" s="87"/>
-      <c r="BY22" s="88"/>
-      <c r="BZ22" s="89"/>
-      <c r="CA22" s="87"/>
-      <c r="CB22" s="87"/>
-      <c r="CC22" s="87"/>
-      <c r="CD22" s="88"/>
-      <c r="CE22" s="89"/>
-      <c r="CF22" s="87"/>
-      <c r="CG22" s="87"/>
-      <c r="CH22" s="87"/>
-      <c r="CI22" s="88"/>
-      <c r="CJ22" s="89"/>
-      <c r="CK22" s="87"/>
-      <c r="CL22" s="87"/>
-      <c r="CM22" s="87"/>
-      <c r="CN22" s="88"/>
-      <c r="CO22" s="89"/>
-      <c r="CP22" s="87"/>
-      <c r="CQ22" s="87"/>
-      <c r="CR22" s="87"/>
-      <c r="CS22" s="88"/>
-      <c r="CT22" s="89"/>
-      <c r="CU22" s="87"/>
-      <c r="CV22" s="87"/>
-      <c r="CW22" s="87"/>
-      <c r="CX22" s="88"/>
-      <c r="CY22" s="89"/>
-      <c r="CZ22" s="87"/>
-      <c r="DA22" s="87"/>
-      <c r="DB22" s="87"/>
-      <c r="DC22" s="88"/>
-      <c r="DD22" s="89"/>
-      <c r="DE22" s="87"/>
-      <c r="DF22" s="87"/>
-      <c r="DG22" s="87"/>
-      <c r="DH22" s="88"/>
-      <c r="DI22" s="89"/>
-      <c r="DJ22" s="87"/>
-      <c r="DK22" s="87"/>
-      <c r="DL22" s="87"/>
-      <c r="DM22" s="88"/>
-      <c r="DN22" s="89"/>
-      <c r="DO22" s="87"/>
-      <c r="DP22" s="87"/>
-      <c r="DQ22" s="87"/>
-      <c r="DR22" s="88"/>
-      <c r="DS22" s="89"/>
-      <c r="DT22" s="87"/>
-      <c r="DU22" s="87"/>
-      <c r="DV22" s="87"/>
-      <c r="DW22" s="90"/>
+    <row r="22" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="242"/>
+      <c r="B22" s="189" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="189" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="249"/>
+      <c r="E22" s="189"/>
+      <c r="F22" s="186">
+        <v>44853</v>
+      </c>
+      <c r="G22" s="186">
+        <v>44865</v>
+      </c>
+      <c r="H22" s="195"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="77"/>
+      <c r="Q22" s="78"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="77"/>
+      <c r="T22" s="77"/>
+      <c r="U22" s="77"/>
+      <c r="V22" s="78"/>
+      <c r="W22" s="79"/>
+      <c r="X22" s="77"/>
+      <c r="Y22" s="77"/>
+      <c r="Z22" s="77"/>
+      <c r="AA22" s="78"/>
+      <c r="AB22" s="79"/>
+      <c r="AC22" s="77"/>
+      <c r="AD22" s="201"/>
+      <c r="AE22" s="201"/>
+      <c r="AF22" s="201"/>
+      <c r="AG22" s="201"/>
+      <c r="AH22" s="201"/>
+      <c r="AI22" s="201"/>
+      <c r="AJ22" s="201"/>
+      <c r="AK22" s="201"/>
+      <c r="AL22" s="208"/>
+      <c r="AM22" s="77"/>
+      <c r="AN22" s="77"/>
+      <c r="AO22" s="77"/>
+      <c r="AP22" s="78"/>
+      <c r="AQ22" s="79"/>
+      <c r="AR22" s="77"/>
+      <c r="AS22" s="77"/>
+      <c r="AT22" s="77"/>
+      <c r="AU22" s="78"/>
+      <c r="AV22" s="79"/>
+      <c r="AW22" s="77"/>
+      <c r="AX22" s="77"/>
+      <c r="AY22" s="77"/>
+      <c r="AZ22" s="78"/>
+      <c r="BA22" s="79"/>
+      <c r="BB22" s="77"/>
+      <c r="BC22" s="77"/>
+      <c r="BD22" s="77"/>
+      <c r="BE22" s="78"/>
+      <c r="BF22" s="79"/>
+      <c r="BG22" s="77"/>
+      <c r="BH22" s="77"/>
+      <c r="BI22" s="77"/>
+      <c r="BJ22" s="78"/>
+      <c r="BK22" s="79"/>
+      <c r="BL22" s="77"/>
+      <c r="BM22" s="77"/>
+      <c r="BN22" s="77"/>
+      <c r="BO22" s="78"/>
+      <c r="BP22" s="79"/>
+      <c r="BQ22" s="77"/>
+      <c r="BR22" s="77"/>
+      <c r="BS22" s="77"/>
+      <c r="BT22" s="78"/>
+      <c r="BU22" s="79"/>
+      <c r="BV22" s="77"/>
+      <c r="BW22" s="77"/>
+      <c r="BX22" s="77"/>
+      <c r="BY22" s="78"/>
+      <c r="BZ22" s="79"/>
+      <c r="CA22" s="77"/>
+      <c r="CB22" s="77"/>
+      <c r="CC22" s="77"/>
+      <c r="CD22" s="78"/>
+      <c r="CE22" s="79"/>
+      <c r="CF22" s="77"/>
+      <c r="CG22" s="77"/>
+      <c r="CH22" s="77"/>
+      <c r="CI22" s="78"/>
+      <c r="CJ22" s="79"/>
+      <c r="CK22" s="77"/>
+      <c r="CL22" s="77"/>
+      <c r="CM22" s="77"/>
+      <c r="CN22" s="78"/>
+      <c r="CO22" s="79"/>
+      <c r="CP22" s="77"/>
+      <c r="CQ22" s="77"/>
+      <c r="CR22" s="77"/>
+      <c r="CS22" s="78"/>
+      <c r="CT22" s="79"/>
+      <c r="CU22" s="77"/>
+      <c r="CV22" s="77"/>
+      <c r="CW22" s="77"/>
+      <c r="CX22" s="78"/>
+      <c r="CY22" s="79"/>
+      <c r="CZ22" s="77"/>
+      <c r="DA22" s="77"/>
+      <c r="DB22" s="77"/>
+      <c r="DC22" s="78"/>
+      <c r="DD22" s="79"/>
+      <c r="DE22" s="77"/>
+      <c r="DF22" s="77"/>
+      <c r="DG22" s="77"/>
+      <c r="DH22" s="78"/>
+      <c r="DI22" s="79"/>
+      <c r="DJ22" s="77"/>
+      <c r="DK22" s="77"/>
+      <c r="DL22" s="77"/>
+      <c r="DM22" s="78"/>
+      <c r="DN22" s="79"/>
+      <c r="DO22" s="77"/>
+      <c r="DP22" s="77"/>
+      <c r="DQ22" s="77"/>
+      <c r="DR22" s="78"/>
+      <c r="DS22" s="79"/>
+      <c r="DT22" s="77"/>
+      <c r="DU22" s="77"/>
+      <c r="DV22" s="77"/>
+      <c r="DW22" s="80"/>
     </row>
-    <row r="23" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A23" s="269"/>
-      <c r="B23" s="275"/>
-      <c r="C23" s="192" t="s">
-        <v>109</v>
-      </c>
-      <c r="D23" s="278"/>
-      <c r="E23" s="192"/>
-      <c r="F23" s="186"/>
-      <c r="G23" s="186"/>
-      <c r="H23" s="195"/>
-      <c r="I23" s="106"/>
-      <c r="J23" s="106"/>
-      <c r="K23" s="106"/>
-      <c r="L23" s="107"/>
-      <c r="M23" s="108"/>
-      <c r="N23" s="106"/>
-      <c r="O23" s="106"/>
-      <c r="P23" s="106"/>
-      <c r="Q23" s="107"/>
-      <c r="R23" s="108"/>
-      <c r="S23" s="106"/>
-      <c r="T23" s="106"/>
-      <c r="U23" s="106"/>
-      <c r="V23" s="107"/>
-      <c r="W23" s="108"/>
-      <c r="X23" s="106"/>
-      <c r="Y23" s="106"/>
-      <c r="Z23" s="106"/>
-      <c r="AA23" s="107"/>
-      <c r="AB23" s="108"/>
-      <c r="AC23" s="106"/>
-      <c r="AD23" s="106"/>
-      <c r="AE23" s="106"/>
-      <c r="AF23" s="107"/>
-      <c r="AG23" s="108"/>
-      <c r="AH23" s="106"/>
-      <c r="AI23" s="106"/>
-      <c r="AJ23" s="106"/>
-      <c r="AK23" s="107"/>
-      <c r="AL23" s="219"/>
-      <c r="AM23" s="106"/>
-      <c r="AN23" s="106"/>
-      <c r="AO23" s="106"/>
-      <c r="AP23" s="107"/>
-      <c r="AQ23" s="108"/>
-      <c r="AR23" s="106"/>
-      <c r="AS23" s="106"/>
-      <c r="AT23" s="106"/>
-      <c r="AU23" s="107"/>
-      <c r="AV23" s="108"/>
-      <c r="AW23" s="106"/>
-      <c r="AX23" s="106"/>
-      <c r="AY23" s="106"/>
-      <c r="AZ23" s="107"/>
-      <c r="BA23" s="108"/>
-      <c r="BB23" s="106"/>
-      <c r="BC23" s="106"/>
-      <c r="BD23" s="106"/>
-      <c r="BE23" s="107"/>
-      <c r="BF23" s="108"/>
-      <c r="BG23" s="106"/>
-      <c r="BH23" s="106"/>
-      <c r="BI23" s="106"/>
-      <c r="BJ23" s="107"/>
-      <c r="BK23" s="108"/>
-      <c r="BL23" s="106"/>
-      <c r="BM23" s="106"/>
-      <c r="BN23" s="106"/>
-      <c r="BO23" s="107"/>
-      <c r="BP23" s="108"/>
-      <c r="BQ23" s="106"/>
-      <c r="BR23" s="106"/>
-      <c r="BS23" s="106"/>
-      <c r="BT23" s="107"/>
-      <c r="BU23" s="108"/>
-      <c r="BV23" s="106"/>
-      <c r="BW23" s="106"/>
-      <c r="BX23" s="106"/>
-      <c r="BY23" s="107"/>
-      <c r="BZ23" s="108"/>
-      <c r="CA23" s="106"/>
-      <c r="CB23" s="106"/>
-      <c r="CC23" s="106"/>
-      <c r="CD23" s="107"/>
-      <c r="CE23" s="108"/>
-      <c r="CF23" s="106"/>
-      <c r="CG23" s="106"/>
-      <c r="CH23" s="106"/>
-      <c r="CI23" s="107"/>
-      <c r="CJ23" s="108"/>
-      <c r="CK23" s="106"/>
-      <c r="CL23" s="106"/>
-      <c r="CM23" s="106"/>
-      <c r="CN23" s="107"/>
-      <c r="CO23" s="108"/>
-      <c r="CP23" s="106"/>
-      <c r="CQ23" s="106"/>
-      <c r="CR23" s="106"/>
-      <c r="CS23" s="107"/>
-      <c r="CT23" s="108"/>
-      <c r="CU23" s="106"/>
-      <c r="CV23" s="106"/>
-      <c r="CW23" s="106"/>
-      <c r="CX23" s="107"/>
-      <c r="CY23" s="108"/>
-      <c r="CZ23" s="106"/>
-      <c r="DA23" s="106"/>
-      <c r="DB23" s="106"/>
-      <c r="DC23" s="107"/>
-      <c r="DD23" s="108"/>
-      <c r="DE23" s="106"/>
-      <c r="DF23" s="106"/>
-      <c r="DG23" s="106"/>
-      <c r="DH23" s="107"/>
-      <c r="DI23" s="108"/>
-      <c r="DJ23" s="106"/>
-      <c r="DK23" s="106"/>
-      <c r="DL23" s="106"/>
-      <c r="DM23" s="107"/>
-      <c r="DN23" s="108"/>
-      <c r="DO23" s="106"/>
-      <c r="DP23" s="106"/>
-      <c r="DQ23" s="106"/>
-      <c r="DR23" s="107"/>
-      <c r="DS23" s="108"/>
-      <c r="DT23" s="106"/>
-      <c r="DU23" s="106"/>
-      <c r="DV23" s="106"/>
-      <c r="DW23" s="109"/>
+    <row r="23" spans="1:127" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="235" t="s">
+        <v>224</v>
+      </c>
+      <c r="B23" s="190" t="s">
+        <v>224</v>
+      </c>
+      <c r="C23" s="190" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="249"/>
+      <c r="E23" s="190" t="s">
+        <v>140</v>
+      </c>
+      <c r="F23" s="186">
+        <v>44865</v>
+      </c>
+      <c r="G23" s="186">
+        <v>44867</v>
+      </c>
+      <c r="H23" s="193"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="63"/>
+      <c r="R23" s="64"/>
+      <c r="S23" s="62"/>
+      <c r="T23" s="62"/>
+      <c r="U23" s="62"/>
+      <c r="V23" s="63"/>
+      <c r="W23" s="64"/>
+      <c r="X23" s="62"/>
+      <c r="Y23" s="62"/>
+      <c r="Z23" s="62"/>
+      <c r="AA23" s="63"/>
+      <c r="AB23" s="64"/>
+      <c r="AC23" s="62"/>
+      <c r="AD23" s="62"/>
+      <c r="AE23" s="62"/>
+      <c r="AF23" s="63"/>
+      <c r="AG23" s="64"/>
+      <c r="AH23" s="62"/>
+      <c r="AI23" s="62"/>
+      <c r="AJ23" s="62"/>
+      <c r="AK23" s="63"/>
+      <c r="AL23" s="207"/>
+      <c r="AM23" s="201"/>
+      <c r="AN23" s="62"/>
+      <c r="AO23" s="62"/>
+      <c r="AP23" s="63"/>
+      <c r="AQ23" s="64"/>
+      <c r="AR23" s="62"/>
+      <c r="AS23" s="62"/>
+      <c r="AT23" s="62"/>
+      <c r="AU23" s="63"/>
+      <c r="AV23" s="64"/>
+      <c r="AW23" s="62"/>
+      <c r="AX23" s="62"/>
+      <c r="AY23" s="62"/>
+      <c r="AZ23" s="63"/>
+      <c r="BA23" s="64"/>
+      <c r="BB23" s="62"/>
+      <c r="BC23" s="62"/>
+      <c r="BD23" s="62"/>
+      <c r="BE23" s="63"/>
+      <c r="BF23" s="64"/>
+      <c r="BG23" s="62"/>
+      <c r="BH23" s="62"/>
+      <c r="BI23" s="62"/>
+      <c r="BJ23" s="63"/>
+      <c r="BK23" s="64"/>
+      <c r="BL23" s="62"/>
+      <c r="BM23" s="62"/>
+      <c r="BN23" s="62"/>
+      <c r="BO23" s="63"/>
+      <c r="BP23" s="64"/>
+      <c r="BQ23" s="62"/>
+      <c r="BR23" s="62"/>
+      <c r="BS23" s="62"/>
+      <c r="BT23" s="63"/>
+      <c r="BU23" s="64"/>
+      <c r="BV23" s="62"/>
+      <c r="BW23" s="62"/>
+      <c r="BX23" s="62"/>
+      <c r="BY23" s="63"/>
+      <c r="BZ23" s="64"/>
+      <c r="CA23" s="62"/>
+      <c r="CB23" s="62"/>
+      <c r="CC23" s="62"/>
+      <c r="CD23" s="63"/>
+      <c r="CE23" s="64"/>
+      <c r="CF23" s="62"/>
+      <c r="CG23" s="62"/>
+      <c r="CH23" s="62"/>
+      <c r="CI23" s="63"/>
+      <c r="CJ23" s="64"/>
+      <c r="CK23" s="62"/>
+      <c r="CL23" s="62"/>
+      <c r="CM23" s="62"/>
+      <c r="CN23" s="63"/>
+      <c r="CO23" s="64"/>
+      <c r="CP23" s="62"/>
+      <c r="CQ23" s="62"/>
+      <c r="CR23" s="62"/>
+      <c r="CS23" s="63"/>
+      <c r="CT23" s="64"/>
+      <c r="CU23" s="62"/>
+      <c r="CV23" s="62"/>
+      <c r="CW23" s="62"/>
+      <c r="CX23" s="63"/>
+      <c r="CY23" s="64"/>
+      <c r="CZ23" s="62"/>
+      <c r="DA23" s="62"/>
+      <c r="DB23" s="62"/>
+      <c r="DC23" s="63"/>
+      <c r="DD23" s="64"/>
+      <c r="DE23" s="62"/>
+      <c r="DF23" s="62"/>
+      <c r="DG23" s="62"/>
+      <c r="DH23" s="63"/>
+      <c r="DI23" s="64"/>
+      <c r="DJ23" s="62"/>
+      <c r="DK23" s="62"/>
+      <c r="DL23" s="62"/>
+      <c r="DM23" s="63"/>
+      <c r="DN23" s="64"/>
+      <c r="DO23" s="62"/>
+      <c r="DP23" s="62"/>
+      <c r="DQ23" s="62"/>
+      <c r="DR23" s="63"/>
+      <c r="DS23" s="64"/>
+      <c r="DT23" s="62"/>
+      <c r="DU23" s="62"/>
+      <c r="DV23" s="62"/>
+      <c r="DW23" s="65"/>
     </row>
-    <row r="24" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A24" s="269"/>
-      <c r="B24" s="192" t="s">
-        <v>227</v>
-      </c>
-      <c r="C24" s="192" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" s="278"/>
-      <c r="E24" s="192" t="s">
-        <v>136</v>
-      </c>
-      <c r="F24" s="186"/>
-      <c r="G24" s="186"/>
-      <c r="H24" s="199"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="88"/>
-      <c r="M24" s="89"/>
-      <c r="N24" s="87"/>
-      <c r="O24" s="87"/>
-      <c r="P24" s="87"/>
-      <c r="Q24" s="88"/>
-      <c r="R24" s="89"/>
-      <c r="S24" s="87"/>
-      <c r="T24" s="87"/>
-      <c r="U24" s="87"/>
-      <c r="V24" s="88"/>
-      <c r="W24" s="89"/>
-      <c r="X24" s="87"/>
-      <c r="Y24" s="87"/>
-      <c r="Z24" s="87"/>
-      <c r="AA24" s="88"/>
-      <c r="AB24" s="89"/>
-      <c r="AC24" s="87"/>
-      <c r="AD24" s="87"/>
-      <c r="AE24" s="87"/>
-      <c r="AF24" s="88"/>
-      <c r="AG24" s="89"/>
-      <c r="AH24" s="87"/>
-      <c r="AI24" s="87"/>
-      <c r="AJ24" s="87"/>
-      <c r="AK24" s="88"/>
-      <c r="AL24" s="218"/>
-      <c r="AM24" s="87"/>
-      <c r="AN24" s="87"/>
-      <c r="AO24" s="87"/>
-      <c r="AP24" s="88"/>
-      <c r="AQ24" s="89"/>
-      <c r="AR24" s="87"/>
-      <c r="AS24" s="87"/>
-      <c r="AT24" s="87"/>
-      <c r="AU24" s="88"/>
-      <c r="AV24" s="89"/>
-      <c r="AW24" s="87"/>
-      <c r="AX24" s="87"/>
-      <c r="AY24" s="87"/>
-      <c r="AZ24" s="88"/>
-      <c r="BA24" s="89"/>
-      <c r="BB24" s="87"/>
-      <c r="BC24" s="87"/>
-      <c r="BD24" s="87"/>
-      <c r="BE24" s="88"/>
-      <c r="BF24" s="89"/>
-      <c r="BG24" s="87"/>
-      <c r="BH24" s="87"/>
-      <c r="BI24" s="87"/>
-      <c r="BJ24" s="88"/>
-      <c r="BK24" s="89"/>
-      <c r="BL24" s="87"/>
-      <c r="BM24" s="87"/>
-      <c r="BN24" s="87"/>
-      <c r="BO24" s="88"/>
-      <c r="BP24" s="89"/>
-      <c r="BQ24" s="87"/>
-      <c r="BR24" s="87"/>
-      <c r="BS24" s="87"/>
-      <c r="BT24" s="88"/>
-      <c r="BU24" s="89"/>
-      <c r="BV24" s="87"/>
-      <c r="BW24" s="87"/>
-      <c r="BX24" s="87"/>
-      <c r="BY24" s="88"/>
-      <c r="BZ24" s="89"/>
-      <c r="CA24" s="87"/>
-      <c r="CB24" s="87"/>
-      <c r="CC24" s="87"/>
-      <c r="CD24" s="88"/>
-      <c r="CE24" s="89"/>
-      <c r="CF24" s="87"/>
-      <c r="CG24" s="87"/>
-      <c r="CH24" s="87"/>
-      <c r="CI24" s="88"/>
-      <c r="CJ24" s="89"/>
-      <c r="CK24" s="87"/>
-      <c r="CL24" s="87"/>
-      <c r="CM24" s="87"/>
-      <c r="CN24" s="88"/>
-      <c r="CO24" s="89"/>
-      <c r="CP24" s="87"/>
-      <c r="CQ24" s="87"/>
-      <c r="CR24" s="87"/>
-      <c r="CS24" s="88"/>
-      <c r="CT24" s="89"/>
-      <c r="CU24" s="87"/>
-      <c r="CV24" s="87"/>
-      <c r="CW24" s="87"/>
-      <c r="CX24" s="88"/>
-      <c r="CY24" s="89"/>
-      <c r="CZ24" s="87"/>
-      <c r="DA24" s="87"/>
-      <c r="DB24" s="87"/>
-      <c r="DC24" s="88"/>
-      <c r="DD24" s="89"/>
-      <c r="DE24" s="87"/>
-      <c r="DF24" s="87"/>
-      <c r="DG24" s="87"/>
-      <c r="DH24" s="88"/>
-      <c r="DI24" s="89"/>
-      <c r="DJ24" s="87"/>
-      <c r="DK24" s="87"/>
-      <c r="DL24" s="87"/>
-      <c r="DM24" s="88"/>
-      <c r="DN24" s="89"/>
-      <c r="DO24" s="87"/>
-      <c r="DP24" s="87"/>
-      <c r="DQ24" s="87"/>
-      <c r="DR24" s="88"/>
-      <c r="DS24" s="89"/>
-      <c r="DT24" s="87"/>
-      <c r="DU24" s="87"/>
-      <c r="DV24" s="87"/>
-      <c r="DW24" s="90"/>
-    </row>
-    <row r="25" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="270"/>
-      <c r="B25" s="193" t="s">
-        <v>117</v>
-      </c>
-      <c r="C25" s="193" t="s">
-        <v>118</v>
-      </c>
-      <c r="D25" s="278"/>
-      <c r="E25" s="193"/>
-      <c r="F25" s="186"/>
-      <c r="G25" s="191"/>
-      <c r="H25" s="200"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="78"/>
-      <c r="M25" s="79"/>
-      <c r="N25" s="77"/>
-      <c r="O25" s="77"/>
-      <c r="P25" s="77"/>
-      <c r="Q25" s="78"/>
-      <c r="R25" s="79"/>
-      <c r="S25" s="77"/>
-      <c r="T25" s="77"/>
-      <c r="U25" s="77"/>
-      <c r="V25" s="78"/>
-      <c r="W25" s="79"/>
-      <c r="X25" s="77"/>
-      <c r="Y25" s="77"/>
-      <c r="Z25" s="77"/>
-      <c r="AA25" s="78"/>
-      <c r="AB25" s="79"/>
-      <c r="AC25" s="77"/>
-      <c r="AD25" s="77"/>
-      <c r="AE25" s="77"/>
-      <c r="AF25" s="78"/>
-      <c r="AG25" s="79"/>
-      <c r="AH25" s="77"/>
-      <c r="AI25" s="77"/>
-      <c r="AJ25" s="77"/>
-      <c r="AK25" s="78"/>
-      <c r="AL25" s="215"/>
-      <c r="AM25" s="77"/>
-      <c r="AN25" s="77"/>
-      <c r="AO25" s="77"/>
-      <c r="AP25" s="78"/>
-      <c r="AQ25" s="79"/>
-      <c r="AR25" s="77"/>
-      <c r="AS25" s="77"/>
-      <c r="AT25" s="77"/>
-      <c r="AU25" s="78"/>
-      <c r="AV25" s="79"/>
-      <c r="AW25" s="77"/>
-      <c r="AX25" s="77"/>
-      <c r="AY25" s="77"/>
-      <c r="AZ25" s="78"/>
-      <c r="BA25" s="79"/>
-      <c r="BB25" s="77"/>
-      <c r="BC25" s="77"/>
-      <c r="BD25" s="77"/>
-      <c r="BE25" s="78"/>
-      <c r="BF25" s="79"/>
-      <c r="BG25" s="77"/>
-      <c r="BH25" s="77"/>
-      <c r="BI25" s="77"/>
-      <c r="BJ25" s="78"/>
-      <c r="BK25" s="79"/>
-      <c r="BL25" s="77"/>
-      <c r="BM25" s="77"/>
-      <c r="BN25" s="77"/>
-      <c r="BO25" s="78"/>
-      <c r="BP25" s="79"/>
-      <c r="BQ25" s="77"/>
-      <c r="BR25" s="77"/>
-      <c r="BS25" s="77"/>
-      <c r="BT25" s="78"/>
-      <c r="BU25" s="79"/>
-      <c r="BV25" s="77"/>
-      <c r="BW25" s="77"/>
-      <c r="BX25" s="77"/>
-      <c r="BY25" s="78"/>
-      <c r="BZ25" s="79"/>
-      <c r="CA25" s="77"/>
-      <c r="CB25" s="77"/>
-      <c r="CC25" s="77"/>
-      <c r="CD25" s="78"/>
-      <c r="CE25" s="79"/>
-      <c r="CF25" s="77"/>
-      <c r="CG25" s="77"/>
-      <c r="CH25" s="77"/>
-      <c r="CI25" s="78"/>
-      <c r="CJ25" s="79"/>
-      <c r="CK25" s="77"/>
-      <c r="CL25" s="77"/>
-      <c r="CM25" s="77"/>
-      <c r="CN25" s="78"/>
-      <c r="CO25" s="79"/>
-      <c r="CP25" s="77"/>
-      <c r="CQ25" s="77"/>
-      <c r="CR25" s="77"/>
-      <c r="CS25" s="78"/>
-      <c r="CT25" s="79"/>
-      <c r="CU25" s="77"/>
-      <c r="CV25" s="77"/>
-      <c r="CW25" s="77"/>
-      <c r="CX25" s="78"/>
-      <c r="CY25" s="79"/>
-      <c r="CZ25" s="77"/>
-      <c r="DA25" s="77"/>
-      <c r="DB25" s="77"/>
-      <c r="DC25" s="78"/>
-      <c r="DD25" s="79"/>
-      <c r="DE25" s="77"/>
-      <c r="DF25" s="77"/>
-      <c r="DG25" s="77"/>
-      <c r="DH25" s="78"/>
-      <c r="DI25" s="79"/>
-      <c r="DJ25" s="77"/>
-      <c r="DK25" s="77"/>
-      <c r="DL25" s="77"/>
-      <c r="DM25" s="78"/>
-      <c r="DN25" s="79"/>
-      <c r="DO25" s="77"/>
-      <c r="DP25" s="77"/>
-      <c r="DQ25" s="77"/>
-      <c r="DR25" s="78"/>
-      <c r="DS25" s="79"/>
-      <c r="DT25" s="77"/>
-      <c r="DU25" s="77"/>
-      <c r="DV25" s="77"/>
-      <c r="DW25" s="80"/>
-    </row>
-    <row r="26" spans="1:127" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="263" t="s">
-        <v>224</v>
-      </c>
-      <c r="B26" s="194" t="s">
-        <v>224</v>
-      </c>
-      <c r="C26" s="194" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" s="278"/>
-      <c r="E26" s="194" t="s">
-        <v>140</v>
-      </c>
-      <c r="F26" s="186"/>
-      <c r="G26" s="190"/>
-      <c r="H26" s="198"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="63"/>
-      <c r="M26" s="64"/>
-      <c r="N26" s="62"/>
-      <c r="O26" s="62"/>
-      <c r="P26" s="62"/>
-      <c r="Q26" s="63"/>
-      <c r="R26" s="64"/>
-      <c r="S26" s="62"/>
-      <c r="T26" s="62"/>
-      <c r="U26" s="62"/>
-      <c r="V26" s="63"/>
-      <c r="W26" s="64"/>
-      <c r="X26" s="62"/>
-      <c r="Y26" s="62"/>
-      <c r="Z26" s="62"/>
-      <c r="AA26" s="63"/>
-      <c r="AB26" s="64"/>
-      <c r="AC26" s="62"/>
-      <c r="AD26" s="62"/>
-      <c r="AE26" s="62"/>
-      <c r="AF26" s="63"/>
-      <c r="AG26" s="64"/>
-      <c r="AH26" s="62"/>
-      <c r="AI26" s="62"/>
-      <c r="AJ26" s="62"/>
-      <c r="AK26" s="63"/>
-      <c r="AL26" s="214"/>
-      <c r="AM26" s="62"/>
-      <c r="AN26" s="62"/>
-      <c r="AO26" s="62"/>
-      <c r="AP26" s="63"/>
-      <c r="AQ26" s="64"/>
-      <c r="AR26" s="62"/>
-      <c r="AS26" s="62"/>
-      <c r="AT26" s="62"/>
-      <c r="AU26" s="63"/>
-      <c r="AV26" s="64"/>
-      <c r="AW26" s="62"/>
-      <c r="AX26" s="62"/>
-      <c r="AY26" s="62"/>
-      <c r="AZ26" s="63"/>
-      <c r="BA26" s="64"/>
-      <c r="BB26" s="62"/>
-      <c r="BC26" s="62"/>
-      <c r="BD26" s="62"/>
-      <c r="BE26" s="63"/>
-      <c r="BF26" s="64"/>
-      <c r="BG26" s="62"/>
-      <c r="BH26" s="62"/>
-      <c r="BI26" s="62"/>
-      <c r="BJ26" s="63"/>
-      <c r="BK26" s="64"/>
-      <c r="BL26" s="62"/>
-      <c r="BM26" s="62"/>
-      <c r="BN26" s="62"/>
-      <c r="BO26" s="63"/>
-      <c r="BP26" s="64"/>
-      <c r="BQ26" s="62"/>
-      <c r="BR26" s="62"/>
-      <c r="BS26" s="62"/>
-      <c r="BT26" s="63"/>
-      <c r="BU26" s="64"/>
-      <c r="BV26" s="62"/>
-      <c r="BW26" s="62"/>
-      <c r="BX26" s="62"/>
-      <c r="BY26" s="63"/>
-      <c r="BZ26" s="64"/>
-      <c r="CA26" s="62"/>
-      <c r="CB26" s="62"/>
-      <c r="CC26" s="62"/>
-      <c r="CD26" s="63"/>
-      <c r="CE26" s="64"/>
-      <c r="CF26" s="62"/>
-      <c r="CG26" s="62"/>
-      <c r="CH26" s="62"/>
-      <c r="CI26" s="63"/>
-      <c r="CJ26" s="64"/>
-      <c r="CK26" s="62"/>
-      <c r="CL26" s="62"/>
-      <c r="CM26" s="62"/>
-      <c r="CN26" s="63"/>
-      <c r="CO26" s="64"/>
-      <c r="CP26" s="62"/>
-      <c r="CQ26" s="62"/>
-      <c r="CR26" s="62"/>
-      <c r="CS26" s="63"/>
-      <c r="CT26" s="64"/>
-      <c r="CU26" s="62"/>
-      <c r="CV26" s="62"/>
-      <c r="CW26" s="62"/>
-      <c r="CX26" s="63"/>
-      <c r="CY26" s="64"/>
-      <c r="CZ26" s="62"/>
-      <c r="DA26" s="62"/>
-      <c r="DB26" s="62"/>
-      <c r="DC26" s="63"/>
-      <c r="DD26" s="64"/>
-      <c r="DE26" s="62"/>
-      <c r="DF26" s="62"/>
-      <c r="DG26" s="62"/>
-      <c r="DH26" s="63"/>
-      <c r="DI26" s="64"/>
-      <c r="DJ26" s="62"/>
-      <c r="DK26" s="62"/>
-      <c r="DL26" s="62"/>
-      <c r="DM26" s="63"/>
-      <c r="DN26" s="64"/>
-      <c r="DO26" s="62"/>
-      <c r="DP26" s="62"/>
-      <c r="DQ26" s="62"/>
-      <c r="DR26" s="63"/>
-      <c r="DS26" s="64"/>
-      <c r="DT26" s="62"/>
-      <c r="DU26" s="62"/>
-      <c r="DV26" s="62"/>
-      <c r="DW26" s="65"/>
-    </row>
-    <row r="27" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A27" s="263"/>
-      <c r="B27" s="205" t="s">
-        <v>225</v>
-      </c>
-      <c r="C27" s="192" t="s">
-        <v>128</v>
-      </c>
-      <c r="D27" s="278"/>
-      <c r="E27" s="192"/>
-      <c r="F27" s="186"/>
-      <c r="G27" s="186"/>
-      <c r="H27" s="197"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="58"/>
-      <c r="R27" s="59"/>
-      <c r="S27" s="57"/>
-      <c r="T27" s="57"/>
-      <c r="U27" s="57"/>
-      <c r="V27" s="58"/>
-      <c r="W27" s="59"/>
-      <c r="X27" s="57"/>
-      <c r="Y27" s="57"/>
-      <c r="Z27" s="57"/>
-      <c r="AA27" s="58"/>
-      <c r="AB27" s="59"/>
-      <c r="AC27" s="57"/>
-      <c r="AD27" s="57"/>
-      <c r="AE27" s="57"/>
-      <c r="AF27" s="58"/>
-      <c r="AG27" s="59"/>
-      <c r="AH27" s="57"/>
-      <c r="AI27" s="57"/>
-      <c r="AJ27" s="57"/>
-      <c r="AK27" s="58"/>
-      <c r="AL27" s="216"/>
-      <c r="AM27" s="57"/>
-      <c r="AN27" s="57"/>
-      <c r="AO27" s="57"/>
-      <c r="AP27" s="58"/>
-      <c r="AQ27" s="59"/>
-      <c r="AR27" s="57"/>
-      <c r="AS27" s="57"/>
-      <c r="AT27" s="57"/>
-      <c r="AU27" s="58"/>
-      <c r="AV27" s="59"/>
-      <c r="AW27" s="57"/>
-      <c r="AX27" s="57"/>
-      <c r="AY27" s="57"/>
-      <c r="AZ27" s="58"/>
-      <c r="BA27" s="59"/>
-      <c r="BB27" s="57"/>
-      <c r="BC27" s="57"/>
-      <c r="BD27" s="57"/>
-      <c r="BE27" s="58"/>
-      <c r="BF27" s="59"/>
-      <c r="BG27" s="57"/>
-      <c r="BH27" s="57"/>
-      <c r="BI27" s="57"/>
-      <c r="BJ27" s="58"/>
-      <c r="BK27" s="59"/>
-      <c r="BL27" s="57"/>
-      <c r="BM27" s="57"/>
-      <c r="BN27" s="57"/>
-      <c r="BO27" s="58"/>
-      <c r="BP27" s="59"/>
-      <c r="BQ27" s="57"/>
-      <c r="BR27" s="57"/>
-      <c r="BS27" s="57"/>
-      <c r="BT27" s="58"/>
-      <c r="BU27" s="59"/>
-      <c r="BV27" s="57"/>
-      <c r="BW27" s="57"/>
-      <c r="BX27" s="57"/>
-      <c r="BY27" s="58"/>
-      <c r="BZ27" s="59"/>
-      <c r="CA27" s="57"/>
-      <c r="CB27" s="57"/>
-      <c r="CC27" s="57"/>
-      <c r="CD27" s="58"/>
-      <c r="CE27" s="59"/>
-      <c r="CF27" s="57"/>
-      <c r="CG27" s="57"/>
-      <c r="CH27" s="57"/>
-      <c r="CI27" s="58"/>
-      <c r="CJ27" s="59"/>
-      <c r="CK27" s="57"/>
-      <c r="CL27" s="57"/>
-      <c r="CM27" s="57"/>
-      <c r="CN27" s="58"/>
-      <c r="CO27" s="59"/>
-      <c r="CP27" s="57"/>
-      <c r="CQ27" s="57"/>
-      <c r="CR27" s="57"/>
-      <c r="CS27" s="58"/>
-      <c r="CT27" s="59"/>
-      <c r="CU27" s="57"/>
-      <c r="CV27" s="57"/>
-      <c r="CW27" s="57"/>
-      <c r="CX27" s="58"/>
-      <c r="CY27" s="59"/>
-      <c r="CZ27" s="57"/>
-      <c r="DA27" s="57"/>
-      <c r="DB27" s="57"/>
-      <c r="DC27" s="58"/>
-      <c r="DD27" s="59"/>
-      <c r="DE27" s="57"/>
-      <c r="DF27" s="57"/>
-      <c r="DG27" s="57"/>
-      <c r="DH27" s="58"/>
-      <c r="DI27" s="59"/>
-      <c r="DJ27" s="57"/>
-      <c r="DK27" s="57"/>
-      <c r="DL27" s="57"/>
-      <c r="DM27" s="58"/>
-      <c r="DN27" s="59"/>
-      <c r="DO27" s="57"/>
-      <c r="DP27" s="57"/>
-      <c r="DQ27" s="57"/>
-      <c r="DR27" s="58"/>
-      <c r="DS27" s="59"/>
-      <c r="DT27" s="57"/>
-      <c r="DU27" s="57"/>
-      <c r="DV27" s="57"/>
-      <c r="DW27" s="60"/>
-    </row>
-    <row r="28" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="264"/>
-      <c r="B28" s="203" t="s">
+    <row r="24" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="236"/>
+      <c r="B24" s="197" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="203"/>
-      <c r="D28" s="279"/>
-      <c r="E28" s="203" t="s">
+      <c r="C24" s="197"/>
+      <c r="D24" s="250"/>
+      <c r="E24" s="197" t="s">
         <v>143</v>
       </c>
-      <c r="F28" s="204"/>
-      <c r="G28" s="204"/>
-      <c r="H28" s="201"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="110"/>
-      <c r="L28" s="111"/>
-      <c r="M28" s="112"/>
-      <c r="N28" s="110"/>
-      <c r="O28" s="110"/>
-      <c r="P28" s="110"/>
-      <c r="Q28" s="111"/>
-      <c r="R28" s="112"/>
-      <c r="S28" s="110"/>
-      <c r="T28" s="110"/>
-      <c r="U28" s="110"/>
-      <c r="V28" s="111"/>
-      <c r="W28" s="112"/>
-      <c r="X28" s="110"/>
-      <c r="Y28" s="110"/>
-      <c r="Z28" s="110"/>
-      <c r="AA28" s="111"/>
-      <c r="AB28" s="112"/>
-      <c r="AC28" s="110"/>
-      <c r="AD28" s="110"/>
-      <c r="AE28" s="110"/>
-      <c r="AF28" s="111"/>
-      <c r="AG28" s="112"/>
-      <c r="AH28" s="110"/>
-      <c r="AI28" s="110"/>
-      <c r="AJ28" s="110"/>
-      <c r="AK28" s="111"/>
-      <c r="AL28" s="220"/>
-      <c r="AM28" s="110"/>
-      <c r="AN28" s="110"/>
-      <c r="AO28" s="110"/>
-      <c r="AP28" s="111"/>
-      <c r="AQ28" s="112"/>
-      <c r="AR28" s="110"/>
-      <c r="AS28" s="110"/>
-      <c r="AT28" s="110"/>
-      <c r="AU28" s="111"/>
-      <c r="AV28" s="112"/>
-      <c r="AW28" s="110"/>
-      <c r="AX28" s="110"/>
-      <c r="AY28" s="110"/>
-      <c r="AZ28" s="111"/>
-      <c r="BA28" s="112"/>
-      <c r="BB28" s="110"/>
-      <c r="BC28" s="110"/>
-      <c r="BD28" s="110"/>
-      <c r="BE28" s="111"/>
-      <c r="BF28" s="112"/>
-      <c r="BG28" s="110"/>
-      <c r="BH28" s="110"/>
-      <c r="BI28" s="110"/>
-      <c r="BJ28" s="111"/>
-      <c r="BK28" s="112"/>
-      <c r="BL28" s="110"/>
-      <c r="BM28" s="110"/>
-      <c r="BN28" s="110"/>
-      <c r="BO28" s="111"/>
-      <c r="BP28" s="112"/>
-      <c r="BQ28" s="110"/>
-      <c r="BR28" s="110"/>
-      <c r="BS28" s="110"/>
-      <c r="BT28" s="111"/>
-      <c r="BU28" s="112"/>
-      <c r="BV28" s="110"/>
-      <c r="BW28" s="110"/>
-      <c r="BX28" s="110"/>
-      <c r="BY28" s="111"/>
-      <c r="BZ28" s="112"/>
-      <c r="CA28" s="110"/>
-      <c r="CB28" s="110"/>
-      <c r="CC28" s="110"/>
-      <c r="CD28" s="111"/>
-      <c r="CE28" s="112"/>
-      <c r="CF28" s="110"/>
-      <c r="CG28" s="110"/>
-      <c r="CH28" s="110"/>
-      <c r="CI28" s="111"/>
-      <c r="CJ28" s="112"/>
-      <c r="CK28" s="110"/>
-      <c r="CL28" s="110"/>
-      <c r="CM28" s="110"/>
-      <c r="CN28" s="111"/>
-      <c r="CO28" s="112"/>
-      <c r="CP28" s="110"/>
-      <c r="CQ28" s="110"/>
-      <c r="CR28" s="110"/>
-      <c r="CS28" s="111"/>
-      <c r="CT28" s="112"/>
-      <c r="CU28" s="110"/>
-      <c r="CV28" s="110"/>
-      <c r="CW28" s="110"/>
-      <c r="CX28" s="111"/>
-      <c r="CY28" s="112"/>
-      <c r="CZ28" s="110"/>
-      <c r="DA28" s="110"/>
-      <c r="DB28" s="110"/>
-      <c r="DC28" s="111"/>
-      <c r="DD28" s="112"/>
-      <c r="DE28" s="110"/>
-      <c r="DF28" s="110"/>
-      <c r="DG28" s="110"/>
-      <c r="DH28" s="111"/>
-      <c r="DI28" s="112"/>
-      <c r="DJ28" s="110"/>
-      <c r="DK28" s="110"/>
-      <c r="DL28" s="110"/>
-      <c r="DM28" s="111"/>
-      <c r="DN28" s="112"/>
-      <c r="DO28" s="110"/>
-      <c r="DP28" s="110"/>
-      <c r="DQ28" s="110"/>
-      <c r="DR28" s="111"/>
-      <c r="DS28" s="112"/>
-      <c r="DT28" s="110"/>
-      <c r="DU28" s="110"/>
-      <c r="DV28" s="110"/>
-      <c r="DW28" s="113"/>
+      <c r="F24" s="186">
+        <v>44865</v>
+      </c>
+      <c r="G24" s="186">
+        <v>44869</v>
+      </c>
+      <c r="H24" s="196"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="110"/>
+      <c r="L24" s="111"/>
+      <c r="M24" s="112"/>
+      <c r="N24" s="110"/>
+      <c r="O24" s="110"/>
+      <c r="P24" s="110"/>
+      <c r="Q24" s="111"/>
+      <c r="R24" s="112"/>
+      <c r="S24" s="110"/>
+      <c r="T24" s="110"/>
+      <c r="U24" s="110"/>
+      <c r="V24" s="111"/>
+      <c r="W24" s="112"/>
+      <c r="X24" s="110"/>
+      <c r="Y24" s="110"/>
+      <c r="Z24" s="110"/>
+      <c r="AA24" s="111"/>
+      <c r="AB24" s="112"/>
+      <c r="AC24" s="110"/>
+      <c r="AD24" s="110"/>
+      <c r="AE24" s="110"/>
+      <c r="AF24" s="111"/>
+      <c r="AG24" s="112"/>
+      <c r="AH24" s="110"/>
+      <c r="AI24" s="110"/>
+      <c r="AJ24" s="110"/>
+      <c r="AK24" s="111"/>
+      <c r="AL24" s="212"/>
+      <c r="AM24" s="201"/>
+      <c r="AN24" s="201"/>
+      <c r="AO24" s="201"/>
+      <c r="AP24" s="111"/>
+      <c r="AQ24" s="112"/>
+      <c r="AR24" s="110"/>
+      <c r="AS24" s="110"/>
+      <c r="AT24" s="110"/>
+      <c r="AU24" s="111"/>
+      <c r="AV24" s="112"/>
+      <c r="AW24" s="110"/>
+      <c r="AX24" s="110"/>
+      <c r="AY24" s="110"/>
+      <c r="AZ24" s="111"/>
+      <c r="BA24" s="112"/>
+      <c r="BB24" s="110"/>
+      <c r="BC24" s="110"/>
+      <c r="BD24" s="110"/>
+      <c r="BE24" s="111"/>
+      <c r="BF24" s="112"/>
+      <c r="BG24" s="110"/>
+      <c r="BH24" s="110"/>
+      <c r="BI24" s="110"/>
+      <c r="BJ24" s="111"/>
+      <c r="BK24" s="112"/>
+      <c r="BL24" s="110"/>
+      <c r="BM24" s="110"/>
+      <c r="BN24" s="110"/>
+      <c r="BO24" s="111"/>
+      <c r="BP24" s="112"/>
+      <c r="BQ24" s="110"/>
+      <c r="BR24" s="110"/>
+      <c r="BS24" s="110"/>
+      <c r="BT24" s="111"/>
+      <c r="BU24" s="112"/>
+      <c r="BV24" s="110"/>
+      <c r="BW24" s="110"/>
+      <c r="BX24" s="110"/>
+      <c r="BY24" s="111"/>
+      <c r="BZ24" s="112"/>
+      <c r="CA24" s="110"/>
+      <c r="CB24" s="110"/>
+      <c r="CC24" s="110"/>
+      <c r="CD24" s="111"/>
+      <c r="CE24" s="112"/>
+      <c r="CF24" s="110"/>
+      <c r="CG24" s="110"/>
+      <c r="CH24" s="110"/>
+      <c r="CI24" s="111"/>
+      <c r="CJ24" s="112"/>
+      <c r="CK24" s="110"/>
+      <c r="CL24" s="110"/>
+      <c r="CM24" s="110"/>
+      <c r="CN24" s="111"/>
+      <c r="CO24" s="112"/>
+      <c r="CP24" s="110"/>
+      <c r="CQ24" s="110"/>
+      <c r="CR24" s="110"/>
+      <c r="CS24" s="111"/>
+      <c r="CT24" s="112"/>
+      <c r="CU24" s="110"/>
+      <c r="CV24" s="110"/>
+      <c r="CW24" s="110"/>
+      <c r="CX24" s="111"/>
+      <c r="CY24" s="112"/>
+      <c r="CZ24" s="110"/>
+      <c r="DA24" s="110"/>
+      <c r="DB24" s="110"/>
+      <c r="DC24" s="111"/>
+      <c r="DD24" s="112"/>
+      <c r="DE24" s="110"/>
+      <c r="DF24" s="110"/>
+      <c r="DG24" s="110"/>
+      <c r="DH24" s="111"/>
+      <c r="DI24" s="112"/>
+      <c r="DJ24" s="110"/>
+      <c r="DK24" s="110"/>
+      <c r="DL24" s="110"/>
+      <c r="DM24" s="111"/>
+      <c r="DN24" s="112"/>
+      <c r="DO24" s="110"/>
+      <c r="DP24" s="110"/>
+      <c r="DQ24" s="110"/>
+      <c r="DR24" s="111"/>
+      <c r="DS24" s="112"/>
+      <c r="DT24" s="110"/>
+      <c r="DU24" s="110"/>
+      <c r="DV24" s="110"/>
+      <c r="DW24" s="113"/>
     </row>
   </sheetData>
-  <mergeCells count="100">
-    <mergeCell ref="CO9:CP9"/>
-    <mergeCell ref="CR9:CS9"/>
-    <mergeCell ref="CT9:CU9"/>
-    <mergeCell ref="CW9:CX9"/>
-    <mergeCell ref="CY9:CZ9"/>
-    <mergeCell ref="DN9:DO9"/>
-    <mergeCell ref="DQ9:DR9"/>
-    <mergeCell ref="DS9:DT9"/>
-    <mergeCell ref="DV9:DW9"/>
-    <mergeCell ref="DB9:DC9"/>
-    <mergeCell ref="DD9:DE9"/>
-    <mergeCell ref="DG9:DH9"/>
-    <mergeCell ref="DI9:DJ9"/>
-    <mergeCell ref="DL9:DM9"/>
-    <mergeCell ref="AL9:AM9"/>
-    <mergeCell ref="AO9:AP9"/>
-    <mergeCell ref="BS9:BT9"/>
-    <mergeCell ref="BU9:BV9"/>
-    <mergeCell ref="BX9:BY9"/>
-    <mergeCell ref="BD9:BE9"/>
-    <mergeCell ref="BF9:BG9"/>
-    <mergeCell ref="BI9:BJ9"/>
-    <mergeCell ref="BK9:BL9"/>
-    <mergeCell ref="BN9:BO9"/>
-    <mergeCell ref="BP9:BQ9"/>
-    <mergeCell ref="BU8:BY8"/>
-    <mergeCell ref="BZ8:CD8"/>
-    <mergeCell ref="CE8:CI8"/>
-    <mergeCell ref="CJ8:CN8"/>
-    <mergeCell ref="AV9:AW9"/>
-    <mergeCell ref="AY9:AZ9"/>
-    <mergeCell ref="BA9:BB9"/>
-    <mergeCell ref="BZ9:CA9"/>
-    <mergeCell ref="CC9:CD9"/>
-    <mergeCell ref="CE9:CF9"/>
-    <mergeCell ref="CH9:CI9"/>
-    <mergeCell ref="CJ9:CK9"/>
-    <mergeCell ref="CM9:CN9"/>
-    <mergeCell ref="AV8:AZ8"/>
-    <mergeCell ref="BA8:BE8"/>
-    <mergeCell ref="BF8:BJ8"/>
-    <mergeCell ref="BK8:BO8"/>
-    <mergeCell ref="BP8:BT8"/>
-    <mergeCell ref="DN8:DR8"/>
-    <mergeCell ref="DS8:DW8"/>
-    <mergeCell ref="CO8:CS8"/>
-    <mergeCell ref="CT8:CX8"/>
-    <mergeCell ref="CY8:DC8"/>
-    <mergeCell ref="DD8:DH8"/>
-    <mergeCell ref="DI8:DM8"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="D11:D28"/>
-    <mergeCell ref="AL8:AP8"/>
-    <mergeCell ref="AQ8:AU8"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="B8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="AQ9:AR9"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AJ9:AK9"/>
+  <mergeCells count="102">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="AB8:AF8"/>
     <mergeCell ref="AG8:AK8"/>
     <mergeCell ref="M9:N9"/>
@@ -10694,95 +10582,304 @@
     <mergeCell ref="W9:X9"/>
     <mergeCell ref="Z9:AA9"/>
     <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="R8:V8"/>
-    <mergeCell ref="W8:AA8"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="AQ9:AR9"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="B8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="CE8:CI8"/>
+    <mergeCell ref="CJ8:CN8"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="D11:D24"/>
+    <mergeCell ref="AL8:AP8"/>
+    <mergeCell ref="AQ8:AU8"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="DN8:DR8"/>
+    <mergeCell ref="DS8:DW8"/>
+    <mergeCell ref="CO8:CS8"/>
+    <mergeCell ref="CT8:CX8"/>
+    <mergeCell ref="CY8:DC8"/>
+    <mergeCell ref="DD8:DH8"/>
+    <mergeCell ref="DI8:DM8"/>
+    <mergeCell ref="CE9:CF9"/>
+    <mergeCell ref="CH9:CI9"/>
+    <mergeCell ref="CJ9:CK9"/>
+    <mergeCell ref="CM9:CN9"/>
+    <mergeCell ref="AV8:AZ8"/>
+    <mergeCell ref="BA8:BE8"/>
+    <mergeCell ref="BF8:BJ8"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="AY9:AZ9"/>
+    <mergeCell ref="BA9:BB9"/>
+    <mergeCell ref="BZ9:CA9"/>
+    <mergeCell ref="CC9:CD9"/>
+    <mergeCell ref="BK8:BO8"/>
+    <mergeCell ref="BP8:BT8"/>
+    <mergeCell ref="BU8:BY8"/>
+    <mergeCell ref="BZ8:CD8"/>
+    <mergeCell ref="AL9:AM9"/>
+    <mergeCell ref="AO9:AP9"/>
+    <mergeCell ref="BS9:BT9"/>
+    <mergeCell ref="BU9:BV9"/>
+    <mergeCell ref="BX9:BY9"/>
+    <mergeCell ref="BD9:BE9"/>
+    <mergeCell ref="BF9:BG9"/>
+    <mergeCell ref="BI9:BJ9"/>
+    <mergeCell ref="BK9:BL9"/>
+    <mergeCell ref="BN9:BO9"/>
+    <mergeCell ref="BP9:BQ9"/>
+    <mergeCell ref="DN9:DO9"/>
+    <mergeCell ref="DQ9:DR9"/>
+    <mergeCell ref="DS9:DT9"/>
+    <mergeCell ref="DV9:DW9"/>
+    <mergeCell ref="DB9:DC9"/>
+    <mergeCell ref="DD9:DE9"/>
+    <mergeCell ref="DG9:DH9"/>
+    <mergeCell ref="DI9:DJ9"/>
+    <mergeCell ref="DL9:DM9"/>
+    <mergeCell ref="CO9:CP9"/>
+    <mergeCell ref="CR9:CS9"/>
+    <mergeCell ref="CT9:CU9"/>
+    <mergeCell ref="CW9:CX9"/>
+    <mergeCell ref="CY9:CZ9"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="H13:DW28">
-    <cfRule type="expression" dxfId="29" priority="7" stopIfTrue="1">
-      <formula>(IF((H$10=$G13),1,2)=1)</formula>
+  <conditionalFormatting sqref="H13:L13 T12 P13:DW13 H14:DW24">
+    <cfRule type="expression" dxfId="71" priority="169" stopIfTrue="1">
+      <formula>(IF((H$10=$G12),1,2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="8" stopIfTrue="1">
-      <formula>(IF((H$10&lt;=$G13),(IF(($D13="기획")*(H$10&gt;=$F13),1,2)),3)=1)</formula>
+    <cfRule type="expression" dxfId="70" priority="170" stopIfTrue="1">
+      <formula>(IF((H$10&lt;=$G12),(IF(($D12="기획")*(H$10&gt;=$F12),1,2)),3)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="9" stopIfTrue="1">
-      <formula>(IF((H$10&lt;=$G13),(IF(($D13="디자인")*(H$10&gt;=$F13),1,2)),3)=1)</formula>
+    <cfRule type="expression" dxfId="69" priority="171" stopIfTrue="1">
+      <formula>(IF((H$10&lt;=$G12),(IF(($D12="디자인")*(H$10&gt;=$F12),1,2)),3)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="10" stopIfTrue="1">
-      <formula>(IF((H$10&lt;=$G13),(IF(($D13="퍼블리싱")*(H$10&gt;=$F13),1,2)),3)=1)</formula>
+    <cfRule type="expression" dxfId="68" priority="172" stopIfTrue="1">
+      <formula>(IF((H$10&lt;=$G12),(IF(($D12="퍼블리싱")*(H$10&gt;=$F12),1,2)),3)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="11" stopIfTrue="1">
-      <formula>(IF((H$10&lt;=$G13),(IF(($D13="개발")*(H$10&gt;=$F13),1,2)),3)=1)</formula>
+    <cfRule type="expression" dxfId="67" priority="173" stopIfTrue="1">
+      <formula>(IF((H$10&lt;=$G12),(IF(($D12="개발")*(H$10&gt;=$F12),1,2)),3)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="12" stopIfTrue="1">
-      <formula>(IF((H$10&lt;=$G13),(IF(($D13="고객")*(H$10&gt;=$F13),1,2)),3)=1)</formula>
+    <cfRule type="expression" dxfId="66" priority="174" stopIfTrue="1">
+      <formula>(IF((H$10&lt;=$G12),(IF(($D12="고객")*(H$10&gt;=$F12),1,2)),3)=1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:S12 U12:DW12">
-    <cfRule type="expression" dxfId="23" priority="19" stopIfTrue="1">
-      <formula>(IF((H$10=$G12),1,2)=1)</formula>
+  <conditionalFormatting sqref="H12:L12 U12:DW12 Q12:S12 Q11:R11">
+    <cfRule type="expression" dxfId="65" priority="181" stopIfTrue="1">
+      <formula>(IF((H$10=$G11),1,2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="20" stopIfTrue="1">
-      <formula>(IF((H$10&lt;=$G12),(IF(($D11="기획")*(H$10&gt;=$F12),1,2)),3)=1)</formula>
+    <cfRule type="expression" dxfId="64" priority="182" stopIfTrue="1">
+      <formula>(IF((H$10&lt;=$G11),(IF(($D10="기획")*(H$10&gt;=$F11),1,2)),3)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="21" stopIfTrue="1">
-      <formula>(IF((H$10&lt;=$G12),(IF(($D11="디자인")*(H$10&gt;=$F12),1,2)),3)=1)</formula>
+    <cfRule type="expression" dxfId="63" priority="183" stopIfTrue="1">
+      <formula>(IF((H$10&lt;=$G11),(IF(($D10="디자인")*(H$10&gt;=$F11),1,2)),3)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="22" stopIfTrue="1">
-      <formula>(IF((H$10&lt;=$G12),(IF(($D11="퍼블리싱")*(H$10&gt;=$F12),1,2)),3)=1)</formula>
+    <cfRule type="expression" dxfId="62" priority="184" stopIfTrue="1">
+      <formula>(IF((H$10&lt;=$G11),(IF(($D10="퍼블리싱")*(H$10&gt;=$F11),1,2)),3)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="23" stopIfTrue="1">
-      <formula>(IF((H$10&lt;=$G12),(IF(($D11="개발")*(H$10&gt;=$F12),1,2)),3)=1)</formula>
+    <cfRule type="expression" dxfId="61" priority="185" stopIfTrue="1">
+      <formula>(IF((H$10&lt;=$G11),(IF(($D10="개발")*(H$10&gt;=$F11),1,2)),3)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="24" stopIfTrue="1">
-      <formula>(IF((H$10&lt;=$G12),(IF(($D11="고객")*(H$10&gt;=$F12),1,2)),3)=1)</formula>
+    <cfRule type="expression" dxfId="60" priority="186" stopIfTrue="1">
+      <formula>(IF((H$10&lt;=$G11),(IF(($D10="고객")*(H$10&gt;=$F11),1,2)),3)=1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11:DW11">
-    <cfRule type="expression" dxfId="17" priority="25" stopIfTrue="1">
-      <formula>(IF((H$10=$G11),1,2)=1)</formula>
+  <conditionalFormatting sqref="S11:DO11">
+    <cfRule type="expression" dxfId="59" priority="343" stopIfTrue="1">
+      <formula>(IF((AA$10=$G11),1,2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="26" stopIfTrue="1">
-      <formula>(IF((H$10&lt;=$G11),(IF((#REF!="기획")*(H$10&gt;=$F11),1,2)),3)=1)</formula>
+    <cfRule type="expression" dxfId="58" priority="344" stopIfTrue="1">
+      <formula>(IF((AA$10&lt;=$G11),(IF((#REF!="기획")*(AA$10&gt;=$F11),1,2)),3)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="27" stopIfTrue="1">
-      <formula>(IF((H$10&lt;=$G11),(IF((#REF!="디자인")*(H$10&gt;=$F11),1,2)),3)=1)</formula>
+    <cfRule type="expression" dxfId="57" priority="345" stopIfTrue="1">
+      <formula>(IF((AA$10&lt;=$G11),(IF((#REF!="디자인")*(AA$10&gt;=$F11),1,2)),3)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="28" stopIfTrue="1">
-      <formula>(IF((H$10&lt;=$G11),(IF((#REF!="퍼블리싱")*(H$10&gt;=$F11),1,2)),3)=1)</formula>
+    <cfRule type="expression" dxfId="56" priority="346" stopIfTrue="1">
+      <formula>(IF((AA$10&lt;=$G11),(IF((#REF!="퍼블리싱")*(AA$10&gt;=$F11),1,2)),3)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="29" stopIfTrue="1">
-      <formula>(IF((H$10&lt;=$G11),(IF((#REF!="개발")*(H$10&gt;=$F11),1,2)),3)=1)</formula>
+    <cfRule type="expression" dxfId="55" priority="347" stopIfTrue="1">
+      <formula>(IF((AA$10&lt;=$G11),(IF((#REF!="개발")*(AA$10&gt;=$F11),1,2)),3)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="30" stopIfTrue="1">
-      <formula>(IF((H$10&lt;=$G11),(IF((#REF!="고객")*(H$10&gt;=$F11),1,2)),3)=1)</formula>
+    <cfRule type="expression" dxfId="54" priority="348" stopIfTrue="1">
+      <formula>(IF((AA$10&lt;=$G11),(IF((#REF!="고객")*(AA$10&gt;=$F11),1,2)),3)=1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T12">
+  <conditionalFormatting sqref="M13">
+    <cfRule type="expression" dxfId="53" priority="115" stopIfTrue="1">
+      <formula>(IF((M$10=$G13),1,2)=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="116" stopIfTrue="1">
+      <formula>(IF((M$10&lt;=$G13),(IF(($D13="기획")*(M$10&gt;=$F13),1,2)),3)=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="117" stopIfTrue="1">
+      <formula>(IF((M$10&lt;=$G13),(IF(($D13="디자인")*(M$10&gt;=$F13),1,2)),3)=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="118" stopIfTrue="1">
+      <formula>(IF((M$10&lt;=$G13),(IF(($D13="퍼블리싱")*(M$10&gt;=$F13),1,2)),3)=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="119" stopIfTrue="1">
+      <formula>(IF((M$10&lt;=$G13),(IF(($D13="개발")*(M$10&gt;=$F13),1,2)),3)=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="120" stopIfTrue="1">
+      <formula>(IF((M$10&lt;=$G13),(IF(($D13="고객")*(M$10&gt;=$F13),1,2)),3)=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N13">
+    <cfRule type="expression" dxfId="47" priority="109" stopIfTrue="1">
+      <formula>(IF((N$10=$G13),1,2)=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="110" stopIfTrue="1">
+      <formula>(IF((N$10&lt;=$G13),(IF(($D13="기획")*(N$10&gt;=$F13),1,2)),3)=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="111" stopIfTrue="1">
+      <formula>(IF((N$10&lt;=$G13),(IF(($D13="디자인")*(N$10&gt;=$F13),1,2)),3)=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="112" stopIfTrue="1">
+      <formula>(IF((N$10&lt;=$G13),(IF(($D13="퍼블리싱")*(N$10&gt;=$F13),1,2)),3)=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="113" stopIfTrue="1">
+      <formula>(IF((N$10&lt;=$G13),(IF(($D13="개발")*(N$10&gt;=$F13),1,2)),3)=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="114" stopIfTrue="1">
+      <formula>(IF((N$10&lt;=$G13),(IF(($D13="고객")*(N$10&gt;=$F13),1,2)),3)=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O13">
+    <cfRule type="expression" dxfId="41" priority="103" stopIfTrue="1">
+      <formula>(IF((O$10=$G13),1,2)=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="104" stopIfTrue="1">
+      <formula>(IF((O$10&lt;=$G13),(IF(($D13="기획")*(O$10&gt;=$F13),1,2)),3)=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="105" stopIfTrue="1">
+      <formula>(IF((O$10&lt;=$G13),(IF(($D13="디자인")*(O$10&gt;=$F13),1,2)),3)=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="106" stopIfTrue="1">
+      <formula>(IF((O$10&lt;=$G13),(IF(($D13="퍼블리싱")*(O$10&gt;=$F13),1,2)),3)=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="107" stopIfTrue="1">
+      <formula>(IF((O$10&lt;=$G13),(IF(($D13="개발")*(O$10&gt;=$F13),1,2)),3)=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="108" stopIfTrue="1">
+      <formula>(IF((O$10&lt;=$G13),(IF(($D13="고객")*(O$10&gt;=$F13),1,2)),3)=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M12">
+    <cfRule type="expression" dxfId="35" priority="97" stopIfTrue="1">
+      <formula>(IF((M$10=$G12),1,2)=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="98" stopIfTrue="1">
+      <formula>(IF((M$10&lt;=$G12),(IF(($D12="기획")*(M$10&gt;=$F12),1,2)),3)=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="99" stopIfTrue="1">
+      <formula>(IF((M$10&lt;=$G12),(IF(($D12="디자인")*(M$10&gt;=$F12),1,2)),3)=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="100" stopIfTrue="1">
+      <formula>(IF((M$10&lt;=$G12),(IF(($D12="퍼블리싱")*(M$10&gt;=$F12),1,2)),3)=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="101" stopIfTrue="1">
+      <formula>(IF((M$10&lt;=$G12),(IF(($D12="개발")*(M$10&gt;=$F12),1,2)),3)=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="102" stopIfTrue="1">
+      <formula>(IF((M$10&lt;=$G12),(IF(($D12="고객")*(M$10&gt;=$F12),1,2)),3)=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N12">
+    <cfRule type="expression" dxfId="29" priority="91" stopIfTrue="1">
+      <formula>(IF((N$10=$G12),1,2)=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="92" stopIfTrue="1">
+      <formula>(IF((N$10&lt;=$G12),(IF(($D12="기획")*(N$10&gt;=$F12),1,2)),3)=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="93" stopIfTrue="1">
+      <formula>(IF((N$10&lt;=$G12),(IF(($D12="디자인")*(N$10&gt;=$F12),1,2)),3)=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="94" stopIfTrue="1">
+      <formula>(IF((N$10&lt;=$G12),(IF(($D12="퍼블리싱")*(N$10&gt;=$F12),1,2)),3)=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="95" stopIfTrue="1">
+      <formula>(IF((N$10&lt;=$G12),(IF(($D12="개발")*(N$10&gt;=$F12),1,2)),3)=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="96" stopIfTrue="1">
+      <formula>(IF((N$10&lt;=$G12),(IF(($D12="고객")*(N$10&gt;=$F12),1,2)),3)=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O12">
+    <cfRule type="expression" dxfId="23" priority="85" stopIfTrue="1">
+      <formula>(IF((O$10=$G12),1,2)=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="86" stopIfTrue="1">
+      <formula>(IF((O$10&lt;=$G12),(IF(($D12="기획")*(O$10&gt;=$F12),1,2)),3)=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="87" stopIfTrue="1">
+      <formula>(IF((O$10&lt;=$G12),(IF(($D12="디자인")*(O$10&gt;=$F12),1,2)),3)=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="88" stopIfTrue="1">
+      <formula>(IF((O$10&lt;=$G12),(IF(($D12="퍼블리싱")*(O$10&gt;=$F12),1,2)),3)=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="89" stopIfTrue="1">
+      <formula>(IF((O$10&lt;=$G12),(IF(($D12="개발")*(O$10&gt;=$F12),1,2)),3)=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="90" stopIfTrue="1">
+      <formula>(IF((O$10&lt;=$G12),(IF(($D12="고객")*(O$10&gt;=$F12),1,2)),3)=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P11">
+    <cfRule type="expression" dxfId="17" priority="379" stopIfTrue="1">
+      <formula>(IF((P$10=$G12),1,2)=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="380" stopIfTrue="1">
+      <formula>(IF((P$10&lt;=$G12),(IF(($D11="기획")*(P$10&gt;=$F12),1,2)),3)=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="381" stopIfTrue="1">
+      <formula>(IF((P$10&lt;=$G12),(IF(($D11="디자인")*(P$10&gt;=$F12),1,2)),3)=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="382" stopIfTrue="1">
+      <formula>(IF((P$10&lt;=$G12),(IF(($D11="퍼블리싱")*(P$10&gt;=$F12),1,2)),3)=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="383" stopIfTrue="1">
+      <formula>(IF((P$10&lt;=$G12),(IF(($D11="개발")*(P$10&gt;=$F12),1,2)),3)=1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="384" stopIfTrue="1">
+      <formula>(IF((P$10&lt;=$G12),(IF(($D11="고객")*(P$10&gt;=$F12),1,2)),3)=1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P12">
     <cfRule type="expression" dxfId="11" priority="1" stopIfTrue="1">
-      <formula>(IF((T$10=$G12),1,2)=1)</formula>
+      <formula>(IF((P$10=$G12),1,2)=1)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
-      <formula>(IF((T$10&lt;=$G12),(IF(($D12="기획")*(T$10&gt;=$F12),1,2)),3)=1)</formula>
+      <formula>(IF((P$10&lt;=$G12),(IF(($D12="기획")*(P$10&gt;=$F12),1,2)),3)=1)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
-      <formula>(IF((T$10&lt;=$G12),(IF(($D12="디자인")*(T$10&gt;=$F12),1,2)),3)=1)</formula>
+      <formula>(IF((P$10&lt;=$G12),(IF(($D12="디자인")*(P$10&gt;=$F12),1,2)),3)=1)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
-      <formula>(IF((T$10&lt;=$G12),(IF(($D12="퍼블리싱")*(T$10&gt;=$F12),1,2)),3)=1)</formula>
+      <formula>(IF((P$10&lt;=$G12),(IF(($D12="퍼블리싱")*(P$10&gt;=$F12),1,2)),3)=1)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
-      <formula>(IF((T$10&lt;=$G12),(IF(($D12="개발")*(T$10&gt;=$F12),1,2)),3)=1)</formula>
+      <formula>(IF((P$10&lt;=$G12),(IF(($D12="개발")*(P$10&gt;=$F12),1,2)),3)=1)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
-      <formula>(IF((T$10&lt;=$G12),(IF(($D12="고객")*(T$10&gt;=$F12),1,2)),3)=1)</formula>
+      <formula>(IF((P$10&lt;=$G12),(IF(($D12="고객")*(P$10&gt;=$F12),1,2)),3)=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -10826,19 +10923,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:127" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="232" t="s">
+      <c r="A1" s="270" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="232"/>
-      <c r="D1" s="232"/>
-      <c r="E1" s="232"/>
-      <c r="F1" s="232"/>
-      <c r="G1" s="232"/>
-      <c r="H1" s="232"/>
-      <c r="I1" s="232"/>
-      <c r="J1" s="232"/>
-      <c r="K1" s="232"/>
+      <c r="B1" s="270"/>
+      <c r="C1" s="270"/>
+      <c r="D1" s="270"/>
+      <c r="E1" s="270"/>
+      <c r="F1" s="270"/>
+      <c r="G1" s="270"/>
+      <c r="H1" s="270"/>
+      <c r="I1" s="270"/>
+      <c r="J1" s="270"/>
+      <c r="K1" s="270"/>
       <c r="L1" s="50"/>
       <c r="M1" s="50"/>
       <c r="N1" s="50"/>
@@ -10960,8 +11057,8 @@
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="246"/>
-      <c r="C2" s="246"/>
+      <c r="B2" s="271"/>
+      <c r="C2" s="271"/>
       <c r="D2" s="7"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -11091,8 +11188,8 @@
       <c r="A3" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="B3" s="246"/>
-      <c r="C3" s="246"/>
+      <c r="B3" s="271"/>
+      <c r="C3" s="271"/>
       <c r="D3" s="7"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -11222,8 +11319,8 @@
       <c r="A4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="246"/>
-      <c r="C4" s="246"/>
+      <c r="B4" s="271"/>
+      <c r="C4" s="271"/>
       <c r="D4" s="7"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -11353,37 +11450,37 @@
       <c r="A5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="246"/>
-      <c r="C5" s="246"/>
+      <c r="B5" s="271"/>
+      <c r="C5" s="271"/>
       <c r="D5" s="7"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="242" t="s">
+      <c r="I5" s="266" t="s">
         <v>191</v>
       </c>
-      <c r="J5" s="242"/>
-      <c r="K5" s="305" t="s">
+      <c r="J5" s="266"/>
+      <c r="K5" s="273" t="s">
         <v>192</v>
       </c>
-      <c r="L5" s="305"/>
-      <c r="M5" s="302" t="s">
+      <c r="L5" s="273"/>
+      <c r="M5" s="274" t="s">
         <v>193</v>
       </c>
-      <c r="N5" s="302"/>
-      <c r="O5" s="303" t="s">
+      <c r="N5" s="274"/>
+      <c r="O5" s="275" t="s">
         <v>194</v>
       </c>
-      <c r="P5" s="303"/>
-      <c r="Q5" s="304" t="s">
+      <c r="P5" s="275"/>
+      <c r="Q5" s="276" t="s">
         <v>195</v>
       </c>
-      <c r="R5" s="304"/>
-      <c r="S5" s="244" t="s">
+      <c r="R5" s="276"/>
+      <c r="S5" s="268" t="s">
         <v>196</v>
       </c>
-      <c r="T5" s="244"/>
+      <c r="T5" s="268"/>
       <c r="U5" s="150"/>
       <c r="V5" s="150"/>
       <c r="W5" s="50"/>
@@ -11751,523 +11848,523 @@
       <c r="DW7" s="8"/>
     </row>
     <row r="8" spans="1:127" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="248" t="s">
+      <c r="A8" s="251" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="257" t="s">
+      <c r="B8" s="259" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="258"/>
-      <c r="D8" s="233" t="s">
+      <c r="C8" s="260"/>
+      <c r="D8" s="263" t="s">
         <v>186</v>
       </c>
-      <c r="E8" s="233" t="s">
+      <c r="E8" s="263" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="253" t="s">
+      <c r="F8" s="255" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="254"/>
-      <c r="H8" s="256" t="s">
+      <c r="G8" s="256"/>
+      <c r="H8" s="258" t="s">
         <v>162</v>
       </c>
-      <c r="I8" s="236"/>
-      <c r="J8" s="236"/>
-      <c r="K8" s="236"/>
-      <c r="L8" s="237"/>
-      <c r="M8" s="235" t="s">
+      <c r="I8" s="232"/>
+      <c r="J8" s="232"/>
+      <c r="K8" s="232"/>
+      <c r="L8" s="233"/>
+      <c r="M8" s="231" t="s">
         <v>163</v>
       </c>
-      <c r="N8" s="236"/>
-      <c r="O8" s="236"/>
-      <c r="P8" s="236"/>
-      <c r="Q8" s="237"/>
-      <c r="R8" s="235" t="s">
+      <c r="N8" s="232"/>
+      <c r="O8" s="232"/>
+      <c r="P8" s="232"/>
+      <c r="Q8" s="233"/>
+      <c r="R8" s="231" t="s">
         <v>164</v>
       </c>
-      <c r="S8" s="236"/>
-      <c r="T8" s="236"/>
-      <c r="U8" s="236"/>
-      <c r="V8" s="237"/>
-      <c r="W8" s="235" t="s">
+      <c r="S8" s="232"/>
+      <c r="T8" s="232"/>
+      <c r="U8" s="232"/>
+      <c r="V8" s="233"/>
+      <c r="W8" s="231" t="s">
         <v>165</v>
       </c>
-      <c r="X8" s="236"/>
-      <c r="Y8" s="236"/>
-      <c r="Z8" s="236"/>
-      <c r="AA8" s="237"/>
-      <c r="AB8" s="235" t="s">
+      <c r="X8" s="232"/>
+      <c r="Y8" s="232"/>
+      <c r="Z8" s="232"/>
+      <c r="AA8" s="233"/>
+      <c r="AB8" s="231" t="s">
         <v>166</v>
       </c>
-      <c r="AC8" s="236"/>
-      <c r="AD8" s="236"/>
-      <c r="AE8" s="236"/>
-      <c r="AF8" s="237"/>
-      <c r="AG8" s="235" t="s">
+      <c r="AC8" s="232"/>
+      <c r="AD8" s="232"/>
+      <c r="AE8" s="232"/>
+      <c r="AF8" s="233"/>
+      <c r="AG8" s="231" t="s">
         <v>167</v>
       </c>
-      <c r="AH8" s="236"/>
-      <c r="AI8" s="236"/>
-      <c r="AJ8" s="236"/>
-      <c r="AK8" s="237"/>
-      <c r="AL8" s="235" t="s">
+      <c r="AH8" s="232"/>
+      <c r="AI8" s="232"/>
+      <c r="AJ8" s="232"/>
+      <c r="AK8" s="233"/>
+      <c r="AL8" s="231" t="s">
         <v>168</v>
       </c>
-      <c r="AM8" s="236"/>
-      <c r="AN8" s="236"/>
-      <c r="AO8" s="236"/>
-      <c r="AP8" s="237"/>
-      <c r="AQ8" s="235" t="s">
+      <c r="AM8" s="232"/>
+      <c r="AN8" s="232"/>
+      <c r="AO8" s="232"/>
+      <c r="AP8" s="233"/>
+      <c r="AQ8" s="231" t="s">
         <v>169</v>
       </c>
-      <c r="AR8" s="236"/>
-      <c r="AS8" s="236"/>
-      <c r="AT8" s="236"/>
-      <c r="AU8" s="237"/>
-      <c r="AV8" s="235" t="s">
+      <c r="AR8" s="232"/>
+      <c r="AS8" s="232"/>
+      <c r="AT8" s="232"/>
+      <c r="AU8" s="233"/>
+      <c r="AV8" s="231" t="s">
         <v>170</v>
       </c>
-      <c r="AW8" s="236"/>
-      <c r="AX8" s="236"/>
-      <c r="AY8" s="236"/>
-      <c r="AZ8" s="237"/>
-      <c r="BA8" s="235" t="s">
+      <c r="AW8" s="232"/>
+      <c r="AX8" s="232"/>
+      <c r="AY8" s="232"/>
+      <c r="AZ8" s="233"/>
+      <c r="BA8" s="231" t="s">
         <v>171</v>
       </c>
-      <c r="BB8" s="236"/>
-      <c r="BC8" s="236"/>
-      <c r="BD8" s="236"/>
-      <c r="BE8" s="237"/>
-      <c r="BF8" s="235" t="s">
+      <c r="BB8" s="232"/>
+      <c r="BC8" s="232"/>
+      <c r="BD8" s="232"/>
+      <c r="BE8" s="233"/>
+      <c r="BF8" s="231" t="s">
         <v>172</v>
       </c>
-      <c r="BG8" s="236"/>
-      <c r="BH8" s="236"/>
-      <c r="BI8" s="236"/>
-      <c r="BJ8" s="237"/>
-      <c r="BK8" s="235" t="s">
+      <c r="BG8" s="232"/>
+      <c r="BH8" s="232"/>
+      <c r="BI8" s="232"/>
+      <c r="BJ8" s="233"/>
+      <c r="BK8" s="231" t="s">
         <v>173</v>
       </c>
-      <c r="BL8" s="236"/>
-      <c r="BM8" s="236"/>
-      <c r="BN8" s="236"/>
-      <c r="BO8" s="237"/>
-      <c r="BP8" s="235" t="s">
+      <c r="BL8" s="232"/>
+      <c r="BM8" s="232"/>
+      <c r="BN8" s="232"/>
+      <c r="BO8" s="233"/>
+      <c r="BP8" s="231" t="s">
         <v>174</v>
       </c>
-      <c r="BQ8" s="236"/>
-      <c r="BR8" s="236"/>
-      <c r="BS8" s="236"/>
-      <c r="BT8" s="237"/>
-      <c r="BU8" s="235" t="s">
+      <c r="BQ8" s="232"/>
+      <c r="BR8" s="232"/>
+      <c r="BS8" s="232"/>
+      <c r="BT8" s="233"/>
+      <c r="BU8" s="231" t="s">
         <v>175</v>
       </c>
-      <c r="BV8" s="236"/>
-      <c r="BW8" s="236"/>
-      <c r="BX8" s="236"/>
-      <c r="BY8" s="237"/>
-      <c r="BZ8" s="235" t="s">
+      <c r="BV8" s="232"/>
+      <c r="BW8" s="232"/>
+      <c r="BX8" s="232"/>
+      <c r="BY8" s="233"/>
+      <c r="BZ8" s="231" t="s">
         <v>176</v>
       </c>
-      <c r="CA8" s="236"/>
-      <c r="CB8" s="236"/>
-      <c r="CC8" s="236"/>
-      <c r="CD8" s="237"/>
-      <c r="CE8" s="235" t="s">
+      <c r="CA8" s="232"/>
+      <c r="CB8" s="232"/>
+      <c r="CC8" s="232"/>
+      <c r="CD8" s="233"/>
+      <c r="CE8" s="231" t="s">
         <v>177</v>
       </c>
-      <c r="CF8" s="236"/>
-      <c r="CG8" s="236"/>
-      <c r="CH8" s="236"/>
-      <c r="CI8" s="237"/>
-      <c r="CJ8" s="235" t="s">
+      <c r="CF8" s="232"/>
+      <c r="CG8" s="232"/>
+      <c r="CH8" s="232"/>
+      <c r="CI8" s="233"/>
+      <c r="CJ8" s="231" t="s">
         <v>178</v>
       </c>
-      <c r="CK8" s="236"/>
-      <c r="CL8" s="236"/>
-      <c r="CM8" s="236"/>
-      <c r="CN8" s="237"/>
-      <c r="CO8" s="235" t="s">
+      <c r="CK8" s="232"/>
+      <c r="CL8" s="232"/>
+      <c r="CM8" s="232"/>
+      <c r="CN8" s="233"/>
+      <c r="CO8" s="231" t="s">
         <v>179</v>
       </c>
-      <c r="CP8" s="236"/>
-      <c r="CQ8" s="236"/>
-      <c r="CR8" s="236"/>
-      <c r="CS8" s="237"/>
-      <c r="CT8" s="235" t="s">
+      <c r="CP8" s="232"/>
+      <c r="CQ8" s="232"/>
+      <c r="CR8" s="232"/>
+      <c r="CS8" s="233"/>
+      <c r="CT8" s="231" t="s">
         <v>180</v>
       </c>
-      <c r="CU8" s="236"/>
-      <c r="CV8" s="236"/>
-      <c r="CW8" s="236"/>
-      <c r="CX8" s="237"/>
-      <c r="CY8" s="235" t="s">
+      <c r="CU8" s="232"/>
+      <c r="CV8" s="232"/>
+      <c r="CW8" s="232"/>
+      <c r="CX8" s="233"/>
+      <c r="CY8" s="231" t="s">
         <v>181</v>
       </c>
-      <c r="CZ8" s="236"/>
-      <c r="DA8" s="236"/>
-      <c r="DB8" s="236"/>
-      <c r="DC8" s="237"/>
-      <c r="DD8" s="235" t="s">
+      <c r="CZ8" s="232"/>
+      <c r="DA8" s="232"/>
+      <c r="DB8" s="232"/>
+      <c r="DC8" s="233"/>
+      <c r="DD8" s="231" t="s">
         <v>182</v>
       </c>
-      <c r="DE8" s="236"/>
-      <c r="DF8" s="236"/>
-      <c r="DG8" s="236"/>
-      <c r="DH8" s="237"/>
-      <c r="DI8" s="235" t="s">
+      <c r="DE8" s="232"/>
+      <c r="DF8" s="232"/>
+      <c r="DG8" s="232"/>
+      <c r="DH8" s="233"/>
+      <c r="DI8" s="231" t="s">
         <v>183</v>
       </c>
-      <c r="DJ8" s="236"/>
-      <c r="DK8" s="236"/>
-      <c r="DL8" s="236"/>
-      <c r="DM8" s="237"/>
-      <c r="DN8" s="235" t="s">
+      <c r="DJ8" s="232"/>
+      <c r="DK8" s="232"/>
+      <c r="DL8" s="232"/>
+      <c r="DM8" s="233"/>
+      <c r="DN8" s="231" t="s">
         <v>184</v>
       </c>
-      <c r="DO8" s="236"/>
-      <c r="DP8" s="236"/>
-      <c r="DQ8" s="236"/>
-      <c r="DR8" s="237"/>
-      <c r="DS8" s="235" t="s">
+      <c r="DO8" s="232"/>
+      <c r="DP8" s="232"/>
+      <c r="DQ8" s="232"/>
+      <c r="DR8" s="233"/>
+      <c r="DS8" s="231" t="s">
         <v>185</v>
       </c>
-      <c r="DT8" s="236"/>
-      <c r="DU8" s="236"/>
-      <c r="DV8" s="236"/>
-      <c r="DW8" s="280"/>
+      <c r="DT8" s="232"/>
+      <c r="DU8" s="232"/>
+      <c r="DV8" s="232"/>
+      <c r="DW8" s="234"/>
     </row>
     <row r="9" spans="1:127" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="249"/>
-      <c r="B9" s="259"/>
-      <c r="C9" s="260"/>
-      <c r="D9" s="234"/>
-      <c r="E9" s="234"/>
+      <c r="A9" s="252"/>
+      <c r="B9" s="261"/>
+      <c r="C9" s="262"/>
+      <c r="D9" s="264"/>
+      <c r="E9" s="264"/>
       <c r="F9" s="12" t="s">
         <v>160</v>
       </c>
       <c r="G9" s="13">
         <v>41061</v>
       </c>
-      <c r="H9" s="255">
+      <c r="H9" s="257">
         <f>G9</f>
         <v>41061</v>
       </c>
-      <c r="I9" s="239"/>
+      <c r="I9" s="227"/>
       <c r="J9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="K9" s="240">
+      <c r="K9" s="228">
         <f>L10</f>
         <v>41065</v>
       </c>
-      <c r="L9" s="241"/>
-      <c r="M9" s="238">
+      <c r="L9" s="229"/>
+      <c r="M9" s="226">
         <f>M10</f>
         <v>41068</v>
       </c>
-      <c r="N9" s="239"/>
+      <c r="N9" s="227"/>
       <c r="O9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="P9" s="240">
+      <c r="P9" s="228">
         <f>Q10</f>
         <v>41072</v>
       </c>
-      <c r="Q9" s="241"/>
-      <c r="R9" s="238">
+      <c r="Q9" s="229"/>
+      <c r="R9" s="226">
         <f>R10</f>
         <v>41075</v>
       </c>
-      <c r="S9" s="239"/>
+      <c r="S9" s="227"/>
       <c r="T9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="U9" s="240">
+      <c r="U9" s="228">
         <f>V10</f>
         <v>41079</v>
       </c>
-      <c r="V9" s="241"/>
-      <c r="W9" s="238">
+      <c r="V9" s="229"/>
+      <c r="W9" s="226">
         <f>W10</f>
         <v>41082</v>
       </c>
-      <c r="X9" s="239"/>
+      <c r="X9" s="227"/>
       <c r="Y9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="Z9" s="240">
+      <c r="Z9" s="228">
         <f>AA10</f>
         <v>41086</v>
       </c>
-      <c r="AA9" s="241"/>
-      <c r="AB9" s="238">
+      <c r="AA9" s="229"/>
+      <c r="AB9" s="226">
         <f>AB10</f>
         <v>41089</v>
       </c>
-      <c r="AC9" s="239"/>
+      <c r="AC9" s="227"/>
       <c r="AD9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="AE9" s="240">
+      <c r="AE9" s="228">
         <f>AF10</f>
         <v>41093</v>
       </c>
-      <c r="AF9" s="241"/>
-      <c r="AG9" s="238">
+      <c r="AF9" s="229"/>
+      <c r="AG9" s="226">
         <f>AG10</f>
         <v>41096</v>
       </c>
-      <c r="AH9" s="239"/>
+      <c r="AH9" s="227"/>
       <c r="AI9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="AJ9" s="240">
+      <c r="AJ9" s="228">
         <f>AK10</f>
         <v>41100</v>
       </c>
-      <c r="AK9" s="241"/>
-      <c r="AL9" s="238">
+      <c r="AK9" s="229"/>
+      <c r="AL9" s="226">
         <f>AL10</f>
         <v>41103</v>
       </c>
-      <c r="AM9" s="239"/>
+      <c r="AM9" s="227"/>
       <c r="AN9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="AO9" s="240">
+      <c r="AO9" s="228">
         <f>AP10</f>
         <v>41107</v>
       </c>
-      <c r="AP9" s="241"/>
-      <c r="AQ9" s="238">
+      <c r="AP9" s="229"/>
+      <c r="AQ9" s="226">
         <f>AQ10</f>
         <v>41110</v>
       </c>
-      <c r="AR9" s="239"/>
+      <c r="AR9" s="227"/>
       <c r="AS9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="AT9" s="240">
+      <c r="AT9" s="228">
         <f>AU10</f>
         <v>41114</v>
       </c>
-      <c r="AU9" s="241"/>
-      <c r="AV9" s="238">
+      <c r="AU9" s="229"/>
+      <c r="AV9" s="226">
         <f>AV10</f>
         <v>41117</v>
       </c>
-      <c r="AW9" s="239"/>
+      <c r="AW9" s="227"/>
       <c r="AX9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="AY9" s="240">
+      <c r="AY9" s="228">
         <f>AZ10</f>
         <v>41121</v>
       </c>
-      <c r="AZ9" s="241"/>
-      <c r="BA9" s="238">
+      <c r="AZ9" s="229"/>
+      <c r="BA9" s="226">
         <f>BA10</f>
         <v>41124</v>
       </c>
-      <c r="BB9" s="239"/>
+      <c r="BB9" s="227"/>
       <c r="BC9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="BD9" s="240">
+      <c r="BD9" s="228">
         <f>BE10</f>
         <v>41128</v>
       </c>
-      <c r="BE9" s="241"/>
-      <c r="BF9" s="238">
+      <c r="BE9" s="229"/>
+      <c r="BF9" s="226">
         <f>BF10</f>
         <v>41131</v>
       </c>
-      <c r="BG9" s="239"/>
+      <c r="BG9" s="227"/>
       <c r="BH9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="BI9" s="240">
+      <c r="BI9" s="228">
         <f>BJ10</f>
         <v>41135</v>
       </c>
-      <c r="BJ9" s="241"/>
-      <c r="BK9" s="238">
+      <c r="BJ9" s="229"/>
+      <c r="BK9" s="226">
         <f>BK10</f>
         <v>41138</v>
       </c>
-      <c r="BL9" s="239"/>
+      <c r="BL9" s="227"/>
       <c r="BM9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="BN9" s="240">
+      <c r="BN9" s="228">
         <f>BO10</f>
         <v>41142</v>
       </c>
-      <c r="BO9" s="241"/>
-      <c r="BP9" s="238">
+      <c r="BO9" s="229"/>
+      <c r="BP9" s="226">
         <f>BP10</f>
         <v>41145</v>
       </c>
-      <c r="BQ9" s="239"/>
+      <c r="BQ9" s="227"/>
       <c r="BR9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="BS9" s="240">
+      <c r="BS9" s="228">
         <f>BT10</f>
         <v>41149</v>
       </c>
-      <c r="BT9" s="241"/>
-      <c r="BU9" s="238">
+      <c r="BT9" s="229"/>
+      <c r="BU9" s="226">
         <f>BU10</f>
         <v>41152</v>
       </c>
-      <c r="BV9" s="239"/>
+      <c r="BV9" s="227"/>
       <c r="BW9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="BX9" s="240">
+      <c r="BX9" s="228">
         <f>BY10</f>
         <v>41156</v>
       </c>
-      <c r="BY9" s="241"/>
-      <c r="BZ9" s="238">
+      <c r="BY9" s="229"/>
+      <c r="BZ9" s="226">
         <f>BZ10</f>
         <v>41159</v>
       </c>
-      <c r="CA9" s="239"/>
+      <c r="CA9" s="227"/>
       <c r="CB9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="CC9" s="240">
+      <c r="CC9" s="228">
         <f>CD10</f>
         <v>41163</v>
       </c>
-      <c r="CD9" s="241"/>
-      <c r="CE9" s="238">
+      <c r="CD9" s="229"/>
+      <c r="CE9" s="226">
         <f>CE10</f>
         <v>41166</v>
       </c>
-      <c r="CF9" s="239"/>
+      <c r="CF9" s="227"/>
       <c r="CG9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="CH9" s="240">
+      <c r="CH9" s="228">
         <f>CI10</f>
         <v>41170</v>
       </c>
-      <c r="CI9" s="241"/>
-      <c r="CJ9" s="238">
+      <c r="CI9" s="229"/>
+      <c r="CJ9" s="226">
         <f>CJ10</f>
         <v>41173</v>
       </c>
-      <c r="CK9" s="239"/>
+      <c r="CK9" s="227"/>
       <c r="CL9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="CM9" s="240">
+      <c r="CM9" s="228">
         <f>CN10</f>
         <v>41177</v>
       </c>
-      <c r="CN9" s="241"/>
-      <c r="CO9" s="238">
+      <c r="CN9" s="229"/>
+      <c r="CO9" s="226">
         <f>CO10</f>
         <v>41180</v>
       </c>
-      <c r="CP9" s="239"/>
+      <c r="CP9" s="227"/>
       <c r="CQ9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="CR9" s="240">
+      <c r="CR9" s="228">
         <f>CS10</f>
         <v>41184</v>
       </c>
-      <c r="CS9" s="241"/>
-      <c r="CT9" s="238">
+      <c r="CS9" s="229"/>
+      <c r="CT9" s="226">
         <f>CT10</f>
         <v>41187</v>
       </c>
-      <c r="CU9" s="239"/>
+      <c r="CU9" s="227"/>
       <c r="CV9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="CW9" s="240">
+      <c r="CW9" s="228">
         <f>CX10</f>
         <v>41191</v>
       </c>
-      <c r="CX9" s="241"/>
-      <c r="CY9" s="238">
+      <c r="CX9" s="229"/>
+      <c r="CY9" s="226">
         <f>CY10</f>
         <v>41194</v>
       </c>
-      <c r="CZ9" s="239"/>
+      <c r="CZ9" s="227"/>
       <c r="DA9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="DB9" s="240">
+      <c r="DB9" s="228">
         <f>DC10</f>
         <v>41198</v>
       </c>
-      <c r="DC9" s="241"/>
-      <c r="DD9" s="238">
+      <c r="DC9" s="229"/>
+      <c r="DD9" s="226">
         <f>DD10</f>
         <v>41201</v>
       </c>
-      <c r="DE9" s="239"/>
+      <c r="DE9" s="227"/>
       <c r="DF9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="DG9" s="240">
+      <c r="DG9" s="228">
         <f>DH10</f>
         <v>41205</v>
       </c>
-      <c r="DH9" s="241"/>
-      <c r="DI9" s="238">
+      <c r="DH9" s="229"/>
+      <c r="DI9" s="226">
         <f>DI10</f>
         <v>41208</v>
       </c>
-      <c r="DJ9" s="239"/>
+      <c r="DJ9" s="227"/>
       <c r="DK9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="DL9" s="240">
+      <c r="DL9" s="228">
         <f>DM10</f>
         <v>41212</v>
       </c>
-      <c r="DM9" s="241"/>
-      <c r="DN9" s="238">
+      <c r="DM9" s="229"/>
+      <c r="DN9" s="226">
         <f>DN10</f>
         <v>41215</v>
       </c>
-      <c r="DO9" s="239"/>
+      <c r="DO9" s="227"/>
       <c r="DP9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="DQ9" s="240">
+      <c r="DQ9" s="228">
         <f>DR10</f>
         <v>41219</v>
       </c>
-      <c r="DR9" s="241"/>
-      <c r="DS9" s="238">
+      <c r="DR9" s="229"/>
+      <c r="DS9" s="226">
         <f>DS10</f>
         <v>41222</v>
       </c>
-      <c r="DT9" s="239"/>
+      <c r="DT9" s="227"/>
       <c r="DU9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="DV9" s="240">
+      <c r="DV9" s="228">
         <f>DW10</f>
         <v>41226</v>
       </c>
-      <c r="DW9" s="281"/>
+      <c r="DW9" s="230"/>
     </row>
     <row r="10" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="250"/>
-      <c r="B10" s="259"/>
-      <c r="C10" s="260"/>
-      <c r="D10" s="234"/>
-      <c r="E10" s="234"/>
+      <c r="A10" s="253"/>
+      <c r="B10" s="261"/>
+      <c r="C10" s="262"/>
+      <c r="D10" s="264"/>
+      <c r="E10" s="264"/>
       <c r="F10" s="26" t="s">
         <v>48</v>
       </c>
@@ -12756,10 +12853,10 @@
       </c>
     </row>
     <row r="11" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A11" s="297" t="s">
+      <c r="A11" s="277" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="298" t="s">
+      <c r="B11" s="278" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -12897,8 +12994,8 @@
       <c r="DW11" s="55"/>
     </row>
     <row r="12" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A12" s="267"/>
-      <c r="B12" s="299"/>
+      <c r="A12" s="238"/>
+      <c r="B12" s="279"/>
       <c r="C12" s="14" t="s">
         <v>2</v>
       </c>
@@ -13034,8 +13131,8 @@
       <c r="DW12" s="60"/>
     </row>
     <row r="13" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A13" s="267"/>
-      <c r="B13" s="300"/>
+      <c r="A13" s="238"/>
+      <c r="B13" s="280"/>
       <c r="C13" s="20" t="s">
         <v>3</v>
       </c>
@@ -13171,8 +13268,8 @@
       <c r="DW13" s="65"/>
     </row>
     <row r="14" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A14" s="261"/>
-      <c r="B14" s="301" t="s">
+      <c r="A14" s="239"/>
+      <c r="B14" s="281" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="34" t="s">
@@ -13310,8 +13407,8 @@
       <c r="DW14" s="70"/>
     </row>
     <row r="15" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A15" s="261"/>
-      <c r="B15" s="300"/>
+      <c r="A15" s="239"/>
+      <c r="B15" s="280"/>
       <c r="C15" s="20" t="s">
         <v>20</v>
       </c>
@@ -13447,8 +13544,8 @@
       <c r="DW15" s="65"/>
     </row>
     <row r="16" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A16" s="261"/>
-      <c r="B16" s="301" t="s">
+      <c r="A16" s="239"/>
+      <c r="B16" s="281" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="34" t="s">
@@ -13588,8 +13685,8 @@
       <c r="DW16" s="70"/>
     </row>
     <row r="17" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A17" s="261"/>
-      <c r="B17" s="299"/>
+      <c r="A17" s="239"/>
+      <c r="B17" s="279"/>
       <c r="C17" s="18" t="s">
         <v>109</v>
       </c>
@@ -13727,8 +13824,8 @@
       <c r="DW17" s="75"/>
     </row>
     <row r="18" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A18" s="261"/>
-      <c r="B18" s="299"/>
+      <c r="A18" s="239"/>
+      <c r="B18" s="279"/>
       <c r="C18" s="18" t="s">
         <v>22</v>
       </c>
@@ -13864,8 +13961,8 @@
       <c r="DW18" s="75"/>
     </row>
     <row r="19" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A19" s="261"/>
-      <c r="B19" s="300"/>
+      <c r="A19" s="239"/>
+      <c r="B19" s="280"/>
       <c r="C19" s="20" t="s">
         <v>23</v>
       </c>
@@ -14001,8 +14098,8 @@
       <c r="DW19" s="65"/>
     </row>
     <row r="20" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A20" s="261"/>
-      <c r="B20" s="301" t="s">
+      <c r="A20" s="239"/>
+      <c r="B20" s="281" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="34" t="s">
@@ -14142,8 +14239,8 @@
       <c r="DW20" s="70"/>
     </row>
     <row r="21" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A21" s="261"/>
-      <c r="B21" s="299"/>
+      <c r="A21" s="239"/>
+      <c r="B21" s="279"/>
       <c r="C21" s="18" t="s">
         <v>26</v>
       </c>
@@ -14281,8 +14378,8 @@
       <c r="DW21" s="75"/>
     </row>
     <row r="22" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A22" s="261"/>
-      <c r="B22" s="300"/>
+      <c r="A22" s="239"/>
+      <c r="B22" s="280"/>
       <c r="C22" s="20" t="s">
         <v>27</v>
       </c>
@@ -14420,7 +14517,7 @@
       <c r="DW22" s="65"/>
     </row>
     <row r="23" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="262"/>
+      <c r="A23" s="265"/>
       <c r="B23" s="36" t="s">
         <v>28</v>
       </c>
@@ -14559,10 +14656,10 @@
       <c r="DW23" s="80"/>
     </row>
     <row r="24" spans="1:127" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="288" t="s">
+      <c r="A24" s="282" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="284" t="s">
+      <c r="B24" s="283" t="s">
         <v>144</v>
       </c>
       <c r="C24" s="32" t="s">
@@ -14571,7 +14668,7 @@
       <c r="D24" s="119" t="s">
         <v>188</v>
       </c>
-      <c r="E24" s="284" t="s">
+      <c r="E24" s="283" t="s">
         <v>152</v>
       </c>
       <c r="F24" s="138">
@@ -14702,15 +14799,15 @@
       <c r="DW24" s="85"/>
     </row>
     <row r="25" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A25" s="267"/>
-      <c r="B25" s="287"/>
+      <c r="A25" s="238"/>
+      <c r="B25" s="284"/>
       <c r="C25" s="14" t="s">
         <v>146</v>
       </c>
       <c r="D25" s="120" t="s">
         <v>188</v>
       </c>
-      <c r="E25" s="287"/>
+      <c r="E25" s="284"/>
       <c r="F25" s="16">
         <v>41061</v>
       </c>
@@ -14839,7 +14936,7 @@
       <c r="DW25" s="60"/>
     </row>
     <row r="26" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A26" s="267"/>
+      <c r="A26" s="238"/>
       <c r="B26" s="285"/>
       <c r="C26" s="20" t="s">
         <v>147</v>
@@ -14976,8 +15073,8 @@
       <c r="DW26" s="65"/>
     </row>
     <row r="27" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A27" s="267"/>
-      <c r="B27" s="287" t="s">
+      <c r="A27" s="238"/>
+      <c r="B27" s="284" t="s">
         <v>148</v>
       </c>
       <c r="C27" s="24" t="s">
@@ -14986,7 +15083,7 @@
       <c r="D27" s="121" t="s">
         <v>188</v>
       </c>
-      <c r="E27" s="287" t="s">
+      <c r="E27" s="284" t="s">
         <v>153</v>
       </c>
       <c r="F27" s="140">
@@ -15117,15 +15214,15 @@
       <c r="DW27" s="90"/>
     </row>
     <row r="28" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A28" s="267"/>
-      <c r="B28" s="287"/>
+      <c r="A28" s="238"/>
+      <c r="B28" s="284"/>
       <c r="C28" s="14" t="s">
         <v>150</v>
       </c>
       <c r="D28" s="120" t="s">
         <v>188</v>
       </c>
-      <c r="E28" s="287"/>
+      <c r="E28" s="284"/>
       <c r="F28" s="16">
         <v>41061</v>
       </c>
@@ -15254,15 +15351,15 @@
       <c r="DW28" s="60"/>
     </row>
     <row r="29" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A29" s="267"/>
-      <c r="B29" s="287"/>
+      <c r="A29" s="238"/>
+      <c r="B29" s="284"/>
       <c r="C29" s="14" t="s">
         <v>151</v>
       </c>
       <c r="D29" s="120" t="s">
         <v>188</v>
       </c>
-      <c r="E29" s="287"/>
+      <c r="E29" s="284"/>
       <c r="F29" s="16">
         <v>41061</v>
       </c>
@@ -15391,15 +15488,15 @@
       <c r="DW29" s="60"/>
     </row>
     <row r="30" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="262"/>
-      <c r="B30" s="290"/>
+      <c r="A30" s="265"/>
+      <c r="B30" s="286"/>
       <c r="C30" s="30" t="s">
         <v>109</v>
       </c>
       <c r="D30" s="122" t="s">
         <v>188</v>
       </c>
-      <c r="E30" s="290"/>
+      <c r="E30" s="286"/>
       <c r="F30" s="142">
         <v>41061</v>
       </c>
@@ -15528,10 +15625,10 @@
       <c r="DW30" s="95"/>
     </row>
     <row r="31" spans="1:127" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="288" t="s">
+      <c r="A31" s="282" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="284" t="s">
+      <c r="B31" s="283" t="s">
         <v>55</v>
       </c>
       <c r="C31" s="32" t="s">
@@ -15669,8 +15766,8 @@
       <c r="DW31" s="85"/>
     </row>
     <row r="32" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A32" s="267"/>
-      <c r="B32" s="287"/>
+      <c r="A32" s="238"/>
+      <c r="B32" s="284"/>
       <c r="C32" s="14" t="s">
         <v>57</v>
       </c>
@@ -15806,8 +15903,8 @@
       <c r="DW32" s="60"/>
     </row>
     <row r="33" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A33" s="267"/>
-      <c r="B33" s="286" t="s">
+      <c r="A33" s="238"/>
+      <c r="B33" s="287" t="s">
         <v>58</v>
       </c>
       <c r="C33" s="22" t="s">
@@ -15947,8 +16044,8 @@
       <c r="DW33" s="100"/>
     </row>
     <row r="34" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A34" s="267"/>
-      <c r="B34" s="287"/>
+      <c r="A34" s="238"/>
+      <c r="B34" s="284"/>
       <c r="C34" s="14" t="s">
         <v>60</v>
       </c>
@@ -16086,8 +16183,8 @@
       <c r="DW34" s="60"/>
     </row>
     <row r="35" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A35" s="267"/>
-      <c r="B35" s="287"/>
+      <c r="A35" s="238"/>
+      <c r="B35" s="284"/>
       <c r="C35" s="14" t="s">
         <v>61</v>
       </c>
@@ -16225,7 +16322,7 @@
       <c r="DW35" s="60"/>
     </row>
     <row r="36" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A36" s="267"/>
+      <c r="A36" s="238"/>
       <c r="B36" s="285"/>
       <c r="C36" s="20" t="s">
         <v>62</v>
@@ -16364,7 +16461,7 @@
       <c r="DW36" s="65"/>
     </row>
     <row r="37" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A37" s="267"/>
+      <c r="A37" s="238"/>
       <c r="B37" s="39" t="s">
         <v>63</v>
       </c>
@@ -16505,8 +16602,8 @@
       <c r="DW37" s="105"/>
     </row>
     <row r="38" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A38" s="267"/>
-      <c r="B38" s="287" t="s">
+      <c r="A38" s="238"/>
+      <c r="B38" s="284" t="s">
         <v>65</v>
       </c>
       <c r="C38" s="24" t="s">
@@ -16646,8 +16743,8 @@
       <c r="DW38" s="90"/>
     </row>
     <row r="39" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A39" s="267"/>
-      <c r="B39" s="287"/>
+      <c r="A39" s="238"/>
+      <c r="B39" s="284"/>
       <c r="C39" s="14" t="s">
         <v>67</v>
       </c>
@@ -16785,8 +16882,8 @@
       <c r="DW39" s="60"/>
     </row>
     <row r="40" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A40" s="267"/>
-      <c r="B40" s="287"/>
+      <c r="A40" s="238"/>
+      <c r="B40" s="284"/>
       <c r="C40" s="14" t="s">
         <v>65</v>
       </c>
@@ -16924,7 +17021,7 @@
       <c r="DW40" s="60"/>
     </row>
     <row r="41" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A41" s="267"/>
+      <c r="A41" s="238"/>
       <c r="B41" s="285"/>
       <c r="C41" s="20" t="s">
         <v>68</v>
@@ -17061,8 +17158,8 @@
       <c r="DW41" s="65"/>
     </row>
     <row r="42" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A42" s="267"/>
-      <c r="B42" s="286" t="s">
+      <c r="A42" s="238"/>
+      <c r="B42" s="287" t="s">
         <v>69</v>
       </c>
       <c r="C42" s="22" t="s">
@@ -17202,7 +17299,7 @@
       <c r="DW42" s="90"/>
     </row>
     <row r="43" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A43" s="267"/>
+      <c r="A43" s="238"/>
       <c r="B43" s="285"/>
       <c r="C43" s="20" t="s">
         <v>68</v>
@@ -17339,7 +17436,7 @@
       <c r="DW43" s="65"/>
     </row>
     <row r="44" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A44" s="267"/>
+      <c r="A44" s="238"/>
       <c r="B44" s="41" t="s">
         <v>71</v>
       </c>
@@ -17480,8 +17577,8 @@
       <c r="DW44" s="109"/>
     </row>
     <row r="45" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A45" s="267"/>
-      <c r="B45" s="286" t="s">
+      <c r="A45" s="238"/>
+      <c r="B45" s="287" t="s">
         <v>73</v>
       </c>
       <c r="C45" s="22" t="s">
@@ -17619,8 +17716,8 @@
       <c r="DW45" s="100"/>
     </row>
     <row r="46" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A46" s="267"/>
-      <c r="B46" s="287"/>
+      <c r="A46" s="238"/>
+      <c r="B46" s="284"/>
       <c r="C46" s="14" t="s">
         <v>75</v>
       </c>
@@ -17758,8 +17855,8 @@
       <c r="DW46" s="60"/>
     </row>
     <row r="47" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A47" s="267"/>
-      <c r="B47" s="287"/>
+      <c r="A47" s="238"/>
+      <c r="B47" s="284"/>
       <c r="C47" s="14" t="s">
         <v>154</v>
       </c>
@@ -17897,8 +17994,8 @@
       <c r="DW47" s="60"/>
     </row>
     <row r="48" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A48" s="267"/>
-      <c r="B48" s="287"/>
+      <c r="A48" s="238"/>
+      <c r="B48" s="284"/>
       <c r="C48" s="14" t="s">
         <v>155</v>
       </c>
@@ -18036,8 +18133,8 @@
       <c r="DW48" s="60"/>
     </row>
     <row r="49" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A49" s="267"/>
-      <c r="B49" s="287"/>
+      <c r="A49" s="238"/>
+      <c r="B49" s="284"/>
       <c r="C49" s="14" t="s">
         <v>76</v>
       </c>
@@ -18173,8 +18270,8 @@
       <c r="DW49" s="60"/>
     </row>
     <row r="50" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A50" s="267"/>
-      <c r="B50" s="287"/>
+      <c r="A50" s="238"/>
+      <c r="B50" s="284"/>
       <c r="C50" s="14" t="s">
         <v>109</v>
       </c>
@@ -18310,8 +18407,8 @@
       <c r="DW50" s="60"/>
     </row>
     <row r="51" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A51" s="267"/>
-      <c r="B51" s="287"/>
+      <c r="A51" s="238"/>
+      <c r="B51" s="284"/>
       <c r="C51" s="14" t="s">
         <v>68</v>
       </c>
@@ -18447,7 +18544,7 @@
       <c r="DW51" s="60"/>
     </row>
     <row r="52" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A52" s="267"/>
+      <c r="A52" s="238"/>
       <c r="B52" s="285"/>
       <c r="C52" s="20" t="s">
         <v>77</v>
@@ -18584,8 +18681,8 @@
       <c r="DW52" s="65"/>
     </row>
     <row r="53" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A53" s="267"/>
-      <c r="B53" s="286" t="s">
+      <c r="A53" s="238"/>
+      <c r="B53" s="287" t="s">
         <v>78</v>
       </c>
       <c r="C53" s="22" t="s">
@@ -18725,8 +18822,8 @@
       <c r="DW53" s="100"/>
     </row>
     <row r="54" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A54" s="267"/>
-      <c r="B54" s="287"/>
+      <c r="A54" s="238"/>
+      <c r="B54" s="284"/>
       <c r="C54" s="14" t="s">
         <v>80</v>
       </c>
@@ -18862,7 +18959,7 @@
       <c r="DW54" s="60"/>
     </row>
     <row r="55" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A55" s="267"/>
+      <c r="A55" s="238"/>
       <c r="B55" s="285"/>
       <c r="C55" s="20" t="s">
         <v>68</v>
@@ -18999,8 +19096,8 @@
       <c r="DW55" s="65"/>
     </row>
     <row r="56" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A56" s="267"/>
-      <c r="B56" s="286" t="s">
+      <c r="A56" s="238"/>
+      <c r="B56" s="287" t="s">
         <v>81</v>
       </c>
       <c r="C56" s="22" t="s">
@@ -19140,7 +19237,7 @@
       <c r="DW56" s="100"/>
     </row>
     <row r="57" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A57" s="267"/>
+      <c r="A57" s="238"/>
       <c r="B57" s="285"/>
       <c r="C57" s="20" t="s">
         <v>80</v>
@@ -19277,7 +19374,7 @@
       <c r="DW57" s="65"/>
     </row>
     <row r="58" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A58" s="267"/>
+      <c r="A58" s="238"/>
       <c r="B58" s="39" t="s">
         <v>83</v>
       </c>
@@ -19418,8 +19515,8 @@
       <c r="DW58" s="105"/>
     </row>
     <row r="59" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A59" s="267"/>
-      <c r="B59" s="286" t="s">
+      <c r="A59" s="238"/>
+      <c r="B59" s="287" t="s">
         <v>85</v>
       </c>
       <c r="C59" s="22" t="s">
@@ -19428,7 +19525,7 @@
       <c r="D59" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="E59" s="295" t="s">
+      <c r="E59" s="293" t="s">
         <v>107</v>
       </c>
       <c r="F59" s="130">
@@ -19559,15 +19656,15 @@
       <c r="DW59" s="100"/>
     </row>
     <row r="60" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A60" s="267"/>
-      <c r="B60" s="287"/>
+      <c r="A60" s="238"/>
+      <c r="B60" s="284"/>
       <c r="C60" s="14" t="s">
         <v>87</v>
       </c>
       <c r="D60" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E60" s="293"/>
+      <c r="E60" s="291"/>
       <c r="F60" s="16">
         <v>41061</v>
       </c>
@@ -19696,15 +19793,15 @@
       <c r="DW60" s="60"/>
     </row>
     <row r="61" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A61" s="267"/>
-      <c r="B61" s="287"/>
+      <c r="A61" s="238"/>
+      <c r="B61" s="284"/>
       <c r="C61" s="14" t="s">
         <v>88</v>
       </c>
       <c r="D61" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E61" s="293"/>
+      <c r="E61" s="291"/>
       <c r="F61" s="16">
         <v>41061</v>
       </c>
@@ -19833,15 +19930,15 @@
       <c r="DW61" s="60"/>
     </row>
     <row r="62" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A62" s="267"/>
-      <c r="B62" s="287"/>
+      <c r="A62" s="238"/>
+      <c r="B62" s="284"/>
       <c r="C62" s="14" t="s">
         <v>89</v>
       </c>
       <c r="D62" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E62" s="293"/>
+      <c r="E62" s="291"/>
       <c r="F62" s="16">
         <v>41061</v>
       </c>
@@ -19970,7 +20067,7 @@
       <c r="DW62" s="60"/>
     </row>
     <row r="63" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A63" s="267"/>
+      <c r="A63" s="238"/>
       <c r="B63" s="285"/>
       <c r="C63" s="20" t="s">
         <v>90</v>
@@ -19978,7 +20075,7 @@
       <c r="D63" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="E63" s="296"/>
+      <c r="E63" s="294"/>
       <c r="F63" s="127">
         <v>41061</v>
       </c>
@@ -20107,8 +20204,8 @@
       <c r="DW63" s="65"/>
     </row>
     <row r="64" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A64" s="267"/>
-      <c r="B64" s="287" t="s">
+      <c r="A64" s="238"/>
+      <c r="B64" s="284" t="s">
         <v>91</v>
       </c>
       <c r="C64" s="24" t="s">
@@ -20117,7 +20214,7 @@
       <c r="D64" s="121" t="s">
         <v>188</v>
       </c>
-      <c r="E64" s="287" t="s">
+      <c r="E64" s="284" t="s">
         <v>108</v>
       </c>
       <c r="F64" s="140">
@@ -20248,15 +20345,15 @@
       <c r="DW64" s="90"/>
     </row>
     <row r="65" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="262"/>
-      <c r="B65" s="290"/>
+      <c r="A65" s="265"/>
+      <c r="B65" s="286"/>
       <c r="C65" s="30" t="s">
         <v>93</v>
       </c>
       <c r="D65" s="122" t="s">
         <v>188</v>
       </c>
-      <c r="E65" s="290"/>
+      <c r="E65" s="286"/>
       <c r="F65" s="142">
         <v>41061</v>
       </c>
@@ -20385,10 +20482,10 @@
       <c r="DW65" s="95"/>
     </row>
     <row r="66" spans="1:127" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="291" t="s">
+      <c r="A66" s="288" t="s">
         <v>30</v>
       </c>
-      <c r="B66" s="284" t="s">
+      <c r="B66" s="283" t="s">
         <v>31</v>
       </c>
       <c r="C66" s="32" t="s">
@@ -20397,7 +20494,7 @@
       <c r="D66" s="119" t="s">
         <v>189</v>
       </c>
-      <c r="E66" s="284" t="s">
+      <c r="E66" s="283" t="s">
         <v>130</v>
       </c>
       <c r="F66" s="138">
@@ -20528,15 +20625,15 @@
       <c r="DW66" s="85"/>
     </row>
     <row r="67" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A67" s="282"/>
-      <c r="B67" s="287"/>
+      <c r="A67" s="289"/>
+      <c r="B67" s="284"/>
       <c r="C67" s="14" t="s">
         <v>33</v>
       </c>
       <c r="D67" s="120" t="s">
         <v>189</v>
       </c>
-      <c r="E67" s="287"/>
+      <c r="E67" s="284"/>
       <c r="F67" s="16">
         <v>41061</v>
       </c>
@@ -20665,15 +20762,15 @@
       <c r="DW67" s="60"/>
     </row>
     <row r="68" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A68" s="282"/>
-      <c r="B68" s="287"/>
+      <c r="A68" s="289"/>
+      <c r="B68" s="284"/>
       <c r="C68" s="14" t="s">
         <v>34</v>
       </c>
       <c r="D68" s="120" t="s">
         <v>189</v>
       </c>
-      <c r="E68" s="287"/>
+      <c r="E68" s="284"/>
       <c r="F68" s="16">
         <v>41061</v>
       </c>
@@ -20802,7 +20899,7 @@
       <c r="DW68" s="60"/>
     </row>
     <row r="69" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A69" s="282"/>
+      <c r="A69" s="289"/>
       <c r="B69" s="285"/>
       <c r="C69" s="20" t="s">
         <v>35</v>
@@ -20939,8 +21036,8 @@
       <c r="DW69" s="65"/>
     </row>
     <row r="70" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A70" s="282"/>
-      <c r="B70" s="286" t="s">
+      <c r="A70" s="289"/>
+      <c r="B70" s="287" t="s">
         <v>36</v>
       </c>
       <c r="C70" s="22" t="s">
@@ -20949,7 +21046,7 @@
       <c r="D70" s="123" t="s">
         <v>190</v>
       </c>
-      <c r="E70" s="286" t="s">
+      <c r="E70" s="287" t="s">
         <v>131</v>
       </c>
       <c r="F70" s="130">
@@ -21080,15 +21177,15 @@
       <c r="DW70" s="100"/>
     </row>
     <row r="71" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A71" s="282"/>
-      <c r="B71" s="287"/>
+      <c r="A71" s="289"/>
+      <c r="B71" s="284"/>
       <c r="C71" s="14" t="s">
         <v>38</v>
       </c>
       <c r="D71" s="120" t="s">
         <v>190</v>
       </c>
-      <c r="E71" s="287"/>
+      <c r="E71" s="284"/>
       <c r="F71" s="16">
         <v>41061</v>
       </c>
@@ -21217,7 +21314,7 @@
       <c r="DW71" s="60"/>
     </row>
     <row r="72" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A72" s="282"/>
+      <c r="A72" s="289"/>
       <c r="B72" s="285"/>
       <c r="C72" s="20" t="s">
         <v>39</v>
@@ -21354,8 +21451,8 @@
       <c r="DW72" s="65"/>
     </row>
     <row r="73" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A73" s="282"/>
-      <c r="B73" s="287" t="s">
+      <c r="A73" s="289"/>
+      <c r="B73" s="284" t="s">
         <v>40</v>
       </c>
       <c r="C73" s="24" t="s">
@@ -21364,7 +21461,7 @@
       <c r="D73" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="E73" s="293" t="s">
+      <c r="E73" s="291" t="s">
         <v>132</v>
       </c>
       <c r="F73" s="140">
@@ -21495,15 +21592,15 @@
       <c r="DW73" s="90"/>
     </row>
     <row r="74" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A74" s="282"/>
-      <c r="B74" s="287"/>
+      <c r="A74" s="289"/>
+      <c r="B74" s="284"/>
       <c r="C74" s="14" t="s">
         <v>42</v>
       </c>
       <c r="D74" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E74" s="293"/>
+      <c r="E74" s="291"/>
       <c r="F74" s="16">
         <v>41061</v>
       </c>
@@ -21632,15 +21729,15 @@
       <c r="DW74" s="60"/>
     </row>
     <row r="75" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A75" s="282"/>
-      <c r="B75" s="287"/>
+      <c r="A75" s="289"/>
+      <c r="B75" s="284"/>
       <c r="C75" s="14" t="s">
         <v>43</v>
       </c>
       <c r="D75" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E75" s="293"/>
+      <c r="E75" s="291"/>
       <c r="F75" s="16">
         <v>41061</v>
       </c>
@@ -21769,15 +21866,15 @@
       <c r="DW75" s="60"/>
     </row>
     <row r="76" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A76" s="282"/>
-      <c r="B76" s="287"/>
+      <c r="A76" s="289"/>
+      <c r="B76" s="284"/>
       <c r="C76" s="14" t="s">
         <v>44</v>
       </c>
       <c r="D76" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E76" s="293"/>
+      <c r="E76" s="291"/>
       <c r="F76" s="16">
         <v>41061</v>
       </c>
@@ -21906,15 +22003,15 @@
       <c r="DW76" s="60"/>
     </row>
     <row r="77" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="292"/>
-      <c r="B77" s="290"/>
+      <c r="A77" s="290"/>
+      <c r="B77" s="286"/>
       <c r="C77" s="30" t="s">
         <v>45</v>
       </c>
       <c r="D77" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="E77" s="294"/>
+      <c r="E77" s="292"/>
       <c r="F77" s="142">
         <v>41061</v>
       </c>
@@ -22043,10 +22140,10 @@
       <c r="DW77" s="95"/>
     </row>
     <row r="78" spans="1:127" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="288" t="s">
+      <c r="A78" s="282" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="284" t="s">
+      <c r="B78" s="283" t="s">
         <v>110</v>
       </c>
       <c r="C78" s="32" t="s">
@@ -22186,8 +22283,8 @@
       <c r="DW78" s="85"/>
     </row>
     <row r="79" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A79" s="289"/>
-      <c r="B79" s="287"/>
+      <c r="A79" s="296"/>
+      <c r="B79" s="284"/>
       <c r="C79" s="24" t="s">
         <v>112</v>
       </c>
@@ -22325,7 +22422,7 @@
       <c r="DW79" s="90"/>
     </row>
     <row r="80" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A80" s="289"/>
+      <c r="A80" s="296"/>
       <c r="B80" s="285"/>
       <c r="C80" s="41" t="s">
         <v>109</v>
@@ -22462,8 +22559,8 @@
       <c r="DW80" s="109"/>
     </row>
     <row r="81" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A81" s="289"/>
-      <c r="B81" s="286" t="s">
+      <c r="A81" s="296"/>
+      <c r="B81" s="287" t="s">
         <v>113</v>
       </c>
       <c r="C81" s="22" t="s">
@@ -22603,8 +22700,8 @@
       <c r="DW81" s="100"/>
     </row>
     <row r="82" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A82" s="289"/>
-      <c r="B82" s="287"/>
+      <c r="A82" s="296"/>
+      <c r="B82" s="284"/>
       <c r="C82" s="24" t="s">
         <v>115</v>
       </c>
@@ -22742,7 +22839,7 @@
       <c r="DW82" s="90"/>
     </row>
     <row r="83" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A83" s="267"/>
+      <c r="A83" s="238"/>
       <c r="B83" s="285"/>
       <c r="C83" s="20" t="s">
         <v>116</v>
@@ -22881,7 +22978,7 @@
       <c r="DW83" s="65"/>
     </row>
     <row r="84" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="262"/>
+      <c r="A84" s="265"/>
       <c r="B84" s="37" t="s">
         <v>117</v>
       </c>
@@ -23022,10 +23119,10 @@
       <c r="DW84" s="80"/>
     </row>
     <row r="85" spans="1:127" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="288" t="s">
+      <c r="A85" s="282" t="s">
         <v>9</v>
       </c>
-      <c r="B85" s="284" t="s">
+      <c r="B85" s="283" t="s">
         <v>119</v>
       </c>
       <c r="C85" s="32" t="s">
@@ -23163,7 +23260,7 @@
       <c r="DW85" s="85"/>
     </row>
     <row r="86" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A86" s="289"/>
+      <c r="A86" s="296"/>
       <c r="B86" s="285"/>
       <c r="C86" s="41" t="s">
         <v>118</v>
@@ -23300,8 +23397,8 @@
       <c r="DW86" s="109"/>
     </row>
     <row r="87" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A87" s="267"/>
-      <c r="B87" s="287" t="s">
+      <c r="A87" s="238"/>
+      <c r="B87" s="284" t="s">
         <v>120</v>
       </c>
       <c r="C87" s="24" t="s">
@@ -23439,8 +23536,8 @@
       <c r="DW87" s="90"/>
     </row>
     <row r="88" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="262"/>
-      <c r="B88" s="290"/>
+      <c r="A88" s="265"/>
+      <c r="B88" s="286"/>
       <c r="C88" s="30" t="s">
         <v>120</v>
       </c>
@@ -23576,10 +23673,10 @@
       <c r="DW88" s="95"/>
     </row>
     <row r="89" spans="1:127" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="282" t="s">
+      <c r="A89" s="289" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="284" t="s">
+      <c r="B89" s="283" t="s">
         <v>122</v>
       </c>
       <c r="C89" s="32" t="s">
@@ -23719,7 +23816,7 @@
       <c r="DW89" s="85"/>
     </row>
     <row r="90" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A90" s="282"/>
+      <c r="A90" s="289"/>
       <c r="B90" s="285"/>
       <c r="C90" s="20" t="s">
         <v>124</v>
@@ -23858,8 +23955,8 @@
       <c r="DW90" s="65"/>
     </row>
     <row r="91" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A91" s="282"/>
-      <c r="B91" s="286" t="s">
+      <c r="A91" s="289"/>
+      <c r="B91" s="287" t="s">
         <v>125</v>
       </c>
       <c r="C91" s="22" t="s">
@@ -23999,8 +24096,8 @@
       <c r="DW91" s="100"/>
     </row>
     <row r="92" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A92" s="282"/>
-      <c r="B92" s="287"/>
+      <c r="A92" s="289"/>
+      <c r="B92" s="284"/>
       <c r="C92" s="14" t="s">
         <v>127</v>
       </c>
@@ -24136,8 +24233,8 @@
       <c r="DW92" s="60"/>
     </row>
     <row r="93" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A93" s="282"/>
-      <c r="B93" s="287"/>
+      <c r="A93" s="289"/>
+      <c r="B93" s="284"/>
       <c r="C93" s="14" t="s">
         <v>128</v>
       </c>
@@ -24273,7 +24370,7 @@
       <c r="DW93" s="60"/>
     </row>
     <row r="94" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A94" s="282"/>
+      <c r="A94" s="289"/>
       <c r="B94" s="285"/>
       <c r="C94" s="20" t="s">
         <v>129</v>
@@ -24412,7 +24509,7 @@
       <c r="DW94" s="65"/>
     </row>
     <row r="95" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="283"/>
+      <c r="A95" s="295"/>
       <c r="B95" s="43" t="s">
         <v>92</v>
       </c>
@@ -24552,30 +24649,84 @@
     </row>
   </sheetData>
   <mergeCells count="126">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="W8:AA8"/>
-    <mergeCell ref="AB8:AF8"/>
-    <mergeCell ref="AG8:AK8"/>
-    <mergeCell ref="AL8:AP8"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="AJ9:AK9"/>
-    <mergeCell ref="AL9:AM9"/>
-    <mergeCell ref="AO9:AP9"/>
+    <mergeCell ref="A89:A95"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="A78:A84"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="A66:A77"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="E66:E69"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="E70:E72"/>
+    <mergeCell ref="B73:B77"/>
+    <mergeCell ref="E73:E77"/>
+    <mergeCell ref="B45:B52"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="E59:E63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="A31:A65"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="DV9:DW9"/>
+    <mergeCell ref="A11:A23"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="DG9:DH9"/>
+    <mergeCell ref="DI9:DJ9"/>
+    <mergeCell ref="DL9:DM9"/>
+    <mergeCell ref="DN9:DO9"/>
+    <mergeCell ref="DQ9:DR9"/>
+    <mergeCell ref="DS9:DT9"/>
+    <mergeCell ref="CR9:CS9"/>
+    <mergeCell ref="CT9:CU9"/>
+    <mergeCell ref="CW9:CX9"/>
+    <mergeCell ref="CY9:CZ9"/>
+    <mergeCell ref="DB9:DC9"/>
+    <mergeCell ref="DD9:DE9"/>
+    <mergeCell ref="CC9:CD9"/>
+    <mergeCell ref="CE9:CF9"/>
+    <mergeCell ref="CH9:CI9"/>
+    <mergeCell ref="CJ9:CK9"/>
+    <mergeCell ref="CM9:CN9"/>
+    <mergeCell ref="CO9:CP9"/>
+    <mergeCell ref="BN9:BO9"/>
+    <mergeCell ref="BP9:BQ9"/>
+    <mergeCell ref="BS9:BT9"/>
+    <mergeCell ref="BU9:BV9"/>
+    <mergeCell ref="BX9:BY9"/>
+    <mergeCell ref="BZ9:CA9"/>
+    <mergeCell ref="AY9:AZ9"/>
+    <mergeCell ref="BA9:BB9"/>
+    <mergeCell ref="BD9:BE9"/>
+    <mergeCell ref="BF9:BG9"/>
+    <mergeCell ref="BI9:BJ9"/>
+    <mergeCell ref="BK9:BL9"/>
+    <mergeCell ref="AQ9:AR9"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
     <mergeCell ref="CY8:DC8"/>
     <mergeCell ref="DD8:DH8"/>
     <mergeCell ref="DI8:DM8"/>
@@ -24600,84 +24751,30 @@
     <mergeCell ref="BP8:BT8"/>
     <mergeCell ref="M8:Q8"/>
     <mergeCell ref="R8:V8"/>
-    <mergeCell ref="AQ9:AR9"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AV9:AW9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="BN9:BO9"/>
-    <mergeCell ref="BP9:BQ9"/>
-    <mergeCell ref="BS9:BT9"/>
-    <mergeCell ref="BU9:BV9"/>
-    <mergeCell ref="BX9:BY9"/>
-    <mergeCell ref="BZ9:CA9"/>
-    <mergeCell ref="AY9:AZ9"/>
-    <mergeCell ref="BA9:BB9"/>
-    <mergeCell ref="BD9:BE9"/>
-    <mergeCell ref="BF9:BG9"/>
-    <mergeCell ref="BI9:BJ9"/>
-    <mergeCell ref="BK9:BL9"/>
-    <mergeCell ref="DV9:DW9"/>
-    <mergeCell ref="A11:A23"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="DG9:DH9"/>
-    <mergeCell ref="DI9:DJ9"/>
-    <mergeCell ref="DL9:DM9"/>
-    <mergeCell ref="DN9:DO9"/>
-    <mergeCell ref="DQ9:DR9"/>
-    <mergeCell ref="DS9:DT9"/>
-    <mergeCell ref="CR9:CS9"/>
-    <mergeCell ref="CT9:CU9"/>
-    <mergeCell ref="CW9:CX9"/>
-    <mergeCell ref="CY9:CZ9"/>
-    <mergeCell ref="DB9:DC9"/>
-    <mergeCell ref="DD9:DE9"/>
-    <mergeCell ref="CC9:CD9"/>
-    <mergeCell ref="CE9:CF9"/>
-    <mergeCell ref="CH9:CI9"/>
-    <mergeCell ref="CJ9:CK9"/>
-    <mergeCell ref="CM9:CN9"/>
-    <mergeCell ref="CO9:CP9"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="A31:A65"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A66:A77"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="E66:E69"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="E70:E72"/>
-    <mergeCell ref="B73:B77"/>
-    <mergeCell ref="E73:E77"/>
-    <mergeCell ref="B45:B52"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="E59:E63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="A89:A95"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="A78:A84"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="A85:A88"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="AG8:AK8"/>
+    <mergeCell ref="AL8:AP8"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="AL9:AM9"/>
+    <mergeCell ref="AO9:AP9"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="AB8:AF8"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="H11:DW95">

--- a/~2022-10-31 1인프로젝트/설계서/프로젝트 일정 계획서_MVP-최동영.xlsx
+++ b/~2022-10-31 1인프로젝트/설계서/프로젝트 일정 계획서_MVP-최동영.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CHOIDONGYOUNG\Desktop\Work\~2022-10-31 1인프로젝트\설계서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA24F07B-0C7F-4C78-A2E9-50EE14724D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587DC0B6-F725-4061-B204-44D8444D2810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="2475" windowWidth="21600" windowHeight="12735" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="4" r:id="rId1"/>
@@ -1122,7 +1122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="250">
   <si>
     <t>업무내용</t>
   </si>
@@ -1905,10 +1905,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>프로그램</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>산출물적용계획표</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1945,10 +1941,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>마감</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>단위 테스트 시나리오 작성</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1962,6 +1954,10 @@
   </si>
   <si>
     <t>단위 테스트 시나리오 결과서</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>산출물 목록 정의</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2325,7 +2321,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="138">
+  <borders count="129">
     <border>
       <left/>
       <right/>
@@ -3979,19 +3975,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -4005,118 +3988,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="hair">
+        <color auto="1"/>
       </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4125,26 +4007,11 @@
       <right style="hair">
         <color auto="1"/>
       </right>
-      <top style="dashed">
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4303,7 +4170,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="311">
+  <cellXfs count="317">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4865,9 +4732,6 @@
     <xf numFmtId="14" fontId="10" fillId="3" borderId="104" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="112" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="104" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4898,343 +4762,364 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="119" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="120" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="102" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="103" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="105" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="106" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="107" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="102" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="103" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="68" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="65" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="116" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="117" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="104" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="104" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="121" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="122" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="123" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="124" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="125" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="120" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="106" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="106" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="102" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="126" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="103" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="105" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="106" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="107" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="102" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="103" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="68" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="65" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="104" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="8" fillId="2" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="116" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="117" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="104" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="121" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="122" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="123" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="124" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="125" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="126" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="120" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="106" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="106" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="127" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="104" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="127" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="129" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="130" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="133" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="134" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="134" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="135" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="136" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="137" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6281,20 +6166,20 @@
     </row>
     <row r="6" spans="2:12" ht="9.9499999999999993" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I7" s="217" t="s">
+      <c r="I7" s="206" t="s">
         <v>231</v>
       </c>
-      <c r="J7" s="217"/>
-      <c r="K7" s="217"/>
-      <c r="L7" s="217"/>
+      <c r="J7" s="206"/>
+      <c r="K7" s="206"/>
+      <c r="L7" s="206"/>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I8" s="218">
+      <c r="I8" s="207">
         <v>44053</v>
       </c>
-      <c r="J8" s="218"/>
-      <c r="K8" s="218"/>
-      <c r="L8" s="218"/>
+      <c r="J8" s="207"/>
+      <c r="K8" s="207"/>
+      <c r="L8" s="207"/>
     </row>
     <row r="9" spans="2:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I9" s="159"/>
@@ -6303,10 +6188,10 @@
       <c r="L9" s="160"/>
     </row>
     <row r="10" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="219" t="s">
+      <c r="E10" s="208" t="s">
         <v>197</v>
       </c>
-      <c r="F10" s="220"/>
+      <c r="F10" s="209"/>
       <c r="G10" s="161" t="s">
         <v>198</v>
       </c>
@@ -6318,7 +6203,7 @@
       </c>
     </row>
     <row r="11" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="221" t="s">
+      <c r="E11" s="210" t="s">
         <v>218</v>
       </c>
       <c r="F11" s="162" t="s">
@@ -6333,7 +6218,7 @@
       </c>
     </row>
     <row r="12" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="222"/>
+      <c r="E12" s="211"/>
       <c r="F12" s="162" t="s">
         <v>202</v>
       </c>
@@ -6342,7 +6227,7 @@
       <c r="I12" s="164"/>
     </row>
     <row r="13" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E13" s="223"/>
+      <c r="E13" s="212"/>
       <c r="F13" s="162" t="s">
         <v>203</v>
       </c>
@@ -6353,53 +6238,53 @@
       <c r="I13" s="164"/>
     </row>
     <row r="14" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E14" s="224" t="s">
+      <c r="E14" s="213" t="s">
         <v>204</v>
       </c>
-      <c r="F14" s="225"/>
+      <c r="F14" s="214"/>
       <c r="G14" s="163"/>
       <c r="H14" s="163"/>
       <c r="I14" s="164"/>
     </row>
     <row r="15" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="224" t="s">
+      <c r="E15" s="213" t="s">
         <v>204</v>
       </c>
-      <c r="F15" s="225"/>
+      <c r="F15" s="214"/>
       <c r="G15" s="163"/>
       <c r="H15" s="163"/>
       <c r="I15" s="164"/>
     </row>
     <row r="16" spans="2:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="215" t="s">
+      <c r="B17" s="204" t="s">
         <v>205</v>
       </c>
-      <c r="C17" s="215"/>
-      <c r="D17" s="215"/>
-      <c r="E17" s="215"/>
-      <c r="F17" s="215"/>
-      <c r="G17" s="215"/>
-      <c r="H17" s="215"/>
-      <c r="I17" s="215"/>
-      <c r="J17" s="215"/>
-      <c r="K17" s="215"/>
-      <c r="L17" s="215"/>
+      <c r="C17" s="204"/>
+      <c r="D17" s="204"/>
+      <c r="E17" s="204"/>
+      <c r="F17" s="204"/>
+      <c r="G17" s="204"/>
+      <c r="H17" s="204"/>
+      <c r="I17" s="204"/>
+      <c r="J17" s="204"/>
+      <c r="K17" s="204"/>
+      <c r="L17" s="204"/>
     </row>
     <row r="18" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="216" t="s">
+      <c r="B18" s="205" t="s">
         <v>206</v>
       </c>
-      <c r="C18" s="216"/>
-      <c r="D18" s="216"/>
-      <c r="E18" s="216"/>
-      <c r="F18" s="216"/>
-      <c r="G18" s="216"/>
-      <c r="H18" s="216"/>
-      <c r="I18" s="216"/>
-      <c r="J18" s="216"/>
-      <c r="K18" s="216"/>
-      <c r="L18" s="216"/>
+      <c r="C18" s="205"/>
+      <c r="D18" s="205"/>
+      <c r="E18" s="205"/>
+      <c r="F18" s="205"/>
+      <c r="G18" s="205"/>
+      <c r="H18" s="205"/>
+      <c r="I18" s="205"/>
+      <c r="J18" s="205"/>
+      <c r="K18" s="205"/>
+      <c r="L18" s="205"/>
     </row>
     <row r="19" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6665,13 +6550,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:DW24"/>
+  <dimension ref="A1:DW23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="10" topLeftCell="R11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="10" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="AI23" sqref="AI23"/>
+      <selection pane="bottomRight" activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6687,19 +6572,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:127" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="270" t="s">
+      <c r="A1" s="215" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="270"/>
-      <c r="C1" s="270"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="270"/>
-      <c r="G1" s="270"/>
-      <c r="H1" s="270"/>
-      <c r="I1" s="270"/>
-      <c r="J1" s="270"/>
-      <c r="K1" s="270"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="215"/>
+      <c r="J1" s="215"/>
+      <c r="K1" s="215"/>
       <c r="L1" s="50"/>
       <c r="M1" s="50"/>
       <c r="N1" s="50"/>
@@ -6821,10 +6706,10 @@
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="271" t="s">
+      <c r="B2" s="221" t="s">
         <v>232</v>
       </c>
-      <c r="C2" s="271"/>
+      <c r="C2" s="221"/>
       <c r="D2" s="7"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -6952,8 +6837,8 @@
     </row>
     <row r="3" spans="1:127" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
-      <c r="B3" s="271"/>
-      <c r="C3" s="271"/>
+      <c r="B3" s="221"/>
+      <c r="C3" s="221"/>
       <c r="D3" s="7"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -7083,10 +6968,10 @@
       <c r="A4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="272">
+      <c r="B4" s="222">
         <v>44840</v>
       </c>
-      <c r="C4" s="272"/>
+      <c r="C4" s="222"/>
       <c r="D4" s="7"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -7218,33 +7103,31 @@
       <c r="A5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="271" t="s">
+      <c r="B5" s="221" t="s">
         <v>228</v>
       </c>
-      <c r="C5" s="271"/>
+      <c r="C5" s="221"/>
       <c r="D5" s="7"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="266" t="s">
-        <v>244</v>
-      </c>
-      <c r="J5" s="266"/>
-      <c r="K5" s="268" t="s">
+      <c r="I5" s="227" t="s">
+        <v>243</v>
+      </c>
+      <c r="J5" s="227"/>
+      <c r="K5" s="229" t="s">
         <v>196</v>
       </c>
-      <c r="L5" s="268"/>
-      <c r="M5" s="269" t="s">
-        <v>246</v>
-      </c>
-      <c r="N5" s="269"/>
-      <c r="O5" s="267"/>
-      <c r="P5" s="267"/>
-      <c r="Q5" s="267"/>
-      <c r="R5" s="267"/>
-      <c r="S5" s="267"/>
-      <c r="T5" s="267"/>
+      <c r="L5" s="229"/>
+      <c r="M5" s="312"/>
+      <c r="N5" s="312"/>
+      <c r="O5" s="228"/>
+      <c r="P5" s="228"/>
+      <c r="Q5" s="228"/>
+      <c r="R5" s="228"/>
+      <c r="S5" s="228"/>
+      <c r="T5" s="228"/>
       <c r="U5" s="150"/>
       <c r="V5" s="150"/>
       <c r="W5" s="50"/>
@@ -7612,523 +7495,523 @@
       <c r="DW7" s="8"/>
     </row>
     <row r="8" spans="1:127" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="251" t="s">
+      <c r="A8" s="253" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="259" t="s">
+      <c r="B8" s="235" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="260"/>
-      <c r="D8" s="263" t="s">
+      <c r="C8" s="236"/>
+      <c r="D8" s="216" t="s">
         <v>186</v>
       </c>
-      <c r="E8" s="263" t="s">
+      <c r="E8" s="216" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="255" t="s">
+      <c r="F8" s="231" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="256"/>
-      <c r="H8" s="258" t="s">
+      <c r="G8" s="232"/>
+      <c r="H8" s="234" t="s">
         <v>162</v>
       </c>
-      <c r="I8" s="232"/>
-      <c r="J8" s="232"/>
-      <c r="K8" s="232"/>
-      <c r="L8" s="233"/>
-      <c r="M8" s="231" t="s">
+      <c r="I8" s="219"/>
+      <c r="J8" s="219"/>
+      <c r="K8" s="219"/>
+      <c r="L8" s="220"/>
+      <c r="M8" s="218" t="s">
         <v>163</v>
       </c>
-      <c r="N8" s="232"/>
-      <c r="O8" s="232"/>
-      <c r="P8" s="232"/>
-      <c r="Q8" s="233"/>
-      <c r="R8" s="231" t="s">
+      <c r="N8" s="219"/>
+      <c r="O8" s="219"/>
+      <c r="P8" s="219"/>
+      <c r="Q8" s="220"/>
+      <c r="R8" s="218" t="s">
         <v>164</v>
       </c>
-      <c r="S8" s="232"/>
-      <c r="T8" s="232"/>
-      <c r="U8" s="232"/>
-      <c r="V8" s="233"/>
-      <c r="W8" s="231" t="s">
+      <c r="S8" s="219"/>
+      <c r="T8" s="219"/>
+      <c r="U8" s="219"/>
+      <c r="V8" s="220"/>
+      <c r="W8" s="218" t="s">
         <v>165</v>
       </c>
-      <c r="X8" s="232"/>
-      <c r="Y8" s="232"/>
-      <c r="Z8" s="232"/>
-      <c r="AA8" s="233"/>
-      <c r="AB8" s="231" t="s">
+      <c r="X8" s="219"/>
+      <c r="Y8" s="219"/>
+      <c r="Z8" s="219"/>
+      <c r="AA8" s="220"/>
+      <c r="AB8" s="218" t="s">
         <v>166</v>
       </c>
-      <c r="AC8" s="232"/>
-      <c r="AD8" s="232"/>
-      <c r="AE8" s="232"/>
-      <c r="AF8" s="233"/>
-      <c r="AG8" s="231" t="s">
+      <c r="AC8" s="219"/>
+      <c r="AD8" s="219"/>
+      <c r="AE8" s="219"/>
+      <c r="AF8" s="220"/>
+      <c r="AG8" s="218" t="s">
         <v>167</v>
       </c>
-      <c r="AH8" s="232"/>
-      <c r="AI8" s="232"/>
-      <c r="AJ8" s="232"/>
-      <c r="AK8" s="233"/>
-      <c r="AL8" s="231" t="s">
+      <c r="AH8" s="219"/>
+      <c r="AI8" s="219"/>
+      <c r="AJ8" s="219"/>
+      <c r="AK8" s="220"/>
+      <c r="AL8" s="218" t="s">
         <v>168</v>
       </c>
-      <c r="AM8" s="232"/>
-      <c r="AN8" s="232"/>
-      <c r="AO8" s="232"/>
-      <c r="AP8" s="233"/>
-      <c r="AQ8" s="231" t="s">
+      <c r="AM8" s="219"/>
+      <c r="AN8" s="219"/>
+      <c r="AO8" s="219"/>
+      <c r="AP8" s="220"/>
+      <c r="AQ8" s="218" t="s">
         <v>169</v>
       </c>
-      <c r="AR8" s="232"/>
-      <c r="AS8" s="232"/>
-      <c r="AT8" s="232"/>
-      <c r="AU8" s="233"/>
-      <c r="AV8" s="231" t="s">
+      <c r="AR8" s="219"/>
+      <c r="AS8" s="219"/>
+      <c r="AT8" s="219"/>
+      <c r="AU8" s="220"/>
+      <c r="AV8" s="218" t="s">
         <v>170</v>
       </c>
-      <c r="AW8" s="232"/>
-      <c r="AX8" s="232"/>
-      <c r="AY8" s="232"/>
-      <c r="AZ8" s="233"/>
-      <c r="BA8" s="231" t="s">
+      <c r="AW8" s="219"/>
+      <c r="AX8" s="219"/>
+      <c r="AY8" s="219"/>
+      <c r="AZ8" s="220"/>
+      <c r="BA8" s="218" t="s">
         <v>171</v>
       </c>
-      <c r="BB8" s="232"/>
-      <c r="BC8" s="232"/>
-      <c r="BD8" s="232"/>
-      <c r="BE8" s="233"/>
-      <c r="BF8" s="231" t="s">
+      <c r="BB8" s="219"/>
+      <c r="BC8" s="219"/>
+      <c r="BD8" s="219"/>
+      <c r="BE8" s="220"/>
+      <c r="BF8" s="218" t="s">
         <v>172</v>
       </c>
-      <c r="BG8" s="232"/>
-      <c r="BH8" s="232"/>
-      <c r="BI8" s="232"/>
-      <c r="BJ8" s="233"/>
-      <c r="BK8" s="231" t="s">
+      <c r="BG8" s="219"/>
+      <c r="BH8" s="219"/>
+      <c r="BI8" s="219"/>
+      <c r="BJ8" s="220"/>
+      <c r="BK8" s="218" t="s">
         <v>173</v>
       </c>
-      <c r="BL8" s="232"/>
-      <c r="BM8" s="232"/>
-      <c r="BN8" s="232"/>
-      <c r="BO8" s="233"/>
-      <c r="BP8" s="231" t="s">
+      <c r="BL8" s="219"/>
+      <c r="BM8" s="219"/>
+      <c r="BN8" s="219"/>
+      <c r="BO8" s="220"/>
+      <c r="BP8" s="218" t="s">
         <v>174</v>
       </c>
-      <c r="BQ8" s="232"/>
-      <c r="BR8" s="232"/>
-      <c r="BS8" s="232"/>
-      <c r="BT8" s="233"/>
-      <c r="BU8" s="231" t="s">
+      <c r="BQ8" s="219"/>
+      <c r="BR8" s="219"/>
+      <c r="BS8" s="219"/>
+      <c r="BT8" s="220"/>
+      <c r="BU8" s="218" t="s">
         <v>175</v>
       </c>
-      <c r="BV8" s="232"/>
-      <c r="BW8" s="232"/>
-      <c r="BX8" s="232"/>
-      <c r="BY8" s="233"/>
-      <c r="BZ8" s="231" t="s">
+      <c r="BV8" s="219"/>
+      <c r="BW8" s="219"/>
+      <c r="BX8" s="219"/>
+      <c r="BY8" s="220"/>
+      <c r="BZ8" s="218" t="s">
         <v>176</v>
       </c>
-      <c r="CA8" s="232"/>
-      <c r="CB8" s="232"/>
-      <c r="CC8" s="232"/>
-      <c r="CD8" s="233"/>
-      <c r="CE8" s="231" t="s">
+      <c r="CA8" s="219"/>
+      <c r="CB8" s="219"/>
+      <c r="CC8" s="219"/>
+      <c r="CD8" s="220"/>
+      <c r="CE8" s="218" t="s">
         <v>177</v>
       </c>
-      <c r="CF8" s="232"/>
-      <c r="CG8" s="232"/>
-      <c r="CH8" s="232"/>
-      <c r="CI8" s="233"/>
-      <c r="CJ8" s="231" t="s">
+      <c r="CF8" s="219"/>
+      <c r="CG8" s="219"/>
+      <c r="CH8" s="219"/>
+      <c r="CI8" s="220"/>
+      <c r="CJ8" s="218" t="s">
         <v>178</v>
       </c>
-      <c r="CK8" s="232"/>
-      <c r="CL8" s="232"/>
-      <c r="CM8" s="232"/>
-      <c r="CN8" s="233"/>
-      <c r="CO8" s="231" t="s">
+      <c r="CK8" s="219"/>
+      <c r="CL8" s="219"/>
+      <c r="CM8" s="219"/>
+      <c r="CN8" s="220"/>
+      <c r="CO8" s="218" t="s">
         <v>179</v>
       </c>
-      <c r="CP8" s="232"/>
-      <c r="CQ8" s="232"/>
-      <c r="CR8" s="232"/>
-      <c r="CS8" s="233"/>
-      <c r="CT8" s="231" t="s">
+      <c r="CP8" s="219"/>
+      <c r="CQ8" s="219"/>
+      <c r="CR8" s="219"/>
+      <c r="CS8" s="220"/>
+      <c r="CT8" s="218" t="s">
         <v>180</v>
       </c>
-      <c r="CU8" s="232"/>
-      <c r="CV8" s="232"/>
-      <c r="CW8" s="232"/>
-      <c r="CX8" s="233"/>
-      <c r="CY8" s="231" t="s">
+      <c r="CU8" s="219"/>
+      <c r="CV8" s="219"/>
+      <c r="CW8" s="219"/>
+      <c r="CX8" s="220"/>
+      <c r="CY8" s="218" t="s">
         <v>181</v>
       </c>
-      <c r="CZ8" s="232"/>
-      <c r="DA8" s="232"/>
-      <c r="DB8" s="232"/>
-      <c r="DC8" s="233"/>
-      <c r="DD8" s="231" t="s">
+      <c r="CZ8" s="219"/>
+      <c r="DA8" s="219"/>
+      <c r="DB8" s="219"/>
+      <c r="DC8" s="220"/>
+      <c r="DD8" s="218" t="s">
         <v>182</v>
       </c>
-      <c r="DE8" s="232"/>
-      <c r="DF8" s="232"/>
-      <c r="DG8" s="232"/>
-      <c r="DH8" s="233"/>
-      <c r="DI8" s="231" t="s">
+      <c r="DE8" s="219"/>
+      <c r="DF8" s="219"/>
+      <c r="DG8" s="219"/>
+      <c r="DH8" s="220"/>
+      <c r="DI8" s="218" t="s">
         <v>183</v>
       </c>
-      <c r="DJ8" s="232"/>
-      <c r="DK8" s="232"/>
-      <c r="DL8" s="232"/>
-      <c r="DM8" s="233"/>
-      <c r="DN8" s="231" t="s">
+      <c r="DJ8" s="219"/>
+      <c r="DK8" s="219"/>
+      <c r="DL8" s="219"/>
+      <c r="DM8" s="220"/>
+      <c r="DN8" s="218" t="s">
         <v>184</v>
       </c>
-      <c r="DO8" s="232"/>
-      <c r="DP8" s="232"/>
-      <c r="DQ8" s="232"/>
-      <c r="DR8" s="233"/>
-      <c r="DS8" s="231" t="s">
+      <c r="DO8" s="219"/>
+      <c r="DP8" s="219"/>
+      <c r="DQ8" s="219"/>
+      <c r="DR8" s="220"/>
+      <c r="DS8" s="218" t="s">
         <v>185</v>
       </c>
-      <c r="DT8" s="232"/>
-      <c r="DU8" s="232"/>
-      <c r="DV8" s="232"/>
-      <c r="DW8" s="234"/>
+      <c r="DT8" s="219"/>
+      <c r="DU8" s="219"/>
+      <c r="DV8" s="219"/>
+      <c r="DW8" s="257"/>
     </row>
     <row r="9" spans="1:127" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="252"/>
-      <c r="B9" s="261"/>
-      <c r="C9" s="262"/>
-      <c r="D9" s="264"/>
-      <c r="E9" s="264"/>
+      <c r="A9" s="254"/>
+      <c r="B9" s="237"/>
+      <c r="C9" s="238"/>
+      <c r="D9" s="217"/>
+      <c r="E9" s="217"/>
       <c r="F9" s="12" t="s">
         <v>160</v>
       </c>
       <c r="G9" s="13">
         <v>44823</v>
       </c>
-      <c r="H9" s="257">
+      <c r="H9" s="233">
         <f>G9</f>
         <v>44823</v>
       </c>
-      <c r="I9" s="227"/>
+      <c r="I9" s="224"/>
       <c r="J9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="K9" s="228">
+      <c r="K9" s="225">
         <f>L10</f>
         <v>44827</v>
       </c>
-      <c r="L9" s="229"/>
-      <c r="M9" s="226">
+      <c r="L9" s="226"/>
+      <c r="M9" s="223">
         <f>M10</f>
         <v>44830</v>
       </c>
-      <c r="N9" s="227"/>
+      <c r="N9" s="224"/>
       <c r="O9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="P9" s="228">
+      <c r="P9" s="225">
         <f>Q10</f>
         <v>44834</v>
       </c>
-      <c r="Q9" s="229"/>
-      <c r="R9" s="226">
+      <c r="Q9" s="226"/>
+      <c r="R9" s="223">
         <f>R10</f>
         <v>44837</v>
       </c>
-      <c r="S9" s="227"/>
+      <c r="S9" s="224"/>
       <c r="T9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="U9" s="228">
+      <c r="U9" s="225">
         <f>V10</f>
         <v>44841</v>
       </c>
-      <c r="V9" s="229"/>
-      <c r="W9" s="226">
+      <c r="V9" s="226"/>
+      <c r="W9" s="223">
         <f>W10</f>
         <v>44844</v>
       </c>
-      <c r="X9" s="227"/>
+      <c r="X9" s="224"/>
       <c r="Y9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="Z9" s="228">
+      <c r="Z9" s="225">
         <f>AA10</f>
         <v>44848</v>
       </c>
-      <c r="AA9" s="229"/>
-      <c r="AB9" s="226">
+      <c r="AA9" s="226"/>
+      <c r="AB9" s="223">
         <f>AB10</f>
         <v>44851</v>
       </c>
-      <c r="AC9" s="227"/>
+      <c r="AC9" s="224"/>
       <c r="AD9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="AE9" s="228">
+      <c r="AE9" s="225">
         <f>AF10</f>
         <v>44855</v>
       </c>
-      <c r="AF9" s="229"/>
-      <c r="AG9" s="226">
+      <c r="AF9" s="226"/>
+      <c r="AG9" s="223">
         <f>AG10</f>
         <v>44858</v>
       </c>
-      <c r="AH9" s="227"/>
+      <c r="AH9" s="224"/>
       <c r="AI9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="AJ9" s="228">
+      <c r="AJ9" s="225">
         <f>AK10</f>
         <v>44862</v>
       </c>
-      <c r="AK9" s="229"/>
-      <c r="AL9" s="226">
+      <c r="AK9" s="226"/>
+      <c r="AL9" s="223">
         <f>AL10</f>
         <v>44865</v>
       </c>
-      <c r="AM9" s="227"/>
+      <c r="AM9" s="224"/>
       <c r="AN9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="AO9" s="228">
+      <c r="AO9" s="225">
         <f>AP10</f>
         <v>44869</v>
       </c>
-      <c r="AP9" s="229"/>
-      <c r="AQ9" s="226">
+      <c r="AP9" s="226"/>
+      <c r="AQ9" s="223">
         <f>AQ10</f>
         <v>44872</v>
       </c>
-      <c r="AR9" s="227"/>
+      <c r="AR9" s="224"/>
       <c r="AS9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="AT9" s="228">
+      <c r="AT9" s="225">
         <f>AU10</f>
         <v>44876</v>
       </c>
-      <c r="AU9" s="229"/>
-      <c r="AV9" s="226">
+      <c r="AU9" s="226"/>
+      <c r="AV9" s="223">
         <f>AV10</f>
         <v>44879</v>
       </c>
-      <c r="AW9" s="227"/>
+      <c r="AW9" s="224"/>
       <c r="AX9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="AY9" s="228">
+      <c r="AY9" s="225">
         <f>AZ10</f>
         <v>44883</v>
       </c>
-      <c r="AZ9" s="229"/>
-      <c r="BA9" s="226">
+      <c r="AZ9" s="226"/>
+      <c r="BA9" s="223">
         <f>BA10</f>
         <v>44886</v>
       </c>
-      <c r="BB9" s="227"/>
+      <c r="BB9" s="224"/>
       <c r="BC9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="BD9" s="228">
+      <c r="BD9" s="225">
         <f>BE10</f>
         <v>44890</v>
       </c>
-      <c r="BE9" s="229"/>
-      <c r="BF9" s="226">
+      <c r="BE9" s="226"/>
+      <c r="BF9" s="223">
         <f>BF10</f>
         <v>44893</v>
       </c>
-      <c r="BG9" s="227"/>
+      <c r="BG9" s="224"/>
       <c r="BH9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="BI9" s="228">
+      <c r="BI9" s="225">
         <f>BJ10</f>
         <v>44897</v>
       </c>
-      <c r="BJ9" s="229"/>
-      <c r="BK9" s="226">
+      <c r="BJ9" s="226"/>
+      <c r="BK9" s="223">
         <f>BK10</f>
         <v>44900</v>
       </c>
-      <c r="BL9" s="227"/>
+      <c r="BL9" s="224"/>
       <c r="BM9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="BN9" s="228">
+      <c r="BN9" s="225">
         <f>BO10</f>
         <v>44904</v>
       </c>
-      <c r="BO9" s="229"/>
-      <c r="BP9" s="226">
+      <c r="BO9" s="226"/>
+      <c r="BP9" s="223">
         <f>BP10</f>
         <v>44907</v>
       </c>
-      <c r="BQ9" s="227"/>
+      <c r="BQ9" s="224"/>
       <c r="BR9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="BS9" s="228">
+      <c r="BS9" s="225">
         <f>BT10</f>
         <v>44911</v>
       </c>
-      <c r="BT9" s="229"/>
-      <c r="BU9" s="226">
+      <c r="BT9" s="226"/>
+      <c r="BU9" s="223">
         <f>BU10</f>
         <v>44914</v>
       </c>
-      <c r="BV9" s="227"/>
+      <c r="BV9" s="224"/>
       <c r="BW9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="BX9" s="228">
+      <c r="BX9" s="225">
         <f>BY10</f>
         <v>44918</v>
       </c>
-      <c r="BY9" s="229"/>
-      <c r="BZ9" s="226">
+      <c r="BY9" s="226"/>
+      <c r="BZ9" s="223">
         <f>BZ10</f>
         <v>44921</v>
       </c>
-      <c r="CA9" s="227"/>
+      <c r="CA9" s="224"/>
       <c r="CB9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="CC9" s="228">
+      <c r="CC9" s="225">
         <f>CD10</f>
         <v>44925</v>
       </c>
-      <c r="CD9" s="229"/>
-      <c r="CE9" s="226">
+      <c r="CD9" s="226"/>
+      <c r="CE9" s="223">
         <f>CE10</f>
         <v>44928</v>
       </c>
-      <c r="CF9" s="227"/>
+      <c r="CF9" s="224"/>
       <c r="CG9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="CH9" s="228">
+      <c r="CH9" s="225">
         <f>CI10</f>
         <v>44932</v>
       </c>
-      <c r="CI9" s="229"/>
-      <c r="CJ9" s="226">
+      <c r="CI9" s="226"/>
+      <c r="CJ9" s="223">
         <f>CJ10</f>
         <v>44935</v>
       </c>
-      <c r="CK9" s="227"/>
+      <c r="CK9" s="224"/>
       <c r="CL9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="CM9" s="228">
+      <c r="CM9" s="225">
         <f>CN10</f>
         <v>44939</v>
       </c>
-      <c r="CN9" s="229"/>
-      <c r="CO9" s="226">
+      <c r="CN9" s="226"/>
+      <c r="CO9" s="223">
         <f>CO10</f>
         <v>44942</v>
       </c>
-      <c r="CP9" s="227"/>
+      <c r="CP9" s="224"/>
       <c r="CQ9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="CR9" s="228">
+      <c r="CR9" s="225">
         <f>CS10</f>
         <v>44946</v>
       </c>
-      <c r="CS9" s="229"/>
-      <c r="CT9" s="226">
+      <c r="CS9" s="226"/>
+      <c r="CT9" s="223">
         <f>CT10</f>
         <v>44949</v>
       </c>
-      <c r="CU9" s="227"/>
+      <c r="CU9" s="224"/>
       <c r="CV9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="CW9" s="228">
+      <c r="CW9" s="225">
         <f>CX10</f>
         <v>44953</v>
       </c>
-      <c r="CX9" s="229"/>
-      <c r="CY9" s="226">
+      <c r="CX9" s="226"/>
+      <c r="CY9" s="223">
         <f>CY10</f>
         <v>44956</v>
       </c>
-      <c r="CZ9" s="227"/>
+      <c r="CZ9" s="224"/>
       <c r="DA9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="DB9" s="228">
+      <c r="DB9" s="225">
         <f>DC10</f>
         <v>44960</v>
       </c>
-      <c r="DC9" s="229"/>
-      <c r="DD9" s="226">
+      <c r="DC9" s="226"/>
+      <c r="DD9" s="223">
         <f>DD10</f>
         <v>44963</v>
       </c>
-      <c r="DE9" s="227"/>
+      <c r="DE9" s="224"/>
       <c r="DF9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="DG9" s="228">
+      <c r="DG9" s="225">
         <f>DH10</f>
         <v>44967</v>
       </c>
-      <c r="DH9" s="229"/>
-      <c r="DI9" s="226">
+      <c r="DH9" s="226"/>
+      <c r="DI9" s="223">
         <f>DI10</f>
         <v>44970</v>
       </c>
-      <c r="DJ9" s="227"/>
+      <c r="DJ9" s="224"/>
       <c r="DK9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="DL9" s="228">
+      <c r="DL9" s="225">
         <f>DM10</f>
         <v>44974</v>
       </c>
-      <c r="DM9" s="229"/>
-      <c r="DN9" s="226">
+      <c r="DM9" s="226"/>
+      <c r="DN9" s="223">
         <f>DN10</f>
         <v>44977</v>
       </c>
-      <c r="DO9" s="227"/>
+      <c r="DO9" s="224"/>
       <c r="DP9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="DQ9" s="228">
+      <c r="DQ9" s="225">
         <f>DR10</f>
         <v>44981</v>
       </c>
-      <c r="DR9" s="229"/>
-      <c r="DS9" s="226">
+      <c r="DR9" s="226"/>
+      <c r="DS9" s="223">
         <f>DS10</f>
         <v>44984</v>
       </c>
-      <c r="DT9" s="227"/>
+      <c r="DT9" s="224"/>
       <c r="DU9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="DV9" s="228">
+      <c r="DV9" s="225">
         <f>DW10</f>
         <v>44988</v>
       </c>
-      <c r="DW9" s="230"/>
+      <c r="DW9" s="258"/>
     </row>
     <row r="10" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A10" s="253"/>
-      <c r="B10" s="261"/>
-      <c r="C10" s="262"/>
-      <c r="D10" s="264"/>
-      <c r="E10" s="264"/>
+      <c r="A10" s="255"/>
+      <c r="B10" s="237"/>
+      <c r="C10" s="238"/>
+      <c r="D10" s="217"/>
+      <c r="E10" s="217"/>
       <c r="F10" s="26" t="s">
         <v>48</v>
       </c>
@@ -8164,11 +8047,11 @@
         <v>44831</v>
       </c>
       <c r="O10" s="46">
-        <f t="shared" ref="O10:Q10" si="1">N10+1</f>
+        <f>N10+1</f>
         <v>44832</v>
       </c>
       <c r="P10" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="P10:Q10" si="1">O10+1</f>
         <v>44833</v>
       </c>
       <c r="Q10" s="47">
@@ -8617,20 +8500,20 @@
       </c>
     </row>
     <row r="11" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A11" s="239" t="s">
+      <c r="A11" s="230" t="s">
         <v>191</v>
       </c>
-      <c r="B11" s="254" t="s">
+      <c r="B11" s="256" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="188" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="248" t="s">
+      <c r="C11" s="187" t="s">
+        <v>233</v>
+      </c>
+      <c r="D11" s="250" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="188" t="s">
-        <v>238</v>
+      <c r="E11" s="187" t="s">
+        <v>237</v>
       </c>
       <c r="F11" s="186">
         <v>44823</v>
@@ -8638,48 +8521,48 @@
       <c r="G11" s="186">
         <v>44833</v>
       </c>
-      <c r="H11" s="266"/>
-      <c r="I11" s="266"/>
-      <c r="J11" s="266"/>
-      <c r="K11" s="266"/>
-      <c r="L11" s="266"/>
-      <c r="M11" s="266"/>
-      <c r="N11" s="266"/>
-      <c r="O11" s="266"/>
-      <c r="P11" s="72"/>
-      <c r="Q11" s="72"/>
-      <c r="R11" s="72"/>
-      <c r="S11" s="302"/>
-      <c r="T11" s="301"/>
-      <c r="U11" s="301"/>
-      <c r="V11" s="301"/>
-      <c r="W11" s="301"/>
-      <c r="X11" s="303"/>
-      <c r="Y11" s="297"/>
-      <c r="Z11" s="67"/>
-      <c r="AA11" s="67"/>
-      <c r="AB11" s="67"/>
-      <c r="AC11" s="68"/>
-      <c r="AD11" s="69"/>
-      <c r="AE11" s="67"/>
-      <c r="AF11" s="67"/>
-      <c r="AG11" s="67"/>
-      <c r="AH11" s="68"/>
-      <c r="AI11" s="69"/>
-      <c r="AJ11" s="67"/>
-      <c r="AK11" s="67"/>
-      <c r="AL11" s="205"/>
-      <c r="AM11" s="68"/>
-      <c r="AN11" s="69"/>
-      <c r="AO11" s="67"/>
-      <c r="AP11" s="67"/>
-      <c r="AQ11" s="67"/>
-      <c r="AR11" s="68"/>
-      <c r="AS11" s="69"/>
-      <c r="AT11" s="67"/>
-      <c r="AU11" s="67"/>
-      <c r="AV11" s="67"/>
-      <c r="AW11" s="68"/>
+      <c r="H11" s="291"/>
+      <c r="I11" s="292"/>
+      <c r="J11" s="292"/>
+      <c r="K11" s="292"/>
+      <c r="L11" s="310"/>
+      <c r="M11" s="311"/>
+      <c r="N11" s="310"/>
+      <c r="O11" s="311"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="287"/>
+      <c r="R11" s="99"/>
+      <c r="S11" s="97"/>
+      <c r="T11" s="97"/>
+      <c r="U11" s="97"/>
+      <c r="V11" s="98"/>
+      <c r="W11" s="190"/>
+      <c r="X11" s="97"/>
+      <c r="Y11" s="97"/>
+      <c r="Z11" s="97"/>
+      <c r="AA11" s="304"/>
+      <c r="AB11" s="99"/>
+      <c r="AC11" s="97"/>
+      <c r="AD11" s="97"/>
+      <c r="AE11" s="97"/>
+      <c r="AF11" s="98"/>
+      <c r="AG11" s="190"/>
+      <c r="AH11" s="97"/>
+      <c r="AI11" s="97"/>
+      <c r="AJ11" s="97"/>
+      <c r="AK11" s="304"/>
+      <c r="AL11" s="99"/>
+      <c r="AM11" s="190"/>
+      <c r="AN11" s="97"/>
+      <c r="AO11" s="97"/>
+      <c r="AP11" s="98"/>
+      <c r="AQ11" s="99"/>
+      <c r="AR11" s="97"/>
+      <c r="AS11" s="97"/>
+      <c r="AT11" s="97"/>
+      <c r="AU11" s="98"/>
+      <c r="AV11" s="190"/>
+      <c r="AW11" s="98"/>
       <c r="AX11" s="69"/>
       <c r="AY11" s="67"/>
       <c r="AZ11" s="67"/>
@@ -8760,13 +8643,13 @@
       <c r="DW11" s="5"/>
     </row>
     <row r="12" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A12" s="239"/>
-      <c r="B12" s="237"/>
-      <c r="C12" s="188" t="s">
+      <c r="A12" s="230"/>
+      <c r="B12" s="241"/>
+      <c r="C12" s="187" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="249"/>
-      <c r="E12" s="188" t="s">
+      <c r="D12" s="251"/>
+      <c r="E12" s="187" t="s">
         <v>53</v>
       </c>
       <c r="F12" s="186">
@@ -8775,48 +8658,48 @@
       <c r="G12" s="186">
         <v>44833</v>
       </c>
-      <c r="H12" s="187"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="201"/>
-      <c r="N12" s="201"/>
-      <c r="O12" s="201"/>
-      <c r="P12" s="307"/>
-      <c r="Q12" s="73"/>
-      <c r="R12" s="298"/>
-      <c r="S12" s="304"/>
-      <c r="T12" s="304"/>
-      <c r="U12" s="304"/>
-      <c r="V12" s="304"/>
-      <c r="W12" s="304"/>
-      <c r="X12" s="304"/>
-      <c r="Y12" s="299"/>
-      <c r="Z12" s="72"/>
-      <c r="AA12" s="73"/>
-      <c r="AB12" s="74"/>
-      <c r="AC12" s="72"/>
-      <c r="AD12" s="72"/>
-      <c r="AE12" s="72"/>
-      <c r="AF12" s="73"/>
-      <c r="AG12" s="74"/>
-      <c r="AH12" s="72"/>
-      <c r="AI12" s="72"/>
-      <c r="AJ12" s="72"/>
-      <c r="AK12" s="73"/>
-      <c r="AL12" s="206"/>
-      <c r="AM12" s="72"/>
-      <c r="AN12" s="72"/>
-      <c r="AO12" s="72"/>
-      <c r="AP12" s="73"/>
-      <c r="AQ12" s="74"/>
-      <c r="AR12" s="72"/>
-      <c r="AS12" s="72"/>
-      <c r="AT12" s="72"/>
-      <c r="AU12" s="73"/>
-      <c r="AV12" s="74"/>
-      <c r="AW12" s="72"/>
+      <c r="H12" s="293"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="294"/>
+      <c r="N12" s="294"/>
+      <c r="O12" s="294"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="287"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="191"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="57"/>
+      <c r="AA12" s="287"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="57"/>
+      <c r="AD12" s="57"/>
+      <c r="AE12" s="57"/>
+      <c r="AF12" s="58"/>
+      <c r="AG12" s="191"/>
+      <c r="AH12" s="57"/>
+      <c r="AI12" s="57"/>
+      <c r="AJ12" s="57"/>
+      <c r="AK12" s="287"/>
+      <c r="AL12" s="59"/>
+      <c r="AM12" s="191"/>
+      <c r="AN12" s="57"/>
+      <c r="AO12" s="57"/>
+      <c r="AP12" s="58"/>
+      <c r="AQ12" s="59"/>
+      <c r="AR12" s="57"/>
+      <c r="AS12" s="57"/>
+      <c r="AT12" s="57"/>
+      <c r="AU12" s="58"/>
+      <c r="AV12" s="191"/>
+      <c r="AW12" s="57"/>
       <c r="AX12" s="72"/>
       <c r="AY12" s="72"/>
       <c r="AZ12" s="73"/>
@@ -8897,14 +8780,14 @@
       <c r="DW12" s="75"/>
     </row>
     <row r="13" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="239"/>
-      <c r="B13" s="237"/>
-      <c r="C13" s="188" t="s">
-        <v>233</v>
-      </c>
-      <c r="D13" s="249"/>
-      <c r="E13" s="188" t="s">
-        <v>237</v>
+      <c r="A13" s="230"/>
+      <c r="B13" s="241"/>
+      <c r="C13" s="187" t="s">
+        <v>249</v>
+      </c>
+      <c r="D13" s="251"/>
+      <c r="E13" s="187" t="s">
+        <v>236</v>
       </c>
       <c r="F13" s="186">
         <v>44839</v>
@@ -8912,48 +8795,48 @@
       <c r="G13" s="186">
         <v>44840</v>
       </c>
-      <c r="H13" s="104"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="102"/>
-      <c r="N13" s="102"/>
-      <c r="O13" s="102"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="63"/>
-      <c r="R13" s="64"/>
-      <c r="S13" s="305"/>
-      <c r="T13" s="306"/>
-      <c r="U13" s="307"/>
-      <c r="V13" s="307"/>
-      <c r="W13" s="307"/>
-      <c r="X13" s="308"/>
-      <c r="Y13" s="62"/>
-      <c r="Z13" s="62"/>
-      <c r="AA13" s="63"/>
-      <c r="AB13" s="64"/>
-      <c r="AC13" s="62"/>
-      <c r="AD13" s="62"/>
-      <c r="AE13" s="62"/>
-      <c r="AF13" s="63"/>
-      <c r="AG13" s="64"/>
-      <c r="AH13" s="62"/>
-      <c r="AI13" s="62"/>
-      <c r="AJ13" s="62"/>
-      <c r="AK13" s="63"/>
-      <c r="AL13" s="207"/>
-      <c r="AM13" s="62"/>
-      <c r="AN13" s="62"/>
-      <c r="AO13" s="62"/>
-      <c r="AP13" s="63"/>
-      <c r="AQ13" s="64"/>
-      <c r="AR13" s="62"/>
-      <c r="AS13" s="62"/>
-      <c r="AT13" s="62"/>
-      <c r="AU13" s="63"/>
-      <c r="AV13" s="64"/>
-      <c r="AW13" s="62"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="284"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="284"/>
+      <c r="R13" s="74"/>
+      <c r="S13" s="72"/>
+      <c r="T13" s="295"/>
+      <c r="U13" s="72"/>
+      <c r="V13" s="73"/>
+      <c r="W13" s="203"/>
+      <c r="X13" s="72"/>
+      <c r="Y13" s="72"/>
+      <c r="Z13" s="72"/>
+      <c r="AA13" s="284"/>
+      <c r="AB13" s="74"/>
+      <c r="AC13" s="72"/>
+      <c r="AD13" s="72"/>
+      <c r="AE13" s="72"/>
+      <c r="AF13" s="73"/>
+      <c r="AG13" s="203"/>
+      <c r="AH13" s="72"/>
+      <c r="AI13" s="72"/>
+      <c r="AJ13" s="72"/>
+      <c r="AK13" s="284"/>
+      <c r="AL13" s="64"/>
+      <c r="AM13" s="203"/>
+      <c r="AN13" s="72"/>
+      <c r="AO13" s="72"/>
+      <c r="AP13" s="73"/>
+      <c r="AQ13" s="74"/>
+      <c r="AR13" s="72"/>
+      <c r="AS13" s="72"/>
+      <c r="AT13" s="72"/>
+      <c r="AU13" s="73"/>
+      <c r="AV13" s="203"/>
+      <c r="AW13" s="72"/>
       <c r="AX13" s="62"/>
       <c r="AY13" s="62"/>
       <c r="AZ13" s="63"/>
@@ -9034,18 +8917,18 @@
       <c r="DW13" s="65"/>
     </row>
     <row r="14" spans="1:127" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="238" t="s">
+      <c r="A14" s="242" t="s">
         <v>234</v>
       </c>
-      <c r="B14" s="246" t="s">
+      <c r="B14" s="248" t="s">
         <v>235</v>
       </c>
-      <c r="C14" s="188" t="s">
-        <v>243</v>
-      </c>
-      <c r="D14" s="249"/>
-      <c r="E14" s="188" t="s">
+      <c r="C14" s="187" t="s">
         <v>242</v>
+      </c>
+      <c r="D14" s="251"/>
+      <c r="E14" s="187" t="s">
+        <v>241</v>
       </c>
       <c r="F14" s="186">
         <v>44832</v>
@@ -9053,48 +8936,48 @@
       <c r="G14" s="186">
         <v>44839</v>
       </c>
-      <c r="H14" s="192"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="87"/>
-      <c r="O14" s="201"/>
-      <c r="P14" s="201"/>
-      <c r="Q14" s="201"/>
-      <c r="R14" s="201"/>
-      <c r="S14" s="201"/>
-      <c r="T14" s="200"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="57"/>
-      <c r="X14" s="57"/>
-      <c r="Y14" s="57"/>
-      <c r="Z14" s="57"/>
-      <c r="AA14" s="58"/>
-      <c r="AB14" s="59"/>
-      <c r="AC14" s="57"/>
-      <c r="AD14" s="57"/>
-      <c r="AE14" s="57"/>
-      <c r="AF14" s="58"/>
-      <c r="AG14" s="59"/>
-      <c r="AH14" s="57"/>
-      <c r="AI14" s="57"/>
-      <c r="AJ14" s="57"/>
-      <c r="AK14" s="58"/>
-      <c r="AL14" s="209"/>
-      <c r="AM14" s="57"/>
-      <c r="AN14" s="57"/>
-      <c r="AO14" s="57"/>
-      <c r="AP14" s="58"/>
-      <c r="AQ14" s="59"/>
-      <c r="AR14" s="57"/>
-      <c r="AS14" s="57"/>
-      <c r="AT14" s="57"/>
-      <c r="AU14" s="58"/>
-      <c r="AV14" s="59"/>
-      <c r="AW14" s="57"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="304"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="97"/>
+      <c r="O14" s="296"/>
+      <c r="P14" s="296"/>
+      <c r="Q14" s="305"/>
+      <c r="R14" s="308"/>
+      <c r="S14" s="296"/>
+      <c r="T14" s="297"/>
+      <c r="U14" s="97"/>
+      <c r="V14" s="98"/>
+      <c r="W14" s="190"/>
+      <c r="X14" s="97"/>
+      <c r="Y14" s="97"/>
+      <c r="Z14" s="97"/>
+      <c r="AA14" s="304"/>
+      <c r="AB14" s="99"/>
+      <c r="AC14" s="97"/>
+      <c r="AD14" s="97"/>
+      <c r="AE14" s="97"/>
+      <c r="AF14" s="98"/>
+      <c r="AG14" s="190"/>
+      <c r="AH14" s="97"/>
+      <c r="AI14" s="97"/>
+      <c r="AJ14" s="97"/>
+      <c r="AK14" s="304"/>
+      <c r="AL14" s="89"/>
+      <c r="AM14" s="190"/>
+      <c r="AN14" s="97"/>
+      <c r="AO14" s="97"/>
+      <c r="AP14" s="98"/>
+      <c r="AQ14" s="99"/>
+      <c r="AR14" s="97"/>
+      <c r="AS14" s="97"/>
+      <c r="AT14" s="97"/>
+      <c r="AU14" s="98"/>
+      <c r="AV14" s="190"/>
+      <c r="AW14" s="97"/>
       <c r="AX14" s="57"/>
       <c r="AY14" s="57"/>
       <c r="AZ14" s="58"/>
@@ -9175,14 +9058,14 @@
       <c r="DW14" s="60"/>
     </row>
     <row r="15" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A15" s="238"/>
-      <c r="B15" s="247"/>
-      <c r="C15" s="188" t="s">
-        <v>245</v>
-      </c>
-      <c r="D15" s="249"/>
-      <c r="E15" s="202" t="s">
-        <v>245</v>
+      <c r="A15" s="242"/>
+      <c r="B15" s="249"/>
+      <c r="C15" s="187" t="s">
+        <v>244</v>
+      </c>
+      <c r="D15" s="251"/>
+      <c r="E15" s="198" t="s">
+        <v>244</v>
       </c>
       <c r="F15" s="186">
         <v>44839</v>
@@ -9190,38 +9073,38 @@
       <c r="G15" s="186">
         <v>44845</v>
       </c>
-      <c r="H15" s="192"/>
+      <c r="H15" s="59"/>
       <c r="I15" s="57"/>
       <c r="J15" s="57"/>
       <c r="K15" s="57"/>
-      <c r="L15" s="58"/>
+      <c r="L15" s="287"/>
       <c r="M15" s="59"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="203"/>
-      <c r="P15" s="203"/>
-      <c r="Q15" s="204"/>
-      <c r="R15" s="74"/>
-      <c r="S15" s="203"/>
-      <c r="T15" s="201"/>
-      <c r="U15" s="201"/>
-      <c r="V15" s="201"/>
-      <c r="W15" s="201"/>
-      <c r="X15" s="200"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="287"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="294"/>
+      <c r="U15" s="294"/>
+      <c r="V15" s="301"/>
+      <c r="W15" s="306"/>
+      <c r="X15" s="298"/>
       <c r="Y15" s="57"/>
       <c r="Z15" s="57"/>
-      <c r="AA15" s="58"/>
+      <c r="AA15" s="287"/>
       <c r="AB15" s="59"/>
       <c r="AC15" s="57"/>
       <c r="AD15" s="57"/>
       <c r="AE15" s="57"/>
       <c r="AF15" s="58"/>
-      <c r="AG15" s="59"/>
+      <c r="AG15" s="191"/>
       <c r="AH15" s="57"/>
       <c r="AI15" s="57"/>
       <c r="AJ15" s="57"/>
-      <c r="AK15" s="58"/>
-      <c r="AL15" s="209"/>
-      <c r="AM15" s="57"/>
+      <c r="AK15" s="287"/>
+      <c r="AL15" s="59"/>
+      <c r="AM15" s="191"/>
       <c r="AN15" s="57"/>
       <c r="AO15" s="57"/>
       <c r="AP15" s="58"/>
@@ -9230,7 +9113,7 @@
       <c r="AS15" s="57"/>
       <c r="AT15" s="57"/>
       <c r="AU15" s="58"/>
-      <c r="AV15" s="59"/>
+      <c r="AV15" s="191"/>
       <c r="AW15" s="57"/>
       <c r="AX15" s="57"/>
       <c r="AY15" s="57"/>
@@ -9312,14 +9195,14 @@
       <c r="DW15" s="60"/>
     </row>
     <row r="16" spans="1:127" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="238"/>
-      <c r="B16" s="247"/>
-      <c r="C16" s="188" t="s">
+      <c r="A16" s="242"/>
+      <c r="B16" s="249"/>
+      <c r="C16" s="187" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="249"/>
-      <c r="E16" s="213" t="s">
-        <v>241</v>
+      <c r="D16" s="251"/>
+      <c r="E16" s="201" t="s">
+        <v>240</v>
       </c>
       <c r="F16" s="186">
         <v>44839</v>
@@ -9327,48 +9210,48 @@
       <c r="G16" s="186">
         <v>44845</v>
       </c>
-      <c r="H16" s="192"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="300"/>
-      <c r="N16" s="307"/>
-      <c r="O16" s="307"/>
-      <c r="P16" s="307"/>
-      <c r="Q16" s="307"/>
-      <c r="R16" s="307"/>
-      <c r="S16" s="307"/>
-      <c r="T16" s="309"/>
-      <c r="U16" s="310"/>
-      <c r="V16" s="310"/>
-      <c r="W16" s="310"/>
-      <c r="X16" s="310"/>
-      <c r="Y16" s="57"/>
-      <c r="Z16" s="57"/>
-      <c r="AA16" s="58"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="57"/>
-      <c r="AD16" s="57"/>
-      <c r="AE16" s="57"/>
-      <c r="AF16" s="58"/>
-      <c r="AG16" s="59"/>
-      <c r="AH16" s="57"/>
-      <c r="AI16" s="57"/>
-      <c r="AJ16" s="57"/>
-      <c r="AK16" s="58"/>
-      <c r="AL16" s="209"/>
-      <c r="AM16" s="57"/>
-      <c r="AN16" s="57"/>
-      <c r="AO16" s="57"/>
-      <c r="AP16" s="58"/>
-      <c r="AQ16" s="59"/>
-      <c r="AR16" s="57"/>
-      <c r="AS16" s="57"/>
-      <c r="AT16" s="57"/>
-      <c r="AU16" s="58"/>
-      <c r="AV16" s="59"/>
-      <c r="AW16" s="57"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="285"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="285"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="62"/>
+      <c r="T16" s="290"/>
+      <c r="U16" s="290"/>
+      <c r="V16" s="302"/>
+      <c r="W16" s="307"/>
+      <c r="X16" s="290"/>
+      <c r="Y16" s="62"/>
+      <c r="Z16" s="62"/>
+      <c r="AA16" s="285"/>
+      <c r="AB16" s="64"/>
+      <c r="AC16" s="62"/>
+      <c r="AD16" s="62"/>
+      <c r="AE16" s="62"/>
+      <c r="AF16" s="63"/>
+      <c r="AG16" s="192"/>
+      <c r="AH16" s="62"/>
+      <c r="AI16" s="62"/>
+      <c r="AJ16" s="62"/>
+      <c r="AK16" s="285"/>
+      <c r="AL16" s="74"/>
+      <c r="AM16" s="192"/>
+      <c r="AN16" s="62"/>
+      <c r="AO16" s="62"/>
+      <c r="AP16" s="63"/>
+      <c r="AQ16" s="64"/>
+      <c r="AR16" s="62"/>
+      <c r="AS16" s="62"/>
+      <c r="AT16" s="62"/>
+      <c r="AU16" s="63"/>
+      <c r="AV16" s="192"/>
+      <c r="AW16" s="62"/>
       <c r="AX16" s="57"/>
       <c r="AY16" s="57"/>
       <c r="AZ16" s="58"/>
@@ -9449,57 +9332,57 @@
       <c r="DW16" s="60"/>
     </row>
     <row r="17" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A17" s="243" t="s">
+      <c r="A17" s="246" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="237" t="s">
+      <c r="B17" s="241" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="188" t="s">
+      <c r="C17" s="187" t="s">
+        <v>238</v>
+      </c>
+      <c r="D17" s="251"/>
+      <c r="E17" s="241" t="s">
         <v>239</v>
-      </c>
-      <c r="D17" s="249"/>
-      <c r="E17" s="237" t="s">
-        <v>240</v>
       </c>
       <c r="F17" s="186">
         <v>44845</v>
       </c>
       <c r="G17" s="186">
-        <v>44848</v>
-      </c>
-      <c r="H17" s="191"/>
+        <v>44855</v>
+      </c>
+      <c r="H17" s="190"/>
       <c r="I17" s="97"/>
       <c r="J17" s="97"/>
       <c r="K17" s="97"/>
-      <c r="L17" s="98"/>
+      <c r="L17" s="304"/>
       <c r="M17" s="99"/>
       <c r="N17" s="87"/>
       <c r="O17" s="87"/>
       <c r="P17" s="87"/>
       <c r="Q17" s="88"/>
-      <c r="R17" s="89"/>
+      <c r="R17" s="193"/>
       <c r="S17" s="87"/>
       <c r="T17" s="97"/>
       <c r="U17" s="97"/>
       <c r="V17" s="98"/>
       <c r="W17" s="99"/>
-      <c r="X17" s="201"/>
-      <c r="Y17" s="201"/>
-      <c r="Z17" s="201"/>
-      <c r="AA17" s="98"/>
-      <c r="AB17" s="99"/>
-      <c r="AC17" s="97"/>
-      <c r="AD17" s="97"/>
-      <c r="AE17" s="97"/>
+      <c r="X17" s="296"/>
+      <c r="Y17" s="296"/>
+      <c r="Z17" s="296"/>
+      <c r="AA17" s="294"/>
+      <c r="AB17" s="294"/>
+      <c r="AC17" s="294"/>
+      <c r="AD17" s="294"/>
+      <c r="AE17" s="294"/>
       <c r="AF17" s="98"/>
       <c r="AG17" s="99"/>
       <c r="AH17" s="97"/>
       <c r="AI17" s="97"/>
       <c r="AJ17" s="97"/>
-      <c r="AK17" s="98"/>
-      <c r="AL17" s="210"/>
-      <c r="AM17" s="97"/>
+      <c r="AK17" s="304"/>
+      <c r="AL17" s="99"/>
+      <c r="AM17" s="190"/>
       <c r="AN17" s="97"/>
       <c r="AO17" s="97"/>
       <c r="AP17" s="98"/>
@@ -9589,52 +9472,52 @@
       <c r="DV17" s="97"/>
       <c r="DW17" s="100"/>
     </row>
-    <row r="18" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A18" s="244"/>
-      <c r="B18" s="237"/>
-      <c r="C18" s="188" t="s">
+    <row r="18" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="247"/>
+      <c r="B18" s="241"/>
+      <c r="C18" s="187" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="249"/>
-      <c r="E18" s="237"/>
+      <c r="D18" s="251"/>
+      <c r="E18" s="241"/>
       <c r="F18" s="186">
         <v>44845</v>
       </c>
       <c r="G18" s="186">
-        <v>44848</v>
-      </c>
-      <c r="H18" s="192"/>
+        <v>44855</v>
+      </c>
+      <c r="H18" s="191"/>
       <c r="I18" s="57"/>
       <c r="J18" s="57"/>
       <c r="K18" s="57"/>
-      <c r="L18" s="58"/>
+      <c r="L18" s="287"/>
       <c r="M18" s="59"/>
       <c r="N18" s="57"/>
       <c r="O18" s="57"/>
       <c r="P18" s="57"/>
       <c r="Q18" s="58"/>
-      <c r="R18" s="59"/>
+      <c r="R18" s="191"/>
       <c r="S18" s="57"/>
       <c r="T18" s="57"/>
       <c r="U18" s="57"/>
       <c r="V18" s="58"/>
       <c r="W18" s="59"/>
-      <c r="X18" s="201"/>
-      <c r="Y18" s="201"/>
-      <c r="Z18" s="201"/>
-      <c r="AA18" s="58"/>
-      <c r="AB18" s="59"/>
-      <c r="AC18" s="57"/>
-      <c r="AD18" s="57"/>
-      <c r="AE18" s="57"/>
+      <c r="X18" s="294"/>
+      <c r="Y18" s="294"/>
+      <c r="Z18" s="294"/>
+      <c r="AA18" s="294"/>
+      <c r="AB18" s="294"/>
+      <c r="AC18" s="294"/>
+      <c r="AD18" s="294"/>
+      <c r="AE18" s="294"/>
       <c r="AF18" s="58"/>
       <c r="AG18" s="59"/>
       <c r="AH18" s="57"/>
       <c r="AI18" s="57"/>
       <c r="AJ18" s="57"/>
-      <c r="AK18" s="58"/>
-      <c r="AL18" s="209"/>
-      <c r="AM18" s="57"/>
+      <c r="AK18" s="287"/>
+      <c r="AL18" s="59"/>
+      <c r="AM18" s="191"/>
       <c r="AN18" s="57"/>
       <c r="AO18" s="57"/>
       <c r="AP18" s="58"/>
@@ -9724,41 +9607,45 @@
       <c r="DV18" s="57"/>
       <c r="DW18" s="60"/>
     </row>
-    <row r="19" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="245"/>
-      <c r="B19" s="198" t="s">
-        <v>236</v>
-      </c>
-      <c r="C19" s="188" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="249"/>
-      <c r="E19" s="199"/>
+    <row r="19" spans="1:127" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="243" t="s">
+        <v>227</v>
+      </c>
+      <c r="B19" s="202" t="s">
+        <v>225</v>
+      </c>
+      <c r="C19" s="187" t="s">
+        <v>245</v>
+      </c>
+      <c r="D19" s="251"/>
+      <c r="E19" s="187" t="s">
+        <v>247</v>
+      </c>
       <c r="F19" s="186">
-        <v>44846</v>
+        <v>44855</v>
       </c>
       <c r="G19" s="186">
-        <v>44848</v>
-      </c>
-      <c r="H19" s="192"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="58"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="57"/>
-      <c r="T19" s="57"/>
-      <c r="U19" s="57"/>
-      <c r="V19" s="58"/>
+        <v>44855</v>
+      </c>
+      <c r="H19" s="193"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="286"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="87"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="88"/>
+      <c r="R19" s="193"/>
+      <c r="S19" s="87"/>
+      <c r="T19" s="87"/>
+      <c r="U19" s="87"/>
+      <c r="V19" s="88"/>
       <c r="W19" s="59"/>
       <c r="X19" s="57"/>
-      <c r="Y19" s="201"/>
-      <c r="Z19" s="201"/>
+      <c r="Y19" s="57"/>
+      <c r="Z19" s="57"/>
       <c r="AA19" s="58"/>
       <c r="AB19" s="59"/>
       <c r="AC19" s="57"/>
@@ -9769,150 +9656,148 @@
       <c r="AH19" s="57"/>
       <c r="AI19" s="57"/>
       <c r="AJ19" s="57"/>
-      <c r="AK19" s="58"/>
-      <c r="AL19" s="209"/>
-      <c r="AM19" s="57"/>
-      <c r="AN19" s="57"/>
-      <c r="AO19" s="57"/>
-      <c r="AP19" s="58"/>
-      <c r="AQ19" s="59"/>
-      <c r="AR19" s="57"/>
-      <c r="AS19" s="57"/>
-      <c r="AT19" s="57"/>
-      <c r="AU19" s="58"/>
-      <c r="AV19" s="59"/>
-      <c r="AW19" s="57"/>
-      <c r="AX19" s="57"/>
-      <c r="AY19" s="57"/>
-      <c r="AZ19" s="58"/>
-      <c r="BA19" s="59"/>
-      <c r="BB19" s="57"/>
-      <c r="BC19" s="57"/>
-      <c r="BD19" s="57"/>
-      <c r="BE19" s="58"/>
-      <c r="BF19" s="59"/>
-      <c r="BG19" s="57"/>
-      <c r="BH19" s="57"/>
-      <c r="BI19" s="57"/>
-      <c r="BJ19" s="58"/>
-      <c r="BK19" s="59"/>
-      <c r="BL19" s="57"/>
-      <c r="BM19" s="57"/>
-      <c r="BN19" s="57"/>
-      <c r="BO19" s="58"/>
-      <c r="BP19" s="59"/>
-      <c r="BQ19" s="57"/>
-      <c r="BR19" s="57"/>
-      <c r="BS19" s="57"/>
-      <c r="BT19" s="58"/>
-      <c r="BU19" s="59"/>
-      <c r="BV19" s="57"/>
-      <c r="BW19" s="57"/>
-      <c r="BX19" s="57"/>
-      <c r="BY19" s="58"/>
-      <c r="BZ19" s="59"/>
-      <c r="CA19" s="57"/>
-      <c r="CB19" s="57"/>
-      <c r="CC19" s="57"/>
-      <c r="CD19" s="58"/>
-      <c r="CE19" s="59"/>
-      <c r="CF19" s="57"/>
-      <c r="CG19" s="57"/>
-      <c r="CH19" s="57"/>
-      <c r="CI19" s="58"/>
-      <c r="CJ19" s="59"/>
-      <c r="CK19" s="57"/>
-      <c r="CL19" s="57"/>
-      <c r="CM19" s="57"/>
-      <c r="CN19" s="58"/>
-      <c r="CO19" s="59"/>
-      <c r="CP19" s="57"/>
-      <c r="CQ19" s="57"/>
-      <c r="CR19" s="57"/>
-      <c r="CS19" s="58"/>
-      <c r="CT19" s="59"/>
-      <c r="CU19" s="57"/>
-      <c r="CV19" s="57"/>
-      <c r="CW19" s="57"/>
-      <c r="CX19" s="58"/>
-      <c r="CY19" s="59"/>
-      <c r="CZ19" s="57"/>
-      <c r="DA19" s="57"/>
-      <c r="DB19" s="57"/>
-      <c r="DC19" s="58"/>
-      <c r="DD19" s="59"/>
-      <c r="DE19" s="57"/>
-      <c r="DF19" s="57"/>
-      <c r="DG19" s="57"/>
-      <c r="DH19" s="58"/>
-      <c r="DI19" s="59"/>
-      <c r="DJ19" s="57"/>
-      <c r="DK19" s="57"/>
-      <c r="DL19" s="57"/>
-      <c r="DM19" s="58"/>
-      <c r="DN19" s="59"/>
-      <c r="DO19" s="57"/>
-      <c r="DP19" s="57"/>
-      <c r="DQ19" s="57"/>
-      <c r="DR19" s="58"/>
-      <c r="DS19" s="59"/>
-      <c r="DT19" s="57"/>
-      <c r="DU19" s="57"/>
-      <c r="DV19" s="57"/>
-      <c r="DW19" s="60"/>
+      <c r="AK19" s="287"/>
+      <c r="AL19" s="59"/>
+      <c r="AM19" s="193"/>
+      <c r="AN19" s="87"/>
+      <c r="AO19" s="87"/>
+      <c r="AP19" s="88"/>
+      <c r="AQ19" s="89"/>
+      <c r="AR19" s="87"/>
+      <c r="AS19" s="87"/>
+      <c r="AT19" s="87"/>
+      <c r="AU19" s="88"/>
+      <c r="AV19" s="89"/>
+      <c r="AW19" s="87"/>
+      <c r="AX19" s="87"/>
+      <c r="AY19" s="87"/>
+      <c r="AZ19" s="88"/>
+      <c r="BA19" s="89"/>
+      <c r="BB19" s="87"/>
+      <c r="BC19" s="87"/>
+      <c r="BD19" s="87"/>
+      <c r="BE19" s="88"/>
+      <c r="BF19" s="89"/>
+      <c r="BG19" s="87"/>
+      <c r="BH19" s="87"/>
+      <c r="BI19" s="87"/>
+      <c r="BJ19" s="88"/>
+      <c r="BK19" s="89"/>
+      <c r="BL19" s="87"/>
+      <c r="BM19" s="87"/>
+      <c r="BN19" s="87"/>
+      <c r="BO19" s="88"/>
+      <c r="BP19" s="89"/>
+      <c r="BQ19" s="87"/>
+      <c r="BR19" s="87"/>
+      <c r="BS19" s="87"/>
+      <c r="BT19" s="88"/>
+      <c r="BU19" s="89"/>
+      <c r="BV19" s="87"/>
+      <c r="BW19" s="87"/>
+      <c r="BX19" s="87"/>
+      <c r="BY19" s="88"/>
+      <c r="BZ19" s="89"/>
+      <c r="CA19" s="87"/>
+      <c r="CB19" s="87"/>
+      <c r="CC19" s="87"/>
+      <c r="CD19" s="88"/>
+      <c r="CE19" s="89"/>
+      <c r="CF19" s="87"/>
+      <c r="CG19" s="87"/>
+      <c r="CH19" s="87"/>
+      <c r="CI19" s="88"/>
+      <c r="CJ19" s="89"/>
+      <c r="CK19" s="87"/>
+      <c r="CL19" s="87"/>
+      <c r="CM19" s="87"/>
+      <c r="CN19" s="88"/>
+      <c r="CO19" s="89"/>
+      <c r="CP19" s="87"/>
+      <c r="CQ19" s="87"/>
+      <c r="CR19" s="87"/>
+      <c r="CS19" s="88"/>
+      <c r="CT19" s="89"/>
+      <c r="CU19" s="87"/>
+      <c r="CV19" s="87"/>
+      <c r="CW19" s="87"/>
+      <c r="CX19" s="88"/>
+      <c r="CY19" s="89"/>
+      <c r="CZ19" s="87"/>
+      <c r="DA19" s="87"/>
+      <c r="DB19" s="87"/>
+      <c r="DC19" s="88"/>
+      <c r="DD19" s="89"/>
+      <c r="DE19" s="87"/>
+      <c r="DF19" s="87"/>
+      <c r="DG19" s="87"/>
+      <c r="DH19" s="88"/>
+      <c r="DI19" s="89"/>
+      <c r="DJ19" s="87"/>
+      <c r="DK19" s="87"/>
+      <c r="DL19" s="87"/>
+      <c r="DM19" s="88"/>
+      <c r="DN19" s="89"/>
+      <c r="DO19" s="87"/>
+      <c r="DP19" s="87"/>
+      <c r="DQ19" s="87"/>
+      <c r="DR19" s="88"/>
+      <c r="DS19" s="89"/>
+      <c r="DT19" s="87"/>
+      <c r="DU19" s="87"/>
+      <c r="DV19" s="87"/>
+      <c r="DW19" s="90"/>
     </row>
-    <row r="20" spans="1:127" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="240" t="s">
-        <v>227</v>
-      </c>
-      <c r="B20" s="214" t="s">
-        <v>225</v>
-      </c>
-      <c r="C20" s="188" t="s">
-        <v>247</v>
-      </c>
-      <c r="D20" s="249"/>
-      <c r="E20" s="188" t="s">
-        <v>249</v>
+    <row r="20" spans="1:127" x14ac:dyDescent="0.3">
+      <c r="A20" s="244"/>
+      <c r="B20" s="187" t="s">
+        <v>226</v>
+      </c>
+      <c r="C20" s="187" t="s">
+        <v>246</v>
+      </c>
+      <c r="D20" s="251"/>
+      <c r="E20" s="187" t="s">
+        <v>248</v>
       </c>
       <c r="F20" s="186">
-        <v>44851</v>
+        <v>44858</v>
       </c>
       <c r="G20" s="186">
-        <v>44853</v>
-      </c>
-      <c r="H20" s="194"/>
+        <v>44865</v>
+      </c>
+      <c r="H20" s="193"/>
       <c r="I20" s="87"/>
       <c r="J20" s="87"/>
       <c r="K20" s="87"/>
-      <c r="L20" s="88"/>
+      <c r="L20" s="286"/>
       <c r="M20" s="89"/>
       <c r="N20" s="87"/>
       <c r="O20" s="87"/>
       <c r="P20" s="87"/>
       <c r="Q20" s="88"/>
-      <c r="R20" s="89"/>
+      <c r="R20" s="193"/>
       <c r="S20" s="87"/>
       <c r="T20" s="87"/>
       <c r="U20" s="87"/>
       <c r="V20" s="88"/>
-      <c r="W20" s="89"/>
-      <c r="X20" s="87"/>
-      <c r="Y20" s="87"/>
-      <c r="Z20" s="87"/>
-      <c r="AA20" s="88"/>
-      <c r="AB20" s="201"/>
-      <c r="AC20" s="201"/>
-      <c r="AD20" s="87"/>
-      <c r="AE20" s="87"/>
-      <c r="AF20" s="88"/>
-      <c r="AG20" s="89"/>
-      <c r="AH20" s="87"/>
-      <c r="AI20" s="87"/>
-      <c r="AJ20" s="87"/>
-      <c r="AK20" s="88"/>
-      <c r="AL20" s="211"/>
-      <c r="AM20" s="87"/>
+      <c r="W20" s="59"/>
+      <c r="X20" s="57"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57"/>
+      <c r="AA20" s="58"/>
+      <c r="AB20" s="59"/>
+      <c r="AC20" s="57"/>
+      <c r="AD20" s="57"/>
+      <c r="AE20" s="57"/>
+      <c r="AF20" s="58"/>
+      <c r="AG20" s="300"/>
+      <c r="AH20" s="294"/>
+      <c r="AI20" s="294"/>
+      <c r="AJ20" s="294"/>
+      <c r="AK20" s="313"/>
+      <c r="AL20" s="200"/>
+      <c r="AM20" s="193"/>
       <c r="AN20" s="87"/>
       <c r="AO20" s="87"/>
       <c r="AP20" s="88"/>
@@ -10002,571 +9887,499 @@
       <c r="DV20" s="87"/>
       <c r="DW20" s="90"/>
     </row>
-    <row r="21" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A21" s="241"/>
+    <row r="21" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="245"/>
       <c r="B21" s="188" t="s">
-        <v>226</v>
+        <v>117</v>
       </c>
       <c r="C21" s="188" t="s">
-        <v>248</v>
-      </c>
-      <c r="D21" s="249"/>
-      <c r="E21" s="188" t="s">
-        <v>250</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="D21" s="251"/>
+      <c r="E21" s="188"/>
       <c r="F21" s="186">
-        <v>44853</v>
+        <v>44858</v>
       </c>
       <c r="G21" s="186">
         <v>44865</v>
       </c>
       <c r="H21" s="194"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="87"/>
-      <c r="K21" s="87"/>
-      <c r="L21" s="88"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="87"/>
-      <c r="O21" s="87"/>
-      <c r="P21" s="87"/>
-      <c r="Q21" s="88"/>
-      <c r="R21" s="89"/>
-      <c r="S21" s="87"/>
-      <c r="T21" s="87"/>
-      <c r="U21" s="87"/>
-      <c r="V21" s="88"/>
-      <c r="W21" s="89"/>
-      <c r="X21" s="87"/>
-      <c r="Y21" s="87"/>
-      <c r="Z21" s="87"/>
-      <c r="AA21" s="88"/>
-      <c r="AB21" s="89"/>
-      <c r="AC21" s="87"/>
-      <c r="AD21" s="201"/>
-      <c r="AE21" s="201"/>
-      <c r="AF21" s="201"/>
-      <c r="AG21" s="201"/>
-      <c r="AH21" s="201"/>
-      <c r="AI21" s="201"/>
-      <c r="AJ21" s="201"/>
-      <c r="AK21" s="201"/>
-      <c r="AL21" s="211"/>
-      <c r="AM21" s="87"/>
-      <c r="AN21" s="87"/>
-      <c r="AO21" s="87"/>
-      <c r="AP21" s="88"/>
-      <c r="AQ21" s="89"/>
-      <c r="AR21" s="87"/>
-      <c r="AS21" s="87"/>
-      <c r="AT21" s="87"/>
-      <c r="AU21" s="88"/>
-      <c r="AV21" s="89"/>
-      <c r="AW21" s="87"/>
-      <c r="AX21" s="87"/>
-      <c r="AY21" s="87"/>
-      <c r="AZ21" s="88"/>
-      <c r="BA21" s="89"/>
-      <c r="BB21" s="87"/>
-      <c r="BC21" s="87"/>
-      <c r="BD21" s="87"/>
-      <c r="BE21" s="88"/>
-      <c r="BF21" s="89"/>
-      <c r="BG21" s="87"/>
-      <c r="BH21" s="87"/>
-      <c r="BI21" s="87"/>
-      <c r="BJ21" s="88"/>
-      <c r="BK21" s="89"/>
-      <c r="BL21" s="87"/>
-      <c r="BM21" s="87"/>
-      <c r="BN21" s="87"/>
-      <c r="BO21" s="88"/>
-      <c r="BP21" s="89"/>
-      <c r="BQ21" s="87"/>
-      <c r="BR21" s="87"/>
-      <c r="BS21" s="87"/>
-      <c r="BT21" s="88"/>
-      <c r="BU21" s="89"/>
-      <c r="BV21" s="87"/>
-      <c r="BW21" s="87"/>
-      <c r="BX21" s="87"/>
-      <c r="BY21" s="88"/>
-      <c r="BZ21" s="89"/>
-      <c r="CA21" s="87"/>
-      <c r="CB21" s="87"/>
-      <c r="CC21" s="87"/>
-      <c r="CD21" s="88"/>
-      <c r="CE21" s="89"/>
-      <c r="CF21" s="87"/>
-      <c r="CG21" s="87"/>
-      <c r="CH21" s="87"/>
-      <c r="CI21" s="88"/>
-      <c r="CJ21" s="89"/>
-      <c r="CK21" s="87"/>
-      <c r="CL21" s="87"/>
-      <c r="CM21" s="87"/>
-      <c r="CN21" s="88"/>
-      <c r="CO21" s="89"/>
-      <c r="CP21" s="87"/>
-      <c r="CQ21" s="87"/>
-      <c r="CR21" s="87"/>
-      <c r="CS21" s="88"/>
-      <c r="CT21" s="89"/>
-      <c r="CU21" s="87"/>
-      <c r="CV21" s="87"/>
-      <c r="CW21" s="87"/>
-      <c r="CX21" s="88"/>
-      <c r="CY21" s="89"/>
-      <c r="CZ21" s="87"/>
-      <c r="DA21" s="87"/>
-      <c r="DB21" s="87"/>
-      <c r="DC21" s="88"/>
-      <c r="DD21" s="89"/>
-      <c r="DE21" s="87"/>
-      <c r="DF21" s="87"/>
-      <c r="DG21" s="87"/>
-      <c r="DH21" s="88"/>
-      <c r="DI21" s="89"/>
-      <c r="DJ21" s="87"/>
-      <c r="DK21" s="87"/>
-      <c r="DL21" s="87"/>
-      <c r="DM21" s="88"/>
-      <c r="DN21" s="89"/>
-      <c r="DO21" s="87"/>
-      <c r="DP21" s="87"/>
-      <c r="DQ21" s="87"/>
-      <c r="DR21" s="88"/>
-      <c r="DS21" s="89"/>
-      <c r="DT21" s="87"/>
-      <c r="DU21" s="87"/>
-      <c r="DV21" s="87"/>
-      <c r="DW21" s="90"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="288"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="78"/>
+      <c r="R21" s="194"/>
+      <c r="S21" s="77"/>
+      <c r="T21" s="77"/>
+      <c r="U21" s="77"/>
+      <c r="V21" s="78"/>
+      <c r="W21" s="94"/>
+      <c r="X21" s="92"/>
+      <c r="Y21" s="92"/>
+      <c r="Z21" s="92"/>
+      <c r="AA21" s="93"/>
+      <c r="AB21" s="64"/>
+      <c r="AC21" s="62"/>
+      <c r="AD21" s="62"/>
+      <c r="AE21" s="62"/>
+      <c r="AF21" s="63"/>
+      <c r="AG21" s="303"/>
+      <c r="AH21" s="290"/>
+      <c r="AI21" s="290"/>
+      <c r="AJ21" s="290"/>
+      <c r="AK21" s="314"/>
+      <c r="AL21" s="199"/>
+      <c r="AM21" s="194"/>
+      <c r="AN21" s="77"/>
+      <c r="AO21" s="77"/>
+      <c r="AP21" s="78"/>
+      <c r="AQ21" s="79"/>
+      <c r="AR21" s="77"/>
+      <c r="AS21" s="77"/>
+      <c r="AT21" s="77"/>
+      <c r="AU21" s="78"/>
+      <c r="AV21" s="79"/>
+      <c r="AW21" s="77"/>
+      <c r="AX21" s="77"/>
+      <c r="AY21" s="77"/>
+      <c r="AZ21" s="78"/>
+      <c r="BA21" s="79"/>
+      <c r="BB21" s="77"/>
+      <c r="BC21" s="77"/>
+      <c r="BD21" s="77"/>
+      <c r="BE21" s="78"/>
+      <c r="BF21" s="79"/>
+      <c r="BG21" s="77"/>
+      <c r="BH21" s="77"/>
+      <c r="BI21" s="77"/>
+      <c r="BJ21" s="78"/>
+      <c r="BK21" s="79"/>
+      <c r="BL21" s="77"/>
+      <c r="BM21" s="77"/>
+      <c r="BN21" s="77"/>
+      <c r="BO21" s="78"/>
+      <c r="BP21" s="79"/>
+      <c r="BQ21" s="77"/>
+      <c r="BR21" s="77"/>
+      <c r="BS21" s="77"/>
+      <c r="BT21" s="78"/>
+      <c r="BU21" s="79"/>
+      <c r="BV21" s="77"/>
+      <c r="BW21" s="77"/>
+      <c r="BX21" s="77"/>
+      <c r="BY21" s="78"/>
+      <c r="BZ21" s="79"/>
+      <c r="CA21" s="77"/>
+      <c r="CB21" s="77"/>
+      <c r="CC21" s="77"/>
+      <c r="CD21" s="78"/>
+      <c r="CE21" s="79"/>
+      <c r="CF21" s="77"/>
+      <c r="CG21" s="77"/>
+      <c r="CH21" s="77"/>
+      <c r="CI21" s="78"/>
+      <c r="CJ21" s="79"/>
+      <c r="CK21" s="77"/>
+      <c r="CL21" s="77"/>
+      <c r="CM21" s="77"/>
+      <c r="CN21" s="78"/>
+      <c r="CO21" s="79"/>
+      <c r="CP21" s="77"/>
+      <c r="CQ21" s="77"/>
+      <c r="CR21" s="77"/>
+      <c r="CS21" s="78"/>
+      <c r="CT21" s="79"/>
+      <c r="CU21" s="77"/>
+      <c r="CV21" s="77"/>
+      <c r="CW21" s="77"/>
+      <c r="CX21" s="78"/>
+      <c r="CY21" s="79"/>
+      <c r="CZ21" s="77"/>
+      <c r="DA21" s="77"/>
+      <c r="DB21" s="77"/>
+      <c r="DC21" s="78"/>
+      <c r="DD21" s="79"/>
+      <c r="DE21" s="77"/>
+      <c r="DF21" s="77"/>
+      <c r="DG21" s="77"/>
+      <c r="DH21" s="78"/>
+      <c r="DI21" s="79"/>
+      <c r="DJ21" s="77"/>
+      <c r="DK21" s="77"/>
+      <c r="DL21" s="77"/>
+      <c r="DM21" s="78"/>
+      <c r="DN21" s="79"/>
+      <c r="DO21" s="77"/>
+      <c r="DP21" s="77"/>
+      <c r="DQ21" s="77"/>
+      <c r="DR21" s="78"/>
+      <c r="DS21" s="79"/>
+      <c r="DT21" s="77"/>
+      <c r="DU21" s="77"/>
+      <c r="DV21" s="77"/>
+      <c r="DW21" s="80"/>
     </row>
-    <row r="22" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="242"/>
+    <row r="22" spans="1:127" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="239" t="s">
+        <v>224</v>
+      </c>
       <c r="B22" s="189" t="s">
-        <v>117</v>
+        <v>224</v>
       </c>
       <c r="C22" s="189" t="s">
-        <v>118</v>
-      </c>
-      <c r="D22" s="249"/>
-      <c r="E22" s="189"/>
+        <v>124</v>
+      </c>
+      <c r="D22" s="251"/>
+      <c r="E22" s="189" t="s">
+        <v>140</v>
+      </c>
       <c r="F22" s="186">
-        <v>44853</v>
+        <v>44866</v>
       </c>
       <c r="G22" s="186">
-        <v>44865</v>
-      </c>
-      <c r="H22" s="195"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="77"/>
-      <c r="Q22" s="78"/>
-      <c r="R22" s="79"/>
-      <c r="S22" s="77"/>
-      <c r="T22" s="77"/>
-      <c r="U22" s="77"/>
-      <c r="V22" s="78"/>
-      <c r="W22" s="79"/>
-      <c r="X22" s="77"/>
-      <c r="Y22" s="77"/>
-      <c r="Z22" s="77"/>
-      <c r="AA22" s="78"/>
-      <c r="AB22" s="79"/>
-      <c r="AC22" s="77"/>
-      <c r="AD22" s="201"/>
-      <c r="AE22" s="201"/>
-      <c r="AF22" s="201"/>
-      <c r="AG22" s="201"/>
-      <c r="AH22" s="201"/>
-      <c r="AI22" s="201"/>
-      <c r="AJ22" s="201"/>
-      <c r="AK22" s="201"/>
-      <c r="AL22" s="208"/>
-      <c r="AM22" s="77"/>
-      <c r="AN22" s="77"/>
-      <c r="AO22" s="77"/>
-      <c r="AP22" s="78"/>
-      <c r="AQ22" s="79"/>
-      <c r="AR22" s="77"/>
-      <c r="AS22" s="77"/>
-      <c r="AT22" s="77"/>
-      <c r="AU22" s="78"/>
-      <c r="AV22" s="79"/>
-      <c r="AW22" s="77"/>
-      <c r="AX22" s="77"/>
-      <c r="AY22" s="77"/>
-      <c r="AZ22" s="78"/>
-      <c r="BA22" s="79"/>
-      <c r="BB22" s="77"/>
-      <c r="BC22" s="77"/>
-      <c r="BD22" s="77"/>
-      <c r="BE22" s="78"/>
-      <c r="BF22" s="79"/>
-      <c r="BG22" s="77"/>
-      <c r="BH22" s="77"/>
-      <c r="BI22" s="77"/>
-      <c r="BJ22" s="78"/>
-      <c r="BK22" s="79"/>
-      <c r="BL22" s="77"/>
-      <c r="BM22" s="77"/>
-      <c r="BN22" s="77"/>
-      <c r="BO22" s="78"/>
-      <c r="BP22" s="79"/>
-      <c r="BQ22" s="77"/>
-      <c r="BR22" s="77"/>
-      <c r="BS22" s="77"/>
-      <c r="BT22" s="78"/>
-      <c r="BU22" s="79"/>
-      <c r="BV22" s="77"/>
-      <c r="BW22" s="77"/>
-      <c r="BX22" s="77"/>
-      <c r="BY22" s="78"/>
-      <c r="BZ22" s="79"/>
-      <c r="CA22" s="77"/>
-      <c r="CB22" s="77"/>
-      <c r="CC22" s="77"/>
-      <c r="CD22" s="78"/>
-      <c r="CE22" s="79"/>
-      <c r="CF22" s="77"/>
-      <c r="CG22" s="77"/>
-      <c r="CH22" s="77"/>
-      <c r="CI22" s="78"/>
-      <c r="CJ22" s="79"/>
-      <c r="CK22" s="77"/>
-      <c r="CL22" s="77"/>
-      <c r="CM22" s="77"/>
-      <c r="CN22" s="78"/>
-      <c r="CO22" s="79"/>
-      <c r="CP22" s="77"/>
-      <c r="CQ22" s="77"/>
-      <c r="CR22" s="77"/>
-      <c r="CS22" s="78"/>
-      <c r="CT22" s="79"/>
-      <c r="CU22" s="77"/>
-      <c r="CV22" s="77"/>
-      <c r="CW22" s="77"/>
-      <c r="CX22" s="78"/>
-      <c r="CY22" s="79"/>
-      <c r="CZ22" s="77"/>
-      <c r="DA22" s="77"/>
-      <c r="DB22" s="77"/>
-      <c r="DC22" s="78"/>
-      <c r="DD22" s="79"/>
-      <c r="DE22" s="77"/>
-      <c r="DF22" s="77"/>
-      <c r="DG22" s="77"/>
-      <c r="DH22" s="78"/>
-      <c r="DI22" s="79"/>
-      <c r="DJ22" s="77"/>
-      <c r="DK22" s="77"/>
-      <c r="DL22" s="77"/>
-      <c r="DM22" s="78"/>
-      <c r="DN22" s="79"/>
-      <c r="DO22" s="77"/>
-      <c r="DP22" s="77"/>
-      <c r="DQ22" s="77"/>
-      <c r="DR22" s="78"/>
-      <c r="DS22" s="79"/>
-      <c r="DT22" s="77"/>
-      <c r="DU22" s="77"/>
-      <c r="DV22" s="77"/>
-      <c r="DW22" s="80"/>
+        <v>44867</v>
+      </c>
+      <c r="H22" s="192"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="285"/>
+      <c r="R22" s="64"/>
+      <c r="S22" s="62"/>
+      <c r="T22" s="62"/>
+      <c r="U22" s="62"/>
+      <c r="V22" s="63"/>
+      <c r="W22" s="64"/>
+      <c r="X22" s="62"/>
+      <c r="Y22" s="62"/>
+      <c r="Z22" s="62"/>
+      <c r="AA22" s="63"/>
+      <c r="AB22" s="108"/>
+      <c r="AC22" s="106"/>
+      <c r="AD22" s="106"/>
+      <c r="AE22" s="106"/>
+      <c r="AF22" s="107"/>
+      <c r="AG22" s="108"/>
+      <c r="AH22" s="106"/>
+      <c r="AI22" s="106"/>
+      <c r="AJ22" s="106"/>
+      <c r="AK22" s="315"/>
+      <c r="AL22" s="108"/>
+      <c r="AM22" s="299"/>
+      <c r="AN22" s="62"/>
+      <c r="AO22" s="62"/>
+      <c r="AP22" s="63"/>
+      <c r="AQ22" s="64"/>
+      <c r="AR22" s="62"/>
+      <c r="AS22" s="62"/>
+      <c r="AT22" s="62"/>
+      <c r="AU22" s="63"/>
+      <c r="AV22" s="64"/>
+      <c r="AW22" s="62"/>
+      <c r="AX22" s="62"/>
+      <c r="AY22" s="62"/>
+      <c r="AZ22" s="63"/>
+      <c r="BA22" s="64"/>
+      <c r="BB22" s="62"/>
+      <c r="BC22" s="62"/>
+      <c r="BD22" s="62"/>
+      <c r="BE22" s="63"/>
+      <c r="BF22" s="64"/>
+      <c r="BG22" s="62"/>
+      <c r="BH22" s="62"/>
+      <c r="BI22" s="62"/>
+      <c r="BJ22" s="63"/>
+      <c r="BK22" s="64"/>
+      <c r="BL22" s="62"/>
+      <c r="BM22" s="62"/>
+      <c r="BN22" s="62"/>
+      <c r="BO22" s="63"/>
+      <c r="BP22" s="64"/>
+      <c r="BQ22" s="62"/>
+      <c r="BR22" s="62"/>
+      <c r="BS22" s="62"/>
+      <c r="BT22" s="63"/>
+      <c r="BU22" s="64"/>
+      <c r="BV22" s="62"/>
+      <c r="BW22" s="62"/>
+      <c r="BX22" s="62"/>
+      <c r="BY22" s="63"/>
+      <c r="BZ22" s="64"/>
+      <c r="CA22" s="62"/>
+      <c r="CB22" s="62"/>
+      <c r="CC22" s="62"/>
+      <c r="CD22" s="63"/>
+      <c r="CE22" s="64"/>
+      <c r="CF22" s="62"/>
+      <c r="CG22" s="62"/>
+      <c r="CH22" s="62"/>
+      <c r="CI22" s="63"/>
+      <c r="CJ22" s="64"/>
+      <c r="CK22" s="62"/>
+      <c r="CL22" s="62"/>
+      <c r="CM22" s="62"/>
+      <c r="CN22" s="63"/>
+      <c r="CO22" s="64"/>
+      <c r="CP22" s="62"/>
+      <c r="CQ22" s="62"/>
+      <c r="CR22" s="62"/>
+      <c r="CS22" s="63"/>
+      <c r="CT22" s="64"/>
+      <c r="CU22" s="62"/>
+      <c r="CV22" s="62"/>
+      <c r="CW22" s="62"/>
+      <c r="CX22" s="63"/>
+      <c r="CY22" s="64"/>
+      <c r="CZ22" s="62"/>
+      <c r="DA22" s="62"/>
+      <c r="DB22" s="62"/>
+      <c r="DC22" s="63"/>
+      <c r="DD22" s="64"/>
+      <c r="DE22" s="62"/>
+      <c r="DF22" s="62"/>
+      <c r="DG22" s="62"/>
+      <c r="DH22" s="63"/>
+      <c r="DI22" s="64"/>
+      <c r="DJ22" s="62"/>
+      <c r="DK22" s="62"/>
+      <c r="DL22" s="62"/>
+      <c r="DM22" s="63"/>
+      <c r="DN22" s="64"/>
+      <c r="DO22" s="62"/>
+      <c r="DP22" s="62"/>
+      <c r="DQ22" s="62"/>
+      <c r="DR22" s="63"/>
+      <c r="DS22" s="64"/>
+      <c r="DT22" s="62"/>
+      <c r="DU22" s="62"/>
+      <c r="DV22" s="62"/>
+      <c r="DW22" s="65"/>
     </row>
-    <row r="23" spans="1:127" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="235" t="s">
-        <v>224</v>
-      </c>
-      <c r="B23" s="190" t="s">
-        <v>224</v>
-      </c>
-      <c r="C23" s="190" t="s">
-        <v>124</v>
-      </c>
-      <c r="D23" s="249"/>
-      <c r="E23" s="190" t="s">
-        <v>140</v>
+    <row r="23" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="240"/>
+      <c r="B23" s="196" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="196"/>
+      <c r="D23" s="252"/>
+      <c r="E23" s="196" t="s">
+        <v>143</v>
       </c>
       <c r="F23" s="186">
-        <v>44865</v>
+        <v>44867</v>
       </c>
       <c r="G23" s="186">
-        <v>44867</v>
-      </c>
-      <c r="H23" s="193"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="62"/>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="63"/>
-      <c r="R23" s="64"/>
-      <c r="S23" s="62"/>
-      <c r="T23" s="62"/>
-      <c r="U23" s="62"/>
-      <c r="V23" s="63"/>
-      <c r="W23" s="64"/>
-      <c r="X23" s="62"/>
-      <c r="Y23" s="62"/>
-      <c r="Z23" s="62"/>
-      <c r="AA23" s="63"/>
-      <c r="AB23" s="64"/>
-      <c r="AC23" s="62"/>
-      <c r="AD23" s="62"/>
-      <c r="AE23" s="62"/>
-      <c r="AF23" s="63"/>
-      <c r="AG23" s="64"/>
-      <c r="AH23" s="62"/>
-      <c r="AI23" s="62"/>
-      <c r="AJ23" s="62"/>
-      <c r="AK23" s="63"/>
-      <c r="AL23" s="207"/>
-      <c r="AM23" s="201"/>
-      <c r="AN23" s="62"/>
-      <c r="AO23" s="62"/>
-      <c r="AP23" s="63"/>
-      <c r="AQ23" s="64"/>
-      <c r="AR23" s="62"/>
-      <c r="AS23" s="62"/>
-      <c r="AT23" s="62"/>
-      <c r="AU23" s="63"/>
-      <c r="AV23" s="64"/>
-      <c r="AW23" s="62"/>
-      <c r="AX23" s="62"/>
-      <c r="AY23" s="62"/>
-      <c r="AZ23" s="63"/>
-      <c r="BA23" s="64"/>
-      <c r="BB23" s="62"/>
-      <c r="BC23" s="62"/>
-      <c r="BD23" s="62"/>
-      <c r="BE23" s="63"/>
-      <c r="BF23" s="64"/>
-      <c r="BG23" s="62"/>
-      <c r="BH23" s="62"/>
-      <c r="BI23" s="62"/>
-      <c r="BJ23" s="63"/>
-      <c r="BK23" s="64"/>
-      <c r="BL23" s="62"/>
-      <c r="BM23" s="62"/>
-      <c r="BN23" s="62"/>
-      <c r="BO23" s="63"/>
-      <c r="BP23" s="64"/>
-      <c r="BQ23" s="62"/>
-      <c r="BR23" s="62"/>
-      <c r="BS23" s="62"/>
-      <c r="BT23" s="63"/>
-      <c r="BU23" s="64"/>
-      <c r="BV23" s="62"/>
-      <c r="BW23" s="62"/>
-      <c r="BX23" s="62"/>
-      <c r="BY23" s="63"/>
-      <c r="BZ23" s="64"/>
-      <c r="CA23" s="62"/>
-      <c r="CB23" s="62"/>
-      <c r="CC23" s="62"/>
-      <c r="CD23" s="63"/>
-      <c r="CE23" s="64"/>
-      <c r="CF23" s="62"/>
-      <c r="CG23" s="62"/>
-      <c r="CH23" s="62"/>
-      <c r="CI23" s="63"/>
-      <c r="CJ23" s="64"/>
-      <c r="CK23" s="62"/>
-      <c r="CL23" s="62"/>
-      <c r="CM23" s="62"/>
-      <c r="CN23" s="63"/>
-      <c r="CO23" s="64"/>
-      <c r="CP23" s="62"/>
-      <c r="CQ23" s="62"/>
-      <c r="CR23" s="62"/>
-      <c r="CS23" s="63"/>
-      <c r="CT23" s="64"/>
-      <c r="CU23" s="62"/>
-      <c r="CV23" s="62"/>
-      <c r="CW23" s="62"/>
-      <c r="CX23" s="63"/>
-      <c r="CY23" s="64"/>
-      <c r="CZ23" s="62"/>
-      <c r="DA23" s="62"/>
-      <c r="DB23" s="62"/>
-      <c r="DC23" s="63"/>
-      <c r="DD23" s="64"/>
-      <c r="DE23" s="62"/>
-      <c r="DF23" s="62"/>
-      <c r="DG23" s="62"/>
-      <c r="DH23" s="63"/>
-      <c r="DI23" s="64"/>
-      <c r="DJ23" s="62"/>
-      <c r="DK23" s="62"/>
-      <c r="DL23" s="62"/>
-      <c r="DM23" s="63"/>
-      <c r="DN23" s="64"/>
-      <c r="DO23" s="62"/>
-      <c r="DP23" s="62"/>
-      <c r="DQ23" s="62"/>
-      <c r="DR23" s="63"/>
-      <c r="DS23" s="64"/>
-      <c r="DT23" s="62"/>
-      <c r="DU23" s="62"/>
-      <c r="DV23" s="62"/>
-      <c r="DW23" s="65"/>
-    </row>
-    <row r="24" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="236"/>
-      <c r="B24" s="197" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="197"/>
-      <c r="D24" s="250"/>
-      <c r="E24" s="197" t="s">
-        <v>143</v>
-      </c>
-      <c r="F24" s="186">
-        <v>44865</v>
-      </c>
-      <c r="G24" s="186">
         <v>44869</v>
       </c>
-      <c r="H24" s="196"/>
-      <c r="I24" s="110"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="110"/>
-      <c r="L24" s="111"/>
-      <c r="M24" s="112"/>
-      <c r="N24" s="110"/>
-      <c r="O24" s="110"/>
-      <c r="P24" s="110"/>
-      <c r="Q24" s="111"/>
-      <c r="R24" s="112"/>
-      <c r="S24" s="110"/>
-      <c r="T24" s="110"/>
-      <c r="U24" s="110"/>
-      <c r="V24" s="111"/>
-      <c r="W24" s="112"/>
-      <c r="X24" s="110"/>
-      <c r="Y24" s="110"/>
-      <c r="Z24" s="110"/>
-      <c r="AA24" s="111"/>
-      <c r="AB24" s="112"/>
-      <c r="AC24" s="110"/>
-      <c r="AD24" s="110"/>
-      <c r="AE24" s="110"/>
-      <c r="AF24" s="111"/>
-      <c r="AG24" s="112"/>
-      <c r="AH24" s="110"/>
-      <c r="AI24" s="110"/>
-      <c r="AJ24" s="110"/>
-      <c r="AK24" s="111"/>
-      <c r="AL24" s="212"/>
-      <c r="AM24" s="201"/>
-      <c r="AN24" s="201"/>
-      <c r="AO24" s="201"/>
-      <c r="AP24" s="111"/>
-      <c r="AQ24" s="112"/>
-      <c r="AR24" s="110"/>
-      <c r="AS24" s="110"/>
-      <c r="AT24" s="110"/>
-      <c r="AU24" s="111"/>
-      <c r="AV24" s="112"/>
-      <c r="AW24" s="110"/>
-      <c r="AX24" s="110"/>
-      <c r="AY24" s="110"/>
-      <c r="AZ24" s="111"/>
-      <c r="BA24" s="112"/>
-      <c r="BB24" s="110"/>
-      <c r="BC24" s="110"/>
-      <c r="BD24" s="110"/>
-      <c r="BE24" s="111"/>
-      <c r="BF24" s="112"/>
-      <c r="BG24" s="110"/>
-      <c r="BH24" s="110"/>
-      <c r="BI24" s="110"/>
-      <c r="BJ24" s="111"/>
-      <c r="BK24" s="112"/>
-      <c r="BL24" s="110"/>
-      <c r="BM24" s="110"/>
-      <c r="BN24" s="110"/>
-      <c r="BO24" s="111"/>
-      <c r="BP24" s="112"/>
-      <c r="BQ24" s="110"/>
-      <c r="BR24" s="110"/>
-      <c r="BS24" s="110"/>
-      <c r="BT24" s="111"/>
-      <c r="BU24" s="112"/>
-      <c r="BV24" s="110"/>
-      <c r="BW24" s="110"/>
-      <c r="BX24" s="110"/>
-      <c r="BY24" s="111"/>
-      <c r="BZ24" s="112"/>
-      <c r="CA24" s="110"/>
-      <c r="CB24" s="110"/>
-      <c r="CC24" s="110"/>
-      <c r="CD24" s="111"/>
-      <c r="CE24" s="112"/>
-      <c r="CF24" s="110"/>
-      <c r="CG24" s="110"/>
-      <c r="CH24" s="110"/>
-      <c r="CI24" s="111"/>
-      <c r="CJ24" s="112"/>
-      <c r="CK24" s="110"/>
-      <c r="CL24" s="110"/>
-      <c r="CM24" s="110"/>
-      <c r="CN24" s="111"/>
-      <c r="CO24" s="112"/>
-      <c r="CP24" s="110"/>
-      <c r="CQ24" s="110"/>
-      <c r="CR24" s="110"/>
-      <c r="CS24" s="111"/>
-      <c r="CT24" s="112"/>
-      <c r="CU24" s="110"/>
-      <c r="CV24" s="110"/>
-      <c r="CW24" s="110"/>
-      <c r="CX24" s="111"/>
-      <c r="CY24" s="112"/>
-      <c r="CZ24" s="110"/>
-      <c r="DA24" s="110"/>
-      <c r="DB24" s="110"/>
-      <c r="DC24" s="111"/>
-      <c r="DD24" s="112"/>
-      <c r="DE24" s="110"/>
-      <c r="DF24" s="110"/>
-      <c r="DG24" s="110"/>
-      <c r="DH24" s="111"/>
-      <c r="DI24" s="112"/>
-      <c r="DJ24" s="110"/>
-      <c r="DK24" s="110"/>
-      <c r="DL24" s="110"/>
-      <c r="DM24" s="111"/>
-      <c r="DN24" s="112"/>
-      <c r="DO24" s="110"/>
-      <c r="DP24" s="110"/>
-      <c r="DQ24" s="110"/>
-      <c r="DR24" s="111"/>
-      <c r="DS24" s="112"/>
-      <c r="DT24" s="110"/>
-      <c r="DU24" s="110"/>
-      <c r="DV24" s="110"/>
-      <c r="DW24" s="113"/>
+      <c r="H23" s="195"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="111"/>
+      <c r="M23" s="112"/>
+      <c r="N23" s="110"/>
+      <c r="O23" s="110"/>
+      <c r="P23" s="110"/>
+      <c r="Q23" s="289"/>
+      <c r="R23" s="112"/>
+      <c r="S23" s="110"/>
+      <c r="T23" s="110"/>
+      <c r="U23" s="110"/>
+      <c r="V23" s="111"/>
+      <c r="W23" s="112"/>
+      <c r="X23" s="110"/>
+      <c r="Y23" s="110"/>
+      <c r="Z23" s="110"/>
+      <c r="AA23" s="111"/>
+      <c r="AB23" s="112"/>
+      <c r="AC23" s="110"/>
+      <c r="AD23" s="110"/>
+      <c r="AE23" s="110"/>
+      <c r="AF23" s="111"/>
+      <c r="AG23" s="112"/>
+      <c r="AH23" s="110"/>
+      <c r="AI23" s="110"/>
+      <c r="AJ23" s="110"/>
+      <c r="AK23" s="289"/>
+      <c r="AL23" s="112"/>
+      <c r="AM23" s="316"/>
+      <c r="AN23" s="197"/>
+      <c r="AO23" s="197"/>
+      <c r="AP23" s="309"/>
+      <c r="AQ23" s="112"/>
+      <c r="AR23" s="110"/>
+      <c r="AS23" s="110"/>
+      <c r="AT23" s="110"/>
+      <c r="AU23" s="111"/>
+      <c r="AV23" s="112"/>
+      <c r="AW23" s="110"/>
+      <c r="AX23" s="110"/>
+      <c r="AY23" s="110"/>
+      <c r="AZ23" s="111"/>
+      <c r="BA23" s="112"/>
+      <c r="BB23" s="110"/>
+      <c r="BC23" s="110"/>
+      <c r="BD23" s="110"/>
+      <c r="BE23" s="111"/>
+      <c r="BF23" s="112"/>
+      <c r="BG23" s="110"/>
+      <c r="BH23" s="110"/>
+      <c r="BI23" s="110"/>
+      <c r="BJ23" s="111"/>
+      <c r="BK23" s="112"/>
+      <c r="BL23" s="110"/>
+      <c r="BM23" s="110"/>
+      <c r="BN23" s="110"/>
+      <c r="BO23" s="111"/>
+      <c r="BP23" s="112"/>
+      <c r="BQ23" s="110"/>
+      <c r="BR23" s="110"/>
+      <c r="BS23" s="110"/>
+      <c r="BT23" s="111"/>
+      <c r="BU23" s="112"/>
+      <c r="BV23" s="110"/>
+      <c r="BW23" s="110"/>
+      <c r="BX23" s="110"/>
+      <c r="BY23" s="111"/>
+      <c r="BZ23" s="112"/>
+      <c r="CA23" s="110"/>
+      <c r="CB23" s="110"/>
+      <c r="CC23" s="110"/>
+      <c r="CD23" s="111"/>
+      <c r="CE23" s="112"/>
+      <c r="CF23" s="110"/>
+      <c r="CG23" s="110"/>
+      <c r="CH23" s="110"/>
+      <c r="CI23" s="111"/>
+      <c r="CJ23" s="112"/>
+      <c r="CK23" s="110"/>
+      <c r="CL23" s="110"/>
+      <c r="CM23" s="110"/>
+      <c r="CN23" s="111"/>
+      <c r="CO23" s="112"/>
+      <c r="CP23" s="110"/>
+      <c r="CQ23" s="110"/>
+      <c r="CR23" s="110"/>
+      <c r="CS23" s="111"/>
+      <c r="CT23" s="112"/>
+      <c r="CU23" s="110"/>
+      <c r="CV23" s="110"/>
+      <c r="CW23" s="110"/>
+      <c r="CX23" s="111"/>
+      <c r="CY23" s="112"/>
+      <c r="CZ23" s="110"/>
+      <c r="DA23" s="110"/>
+      <c r="DB23" s="110"/>
+      <c r="DC23" s="111"/>
+      <c r="DD23" s="112"/>
+      <c r="DE23" s="110"/>
+      <c r="DF23" s="110"/>
+      <c r="DG23" s="110"/>
+      <c r="DH23" s="111"/>
+      <c r="DI23" s="112"/>
+      <c r="DJ23" s="110"/>
+      <c r="DK23" s="110"/>
+      <c r="DL23" s="110"/>
+      <c r="DM23" s="111"/>
+      <c r="DN23" s="112"/>
+      <c r="DO23" s="110"/>
+      <c r="DP23" s="110"/>
+      <c r="DQ23" s="110"/>
+      <c r="DR23" s="111"/>
+      <c r="DS23" s="112"/>
+      <c r="DT23" s="110"/>
+      <c r="DU23" s="110"/>
+      <c r="DV23" s="110"/>
+      <c r="DW23" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="102">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="R8:V8"/>
-    <mergeCell ref="W8:AA8"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="CY9:CZ9"/>
+    <mergeCell ref="BU8:BY8"/>
+    <mergeCell ref="BZ8:CD8"/>
+    <mergeCell ref="AL9:AM9"/>
+    <mergeCell ref="AO9:AP9"/>
+    <mergeCell ref="BS9:BT9"/>
+    <mergeCell ref="BU9:BV9"/>
+    <mergeCell ref="BX9:BY9"/>
+    <mergeCell ref="BD9:BE9"/>
+    <mergeCell ref="BF9:BG9"/>
+    <mergeCell ref="BI9:BJ9"/>
+    <mergeCell ref="BK9:BL9"/>
+    <mergeCell ref="BN9:BO9"/>
+    <mergeCell ref="BP9:BQ9"/>
+    <mergeCell ref="DN8:DR8"/>
+    <mergeCell ref="DS8:DW8"/>
+    <mergeCell ref="CO8:CS8"/>
+    <mergeCell ref="CT8:CX8"/>
+    <mergeCell ref="CY8:DC8"/>
+    <mergeCell ref="DD8:DH8"/>
+    <mergeCell ref="DI8:DM8"/>
+    <mergeCell ref="CE9:CF9"/>
+    <mergeCell ref="CH9:CI9"/>
+    <mergeCell ref="CJ9:CK9"/>
+    <mergeCell ref="CM9:CN9"/>
+    <mergeCell ref="DN9:DO9"/>
+    <mergeCell ref="DQ9:DR9"/>
+    <mergeCell ref="DS9:DT9"/>
+    <mergeCell ref="DV9:DW9"/>
+    <mergeCell ref="DB9:DC9"/>
+    <mergeCell ref="DD9:DE9"/>
+    <mergeCell ref="DG9:DH9"/>
+    <mergeCell ref="DI9:DJ9"/>
+    <mergeCell ref="DL9:DM9"/>
+    <mergeCell ref="CO9:CP9"/>
+    <mergeCell ref="CR9:CS9"/>
+    <mergeCell ref="CT9:CU9"/>
+    <mergeCell ref="CW9:CX9"/>
+    <mergeCell ref="CE8:CI8"/>
+    <mergeCell ref="CJ8:CN8"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="D11:D23"/>
+    <mergeCell ref="AL8:AP8"/>
+    <mergeCell ref="AQ8:AU8"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="AV8:AZ8"/>
+    <mergeCell ref="BA8:BE8"/>
+    <mergeCell ref="BF8:BJ8"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="AY9:AZ9"/>
+    <mergeCell ref="BA9:BB9"/>
+    <mergeCell ref="BZ9:CA9"/>
+    <mergeCell ref="CC9:CD9"/>
+    <mergeCell ref="BK8:BO8"/>
+    <mergeCell ref="BP8:BT8"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="AQ9:AR9"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="B8:C10"/>
+    <mergeCell ref="D8:D10"/>
     <mergeCell ref="AB8:AF8"/>
     <mergeCell ref="AG8:AK8"/>
     <mergeCell ref="M9:N9"/>
@@ -10582,107 +10395,40 @@
     <mergeCell ref="W9:X9"/>
     <mergeCell ref="Z9:AA9"/>
     <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="AQ9:AR9"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AJ9:AK9"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="B8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="CE8:CI8"/>
-    <mergeCell ref="CJ8:CN8"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="D11:D24"/>
-    <mergeCell ref="AL8:AP8"/>
-    <mergeCell ref="AQ8:AU8"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="DN8:DR8"/>
-    <mergeCell ref="DS8:DW8"/>
-    <mergeCell ref="CO8:CS8"/>
-    <mergeCell ref="CT8:CX8"/>
-    <mergeCell ref="CY8:DC8"/>
-    <mergeCell ref="DD8:DH8"/>
-    <mergeCell ref="DI8:DM8"/>
-    <mergeCell ref="CE9:CF9"/>
-    <mergeCell ref="CH9:CI9"/>
-    <mergeCell ref="CJ9:CK9"/>
-    <mergeCell ref="CM9:CN9"/>
-    <mergeCell ref="AV8:AZ8"/>
-    <mergeCell ref="BA8:BE8"/>
-    <mergeCell ref="BF8:BJ8"/>
-    <mergeCell ref="AV9:AW9"/>
-    <mergeCell ref="AY9:AZ9"/>
-    <mergeCell ref="BA9:BB9"/>
-    <mergeCell ref="BZ9:CA9"/>
-    <mergeCell ref="CC9:CD9"/>
-    <mergeCell ref="BK8:BO8"/>
-    <mergeCell ref="BP8:BT8"/>
-    <mergeCell ref="BU8:BY8"/>
-    <mergeCell ref="BZ8:CD8"/>
-    <mergeCell ref="AL9:AM9"/>
-    <mergeCell ref="AO9:AP9"/>
-    <mergeCell ref="BS9:BT9"/>
-    <mergeCell ref="BU9:BV9"/>
-    <mergeCell ref="BX9:BY9"/>
-    <mergeCell ref="BD9:BE9"/>
-    <mergeCell ref="BF9:BG9"/>
-    <mergeCell ref="BI9:BJ9"/>
-    <mergeCell ref="BK9:BL9"/>
-    <mergeCell ref="BN9:BO9"/>
-    <mergeCell ref="BP9:BQ9"/>
-    <mergeCell ref="DN9:DO9"/>
-    <mergeCell ref="DQ9:DR9"/>
-    <mergeCell ref="DS9:DT9"/>
-    <mergeCell ref="DV9:DW9"/>
-    <mergeCell ref="DB9:DC9"/>
-    <mergeCell ref="DD9:DE9"/>
-    <mergeCell ref="DG9:DH9"/>
-    <mergeCell ref="DI9:DJ9"/>
-    <mergeCell ref="DL9:DM9"/>
-    <mergeCell ref="CO9:CP9"/>
-    <mergeCell ref="CR9:CS9"/>
-    <mergeCell ref="CT9:CU9"/>
-    <mergeCell ref="CW9:CX9"/>
-    <mergeCell ref="CY9:CZ9"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="H13:L13 T12 P13:DW13 H14:DW24">
+  <conditionalFormatting sqref="H13:L13 T12 P13:AK13 AM13:DW19 AL11:AL19 H14:AK19 H20:DW23">
     <cfRule type="expression" dxfId="71" priority="169" stopIfTrue="1">
-      <formula>(IF((H$10=$G12),1,2)=1)</formula>
+      <formula>(IF((H$10=$G11),1,2)=1)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="70" priority="170" stopIfTrue="1">
-      <formula>(IF((H$10&lt;=$G12),(IF(($D12="기획")*(H$10&gt;=$F12),1,2)),3)=1)</formula>
+      <formula>(IF((H$10&lt;=$G11),(IF(($D11="기획")*(H$10&gt;=$F11),1,2)),3)=1)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="69" priority="171" stopIfTrue="1">
-      <formula>(IF((H$10&lt;=$G12),(IF(($D12="디자인")*(H$10&gt;=$F12),1,2)),3)=1)</formula>
+      <formula>(IF((H$10&lt;=$G11),(IF(($D11="디자인")*(H$10&gt;=$F11),1,2)),3)=1)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="68" priority="172" stopIfTrue="1">
-      <formula>(IF((H$10&lt;=$G12),(IF(($D12="퍼블리싱")*(H$10&gt;=$F12),1,2)),3)=1)</formula>
+      <formula>(IF((H$10&lt;=$G11),(IF(($D11="퍼블리싱")*(H$10&gt;=$F11),1,2)),3)=1)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="67" priority="173" stopIfTrue="1">
-      <formula>(IF((H$10&lt;=$G12),(IF(($D12="개발")*(H$10&gt;=$F12),1,2)),3)=1)</formula>
+      <formula>(IF((H$10&lt;=$G11),(IF(($D11="개발")*(H$10&gt;=$F11),1,2)),3)=1)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="66" priority="174" stopIfTrue="1">
-      <formula>(IF((H$10&lt;=$G12),(IF(($D12="고객")*(H$10&gt;=$F12),1,2)),3)=1)</formula>
+      <formula>(IF((H$10&lt;=$G11),(IF(($D11="고객")*(H$10&gt;=$F11),1,2)),3)=1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:L12 U12:DW12 Q12:S12 Q11:R11">
+  <conditionalFormatting sqref="H12:L12 U12:AK12 Q12:S12 Q11:R11 AM12:DW12">
     <cfRule type="expression" dxfId="65" priority="181" stopIfTrue="1">
       <formula>(IF((H$10=$G11),1,2)=1)</formula>
     </cfRule>
@@ -10702,7 +10448,7 @@
       <formula>(IF((H$10&lt;=$G11),(IF(($D10="고객")*(H$10&gt;=$F11),1,2)),3)=1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S11:DO11">
+  <conditionalFormatting sqref="S11:AK11 AM11:DO11">
     <cfRule type="expression" dxfId="59" priority="343" stopIfTrue="1">
       <formula>(IF((AA$10=$G11),1,2)=1)</formula>
     </cfRule>
@@ -10923,19 +10669,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:127" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="270" t="s">
+      <c r="A1" s="215" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="270"/>
-      <c r="C1" s="270"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="270"/>
-      <c r="G1" s="270"/>
-      <c r="H1" s="270"/>
-      <c r="I1" s="270"/>
-      <c r="J1" s="270"/>
-      <c r="K1" s="270"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="215"/>
+      <c r="J1" s="215"/>
+      <c r="K1" s="215"/>
       <c r="L1" s="50"/>
       <c r="M1" s="50"/>
       <c r="N1" s="50"/>
@@ -11057,8 +10803,8 @@
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="271"/>
-      <c r="C2" s="271"/>
+      <c r="B2" s="221"/>
+      <c r="C2" s="221"/>
       <c r="D2" s="7"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -11188,8 +10934,8 @@
       <c r="A3" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="B3" s="271"/>
-      <c r="C3" s="271"/>
+      <c r="B3" s="221"/>
+      <c r="C3" s="221"/>
       <c r="D3" s="7"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -11319,8 +11065,8 @@
       <c r="A4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="271"/>
-      <c r="C4" s="271"/>
+      <c r="B4" s="221"/>
+      <c r="C4" s="221"/>
       <c r="D4" s="7"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -11450,37 +11196,37 @@
       <c r="A5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="271"/>
-      <c r="C5" s="271"/>
+      <c r="B5" s="221"/>
+      <c r="C5" s="221"/>
       <c r="D5" s="7"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="266" t="s">
+      <c r="I5" s="227" t="s">
         <v>191</v>
       </c>
-      <c r="J5" s="266"/>
-      <c r="K5" s="273" t="s">
+      <c r="J5" s="227"/>
+      <c r="K5" s="283" t="s">
         <v>192</v>
       </c>
-      <c r="L5" s="273"/>
-      <c r="M5" s="274" t="s">
+      <c r="L5" s="283"/>
+      <c r="M5" s="280" t="s">
         <v>193</v>
       </c>
-      <c r="N5" s="274"/>
-      <c r="O5" s="275" t="s">
+      <c r="N5" s="280"/>
+      <c r="O5" s="281" t="s">
         <v>194</v>
       </c>
-      <c r="P5" s="275"/>
-      <c r="Q5" s="276" t="s">
+      <c r="P5" s="281"/>
+      <c r="Q5" s="282" t="s">
         <v>195</v>
       </c>
-      <c r="R5" s="276"/>
-      <c r="S5" s="268" t="s">
+      <c r="R5" s="282"/>
+      <c r="S5" s="229" t="s">
         <v>196</v>
       </c>
-      <c r="T5" s="268"/>
+      <c r="T5" s="229"/>
       <c r="U5" s="150"/>
       <c r="V5" s="150"/>
       <c r="W5" s="50"/>
@@ -11848,523 +11594,523 @@
       <c r="DW7" s="8"/>
     </row>
     <row r="8" spans="1:127" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="251" t="s">
+      <c r="A8" s="253" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="259" t="s">
+      <c r="B8" s="235" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="260"/>
-      <c r="D8" s="263" t="s">
+      <c r="C8" s="236"/>
+      <c r="D8" s="216" t="s">
         <v>186</v>
       </c>
-      <c r="E8" s="263" t="s">
+      <c r="E8" s="216" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="255" t="s">
+      <c r="F8" s="231" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="256"/>
-      <c r="H8" s="258" t="s">
+      <c r="G8" s="232"/>
+      <c r="H8" s="234" t="s">
         <v>162</v>
       </c>
-      <c r="I8" s="232"/>
-      <c r="J8" s="232"/>
-      <c r="K8" s="232"/>
-      <c r="L8" s="233"/>
-      <c r="M8" s="231" t="s">
+      <c r="I8" s="219"/>
+      <c r="J8" s="219"/>
+      <c r="K8" s="219"/>
+      <c r="L8" s="220"/>
+      <c r="M8" s="218" t="s">
         <v>163</v>
       </c>
-      <c r="N8" s="232"/>
-      <c r="O8" s="232"/>
-      <c r="P8" s="232"/>
-      <c r="Q8" s="233"/>
-      <c r="R8" s="231" t="s">
+      <c r="N8" s="219"/>
+      <c r="O8" s="219"/>
+      <c r="P8" s="219"/>
+      <c r="Q8" s="220"/>
+      <c r="R8" s="218" t="s">
         <v>164</v>
       </c>
-      <c r="S8" s="232"/>
-      <c r="T8" s="232"/>
-      <c r="U8" s="232"/>
-      <c r="V8" s="233"/>
-      <c r="W8" s="231" t="s">
+      <c r="S8" s="219"/>
+      <c r="T8" s="219"/>
+      <c r="U8" s="219"/>
+      <c r="V8" s="220"/>
+      <c r="W8" s="218" t="s">
         <v>165</v>
       </c>
-      <c r="X8" s="232"/>
-      <c r="Y8" s="232"/>
-      <c r="Z8" s="232"/>
-      <c r="AA8" s="233"/>
-      <c r="AB8" s="231" t="s">
+      <c r="X8" s="219"/>
+      <c r="Y8" s="219"/>
+      <c r="Z8" s="219"/>
+      <c r="AA8" s="220"/>
+      <c r="AB8" s="218" t="s">
         <v>166</v>
       </c>
-      <c r="AC8" s="232"/>
-      <c r="AD8" s="232"/>
-      <c r="AE8" s="232"/>
-      <c r="AF8" s="233"/>
-      <c r="AG8" s="231" t="s">
+      <c r="AC8" s="219"/>
+      <c r="AD8" s="219"/>
+      <c r="AE8" s="219"/>
+      <c r="AF8" s="220"/>
+      <c r="AG8" s="218" t="s">
         <v>167</v>
       </c>
-      <c r="AH8" s="232"/>
-      <c r="AI8" s="232"/>
-      <c r="AJ8" s="232"/>
-      <c r="AK8" s="233"/>
-      <c r="AL8" s="231" t="s">
+      <c r="AH8" s="219"/>
+      <c r="AI8" s="219"/>
+      <c r="AJ8" s="219"/>
+      <c r="AK8" s="220"/>
+      <c r="AL8" s="218" t="s">
         <v>168</v>
       </c>
-      <c r="AM8" s="232"/>
-      <c r="AN8" s="232"/>
-      <c r="AO8" s="232"/>
-      <c r="AP8" s="233"/>
-      <c r="AQ8" s="231" t="s">
+      <c r="AM8" s="219"/>
+      <c r="AN8" s="219"/>
+      <c r="AO8" s="219"/>
+      <c r="AP8" s="220"/>
+      <c r="AQ8" s="218" t="s">
         <v>169</v>
       </c>
-      <c r="AR8" s="232"/>
-      <c r="AS8" s="232"/>
-      <c r="AT8" s="232"/>
-      <c r="AU8" s="233"/>
-      <c r="AV8" s="231" t="s">
+      <c r="AR8" s="219"/>
+      <c r="AS8" s="219"/>
+      <c r="AT8" s="219"/>
+      <c r="AU8" s="220"/>
+      <c r="AV8" s="218" t="s">
         <v>170</v>
       </c>
-      <c r="AW8" s="232"/>
-      <c r="AX8" s="232"/>
-      <c r="AY8" s="232"/>
-      <c r="AZ8" s="233"/>
-      <c r="BA8" s="231" t="s">
+      <c r="AW8" s="219"/>
+      <c r="AX8" s="219"/>
+      <c r="AY8" s="219"/>
+      <c r="AZ8" s="220"/>
+      <c r="BA8" s="218" t="s">
         <v>171</v>
       </c>
-      <c r="BB8" s="232"/>
-      <c r="BC8" s="232"/>
-      <c r="BD8" s="232"/>
-      <c r="BE8" s="233"/>
-      <c r="BF8" s="231" t="s">
+      <c r="BB8" s="219"/>
+      <c r="BC8" s="219"/>
+      <c r="BD8" s="219"/>
+      <c r="BE8" s="220"/>
+      <c r="BF8" s="218" t="s">
         <v>172</v>
       </c>
-      <c r="BG8" s="232"/>
-      <c r="BH8" s="232"/>
-      <c r="BI8" s="232"/>
-      <c r="BJ8" s="233"/>
-      <c r="BK8" s="231" t="s">
+      <c r="BG8" s="219"/>
+      <c r="BH8" s="219"/>
+      <c r="BI8" s="219"/>
+      <c r="BJ8" s="220"/>
+      <c r="BK8" s="218" t="s">
         <v>173</v>
       </c>
-      <c r="BL8" s="232"/>
-      <c r="BM8" s="232"/>
-      <c r="BN8" s="232"/>
-      <c r="BO8" s="233"/>
-      <c r="BP8" s="231" t="s">
+      <c r="BL8" s="219"/>
+      <c r="BM8" s="219"/>
+      <c r="BN8" s="219"/>
+      <c r="BO8" s="220"/>
+      <c r="BP8" s="218" t="s">
         <v>174</v>
       </c>
-      <c r="BQ8" s="232"/>
-      <c r="BR8" s="232"/>
-      <c r="BS8" s="232"/>
-      <c r="BT8" s="233"/>
-      <c r="BU8" s="231" t="s">
+      <c r="BQ8" s="219"/>
+      <c r="BR8" s="219"/>
+      <c r="BS8" s="219"/>
+      <c r="BT8" s="220"/>
+      <c r="BU8" s="218" t="s">
         <v>175</v>
       </c>
-      <c r="BV8" s="232"/>
-      <c r="BW8" s="232"/>
-      <c r="BX8" s="232"/>
-      <c r="BY8" s="233"/>
-      <c r="BZ8" s="231" t="s">
+      <c r="BV8" s="219"/>
+      <c r="BW8" s="219"/>
+      <c r="BX8" s="219"/>
+      <c r="BY8" s="220"/>
+      <c r="BZ8" s="218" t="s">
         <v>176</v>
       </c>
-      <c r="CA8" s="232"/>
-      <c r="CB8" s="232"/>
-      <c r="CC8" s="232"/>
-      <c r="CD8" s="233"/>
-      <c r="CE8" s="231" t="s">
+      <c r="CA8" s="219"/>
+      <c r="CB8" s="219"/>
+      <c r="CC8" s="219"/>
+      <c r="CD8" s="220"/>
+      <c r="CE8" s="218" t="s">
         <v>177</v>
       </c>
-      <c r="CF8" s="232"/>
-      <c r="CG8" s="232"/>
-      <c r="CH8" s="232"/>
-      <c r="CI8" s="233"/>
-      <c r="CJ8" s="231" t="s">
+      <c r="CF8" s="219"/>
+      <c r="CG8" s="219"/>
+      <c r="CH8" s="219"/>
+      <c r="CI8" s="220"/>
+      <c r="CJ8" s="218" t="s">
         <v>178</v>
       </c>
-      <c r="CK8" s="232"/>
-      <c r="CL8" s="232"/>
-      <c r="CM8" s="232"/>
-      <c r="CN8" s="233"/>
-      <c r="CO8" s="231" t="s">
+      <c r="CK8" s="219"/>
+      <c r="CL8" s="219"/>
+      <c r="CM8" s="219"/>
+      <c r="CN8" s="220"/>
+      <c r="CO8" s="218" t="s">
         <v>179</v>
       </c>
-      <c r="CP8" s="232"/>
-      <c r="CQ8" s="232"/>
-      <c r="CR8" s="232"/>
-      <c r="CS8" s="233"/>
-      <c r="CT8" s="231" t="s">
+      <c r="CP8" s="219"/>
+      <c r="CQ8" s="219"/>
+      <c r="CR8" s="219"/>
+      <c r="CS8" s="220"/>
+      <c r="CT8" s="218" t="s">
         <v>180</v>
       </c>
-      <c r="CU8" s="232"/>
-      <c r="CV8" s="232"/>
-      <c r="CW8" s="232"/>
-      <c r="CX8" s="233"/>
-      <c r="CY8" s="231" t="s">
+      <c r="CU8" s="219"/>
+      <c r="CV8" s="219"/>
+      <c r="CW8" s="219"/>
+      <c r="CX8" s="220"/>
+      <c r="CY8" s="218" t="s">
         <v>181</v>
       </c>
-      <c r="CZ8" s="232"/>
-      <c r="DA8" s="232"/>
-      <c r="DB8" s="232"/>
-      <c r="DC8" s="233"/>
-      <c r="DD8" s="231" t="s">
+      <c r="CZ8" s="219"/>
+      <c r="DA8" s="219"/>
+      <c r="DB8" s="219"/>
+      <c r="DC8" s="220"/>
+      <c r="DD8" s="218" t="s">
         <v>182</v>
       </c>
-      <c r="DE8" s="232"/>
-      <c r="DF8" s="232"/>
-      <c r="DG8" s="232"/>
-      <c r="DH8" s="233"/>
-      <c r="DI8" s="231" t="s">
+      <c r="DE8" s="219"/>
+      <c r="DF8" s="219"/>
+      <c r="DG8" s="219"/>
+      <c r="DH8" s="220"/>
+      <c r="DI8" s="218" t="s">
         <v>183</v>
       </c>
-      <c r="DJ8" s="232"/>
-      <c r="DK8" s="232"/>
-      <c r="DL8" s="232"/>
-      <c r="DM8" s="233"/>
-      <c r="DN8" s="231" t="s">
+      <c r="DJ8" s="219"/>
+      <c r="DK8" s="219"/>
+      <c r="DL8" s="219"/>
+      <c r="DM8" s="220"/>
+      <c r="DN8" s="218" t="s">
         <v>184</v>
       </c>
-      <c r="DO8" s="232"/>
-      <c r="DP8" s="232"/>
-      <c r="DQ8" s="232"/>
-      <c r="DR8" s="233"/>
-      <c r="DS8" s="231" t="s">
+      <c r="DO8" s="219"/>
+      <c r="DP8" s="219"/>
+      <c r="DQ8" s="219"/>
+      <c r="DR8" s="220"/>
+      <c r="DS8" s="218" t="s">
         <v>185</v>
       </c>
-      <c r="DT8" s="232"/>
-      <c r="DU8" s="232"/>
-      <c r="DV8" s="232"/>
-      <c r="DW8" s="234"/>
+      <c r="DT8" s="219"/>
+      <c r="DU8" s="219"/>
+      <c r="DV8" s="219"/>
+      <c r="DW8" s="257"/>
     </row>
     <row r="9" spans="1:127" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="252"/>
-      <c r="B9" s="261"/>
-      <c r="C9" s="262"/>
-      <c r="D9" s="264"/>
-      <c r="E9" s="264"/>
+      <c r="A9" s="254"/>
+      <c r="B9" s="237"/>
+      <c r="C9" s="238"/>
+      <c r="D9" s="217"/>
+      <c r="E9" s="217"/>
       <c r="F9" s="12" t="s">
         <v>160</v>
       </c>
       <c r="G9" s="13">
         <v>41061</v>
       </c>
-      <c r="H9" s="257">
+      <c r="H9" s="233">
         <f>G9</f>
         <v>41061</v>
       </c>
-      <c r="I9" s="227"/>
+      <c r="I9" s="224"/>
       <c r="J9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="K9" s="228">
+      <c r="K9" s="225">
         <f>L10</f>
         <v>41065</v>
       </c>
-      <c r="L9" s="229"/>
-      <c r="M9" s="226">
+      <c r="L9" s="226"/>
+      <c r="M9" s="223">
         <f>M10</f>
         <v>41068</v>
       </c>
-      <c r="N9" s="227"/>
+      <c r="N9" s="224"/>
       <c r="O9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="P9" s="228">
+      <c r="P9" s="225">
         <f>Q10</f>
         <v>41072</v>
       </c>
-      <c r="Q9" s="229"/>
-      <c r="R9" s="226">
+      <c r="Q9" s="226"/>
+      <c r="R9" s="223">
         <f>R10</f>
         <v>41075</v>
       </c>
-      <c r="S9" s="227"/>
+      <c r="S9" s="224"/>
       <c r="T9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="U9" s="228">
+      <c r="U9" s="225">
         <f>V10</f>
         <v>41079</v>
       </c>
-      <c r="V9" s="229"/>
-      <c r="W9" s="226">
+      <c r="V9" s="226"/>
+      <c r="W9" s="223">
         <f>W10</f>
         <v>41082</v>
       </c>
-      <c r="X9" s="227"/>
+      <c r="X9" s="224"/>
       <c r="Y9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="Z9" s="228">
+      <c r="Z9" s="225">
         <f>AA10</f>
         <v>41086</v>
       </c>
-      <c r="AA9" s="229"/>
-      <c r="AB9" s="226">
+      <c r="AA9" s="226"/>
+      <c r="AB9" s="223">
         <f>AB10</f>
         <v>41089</v>
       </c>
-      <c r="AC9" s="227"/>
+      <c r="AC9" s="224"/>
       <c r="AD9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="AE9" s="228">
+      <c r="AE9" s="225">
         <f>AF10</f>
         <v>41093</v>
       </c>
-      <c r="AF9" s="229"/>
-      <c r="AG9" s="226">
+      <c r="AF9" s="226"/>
+      <c r="AG9" s="223">
         <f>AG10</f>
         <v>41096</v>
       </c>
-      <c r="AH9" s="227"/>
+      <c r="AH9" s="224"/>
       <c r="AI9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="AJ9" s="228">
+      <c r="AJ9" s="225">
         <f>AK10</f>
         <v>41100</v>
       </c>
-      <c r="AK9" s="229"/>
-      <c r="AL9" s="226">
+      <c r="AK9" s="226"/>
+      <c r="AL9" s="223">
         <f>AL10</f>
         <v>41103</v>
       </c>
-      <c r="AM9" s="227"/>
+      <c r="AM9" s="224"/>
       <c r="AN9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="AO9" s="228">
+      <c r="AO9" s="225">
         <f>AP10</f>
         <v>41107</v>
       </c>
-      <c r="AP9" s="229"/>
-      <c r="AQ9" s="226">
+      <c r="AP9" s="226"/>
+      <c r="AQ9" s="223">
         <f>AQ10</f>
         <v>41110</v>
       </c>
-      <c r="AR9" s="227"/>
+      <c r="AR9" s="224"/>
       <c r="AS9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="AT9" s="228">
+      <c r="AT9" s="225">
         <f>AU10</f>
         <v>41114</v>
       </c>
-      <c r="AU9" s="229"/>
-      <c r="AV9" s="226">
+      <c r="AU9" s="226"/>
+      <c r="AV9" s="223">
         <f>AV10</f>
         <v>41117</v>
       </c>
-      <c r="AW9" s="227"/>
+      <c r="AW9" s="224"/>
       <c r="AX9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="AY9" s="228">
+      <c r="AY9" s="225">
         <f>AZ10</f>
         <v>41121</v>
       </c>
-      <c r="AZ9" s="229"/>
-      <c r="BA9" s="226">
+      <c r="AZ9" s="226"/>
+      <c r="BA9" s="223">
         <f>BA10</f>
         <v>41124</v>
       </c>
-      <c r="BB9" s="227"/>
+      <c r="BB9" s="224"/>
       <c r="BC9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="BD9" s="228">
+      <c r="BD9" s="225">
         <f>BE10</f>
         <v>41128</v>
       </c>
-      <c r="BE9" s="229"/>
-      <c r="BF9" s="226">
+      <c r="BE9" s="226"/>
+      <c r="BF9" s="223">
         <f>BF10</f>
         <v>41131</v>
       </c>
-      <c r="BG9" s="227"/>
+      <c r="BG9" s="224"/>
       <c r="BH9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="BI9" s="228">
+      <c r="BI9" s="225">
         <f>BJ10</f>
         <v>41135</v>
       </c>
-      <c r="BJ9" s="229"/>
-      <c r="BK9" s="226">
+      <c r="BJ9" s="226"/>
+      <c r="BK9" s="223">
         <f>BK10</f>
         <v>41138</v>
       </c>
-      <c r="BL9" s="227"/>
+      <c r="BL9" s="224"/>
       <c r="BM9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="BN9" s="228">
+      <c r="BN9" s="225">
         <f>BO10</f>
         <v>41142</v>
       </c>
-      <c r="BO9" s="229"/>
-      <c r="BP9" s="226">
+      <c r="BO9" s="226"/>
+      <c r="BP9" s="223">
         <f>BP10</f>
         <v>41145</v>
       </c>
-      <c r="BQ9" s="227"/>
+      <c r="BQ9" s="224"/>
       <c r="BR9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="BS9" s="228">
+      <c r="BS9" s="225">
         <f>BT10</f>
         <v>41149</v>
       </c>
-      <c r="BT9" s="229"/>
-      <c r="BU9" s="226">
+      <c r="BT9" s="226"/>
+      <c r="BU9" s="223">
         <f>BU10</f>
         <v>41152</v>
       </c>
-      <c r="BV9" s="227"/>
+      <c r="BV9" s="224"/>
       <c r="BW9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="BX9" s="228">
+      <c r="BX9" s="225">
         <f>BY10</f>
         <v>41156</v>
       </c>
-      <c r="BY9" s="229"/>
-      <c r="BZ9" s="226">
+      <c r="BY9" s="226"/>
+      <c r="BZ9" s="223">
         <f>BZ10</f>
         <v>41159</v>
       </c>
-      <c r="CA9" s="227"/>
+      <c r="CA9" s="224"/>
       <c r="CB9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="CC9" s="228">
+      <c r="CC9" s="225">
         <f>CD10</f>
         <v>41163</v>
       </c>
-      <c r="CD9" s="229"/>
-      <c r="CE9" s="226">
+      <c r="CD9" s="226"/>
+      <c r="CE9" s="223">
         <f>CE10</f>
         <v>41166</v>
       </c>
-      <c r="CF9" s="227"/>
+      <c r="CF9" s="224"/>
       <c r="CG9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="CH9" s="228">
+      <c r="CH9" s="225">
         <f>CI10</f>
         <v>41170</v>
       </c>
-      <c r="CI9" s="229"/>
-      <c r="CJ9" s="226">
+      <c r="CI9" s="226"/>
+      <c r="CJ9" s="223">
         <f>CJ10</f>
         <v>41173</v>
       </c>
-      <c r="CK9" s="227"/>
+      <c r="CK9" s="224"/>
       <c r="CL9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="CM9" s="228">
+      <c r="CM9" s="225">
         <f>CN10</f>
         <v>41177</v>
       </c>
-      <c r="CN9" s="229"/>
-      <c r="CO9" s="226">
+      <c r="CN9" s="226"/>
+      <c r="CO9" s="223">
         <f>CO10</f>
         <v>41180</v>
       </c>
-      <c r="CP9" s="227"/>
+      <c r="CP9" s="224"/>
       <c r="CQ9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="CR9" s="228">
+      <c r="CR9" s="225">
         <f>CS10</f>
         <v>41184</v>
       </c>
-      <c r="CS9" s="229"/>
-      <c r="CT9" s="226">
+      <c r="CS9" s="226"/>
+      <c r="CT9" s="223">
         <f>CT10</f>
         <v>41187</v>
       </c>
-      <c r="CU9" s="227"/>
+      <c r="CU9" s="224"/>
       <c r="CV9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="CW9" s="228">
+      <c r="CW9" s="225">
         <f>CX10</f>
         <v>41191</v>
       </c>
-      <c r="CX9" s="229"/>
-      <c r="CY9" s="226">
+      <c r="CX9" s="226"/>
+      <c r="CY9" s="223">
         <f>CY10</f>
         <v>41194</v>
       </c>
-      <c r="CZ9" s="227"/>
+      <c r="CZ9" s="224"/>
       <c r="DA9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="DB9" s="228">
+      <c r="DB9" s="225">
         <f>DC10</f>
         <v>41198</v>
       </c>
-      <c r="DC9" s="229"/>
-      <c r="DD9" s="226">
+      <c r="DC9" s="226"/>
+      <c r="DD9" s="223">
         <f>DD10</f>
         <v>41201</v>
       </c>
-      <c r="DE9" s="227"/>
+      <c r="DE9" s="224"/>
       <c r="DF9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="DG9" s="228">
+      <c r="DG9" s="225">
         <f>DH10</f>
         <v>41205</v>
       </c>
-      <c r="DH9" s="229"/>
-      <c r="DI9" s="226">
+      <c r="DH9" s="226"/>
+      <c r="DI9" s="223">
         <f>DI10</f>
         <v>41208</v>
       </c>
-      <c r="DJ9" s="227"/>
+      <c r="DJ9" s="224"/>
       <c r="DK9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="DL9" s="228">
+      <c r="DL9" s="225">
         <f>DM10</f>
         <v>41212</v>
       </c>
-      <c r="DM9" s="229"/>
-      <c r="DN9" s="226">
+      <c r="DM9" s="226"/>
+      <c r="DN9" s="223">
         <f>DN10</f>
         <v>41215</v>
       </c>
-      <c r="DO9" s="227"/>
+      <c r="DO9" s="224"/>
       <c r="DP9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="DQ9" s="228">
+      <c r="DQ9" s="225">
         <f>DR10</f>
         <v>41219</v>
       </c>
-      <c r="DR9" s="229"/>
-      <c r="DS9" s="226">
+      <c r="DR9" s="226"/>
+      <c r="DS9" s="223">
         <f>DS10</f>
         <v>41222</v>
       </c>
-      <c r="DT9" s="227"/>
+      <c r="DT9" s="224"/>
       <c r="DU9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="DV9" s="228">
+      <c r="DV9" s="225">
         <f>DW10</f>
         <v>41226</v>
       </c>
-      <c r="DW9" s="230"/>
+      <c r="DW9" s="258"/>
     </row>
     <row r="10" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="253"/>
-      <c r="B10" s="261"/>
-      <c r="C10" s="262"/>
-      <c r="D10" s="264"/>
-      <c r="E10" s="264"/>
+      <c r="A10" s="255"/>
+      <c r="B10" s="237"/>
+      <c r="C10" s="238"/>
+      <c r="D10" s="217"/>
+      <c r="E10" s="217"/>
       <c r="F10" s="26" t="s">
         <v>48</v>
       </c>
@@ -12853,10 +12599,10 @@
       </c>
     </row>
     <row r="11" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A11" s="277" t="s">
+      <c r="A11" s="275" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="278" t="s">
+      <c r="B11" s="276" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -12994,8 +12740,8 @@
       <c r="DW11" s="55"/>
     </row>
     <row r="12" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A12" s="238"/>
-      <c r="B12" s="279"/>
+      <c r="A12" s="242"/>
+      <c r="B12" s="277"/>
       <c r="C12" s="14" t="s">
         <v>2</v>
       </c>
@@ -13131,8 +12877,8 @@
       <c r="DW12" s="60"/>
     </row>
     <row r="13" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A13" s="238"/>
-      <c r="B13" s="280"/>
+      <c r="A13" s="242"/>
+      <c r="B13" s="278"/>
       <c r="C13" s="20" t="s">
         <v>3</v>
       </c>
@@ -13268,8 +13014,8 @@
       <c r="DW13" s="65"/>
     </row>
     <row r="14" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A14" s="239"/>
-      <c r="B14" s="281" t="s">
+      <c r="A14" s="230"/>
+      <c r="B14" s="279" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="34" t="s">
@@ -13407,8 +13153,8 @@
       <c r="DW14" s="70"/>
     </row>
     <row r="15" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A15" s="239"/>
-      <c r="B15" s="280"/>
+      <c r="A15" s="230"/>
+      <c r="B15" s="278"/>
       <c r="C15" s="20" t="s">
         <v>20</v>
       </c>
@@ -13544,8 +13290,8 @@
       <c r="DW15" s="65"/>
     </row>
     <row r="16" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A16" s="239"/>
-      <c r="B16" s="281" t="s">
+      <c r="A16" s="230"/>
+      <c r="B16" s="279" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="34" t="s">
@@ -13685,8 +13431,8 @@
       <c r="DW16" s="70"/>
     </row>
     <row r="17" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A17" s="239"/>
-      <c r="B17" s="279"/>
+      <c r="A17" s="230"/>
+      <c r="B17" s="277"/>
       <c r="C17" s="18" t="s">
         <v>109</v>
       </c>
@@ -13824,8 +13570,8 @@
       <c r="DW17" s="75"/>
     </row>
     <row r="18" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A18" s="239"/>
-      <c r="B18" s="279"/>
+      <c r="A18" s="230"/>
+      <c r="B18" s="277"/>
       <c r="C18" s="18" t="s">
         <v>22</v>
       </c>
@@ -13961,8 +13707,8 @@
       <c r="DW18" s="75"/>
     </row>
     <row r="19" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A19" s="239"/>
-      <c r="B19" s="280"/>
+      <c r="A19" s="230"/>
+      <c r="B19" s="278"/>
       <c r="C19" s="20" t="s">
         <v>23</v>
       </c>
@@ -14098,8 +13844,8 @@
       <c r="DW19" s="65"/>
     </row>
     <row r="20" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A20" s="239"/>
-      <c r="B20" s="281" t="s">
+      <c r="A20" s="230"/>
+      <c r="B20" s="279" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="34" t="s">
@@ -14239,8 +13985,8 @@
       <c r="DW20" s="70"/>
     </row>
     <row r="21" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A21" s="239"/>
-      <c r="B21" s="279"/>
+      <c r="A21" s="230"/>
+      <c r="B21" s="277"/>
       <c r="C21" s="18" t="s">
         <v>26</v>
       </c>
@@ -14378,8 +14124,8 @@
       <c r="DW21" s="75"/>
     </row>
     <row r="22" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A22" s="239"/>
-      <c r="B22" s="280"/>
+      <c r="A22" s="230"/>
+      <c r="B22" s="278"/>
       <c r="C22" s="20" t="s">
         <v>27</v>
       </c>
@@ -14517,7 +14263,7 @@
       <c r="DW22" s="65"/>
     </row>
     <row r="23" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="265"/>
+      <c r="A23" s="267"/>
       <c r="B23" s="36" t="s">
         <v>28</v>
       </c>
@@ -14656,10 +14402,10 @@
       <c r="DW23" s="80"/>
     </row>
     <row r="24" spans="1:127" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="282" t="s">
+      <c r="A24" s="265" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="283" t="s">
+      <c r="B24" s="261" t="s">
         <v>144</v>
       </c>
       <c r="C24" s="32" t="s">
@@ -14668,7 +14414,7 @@
       <c r="D24" s="119" t="s">
         <v>188</v>
       </c>
-      <c r="E24" s="283" t="s">
+      <c r="E24" s="261" t="s">
         <v>152</v>
       </c>
       <c r="F24" s="138">
@@ -14799,15 +14545,15 @@
       <c r="DW24" s="85"/>
     </row>
     <row r="25" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A25" s="238"/>
-      <c r="B25" s="284"/>
+      <c r="A25" s="242"/>
+      <c r="B25" s="264"/>
       <c r="C25" s="14" t="s">
         <v>146</v>
       </c>
       <c r="D25" s="120" t="s">
         <v>188</v>
       </c>
-      <c r="E25" s="284"/>
+      <c r="E25" s="264"/>
       <c r="F25" s="16">
         <v>41061</v>
       </c>
@@ -14936,15 +14682,15 @@
       <c r="DW25" s="60"/>
     </row>
     <row r="26" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A26" s="238"/>
-      <c r="B26" s="285"/>
+      <c r="A26" s="242"/>
+      <c r="B26" s="262"/>
       <c r="C26" s="20" t="s">
         <v>147</v>
       </c>
       <c r="D26" s="115" t="s">
         <v>188</v>
       </c>
-      <c r="E26" s="285"/>
+      <c r="E26" s="262"/>
       <c r="F26" s="127">
         <v>41061</v>
       </c>
@@ -15073,8 +14819,8 @@
       <c r="DW26" s="65"/>
     </row>
     <row r="27" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A27" s="238"/>
-      <c r="B27" s="284" t="s">
+      <c r="A27" s="242"/>
+      <c r="B27" s="264" t="s">
         <v>148</v>
       </c>
       <c r="C27" s="24" t="s">
@@ -15083,7 +14829,7 @@
       <c r="D27" s="121" t="s">
         <v>188</v>
       </c>
-      <c r="E27" s="284" t="s">
+      <c r="E27" s="264" t="s">
         <v>153</v>
       </c>
       <c r="F27" s="140">
@@ -15214,15 +14960,15 @@
       <c r="DW27" s="90"/>
     </row>
     <row r="28" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A28" s="238"/>
-      <c r="B28" s="284"/>
+      <c r="A28" s="242"/>
+      <c r="B28" s="264"/>
       <c r="C28" s="14" t="s">
         <v>150</v>
       </c>
       <c r="D28" s="120" t="s">
         <v>188</v>
       </c>
-      <c r="E28" s="284"/>
+      <c r="E28" s="264"/>
       <c r="F28" s="16">
         <v>41061</v>
       </c>
@@ -15351,15 +15097,15 @@
       <c r="DW28" s="60"/>
     </row>
     <row r="29" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A29" s="238"/>
-      <c r="B29" s="284"/>
+      <c r="A29" s="242"/>
+      <c r="B29" s="264"/>
       <c r="C29" s="14" t="s">
         <v>151</v>
       </c>
       <c r="D29" s="120" t="s">
         <v>188</v>
       </c>
-      <c r="E29" s="284"/>
+      <c r="E29" s="264"/>
       <c r="F29" s="16">
         <v>41061</v>
       </c>
@@ -15488,15 +15234,15 @@
       <c r="DW29" s="60"/>
     </row>
     <row r="30" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="265"/>
-      <c r="B30" s="286"/>
+      <c r="A30" s="267"/>
+      <c r="B30" s="268"/>
       <c r="C30" s="30" t="s">
         <v>109</v>
       </c>
       <c r="D30" s="122" t="s">
         <v>188</v>
       </c>
-      <c r="E30" s="286"/>
+      <c r="E30" s="268"/>
       <c r="F30" s="142">
         <v>41061</v>
       </c>
@@ -15625,10 +15371,10 @@
       <c r="DW30" s="95"/>
     </row>
     <row r="31" spans="1:127" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="282" t="s">
+      <c r="A31" s="265" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="283" t="s">
+      <c r="B31" s="261" t="s">
         <v>55</v>
       </c>
       <c r="C31" s="32" t="s">
@@ -15766,8 +15512,8 @@
       <c r="DW31" s="85"/>
     </row>
     <row r="32" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A32" s="238"/>
-      <c r="B32" s="284"/>
+      <c r="A32" s="242"/>
+      <c r="B32" s="264"/>
       <c r="C32" s="14" t="s">
         <v>57</v>
       </c>
@@ -15903,8 +15649,8 @@
       <c r="DW32" s="60"/>
     </row>
     <row r="33" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A33" s="238"/>
-      <c r="B33" s="287" t="s">
+      <c r="A33" s="242"/>
+      <c r="B33" s="263" t="s">
         <v>58</v>
       </c>
       <c r="C33" s="22" t="s">
@@ -16044,8 +15790,8 @@
       <c r="DW33" s="100"/>
     </row>
     <row r="34" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A34" s="238"/>
-      <c r="B34" s="284"/>
+      <c r="A34" s="242"/>
+      <c r="B34" s="264"/>
       <c r="C34" s="14" t="s">
         <v>60</v>
       </c>
@@ -16183,8 +15929,8 @@
       <c r="DW34" s="60"/>
     </row>
     <row r="35" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A35" s="238"/>
-      <c r="B35" s="284"/>
+      <c r="A35" s="242"/>
+      <c r="B35" s="264"/>
       <c r="C35" s="14" t="s">
         <v>61</v>
       </c>
@@ -16322,8 +16068,8 @@
       <c r="DW35" s="60"/>
     </row>
     <row r="36" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A36" s="238"/>
-      <c r="B36" s="285"/>
+      <c r="A36" s="242"/>
+      <c r="B36" s="262"/>
       <c r="C36" s="20" t="s">
         <v>62</v>
       </c>
@@ -16461,7 +16207,7 @@
       <c r="DW36" s="65"/>
     </row>
     <row r="37" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A37" s="238"/>
+      <c r="A37" s="242"/>
       <c r="B37" s="39" t="s">
         <v>63</v>
       </c>
@@ -16602,8 +16348,8 @@
       <c r="DW37" s="105"/>
     </row>
     <row r="38" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A38" s="238"/>
-      <c r="B38" s="284" t="s">
+      <c r="A38" s="242"/>
+      <c r="B38" s="264" t="s">
         <v>65</v>
       </c>
       <c r="C38" s="24" t="s">
@@ -16743,8 +16489,8 @@
       <c r="DW38" s="90"/>
     </row>
     <row r="39" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A39" s="238"/>
-      <c r="B39" s="284"/>
+      <c r="A39" s="242"/>
+      <c r="B39" s="264"/>
       <c r="C39" s="14" t="s">
         <v>67</v>
       </c>
@@ -16882,8 +16628,8 @@
       <c r="DW39" s="60"/>
     </row>
     <row r="40" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A40" s="238"/>
-      <c r="B40" s="284"/>
+      <c r="A40" s="242"/>
+      <c r="B40" s="264"/>
       <c r="C40" s="14" t="s">
         <v>65</v>
       </c>
@@ -17021,8 +16767,8 @@
       <c r="DW40" s="60"/>
     </row>
     <row r="41" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A41" s="238"/>
-      <c r="B41" s="285"/>
+      <c r="A41" s="242"/>
+      <c r="B41" s="262"/>
       <c r="C41" s="20" t="s">
         <v>68</v>
       </c>
@@ -17158,8 +16904,8 @@
       <c r="DW41" s="65"/>
     </row>
     <row r="42" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A42" s="238"/>
-      <c r="B42" s="287" t="s">
+      <c r="A42" s="242"/>
+      <c r="B42" s="263" t="s">
         <v>69</v>
       </c>
       <c r="C42" s="22" t="s">
@@ -17299,8 +17045,8 @@
       <c r="DW42" s="90"/>
     </row>
     <row r="43" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A43" s="238"/>
-      <c r="B43" s="285"/>
+      <c r="A43" s="242"/>
+      <c r="B43" s="262"/>
       <c r="C43" s="20" t="s">
         <v>68</v>
       </c>
@@ -17436,7 +17182,7 @@
       <c r="DW43" s="65"/>
     </row>
     <row r="44" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A44" s="238"/>
+      <c r="A44" s="242"/>
       <c r="B44" s="41" t="s">
         <v>71</v>
       </c>
@@ -17577,8 +17323,8 @@
       <c r="DW44" s="109"/>
     </row>
     <row r="45" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A45" s="238"/>
-      <c r="B45" s="287" t="s">
+      <c r="A45" s="242"/>
+      <c r="B45" s="263" t="s">
         <v>73</v>
       </c>
       <c r="C45" s="22" t="s">
@@ -17716,8 +17462,8 @@
       <c r="DW45" s="100"/>
     </row>
     <row r="46" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A46" s="238"/>
-      <c r="B46" s="284"/>
+      <c r="A46" s="242"/>
+      <c r="B46" s="264"/>
       <c r="C46" s="14" t="s">
         <v>75</v>
       </c>
@@ -17855,8 +17601,8 @@
       <c r="DW46" s="60"/>
     </row>
     <row r="47" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A47" s="238"/>
-      <c r="B47" s="284"/>
+      <c r="A47" s="242"/>
+      <c r="B47" s="264"/>
       <c r="C47" s="14" t="s">
         <v>154</v>
       </c>
@@ -17994,8 +17740,8 @@
       <c r="DW47" s="60"/>
     </row>
     <row r="48" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A48" s="238"/>
-      <c r="B48" s="284"/>
+      <c r="A48" s="242"/>
+      <c r="B48" s="264"/>
       <c r="C48" s="14" t="s">
         <v>155</v>
       </c>
@@ -18133,8 +17879,8 @@
       <c r="DW48" s="60"/>
     </row>
     <row r="49" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A49" s="238"/>
-      <c r="B49" s="284"/>
+      <c r="A49" s="242"/>
+      <c r="B49" s="264"/>
       <c r="C49" s="14" t="s">
         <v>76</v>
       </c>
@@ -18270,8 +18016,8 @@
       <c r="DW49" s="60"/>
     </row>
     <row r="50" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A50" s="238"/>
-      <c r="B50" s="284"/>
+      <c r="A50" s="242"/>
+      <c r="B50" s="264"/>
       <c r="C50" s="14" t="s">
         <v>109</v>
       </c>
@@ -18407,8 +18153,8 @@
       <c r="DW50" s="60"/>
     </row>
     <row r="51" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A51" s="238"/>
-      <c r="B51" s="284"/>
+      <c r="A51" s="242"/>
+      <c r="B51" s="264"/>
       <c r="C51" s="14" t="s">
         <v>68</v>
       </c>
@@ -18544,8 +18290,8 @@
       <c r="DW51" s="60"/>
     </row>
     <row r="52" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A52" s="238"/>
-      <c r="B52" s="285"/>
+      <c r="A52" s="242"/>
+      <c r="B52" s="262"/>
       <c r="C52" s="20" t="s">
         <v>77</v>
       </c>
@@ -18681,8 +18427,8 @@
       <c r="DW52" s="65"/>
     </row>
     <row r="53" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A53" s="238"/>
-      <c r="B53" s="287" t="s">
+      <c r="A53" s="242"/>
+      <c r="B53" s="263" t="s">
         <v>78</v>
       </c>
       <c r="C53" s="22" t="s">
@@ -18822,8 +18568,8 @@
       <c r="DW53" s="100"/>
     </row>
     <row r="54" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A54" s="238"/>
-      <c r="B54" s="284"/>
+      <c r="A54" s="242"/>
+      <c r="B54" s="264"/>
       <c r="C54" s="14" t="s">
         <v>80</v>
       </c>
@@ -18959,8 +18705,8 @@
       <c r="DW54" s="60"/>
     </row>
     <row r="55" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A55" s="238"/>
-      <c r="B55" s="285"/>
+      <c r="A55" s="242"/>
+      <c r="B55" s="262"/>
       <c r="C55" s="20" t="s">
         <v>68</v>
       </c>
@@ -19096,8 +18842,8 @@
       <c r="DW55" s="65"/>
     </row>
     <row r="56" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A56" s="238"/>
-      <c r="B56" s="287" t="s">
+      <c r="A56" s="242"/>
+      <c r="B56" s="263" t="s">
         <v>81</v>
       </c>
       <c r="C56" s="22" t="s">
@@ -19237,8 +18983,8 @@
       <c r="DW56" s="100"/>
     </row>
     <row r="57" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A57" s="238"/>
-      <c r="B57" s="285"/>
+      <c r="A57" s="242"/>
+      <c r="B57" s="262"/>
       <c r="C57" s="20" t="s">
         <v>80</v>
       </c>
@@ -19374,7 +19120,7 @@
       <c r="DW57" s="65"/>
     </row>
     <row r="58" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A58" s="238"/>
+      <c r="A58" s="242"/>
       <c r="B58" s="39" t="s">
         <v>83</v>
       </c>
@@ -19515,8 +19261,8 @@
       <c r="DW58" s="105"/>
     </row>
     <row r="59" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A59" s="238"/>
-      <c r="B59" s="287" t="s">
+      <c r="A59" s="242"/>
+      <c r="B59" s="263" t="s">
         <v>85</v>
       </c>
       <c r="C59" s="22" t="s">
@@ -19525,7 +19271,7 @@
       <c r="D59" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="E59" s="293" t="s">
+      <c r="E59" s="273" t="s">
         <v>107</v>
       </c>
       <c r="F59" s="130">
@@ -19656,15 +19402,15 @@
       <c r="DW59" s="100"/>
     </row>
     <row r="60" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A60" s="238"/>
-      <c r="B60" s="284"/>
+      <c r="A60" s="242"/>
+      <c r="B60" s="264"/>
       <c r="C60" s="14" t="s">
         <v>87</v>
       </c>
       <c r="D60" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E60" s="291"/>
+      <c r="E60" s="271"/>
       <c r="F60" s="16">
         <v>41061</v>
       </c>
@@ -19793,15 +19539,15 @@
       <c r="DW60" s="60"/>
     </row>
     <row r="61" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A61" s="238"/>
-      <c r="B61" s="284"/>
+      <c r="A61" s="242"/>
+      <c r="B61" s="264"/>
       <c r="C61" s="14" t="s">
         <v>88</v>
       </c>
       <c r="D61" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E61" s="291"/>
+      <c r="E61" s="271"/>
       <c r="F61" s="16">
         <v>41061</v>
       </c>
@@ -19930,15 +19676,15 @@
       <c r="DW61" s="60"/>
     </row>
     <row r="62" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A62" s="238"/>
-      <c r="B62" s="284"/>
+      <c r="A62" s="242"/>
+      <c r="B62" s="264"/>
       <c r="C62" s="14" t="s">
         <v>89</v>
       </c>
       <c r="D62" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E62" s="291"/>
+      <c r="E62" s="271"/>
       <c r="F62" s="16">
         <v>41061</v>
       </c>
@@ -20067,15 +19813,15 @@
       <c r="DW62" s="60"/>
     </row>
     <row r="63" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A63" s="238"/>
-      <c r="B63" s="285"/>
+      <c r="A63" s="242"/>
+      <c r="B63" s="262"/>
       <c r="C63" s="20" t="s">
         <v>90</v>
       </c>
       <c r="D63" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="E63" s="294"/>
+      <c r="E63" s="274"/>
       <c r="F63" s="127">
         <v>41061</v>
       </c>
@@ -20204,8 +19950,8 @@
       <c r="DW63" s="65"/>
     </row>
     <row r="64" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A64" s="238"/>
-      <c r="B64" s="284" t="s">
+      <c r="A64" s="242"/>
+      <c r="B64" s="264" t="s">
         <v>91</v>
       </c>
       <c r="C64" s="24" t="s">
@@ -20214,7 +19960,7 @@
       <c r="D64" s="121" t="s">
         <v>188</v>
       </c>
-      <c r="E64" s="284" t="s">
+      <c r="E64" s="264" t="s">
         <v>108</v>
       </c>
       <c r="F64" s="140">
@@ -20345,15 +20091,15 @@
       <c r="DW64" s="90"/>
     </row>
     <row r="65" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="265"/>
-      <c r="B65" s="286"/>
+      <c r="A65" s="267"/>
+      <c r="B65" s="268"/>
       <c r="C65" s="30" t="s">
         <v>93</v>
       </c>
       <c r="D65" s="122" t="s">
         <v>188</v>
       </c>
-      <c r="E65" s="286"/>
+      <c r="E65" s="268"/>
       <c r="F65" s="142">
         <v>41061</v>
       </c>
@@ -20482,10 +20228,10 @@
       <c r="DW65" s="95"/>
     </row>
     <row r="66" spans="1:127" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="288" t="s">
+      <c r="A66" s="269" t="s">
         <v>30</v>
       </c>
-      <c r="B66" s="283" t="s">
+      <c r="B66" s="261" t="s">
         <v>31</v>
       </c>
       <c r="C66" s="32" t="s">
@@ -20494,7 +20240,7 @@
       <c r="D66" s="119" t="s">
         <v>189</v>
       </c>
-      <c r="E66" s="283" t="s">
+      <c r="E66" s="261" t="s">
         <v>130</v>
       </c>
       <c r="F66" s="138">
@@ -20625,15 +20371,15 @@
       <c r="DW66" s="85"/>
     </row>
     <row r="67" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A67" s="289"/>
-      <c r="B67" s="284"/>
+      <c r="A67" s="259"/>
+      <c r="B67" s="264"/>
       <c r="C67" s="14" t="s">
         <v>33</v>
       </c>
       <c r="D67" s="120" t="s">
         <v>189</v>
       </c>
-      <c r="E67" s="284"/>
+      <c r="E67" s="264"/>
       <c r="F67" s="16">
         <v>41061</v>
       </c>
@@ -20762,15 +20508,15 @@
       <c r="DW67" s="60"/>
     </row>
     <row r="68" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A68" s="289"/>
-      <c r="B68" s="284"/>
+      <c r="A68" s="259"/>
+      <c r="B68" s="264"/>
       <c r="C68" s="14" t="s">
         <v>34</v>
       </c>
       <c r="D68" s="120" t="s">
         <v>189</v>
       </c>
-      <c r="E68" s="284"/>
+      <c r="E68" s="264"/>
       <c r="F68" s="16">
         <v>41061</v>
       </c>
@@ -20899,15 +20645,15 @@
       <c r="DW68" s="60"/>
     </row>
     <row r="69" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A69" s="289"/>
-      <c r="B69" s="285"/>
+      <c r="A69" s="259"/>
+      <c r="B69" s="262"/>
       <c r="C69" s="20" t="s">
         <v>35</v>
       </c>
       <c r="D69" s="115" t="s">
         <v>189</v>
       </c>
-      <c r="E69" s="285"/>
+      <c r="E69" s="262"/>
       <c r="F69" s="127">
         <v>41061</v>
       </c>
@@ -21036,8 +20782,8 @@
       <c r="DW69" s="65"/>
     </row>
     <row r="70" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A70" s="289"/>
-      <c r="B70" s="287" t="s">
+      <c r="A70" s="259"/>
+      <c r="B70" s="263" t="s">
         <v>36</v>
       </c>
       <c r="C70" s="22" t="s">
@@ -21046,7 +20792,7 @@
       <c r="D70" s="123" t="s">
         <v>190</v>
       </c>
-      <c r="E70" s="287" t="s">
+      <c r="E70" s="263" t="s">
         <v>131</v>
       </c>
       <c r="F70" s="130">
@@ -21177,15 +20923,15 @@
       <c r="DW70" s="100"/>
     </row>
     <row r="71" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A71" s="289"/>
-      <c r="B71" s="284"/>
+      <c r="A71" s="259"/>
+      <c r="B71" s="264"/>
       <c r="C71" s="14" t="s">
         <v>38</v>
       </c>
       <c r="D71" s="120" t="s">
         <v>190</v>
       </c>
-      <c r="E71" s="284"/>
+      <c r="E71" s="264"/>
       <c r="F71" s="16">
         <v>41061</v>
       </c>
@@ -21314,15 +21060,15 @@
       <c r="DW71" s="60"/>
     </row>
     <row r="72" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A72" s="289"/>
-      <c r="B72" s="285"/>
+      <c r="A72" s="259"/>
+      <c r="B72" s="262"/>
       <c r="C72" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D72" s="115" t="s">
         <v>190</v>
       </c>
-      <c r="E72" s="285"/>
+      <c r="E72" s="262"/>
       <c r="F72" s="127">
         <v>41061</v>
       </c>
@@ -21451,8 +21197,8 @@
       <c r="DW72" s="65"/>
     </row>
     <row r="73" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A73" s="289"/>
-      <c r="B73" s="284" t="s">
+      <c r="A73" s="259"/>
+      <c r="B73" s="264" t="s">
         <v>40</v>
       </c>
       <c r="C73" s="24" t="s">
@@ -21461,7 +21207,7 @@
       <c r="D73" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="E73" s="291" t="s">
+      <c r="E73" s="271" t="s">
         <v>132</v>
       </c>
       <c r="F73" s="140">
@@ -21592,15 +21338,15 @@
       <c r="DW73" s="90"/>
     </row>
     <row r="74" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A74" s="289"/>
-      <c r="B74" s="284"/>
+      <c r="A74" s="259"/>
+      <c r="B74" s="264"/>
       <c r="C74" s="14" t="s">
         <v>42</v>
       </c>
       <c r="D74" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E74" s="291"/>
+      <c r="E74" s="271"/>
       <c r="F74" s="16">
         <v>41061</v>
       </c>
@@ -21729,15 +21475,15 @@
       <c r="DW74" s="60"/>
     </row>
     <row r="75" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A75" s="289"/>
-      <c r="B75" s="284"/>
+      <c r="A75" s="259"/>
+      <c r="B75" s="264"/>
       <c r="C75" s="14" t="s">
         <v>43</v>
       </c>
       <c r="D75" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E75" s="291"/>
+      <c r="E75" s="271"/>
       <c r="F75" s="16">
         <v>41061</v>
       </c>
@@ -21866,15 +21612,15 @@
       <c r="DW75" s="60"/>
     </row>
     <row r="76" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A76" s="289"/>
-      <c r="B76" s="284"/>
+      <c r="A76" s="259"/>
+      <c r="B76" s="264"/>
       <c r="C76" s="14" t="s">
         <v>44</v>
       </c>
       <c r="D76" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E76" s="291"/>
+      <c r="E76" s="271"/>
       <c r="F76" s="16">
         <v>41061</v>
       </c>
@@ -22003,15 +21749,15 @@
       <c r="DW76" s="60"/>
     </row>
     <row r="77" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="290"/>
-      <c r="B77" s="286"/>
+      <c r="A77" s="270"/>
+      <c r="B77" s="268"/>
       <c r="C77" s="30" t="s">
         <v>45</v>
       </c>
       <c r="D77" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="E77" s="292"/>
+      <c r="E77" s="272"/>
       <c r="F77" s="142">
         <v>41061</v>
       </c>
@@ -22140,10 +21886,10 @@
       <c r="DW77" s="95"/>
     </row>
     <row r="78" spans="1:127" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="282" t="s">
+      <c r="A78" s="265" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="283" t="s">
+      <c r="B78" s="261" t="s">
         <v>110</v>
       </c>
       <c r="C78" s="32" t="s">
@@ -22283,8 +22029,8 @@
       <c r="DW78" s="85"/>
     </row>
     <row r="79" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A79" s="296"/>
-      <c r="B79" s="284"/>
+      <c r="A79" s="266"/>
+      <c r="B79" s="264"/>
       <c r="C79" s="24" t="s">
         <v>112</v>
       </c>
@@ -22422,8 +22168,8 @@
       <c r="DW79" s="90"/>
     </row>
     <row r="80" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A80" s="296"/>
-      <c r="B80" s="285"/>
+      <c r="A80" s="266"/>
+      <c r="B80" s="262"/>
       <c r="C80" s="41" t="s">
         <v>109</v>
       </c>
@@ -22559,8 +22305,8 @@
       <c r="DW80" s="109"/>
     </row>
     <row r="81" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A81" s="296"/>
-      <c r="B81" s="287" t="s">
+      <c r="A81" s="266"/>
+      <c r="B81" s="263" t="s">
         <v>113</v>
       </c>
       <c r="C81" s="22" t="s">
@@ -22700,8 +22446,8 @@
       <c r="DW81" s="100"/>
     </row>
     <row r="82" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A82" s="296"/>
-      <c r="B82" s="284"/>
+      <c r="A82" s="266"/>
+      <c r="B82" s="264"/>
       <c r="C82" s="24" t="s">
         <v>115</v>
       </c>
@@ -22839,8 +22585,8 @@
       <c r="DW82" s="90"/>
     </row>
     <row r="83" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A83" s="238"/>
-      <c r="B83" s="285"/>
+      <c r="A83" s="242"/>
+      <c r="B83" s="262"/>
       <c r="C83" s="20" t="s">
         <v>116</v>
       </c>
@@ -22978,7 +22724,7 @@
       <c r="DW83" s="65"/>
     </row>
     <row r="84" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="265"/>
+      <c r="A84" s="267"/>
       <c r="B84" s="37" t="s">
         <v>117</v>
       </c>
@@ -23119,10 +22865,10 @@
       <c r="DW84" s="80"/>
     </row>
     <row r="85" spans="1:127" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="282" t="s">
+      <c r="A85" s="265" t="s">
         <v>9</v>
       </c>
-      <c r="B85" s="283" t="s">
+      <c r="B85" s="261" t="s">
         <v>119</v>
       </c>
       <c r="C85" s="32" t="s">
@@ -23260,8 +23006,8 @@
       <c r="DW85" s="85"/>
     </row>
     <row r="86" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A86" s="296"/>
-      <c r="B86" s="285"/>
+      <c r="A86" s="266"/>
+      <c r="B86" s="262"/>
       <c r="C86" s="41" t="s">
         <v>118</v>
       </c>
@@ -23397,8 +23143,8 @@
       <c r="DW86" s="109"/>
     </row>
     <row r="87" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A87" s="238"/>
-      <c r="B87" s="284" t="s">
+      <c r="A87" s="242"/>
+      <c r="B87" s="264" t="s">
         <v>120</v>
       </c>
       <c r="C87" s="24" t="s">
@@ -23536,8 +23282,8 @@
       <c r="DW87" s="90"/>
     </row>
     <row r="88" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="265"/>
-      <c r="B88" s="286"/>
+      <c r="A88" s="267"/>
+      <c r="B88" s="268"/>
       <c r="C88" s="30" t="s">
         <v>120</v>
       </c>
@@ -23673,10 +23419,10 @@
       <c r="DW88" s="95"/>
     </row>
     <row r="89" spans="1:127" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="289" t="s">
+      <c r="A89" s="259" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="283" t="s">
+      <c r="B89" s="261" t="s">
         <v>122</v>
       </c>
       <c r="C89" s="32" t="s">
@@ -23816,8 +23562,8 @@
       <c r="DW89" s="85"/>
     </row>
     <row r="90" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A90" s="289"/>
-      <c r="B90" s="285"/>
+      <c r="A90" s="259"/>
+      <c r="B90" s="262"/>
       <c r="C90" s="20" t="s">
         <v>124</v>
       </c>
@@ -23955,8 +23701,8 @@
       <c r="DW90" s="65"/>
     </row>
     <row r="91" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A91" s="289"/>
-      <c r="B91" s="287" t="s">
+      <c r="A91" s="259"/>
+      <c r="B91" s="263" t="s">
         <v>125</v>
       </c>
       <c r="C91" s="22" t="s">
@@ -24096,8 +23842,8 @@
       <c r="DW91" s="100"/>
     </row>
     <row r="92" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A92" s="289"/>
-      <c r="B92" s="284"/>
+      <c r="A92" s="259"/>
+      <c r="B92" s="264"/>
       <c r="C92" s="14" t="s">
         <v>127</v>
       </c>
@@ -24233,8 +23979,8 @@
       <c r="DW92" s="60"/>
     </row>
     <row r="93" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A93" s="289"/>
-      <c r="B93" s="284"/>
+      <c r="A93" s="259"/>
+      <c r="B93" s="264"/>
       <c r="C93" s="14" t="s">
         <v>128</v>
       </c>
@@ -24370,8 +24116,8 @@
       <c r="DW93" s="60"/>
     </row>
     <row r="94" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A94" s="289"/>
-      <c r="B94" s="285"/>
+      <c r="A94" s="259"/>
+      <c r="B94" s="262"/>
       <c r="C94" s="20" t="s">
         <v>129</v>
       </c>
@@ -24509,7 +24255,7 @@
       <c r="DW94" s="65"/>
     </row>
     <row r="95" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="295"/>
+      <c r="A95" s="260"/>
       <c r="B95" s="43" t="s">
         <v>92</v>
       </c>
@@ -24649,39 +24395,75 @@
     </row>
   </sheetData>
   <mergeCells count="126">
-    <mergeCell ref="A89:A95"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="A78:A84"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="A85:A88"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="A66:A77"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="E66:E69"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="E70:E72"/>
-    <mergeCell ref="B73:B77"/>
-    <mergeCell ref="E73:E77"/>
-    <mergeCell ref="B45:B52"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="E59:E63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="A31:A65"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="AB8:AF8"/>
+    <mergeCell ref="AG8:AK8"/>
+    <mergeCell ref="AL8:AP8"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="AL9:AM9"/>
+    <mergeCell ref="AO9:AP9"/>
+    <mergeCell ref="CY8:DC8"/>
+    <mergeCell ref="DD8:DH8"/>
+    <mergeCell ref="DI8:DM8"/>
+    <mergeCell ref="DN8:DR8"/>
+    <mergeCell ref="DS8:DW8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="BU8:BY8"/>
+    <mergeCell ref="BZ8:CD8"/>
+    <mergeCell ref="CE8:CI8"/>
+    <mergeCell ref="CJ8:CN8"/>
+    <mergeCell ref="CO8:CS8"/>
+    <mergeCell ref="CT8:CX8"/>
+    <mergeCell ref="AQ8:AU8"/>
+    <mergeCell ref="AV8:AZ8"/>
+    <mergeCell ref="BA8:BE8"/>
+    <mergeCell ref="BF8:BJ8"/>
+    <mergeCell ref="BK8:BO8"/>
+    <mergeCell ref="BP8:BT8"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="AQ9:AR9"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="BN9:BO9"/>
+    <mergeCell ref="BP9:BQ9"/>
+    <mergeCell ref="BS9:BT9"/>
+    <mergeCell ref="BU9:BV9"/>
+    <mergeCell ref="BX9:BY9"/>
+    <mergeCell ref="BZ9:CA9"/>
+    <mergeCell ref="AY9:AZ9"/>
+    <mergeCell ref="BA9:BB9"/>
+    <mergeCell ref="BD9:BE9"/>
+    <mergeCell ref="BF9:BG9"/>
+    <mergeCell ref="BI9:BJ9"/>
+    <mergeCell ref="BK9:BL9"/>
     <mergeCell ref="DV9:DW9"/>
     <mergeCell ref="A11:A23"/>
     <mergeCell ref="B11:B13"/>
@@ -24706,75 +24488,39 @@
     <mergeCell ref="CJ9:CK9"/>
     <mergeCell ref="CM9:CN9"/>
     <mergeCell ref="CO9:CP9"/>
-    <mergeCell ref="BN9:BO9"/>
-    <mergeCell ref="BP9:BQ9"/>
-    <mergeCell ref="BS9:BT9"/>
-    <mergeCell ref="BU9:BV9"/>
-    <mergeCell ref="BX9:BY9"/>
-    <mergeCell ref="BZ9:CA9"/>
-    <mergeCell ref="AY9:AZ9"/>
-    <mergeCell ref="BA9:BB9"/>
-    <mergeCell ref="BD9:BE9"/>
-    <mergeCell ref="BF9:BG9"/>
-    <mergeCell ref="BI9:BJ9"/>
-    <mergeCell ref="BK9:BL9"/>
-    <mergeCell ref="AQ9:AR9"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AV9:AW9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="CY8:DC8"/>
-    <mergeCell ref="DD8:DH8"/>
-    <mergeCell ref="DI8:DM8"/>
-    <mergeCell ref="DN8:DR8"/>
-    <mergeCell ref="DS8:DW8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="BU8:BY8"/>
-    <mergeCell ref="BZ8:CD8"/>
-    <mergeCell ref="CE8:CI8"/>
-    <mergeCell ref="CJ8:CN8"/>
-    <mergeCell ref="CO8:CS8"/>
-    <mergeCell ref="CT8:CX8"/>
-    <mergeCell ref="AQ8:AU8"/>
-    <mergeCell ref="AV8:AZ8"/>
-    <mergeCell ref="BA8:BE8"/>
-    <mergeCell ref="BF8:BJ8"/>
-    <mergeCell ref="BK8:BO8"/>
-    <mergeCell ref="BP8:BT8"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="R8:V8"/>
-    <mergeCell ref="AG8:AK8"/>
-    <mergeCell ref="AL8:AP8"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="AJ9:AK9"/>
-    <mergeCell ref="AL9:AM9"/>
-    <mergeCell ref="AO9:AP9"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="W8:AA8"/>
-    <mergeCell ref="AB8:AF8"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="A31:A65"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A66:A77"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="E66:E69"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="E70:E72"/>
+    <mergeCell ref="B73:B77"/>
+    <mergeCell ref="E73:E77"/>
+    <mergeCell ref="B45:B52"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="E59:E63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="A89:A95"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="A78:A84"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="B87:B88"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="H11:DW95">

--- a/~2022-10-31 1인프로젝트/설계서/프로젝트 일정 계획서_MVP-최동영.xlsx
+++ b/~2022-10-31 1인프로젝트/설계서/프로젝트 일정 계획서_MVP-최동영.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CHOIDONGYOUNG\Desktop\Work\~2022-10-31 1인프로젝트\설계서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587DC0B6-F725-4061-B204-44D8444D2810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92430850-C690-434A-823D-337C24A0D687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1122,7 +1122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="249">
   <si>
     <t>업무내용</t>
   </si>
@@ -1941,23 +1941,19 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>단위 테스트 시나리오 작성</t>
+    <t>산출물 목록 정의</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>단위 테스트</t>
+    <t>테스트 시나리오 작성</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>단위 테스트 시나리오</t>
+    <t>테스트 시나리오</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>단위 테스트 시나리오 결과서</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>산출물 목록 정의</t>
+    <t>테스트 시나리오 결과서</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4783,6 +4779,90 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="127" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4816,310 +4896,226 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="103" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="68" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="65" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="116" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="117" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="104" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="121" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="122" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="123" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="124" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="125" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="120" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="106" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="106" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="126" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="104" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="68" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="65" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="116" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="117" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="104" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="121" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="122" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="123" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="124" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="125" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="120" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="106" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="106" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="126" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="104" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="127" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6166,20 +6162,20 @@
     </row>
     <row r="6" spans="2:12" ht="9.9499999999999993" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I7" s="206" t="s">
+      <c r="I7" s="234" t="s">
         <v>231</v>
       </c>
-      <c r="J7" s="206"/>
-      <c r="K7" s="206"/>
-      <c r="L7" s="206"/>
+      <c r="J7" s="234"/>
+      <c r="K7" s="234"/>
+      <c r="L7" s="234"/>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I8" s="207">
+      <c r="I8" s="235">
         <v>44053</v>
       </c>
-      <c r="J8" s="207"/>
-      <c r="K8" s="207"/>
-      <c r="L8" s="207"/>
+      <c r="J8" s="235"/>
+      <c r="K8" s="235"/>
+      <c r="L8" s="235"/>
     </row>
     <row r="9" spans="2:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I9" s="159"/>
@@ -6188,10 +6184,10 @@
       <c r="L9" s="160"/>
     </row>
     <row r="10" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="208" t="s">
+      <c r="E10" s="236" t="s">
         <v>197</v>
       </c>
-      <c r="F10" s="209"/>
+      <c r="F10" s="237"/>
       <c r="G10" s="161" t="s">
         <v>198</v>
       </c>
@@ -6203,7 +6199,7 @@
       </c>
     </row>
     <row r="11" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="210" t="s">
+      <c r="E11" s="238" t="s">
         <v>218</v>
       </c>
       <c r="F11" s="162" t="s">
@@ -6218,7 +6214,7 @@
       </c>
     </row>
     <row r="12" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="211"/>
+      <c r="E12" s="239"/>
       <c r="F12" s="162" t="s">
         <v>202</v>
       </c>
@@ -6227,7 +6223,7 @@
       <c r="I12" s="164"/>
     </row>
     <row r="13" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E13" s="212"/>
+      <c r="E13" s="240"/>
       <c r="F13" s="162" t="s">
         <v>203</v>
       </c>
@@ -6238,53 +6234,53 @@
       <c r="I13" s="164"/>
     </row>
     <row r="14" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E14" s="213" t="s">
+      <c r="E14" s="241" t="s">
         <v>204</v>
       </c>
-      <c r="F14" s="214"/>
+      <c r="F14" s="242"/>
       <c r="G14" s="163"/>
       <c r="H14" s="163"/>
       <c r="I14" s="164"/>
     </row>
     <row r="15" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="213" t="s">
+      <c r="E15" s="241" t="s">
         <v>204</v>
       </c>
-      <c r="F15" s="214"/>
+      <c r="F15" s="242"/>
       <c r="G15" s="163"/>
       <c r="H15" s="163"/>
       <c r="I15" s="164"/>
     </row>
     <row r="16" spans="2:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="204" t="s">
+      <c r="B17" s="232" t="s">
         <v>205</v>
       </c>
-      <c r="C17" s="204"/>
-      <c r="D17" s="204"/>
-      <c r="E17" s="204"/>
-      <c r="F17" s="204"/>
-      <c r="G17" s="204"/>
-      <c r="H17" s="204"/>
-      <c r="I17" s="204"/>
-      <c r="J17" s="204"/>
-      <c r="K17" s="204"/>
-      <c r="L17" s="204"/>
+      <c r="C17" s="232"/>
+      <c r="D17" s="232"/>
+      <c r="E17" s="232"/>
+      <c r="F17" s="232"/>
+      <c r="G17" s="232"/>
+      <c r="H17" s="232"/>
+      <c r="I17" s="232"/>
+      <c r="J17" s="232"/>
+      <c r="K17" s="232"/>
+      <c r="L17" s="232"/>
     </row>
     <row r="18" spans="2:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="205" t="s">
+      <c r="B18" s="233" t="s">
         <v>206</v>
       </c>
-      <c r="C18" s="205"/>
-      <c r="D18" s="205"/>
-      <c r="E18" s="205"/>
-      <c r="F18" s="205"/>
-      <c r="G18" s="205"/>
-      <c r="H18" s="205"/>
-      <c r="I18" s="205"/>
-      <c r="J18" s="205"/>
-      <c r="K18" s="205"/>
-      <c r="L18" s="205"/>
+      <c r="C18" s="233"/>
+      <c r="D18" s="233"/>
+      <c r="E18" s="233"/>
+      <c r="F18" s="233"/>
+      <c r="G18" s="233"/>
+      <c r="H18" s="233"/>
+      <c r="I18" s="233"/>
+      <c r="J18" s="233"/>
+      <c r="K18" s="233"/>
+      <c r="L18" s="233"/>
     </row>
     <row r="19" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6556,7 +6552,7 @@
       <pane xSplit="7" ySplit="10" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="T19" sqref="T19"/>
+      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6572,19 +6568,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:127" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="215" t="s">
+      <c r="A1" s="287" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="215"/>
-      <c r="C1" s="215"/>
-      <c r="D1" s="215"/>
-      <c r="E1" s="215"/>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
-      <c r="H1" s="215"/>
-      <c r="I1" s="215"/>
-      <c r="J1" s="215"/>
-      <c r="K1" s="215"/>
+      <c r="B1" s="287"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
+      <c r="F1" s="287"/>
+      <c r="G1" s="287"/>
+      <c r="H1" s="287"/>
+      <c r="I1" s="287"/>
+      <c r="J1" s="287"/>
+      <c r="K1" s="287"/>
       <c r="L1" s="50"/>
       <c r="M1" s="50"/>
       <c r="N1" s="50"/>
@@ -6706,10 +6702,10 @@
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="221" t="s">
+      <c r="B2" s="288" t="s">
         <v>232</v>
       </c>
-      <c r="C2" s="221"/>
+      <c r="C2" s="288"/>
       <c r="D2" s="7"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -6837,8 +6833,8 @@
     </row>
     <row r="3" spans="1:127" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
-      <c r="B3" s="221"/>
-      <c r="C3" s="221"/>
+      <c r="B3" s="288"/>
+      <c r="C3" s="288"/>
       <c r="D3" s="7"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -6968,10 +6964,10 @@
       <c r="A4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="222">
+      <c r="B4" s="289">
         <v>44840</v>
       </c>
-      <c r="C4" s="222"/>
+      <c r="C4" s="289"/>
       <c r="D4" s="7"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -7103,31 +7099,31 @@
       <c r="A5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="221" t="s">
+      <c r="B5" s="288" t="s">
         <v>228</v>
       </c>
-      <c r="C5" s="221"/>
+      <c r="C5" s="288"/>
       <c r="D5" s="7"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="227" t="s">
+      <c r="I5" s="282" t="s">
         <v>243</v>
       </c>
-      <c r="J5" s="227"/>
-      <c r="K5" s="229" t="s">
+      <c r="J5" s="282"/>
+      <c r="K5" s="284" t="s">
         <v>196</v>
       </c>
-      <c r="L5" s="229"/>
-      <c r="M5" s="312"/>
-      <c r="N5" s="312"/>
-      <c r="O5" s="228"/>
-      <c r="P5" s="228"/>
-      <c r="Q5" s="228"/>
-      <c r="R5" s="228"/>
-      <c r="S5" s="228"/>
-      <c r="T5" s="228"/>
+      <c r="L5" s="284"/>
+      <c r="M5" s="285"/>
+      <c r="N5" s="285"/>
+      <c r="O5" s="283"/>
+      <c r="P5" s="283"/>
+      <c r="Q5" s="283"/>
+      <c r="R5" s="283"/>
+      <c r="S5" s="283"/>
+      <c r="T5" s="283"/>
       <c r="U5" s="150"/>
       <c r="V5" s="150"/>
       <c r="W5" s="50"/>
@@ -7495,523 +7491,523 @@
       <c r="DW7" s="8"/>
     </row>
     <row r="8" spans="1:127" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="253" t="s">
+      <c r="A8" s="266" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="235" t="s">
+      <c r="B8" s="276" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="236"/>
-      <c r="D8" s="216" t="s">
+      <c r="C8" s="277"/>
+      <c r="D8" s="280" t="s">
         <v>186</v>
       </c>
-      <c r="E8" s="216" t="s">
+      <c r="E8" s="280" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="231" t="s">
+      <c r="F8" s="290" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="232"/>
-      <c r="H8" s="234" t="s">
+      <c r="G8" s="291"/>
+      <c r="H8" s="286" t="s">
         <v>162</v>
       </c>
-      <c r="I8" s="219"/>
-      <c r="J8" s="219"/>
-      <c r="K8" s="219"/>
-      <c r="L8" s="220"/>
-      <c r="M8" s="218" t="s">
+      <c r="I8" s="246"/>
+      <c r="J8" s="246"/>
+      <c r="K8" s="246"/>
+      <c r="L8" s="247"/>
+      <c r="M8" s="245" t="s">
         <v>163</v>
       </c>
-      <c r="N8" s="219"/>
-      <c r="O8" s="219"/>
-      <c r="P8" s="219"/>
-      <c r="Q8" s="220"/>
-      <c r="R8" s="218" t="s">
+      <c r="N8" s="246"/>
+      <c r="O8" s="246"/>
+      <c r="P8" s="246"/>
+      <c r="Q8" s="247"/>
+      <c r="R8" s="245" t="s">
         <v>164</v>
       </c>
-      <c r="S8" s="219"/>
-      <c r="T8" s="219"/>
-      <c r="U8" s="219"/>
-      <c r="V8" s="220"/>
-      <c r="W8" s="218" t="s">
+      <c r="S8" s="246"/>
+      <c r="T8" s="246"/>
+      <c r="U8" s="246"/>
+      <c r="V8" s="247"/>
+      <c r="W8" s="245" t="s">
         <v>165</v>
       </c>
-      <c r="X8" s="219"/>
-      <c r="Y8" s="219"/>
-      <c r="Z8" s="219"/>
-      <c r="AA8" s="220"/>
-      <c r="AB8" s="218" t="s">
+      <c r="X8" s="246"/>
+      <c r="Y8" s="246"/>
+      <c r="Z8" s="246"/>
+      <c r="AA8" s="247"/>
+      <c r="AB8" s="245" t="s">
         <v>166</v>
       </c>
-      <c r="AC8" s="219"/>
-      <c r="AD8" s="219"/>
-      <c r="AE8" s="219"/>
-      <c r="AF8" s="220"/>
-      <c r="AG8" s="218" t="s">
+      <c r="AC8" s="246"/>
+      <c r="AD8" s="246"/>
+      <c r="AE8" s="246"/>
+      <c r="AF8" s="247"/>
+      <c r="AG8" s="245" t="s">
         <v>167</v>
       </c>
-      <c r="AH8" s="219"/>
-      <c r="AI8" s="219"/>
-      <c r="AJ8" s="219"/>
-      <c r="AK8" s="220"/>
-      <c r="AL8" s="218" t="s">
+      <c r="AH8" s="246"/>
+      <c r="AI8" s="246"/>
+      <c r="AJ8" s="246"/>
+      <c r="AK8" s="247"/>
+      <c r="AL8" s="245" t="s">
         <v>168</v>
       </c>
-      <c r="AM8" s="219"/>
-      <c r="AN8" s="219"/>
-      <c r="AO8" s="219"/>
-      <c r="AP8" s="220"/>
-      <c r="AQ8" s="218" t="s">
+      <c r="AM8" s="246"/>
+      <c r="AN8" s="246"/>
+      <c r="AO8" s="246"/>
+      <c r="AP8" s="247"/>
+      <c r="AQ8" s="245" t="s">
         <v>169</v>
       </c>
-      <c r="AR8" s="219"/>
-      <c r="AS8" s="219"/>
-      <c r="AT8" s="219"/>
-      <c r="AU8" s="220"/>
-      <c r="AV8" s="218" t="s">
+      <c r="AR8" s="246"/>
+      <c r="AS8" s="246"/>
+      <c r="AT8" s="246"/>
+      <c r="AU8" s="247"/>
+      <c r="AV8" s="245" t="s">
         <v>170</v>
       </c>
-      <c r="AW8" s="219"/>
-      <c r="AX8" s="219"/>
-      <c r="AY8" s="219"/>
-      <c r="AZ8" s="220"/>
-      <c r="BA8" s="218" t="s">
+      <c r="AW8" s="246"/>
+      <c r="AX8" s="246"/>
+      <c r="AY8" s="246"/>
+      <c r="AZ8" s="247"/>
+      <c r="BA8" s="245" t="s">
         <v>171</v>
       </c>
-      <c r="BB8" s="219"/>
-      <c r="BC8" s="219"/>
-      <c r="BD8" s="219"/>
-      <c r="BE8" s="220"/>
-      <c r="BF8" s="218" t="s">
+      <c r="BB8" s="246"/>
+      <c r="BC8" s="246"/>
+      <c r="BD8" s="246"/>
+      <c r="BE8" s="247"/>
+      <c r="BF8" s="245" t="s">
         <v>172</v>
       </c>
-      <c r="BG8" s="219"/>
-      <c r="BH8" s="219"/>
-      <c r="BI8" s="219"/>
-      <c r="BJ8" s="220"/>
-      <c r="BK8" s="218" t="s">
+      <c r="BG8" s="246"/>
+      <c r="BH8" s="246"/>
+      <c r="BI8" s="246"/>
+      <c r="BJ8" s="247"/>
+      <c r="BK8" s="245" t="s">
         <v>173</v>
       </c>
-      <c r="BL8" s="219"/>
-      <c r="BM8" s="219"/>
-      <c r="BN8" s="219"/>
-      <c r="BO8" s="220"/>
-      <c r="BP8" s="218" t="s">
+      <c r="BL8" s="246"/>
+      <c r="BM8" s="246"/>
+      <c r="BN8" s="246"/>
+      <c r="BO8" s="247"/>
+      <c r="BP8" s="245" t="s">
         <v>174</v>
       </c>
-      <c r="BQ8" s="219"/>
-      <c r="BR8" s="219"/>
-      <c r="BS8" s="219"/>
-      <c r="BT8" s="220"/>
-      <c r="BU8" s="218" t="s">
+      <c r="BQ8" s="246"/>
+      <c r="BR8" s="246"/>
+      <c r="BS8" s="246"/>
+      <c r="BT8" s="247"/>
+      <c r="BU8" s="245" t="s">
         <v>175</v>
       </c>
-      <c r="BV8" s="219"/>
-      <c r="BW8" s="219"/>
-      <c r="BX8" s="219"/>
-      <c r="BY8" s="220"/>
-      <c r="BZ8" s="218" t="s">
+      <c r="BV8" s="246"/>
+      <c r="BW8" s="246"/>
+      <c r="BX8" s="246"/>
+      <c r="BY8" s="247"/>
+      <c r="BZ8" s="245" t="s">
         <v>176</v>
       </c>
-      <c r="CA8" s="219"/>
-      <c r="CB8" s="219"/>
-      <c r="CC8" s="219"/>
-      <c r="CD8" s="220"/>
-      <c r="CE8" s="218" t="s">
+      <c r="CA8" s="246"/>
+      <c r="CB8" s="246"/>
+      <c r="CC8" s="246"/>
+      <c r="CD8" s="247"/>
+      <c r="CE8" s="245" t="s">
         <v>177</v>
       </c>
-      <c r="CF8" s="219"/>
-      <c r="CG8" s="219"/>
-      <c r="CH8" s="219"/>
-      <c r="CI8" s="220"/>
-      <c r="CJ8" s="218" t="s">
+      <c r="CF8" s="246"/>
+      <c r="CG8" s="246"/>
+      <c r="CH8" s="246"/>
+      <c r="CI8" s="247"/>
+      <c r="CJ8" s="245" t="s">
         <v>178</v>
       </c>
-      <c r="CK8" s="219"/>
-      <c r="CL8" s="219"/>
-      <c r="CM8" s="219"/>
-      <c r="CN8" s="220"/>
-      <c r="CO8" s="218" t="s">
+      <c r="CK8" s="246"/>
+      <c r="CL8" s="246"/>
+      <c r="CM8" s="246"/>
+      <c r="CN8" s="247"/>
+      <c r="CO8" s="245" t="s">
         <v>179</v>
       </c>
-      <c r="CP8" s="219"/>
-      <c r="CQ8" s="219"/>
-      <c r="CR8" s="219"/>
-      <c r="CS8" s="220"/>
-      <c r="CT8" s="218" t="s">
+      <c r="CP8" s="246"/>
+      <c r="CQ8" s="246"/>
+      <c r="CR8" s="246"/>
+      <c r="CS8" s="247"/>
+      <c r="CT8" s="245" t="s">
         <v>180</v>
       </c>
-      <c r="CU8" s="219"/>
-      <c r="CV8" s="219"/>
-      <c r="CW8" s="219"/>
-      <c r="CX8" s="220"/>
-      <c r="CY8" s="218" t="s">
+      <c r="CU8" s="246"/>
+      <c r="CV8" s="246"/>
+      <c r="CW8" s="246"/>
+      <c r="CX8" s="247"/>
+      <c r="CY8" s="245" t="s">
         <v>181</v>
       </c>
-      <c r="CZ8" s="219"/>
-      <c r="DA8" s="219"/>
-      <c r="DB8" s="219"/>
-      <c r="DC8" s="220"/>
-      <c r="DD8" s="218" t="s">
+      <c r="CZ8" s="246"/>
+      <c r="DA8" s="246"/>
+      <c r="DB8" s="246"/>
+      <c r="DC8" s="247"/>
+      <c r="DD8" s="245" t="s">
         <v>182</v>
       </c>
-      <c r="DE8" s="219"/>
-      <c r="DF8" s="219"/>
-      <c r="DG8" s="219"/>
-      <c r="DH8" s="220"/>
-      <c r="DI8" s="218" t="s">
+      <c r="DE8" s="246"/>
+      <c r="DF8" s="246"/>
+      <c r="DG8" s="246"/>
+      <c r="DH8" s="247"/>
+      <c r="DI8" s="245" t="s">
         <v>183</v>
       </c>
-      <c r="DJ8" s="219"/>
-      <c r="DK8" s="219"/>
-      <c r="DL8" s="219"/>
-      <c r="DM8" s="220"/>
-      <c r="DN8" s="218" t="s">
+      <c r="DJ8" s="246"/>
+      <c r="DK8" s="246"/>
+      <c r="DL8" s="246"/>
+      <c r="DM8" s="247"/>
+      <c r="DN8" s="245" t="s">
         <v>184</v>
       </c>
-      <c r="DO8" s="219"/>
-      <c r="DP8" s="219"/>
-      <c r="DQ8" s="219"/>
-      <c r="DR8" s="220"/>
-      <c r="DS8" s="218" t="s">
+      <c r="DO8" s="246"/>
+      <c r="DP8" s="246"/>
+      <c r="DQ8" s="246"/>
+      <c r="DR8" s="247"/>
+      <c r="DS8" s="245" t="s">
         <v>185</v>
       </c>
-      <c r="DT8" s="219"/>
-      <c r="DU8" s="219"/>
-      <c r="DV8" s="219"/>
-      <c r="DW8" s="257"/>
+      <c r="DT8" s="246"/>
+      <c r="DU8" s="246"/>
+      <c r="DV8" s="246"/>
+      <c r="DW8" s="250"/>
     </row>
     <row r="9" spans="1:127" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="254"/>
-      <c r="B9" s="237"/>
-      <c r="C9" s="238"/>
-      <c r="D9" s="217"/>
-      <c r="E9" s="217"/>
+      <c r="A9" s="267"/>
+      <c r="B9" s="278"/>
+      <c r="C9" s="279"/>
+      <c r="D9" s="281"/>
+      <c r="E9" s="281"/>
       <c r="F9" s="12" t="s">
         <v>160</v>
       </c>
       <c r="G9" s="13">
         <v>44823</v>
       </c>
-      <c r="H9" s="233">
+      <c r="H9" s="275">
         <f>G9</f>
         <v>44823</v>
       </c>
-      <c r="I9" s="224"/>
+      <c r="I9" s="244"/>
       <c r="J9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="K9" s="225">
+      <c r="K9" s="248">
         <f>L10</f>
         <v>44827</v>
       </c>
-      <c r="L9" s="226"/>
-      <c r="M9" s="223">
+      <c r="L9" s="249"/>
+      <c r="M9" s="243">
         <f>M10</f>
         <v>44830</v>
       </c>
-      <c r="N9" s="224"/>
+      <c r="N9" s="244"/>
       <c r="O9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="P9" s="225">
+      <c r="P9" s="248">
         <f>Q10</f>
         <v>44834</v>
       </c>
-      <c r="Q9" s="226"/>
-      <c r="R9" s="223">
+      <c r="Q9" s="249"/>
+      <c r="R9" s="243">
         <f>R10</f>
         <v>44837</v>
       </c>
-      <c r="S9" s="224"/>
+      <c r="S9" s="244"/>
       <c r="T9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="U9" s="225">
+      <c r="U9" s="248">
         <f>V10</f>
         <v>44841</v>
       </c>
-      <c r="V9" s="226"/>
-      <c r="W9" s="223">
+      <c r="V9" s="249"/>
+      <c r="W9" s="243">
         <f>W10</f>
         <v>44844</v>
       </c>
-      <c r="X9" s="224"/>
+      <c r="X9" s="244"/>
       <c r="Y9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="Z9" s="225">
+      <c r="Z9" s="248">
         <f>AA10</f>
         <v>44848</v>
       </c>
-      <c r="AA9" s="226"/>
-      <c r="AB9" s="223">
+      <c r="AA9" s="249"/>
+      <c r="AB9" s="243">
         <f>AB10</f>
         <v>44851</v>
       </c>
-      <c r="AC9" s="224"/>
+      <c r="AC9" s="244"/>
       <c r="AD9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="AE9" s="225">
+      <c r="AE9" s="248">
         <f>AF10</f>
         <v>44855</v>
       </c>
-      <c r="AF9" s="226"/>
-      <c r="AG9" s="223">
+      <c r="AF9" s="249"/>
+      <c r="AG9" s="243">
         <f>AG10</f>
         <v>44858</v>
       </c>
-      <c r="AH9" s="224"/>
+      <c r="AH9" s="244"/>
       <c r="AI9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="AJ9" s="225">
+      <c r="AJ9" s="248">
         <f>AK10</f>
         <v>44862</v>
       </c>
-      <c r="AK9" s="226"/>
-      <c r="AL9" s="223">
+      <c r="AK9" s="249"/>
+      <c r="AL9" s="243">
         <f>AL10</f>
         <v>44865</v>
       </c>
-      <c r="AM9" s="224"/>
+      <c r="AM9" s="244"/>
       <c r="AN9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="AO9" s="225">
+      <c r="AO9" s="248">
         <f>AP10</f>
         <v>44869</v>
       </c>
-      <c r="AP9" s="226"/>
-      <c r="AQ9" s="223">
+      <c r="AP9" s="249"/>
+      <c r="AQ9" s="243">
         <f>AQ10</f>
         <v>44872</v>
       </c>
-      <c r="AR9" s="224"/>
+      <c r="AR9" s="244"/>
       <c r="AS9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="AT9" s="225">
+      <c r="AT9" s="248">
         <f>AU10</f>
         <v>44876</v>
       </c>
-      <c r="AU9" s="226"/>
-      <c r="AV9" s="223">
+      <c r="AU9" s="249"/>
+      <c r="AV9" s="243">
         <f>AV10</f>
         <v>44879</v>
       </c>
-      <c r="AW9" s="224"/>
+      <c r="AW9" s="244"/>
       <c r="AX9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="AY9" s="225">
+      <c r="AY9" s="248">
         <f>AZ10</f>
         <v>44883</v>
       </c>
-      <c r="AZ9" s="226"/>
-      <c r="BA9" s="223">
+      <c r="AZ9" s="249"/>
+      <c r="BA9" s="243">
         <f>BA10</f>
         <v>44886</v>
       </c>
-      <c r="BB9" s="224"/>
+      <c r="BB9" s="244"/>
       <c r="BC9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="BD9" s="225">
+      <c r="BD9" s="248">
         <f>BE10</f>
         <v>44890</v>
       </c>
-      <c r="BE9" s="226"/>
-      <c r="BF9" s="223">
+      <c r="BE9" s="249"/>
+      <c r="BF9" s="243">
         <f>BF10</f>
         <v>44893</v>
       </c>
-      <c r="BG9" s="224"/>
+      <c r="BG9" s="244"/>
       <c r="BH9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="BI9" s="225">
+      <c r="BI9" s="248">
         <f>BJ10</f>
         <v>44897</v>
       </c>
-      <c r="BJ9" s="226"/>
-      <c r="BK9" s="223">
+      <c r="BJ9" s="249"/>
+      <c r="BK9" s="243">
         <f>BK10</f>
         <v>44900</v>
       </c>
-      <c r="BL9" s="224"/>
+      <c r="BL9" s="244"/>
       <c r="BM9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="BN9" s="225">
+      <c r="BN9" s="248">
         <f>BO10</f>
         <v>44904</v>
       </c>
-      <c r="BO9" s="226"/>
-      <c r="BP9" s="223">
+      <c r="BO9" s="249"/>
+      <c r="BP9" s="243">
         <f>BP10</f>
         <v>44907</v>
       </c>
-      <c r="BQ9" s="224"/>
+      <c r="BQ9" s="244"/>
       <c r="BR9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="BS9" s="225">
+      <c r="BS9" s="248">
         <f>BT10</f>
         <v>44911</v>
       </c>
-      <c r="BT9" s="226"/>
-      <c r="BU9" s="223">
+      <c r="BT9" s="249"/>
+      <c r="BU9" s="243">
         <f>BU10</f>
         <v>44914</v>
       </c>
-      <c r="BV9" s="224"/>
+      <c r="BV9" s="244"/>
       <c r="BW9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="BX9" s="225">
+      <c r="BX9" s="248">
         <f>BY10</f>
         <v>44918</v>
       </c>
-      <c r="BY9" s="226"/>
-      <c r="BZ9" s="223">
+      <c r="BY9" s="249"/>
+      <c r="BZ9" s="243">
         <f>BZ10</f>
         <v>44921</v>
       </c>
-      <c r="CA9" s="224"/>
+      <c r="CA9" s="244"/>
       <c r="CB9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="CC9" s="225">
+      <c r="CC9" s="248">
         <f>CD10</f>
         <v>44925</v>
       </c>
-      <c r="CD9" s="226"/>
-      <c r="CE9" s="223">
+      <c r="CD9" s="249"/>
+      <c r="CE9" s="243">
         <f>CE10</f>
         <v>44928</v>
       </c>
-      <c r="CF9" s="224"/>
+      <c r="CF9" s="244"/>
       <c r="CG9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="CH9" s="225">
+      <c r="CH9" s="248">
         <f>CI10</f>
         <v>44932</v>
       </c>
-      <c r="CI9" s="226"/>
-      <c r="CJ9" s="223">
+      <c r="CI9" s="249"/>
+      <c r="CJ9" s="243">
         <f>CJ10</f>
         <v>44935</v>
       </c>
-      <c r="CK9" s="224"/>
+      <c r="CK9" s="244"/>
       <c r="CL9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="CM9" s="225">
+      <c r="CM9" s="248">
         <f>CN10</f>
         <v>44939</v>
       </c>
-      <c r="CN9" s="226"/>
-      <c r="CO9" s="223">
+      <c r="CN9" s="249"/>
+      <c r="CO9" s="243">
         <f>CO10</f>
         <v>44942</v>
       </c>
-      <c r="CP9" s="224"/>
+      <c r="CP9" s="244"/>
       <c r="CQ9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="CR9" s="225">
+      <c r="CR9" s="248">
         <f>CS10</f>
         <v>44946</v>
       </c>
-      <c r="CS9" s="226"/>
-      <c r="CT9" s="223">
+      <c r="CS9" s="249"/>
+      <c r="CT9" s="243">
         <f>CT10</f>
         <v>44949</v>
       </c>
-      <c r="CU9" s="224"/>
+      <c r="CU9" s="244"/>
       <c r="CV9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="CW9" s="225">
+      <c r="CW9" s="248">
         <f>CX10</f>
         <v>44953</v>
       </c>
-      <c r="CX9" s="226"/>
-      <c r="CY9" s="223">
+      <c r="CX9" s="249"/>
+      <c r="CY9" s="243">
         <f>CY10</f>
         <v>44956</v>
       </c>
-      <c r="CZ9" s="224"/>
+      <c r="CZ9" s="244"/>
       <c r="DA9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="DB9" s="225">
+      <c r="DB9" s="248">
         <f>DC10</f>
         <v>44960</v>
       </c>
-      <c r="DC9" s="226"/>
-      <c r="DD9" s="223">
+      <c r="DC9" s="249"/>
+      <c r="DD9" s="243">
         <f>DD10</f>
         <v>44963</v>
       </c>
-      <c r="DE9" s="224"/>
+      <c r="DE9" s="244"/>
       <c r="DF9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="DG9" s="225">
+      <c r="DG9" s="248">
         <f>DH10</f>
         <v>44967</v>
       </c>
-      <c r="DH9" s="226"/>
-      <c r="DI9" s="223">
+      <c r="DH9" s="249"/>
+      <c r="DI9" s="243">
         <f>DI10</f>
         <v>44970</v>
       </c>
-      <c r="DJ9" s="224"/>
+      <c r="DJ9" s="244"/>
       <c r="DK9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="DL9" s="225">
+      <c r="DL9" s="248">
         <f>DM10</f>
         <v>44974</v>
       </c>
-      <c r="DM9" s="226"/>
-      <c r="DN9" s="223">
+      <c r="DM9" s="249"/>
+      <c r="DN9" s="243">
         <f>DN10</f>
         <v>44977</v>
       </c>
-      <c r="DO9" s="224"/>
+      <c r="DO9" s="244"/>
       <c r="DP9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="DQ9" s="225">
+      <c r="DQ9" s="248">
         <f>DR10</f>
         <v>44981</v>
       </c>
-      <c r="DR9" s="226"/>
-      <c r="DS9" s="223">
+      <c r="DR9" s="249"/>
+      <c r="DS9" s="243">
         <f>DS10</f>
         <v>44984</v>
       </c>
-      <c r="DT9" s="224"/>
+      <c r="DT9" s="244"/>
       <c r="DU9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="DV9" s="225">
+      <c r="DV9" s="248">
         <f>DW10</f>
         <v>44988</v>
       </c>
-      <c r="DW9" s="258"/>
+      <c r="DW9" s="251"/>
     </row>
     <row r="10" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A10" s="255"/>
-      <c r="B10" s="237"/>
-      <c r="C10" s="238"/>
-      <c r="D10" s="217"/>
-      <c r="E10" s="217"/>
+      <c r="A10" s="268"/>
+      <c r="B10" s="278"/>
+      <c r="C10" s="279"/>
+      <c r="D10" s="281"/>
+      <c r="E10" s="281"/>
       <c r="F10" s="26" t="s">
         <v>48</v>
       </c>
@@ -8500,16 +8496,16 @@
       </c>
     </row>
     <row r="11" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A11" s="230" t="s">
+      <c r="A11" s="270" t="s">
         <v>191</v>
       </c>
-      <c r="B11" s="256" t="s">
+      <c r="B11" s="269" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="187" t="s">
         <v>233</v>
       </c>
-      <c r="D11" s="250" t="s">
+      <c r="D11" s="263" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="187" t="s">
@@ -8521,16 +8517,16 @@
       <c r="G11" s="186">
         <v>44833</v>
       </c>
-      <c r="H11" s="291"/>
-      <c r="I11" s="292"/>
-      <c r="J11" s="292"/>
-      <c r="K11" s="292"/>
-      <c r="L11" s="310"/>
-      <c r="M11" s="311"/>
-      <c r="N11" s="310"/>
-      <c r="O11" s="311"/>
+      <c r="H11" s="271"/>
+      <c r="I11" s="272"/>
+      <c r="J11" s="272"/>
+      <c r="K11" s="272"/>
+      <c r="L11" s="273"/>
+      <c r="M11" s="274"/>
+      <c r="N11" s="273"/>
+      <c r="O11" s="274"/>
       <c r="P11" s="57"/>
-      <c r="Q11" s="287"/>
+      <c r="Q11" s="207"/>
       <c r="R11" s="99"/>
       <c r="S11" s="97"/>
       <c r="T11" s="97"/>
@@ -8540,7 +8536,7 @@
       <c r="X11" s="97"/>
       <c r="Y11" s="97"/>
       <c r="Z11" s="97"/>
-      <c r="AA11" s="304"/>
+      <c r="AA11" s="222"/>
       <c r="AB11" s="99"/>
       <c r="AC11" s="97"/>
       <c r="AD11" s="97"/>
@@ -8550,7 +8546,7 @@
       <c r="AH11" s="97"/>
       <c r="AI11" s="97"/>
       <c r="AJ11" s="97"/>
-      <c r="AK11" s="304"/>
+      <c r="AK11" s="222"/>
       <c r="AL11" s="99"/>
       <c r="AM11" s="190"/>
       <c r="AN11" s="97"/>
@@ -8643,12 +8639,12 @@
       <c r="DW11" s="5"/>
     </row>
     <row r="12" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A12" s="230"/>
-      <c r="B12" s="241"/>
+      <c r="A12" s="270"/>
+      <c r="B12" s="254"/>
       <c r="C12" s="187" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="251"/>
+      <c r="D12" s="264"/>
       <c r="E12" s="187" t="s">
         <v>53</v>
       </c>
@@ -8658,16 +8654,16 @@
       <c r="G12" s="186">
         <v>44833</v>
       </c>
-      <c r="H12" s="293"/>
+      <c r="H12" s="211"/>
       <c r="I12" s="57"/>
       <c r="J12" s="57"/>
       <c r="K12" s="57"/>
       <c r="L12" s="57"/>
-      <c r="M12" s="294"/>
-      <c r="N12" s="294"/>
-      <c r="O12" s="294"/>
+      <c r="M12" s="212"/>
+      <c r="N12" s="212"/>
+      <c r="O12" s="212"/>
       <c r="P12" s="57"/>
-      <c r="Q12" s="287"/>
+      <c r="Q12" s="207"/>
       <c r="R12" s="59"/>
       <c r="S12" s="57"/>
       <c r="T12" s="57"/>
@@ -8677,7 +8673,7 @@
       <c r="X12" s="57"/>
       <c r="Y12" s="57"/>
       <c r="Z12" s="57"/>
-      <c r="AA12" s="287"/>
+      <c r="AA12" s="207"/>
       <c r="AB12" s="59"/>
       <c r="AC12" s="57"/>
       <c r="AD12" s="57"/>
@@ -8687,7 +8683,7 @@
       <c r="AH12" s="57"/>
       <c r="AI12" s="57"/>
       <c r="AJ12" s="57"/>
-      <c r="AK12" s="287"/>
+      <c r="AK12" s="207"/>
       <c r="AL12" s="59"/>
       <c r="AM12" s="191"/>
       <c r="AN12" s="57"/>
@@ -8780,12 +8776,12 @@
       <c r="DW12" s="75"/>
     </row>
     <row r="13" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="230"/>
-      <c r="B13" s="241"/>
+      <c r="A13" s="270"/>
+      <c r="B13" s="254"/>
       <c r="C13" s="187" t="s">
-        <v>249</v>
-      </c>
-      <c r="D13" s="251"/>
+        <v>245</v>
+      </c>
+      <c r="D13" s="264"/>
       <c r="E13" s="187" t="s">
         <v>236</v>
       </c>
@@ -8799,22 +8795,22 @@
       <c r="I13" s="72"/>
       <c r="J13" s="72"/>
       <c r="K13" s="72"/>
-      <c r="L13" s="284"/>
+      <c r="L13" s="204"/>
       <c r="M13" s="74"/>
       <c r="N13" s="72"/>
       <c r="O13" s="72"/>
       <c r="P13" s="72"/>
-      <c r="Q13" s="284"/>
+      <c r="Q13" s="204"/>
       <c r="R13" s="74"/>
       <c r="S13" s="72"/>
-      <c r="T13" s="295"/>
+      <c r="T13" s="213"/>
       <c r="U13" s="72"/>
       <c r="V13" s="73"/>
       <c r="W13" s="203"/>
       <c r="X13" s="72"/>
       <c r="Y13" s="72"/>
       <c r="Z13" s="72"/>
-      <c r="AA13" s="284"/>
+      <c r="AA13" s="204"/>
       <c r="AB13" s="74"/>
       <c r="AC13" s="72"/>
       <c r="AD13" s="72"/>
@@ -8824,7 +8820,7 @@
       <c r="AH13" s="72"/>
       <c r="AI13" s="72"/>
       <c r="AJ13" s="72"/>
-      <c r="AK13" s="284"/>
+      <c r="AK13" s="204"/>
       <c r="AL13" s="64"/>
       <c r="AM13" s="203"/>
       <c r="AN13" s="72"/>
@@ -8917,16 +8913,16 @@
       <c r="DW13" s="65"/>
     </row>
     <row r="14" spans="1:127" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="242" t="s">
+      <c r="A14" s="255" t="s">
         <v>234</v>
       </c>
-      <c r="B14" s="248" t="s">
+      <c r="B14" s="261" t="s">
         <v>235</v>
       </c>
       <c r="C14" s="187" t="s">
         <v>242</v>
       </c>
-      <c r="D14" s="251"/>
+      <c r="D14" s="264"/>
       <c r="E14" s="187" t="s">
         <v>241</v>
       </c>
@@ -8940,22 +8936,22 @@
       <c r="I14" s="97"/>
       <c r="J14" s="97"/>
       <c r="K14" s="97"/>
-      <c r="L14" s="304"/>
+      <c r="L14" s="222"/>
       <c r="M14" s="99"/>
       <c r="N14" s="97"/>
-      <c r="O14" s="296"/>
-      <c r="P14" s="296"/>
-      <c r="Q14" s="305"/>
-      <c r="R14" s="308"/>
-      <c r="S14" s="296"/>
-      <c r="T14" s="297"/>
+      <c r="O14" s="214"/>
+      <c r="P14" s="214"/>
+      <c r="Q14" s="223"/>
+      <c r="R14" s="226"/>
+      <c r="S14" s="214"/>
+      <c r="T14" s="215"/>
       <c r="U14" s="97"/>
       <c r="V14" s="98"/>
       <c r="W14" s="190"/>
       <c r="X14" s="97"/>
       <c r="Y14" s="97"/>
       <c r="Z14" s="97"/>
-      <c r="AA14" s="304"/>
+      <c r="AA14" s="222"/>
       <c r="AB14" s="99"/>
       <c r="AC14" s="97"/>
       <c r="AD14" s="97"/>
@@ -8965,7 +8961,7 @@
       <c r="AH14" s="97"/>
       <c r="AI14" s="97"/>
       <c r="AJ14" s="97"/>
-      <c r="AK14" s="304"/>
+      <c r="AK14" s="222"/>
       <c r="AL14" s="89"/>
       <c r="AM14" s="190"/>
       <c r="AN14" s="97"/>
@@ -9058,12 +9054,12 @@
       <c r="DW14" s="60"/>
     </row>
     <row r="15" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A15" s="242"/>
-      <c r="B15" s="249"/>
+      <c r="A15" s="255"/>
+      <c r="B15" s="262"/>
       <c r="C15" s="187" t="s">
         <v>244</v>
       </c>
-      <c r="D15" s="251"/>
+      <c r="D15" s="264"/>
       <c r="E15" s="198" t="s">
         <v>244</v>
       </c>
@@ -9077,22 +9073,22 @@
       <c r="I15" s="57"/>
       <c r="J15" s="57"/>
       <c r="K15" s="57"/>
-      <c r="L15" s="287"/>
+      <c r="L15" s="207"/>
       <c r="M15" s="59"/>
       <c r="N15" s="57"/>
       <c r="O15" s="57"/>
       <c r="P15" s="57"/>
-      <c r="Q15" s="287"/>
+      <c r="Q15" s="207"/>
       <c r="R15" s="59"/>
       <c r="S15" s="57"/>
-      <c r="T15" s="294"/>
-      <c r="U15" s="294"/>
-      <c r="V15" s="301"/>
-      <c r="W15" s="306"/>
-      <c r="X15" s="298"/>
+      <c r="T15" s="212"/>
+      <c r="U15" s="212"/>
+      <c r="V15" s="219"/>
+      <c r="W15" s="224"/>
+      <c r="X15" s="216"/>
       <c r="Y15" s="57"/>
       <c r="Z15" s="57"/>
-      <c r="AA15" s="287"/>
+      <c r="AA15" s="207"/>
       <c r="AB15" s="59"/>
       <c r="AC15" s="57"/>
       <c r="AD15" s="57"/>
@@ -9102,7 +9098,7 @@
       <c r="AH15" s="57"/>
       <c r="AI15" s="57"/>
       <c r="AJ15" s="57"/>
-      <c r="AK15" s="287"/>
+      <c r="AK15" s="207"/>
       <c r="AL15" s="59"/>
       <c r="AM15" s="191"/>
       <c r="AN15" s="57"/>
@@ -9195,12 +9191,12 @@
       <c r="DW15" s="60"/>
     </row>
     <row r="16" spans="1:127" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="242"/>
-      <c r="B16" s="249"/>
+      <c r="A16" s="255"/>
+      <c r="B16" s="262"/>
       <c r="C16" s="187" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="251"/>
+      <c r="D16" s="264"/>
       <c r="E16" s="201" t="s">
         <v>240</v>
       </c>
@@ -9214,22 +9210,22 @@
       <c r="I16" s="62"/>
       <c r="J16" s="62"/>
       <c r="K16" s="62"/>
-      <c r="L16" s="285"/>
+      <c r="L16" s="205"/>
       <c r="M16" s="64"/>
       <c r="N16" s="62"/>
       <c r="O16" s="62"/>
       <c r="P16" s="62"/>
-      <c r="Q16" s="285"/>
+      <c r="Q16" s="205"/>
       <c r="R16" s="64"/>
       <c r="S16" s="62"/>
-      <c r="T16" s="290"/>
-      <c r="U16" s="290"/>
-      <c r="V16" s="302"/>
-      <c r="W16" s="307"/>
-      <c r="X16" s="290"/>
+      <c r="T16" s="210"/>
+      <c r="U16" s="210"/>
+      <c r="V16" s="220"/>
+      <c r="W16" s="225"/>
+      <c r="X16" s="210"/>
       <c r="Y16" s="62"/>
       <c r="Z16" s="62"/>
-      <c r="AA16" s="285"/>
+      <c r="AA16" s="205"/>
       <c r="AB16" s="64"/>
       <c r="AC16" s="62"/>
       <c r="AD16" s="62"/>
@@ -9239,7 +9235,7 @@
       <c r="AH16" s="62"/>
       <c r="AI16" s="62"/>
       <c r="AJ16" s="62"/>
-      <c r="AK16" s="285"/>
+      <c r="AK16" s="205"/>
       <c r="AL16" s="74"/>
       <c r="AM16" s="192"/>
       <c r="AN16" s="62"/>
@@ -9332,17 +9328,17 @@
       <c r="DW16" s="60"/>
     </row>
     <row r="17" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A17" s="246" t="s">
+      <c r="A17" s="259" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="241" t="s">
+      <c r="B17" s="254" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="187" t="s">
         <v>238</v>
       </c>
-      <c r="D17" s="251"/>
-      <c r="E17" s="241" t="s">
+      <c r="D17" s="264"/>
+      <c r="E17" s="254" t="s">
         <v>239</v>
       </c>
       <c r="F17" s="186">
@@ -9355,7 +9351,7 @@
       <c r="I17" s="97"/>
       <c r="J17" s="97"/>
       <c r="K17" s="97"/>
-      <c r="L17" s="304"/>
+      <c r="L17" s="222"/>
       <c r="M17" s="99"/>
       <c r="N17" s="87"/>
       <c r="O17" s="87"/>
@@ -9367,20 +9363,20 @@
       <c r="U17" s="97"/>
       <c r="V17" s="98"/>
       <c r="W17" s="99"/>
-      <c r="X17" s="296"/>
-      <c r="Y17" s="296"/>
-      <c r="Z17" s="296"/>
-      <c r="AA17" s="294"/>
-      <c r="AB17" s="294"/>
-      <c r="AC17" s="294"/>
-      <c r="AD17" s="294"/>
-      <c r="AE17" s="294"/>
+      <c r="X17" s="214"/>
+      <c r="Y17" s="214"/>
+      <c r="Z17" s="214"/>
+      <c r="AA17" s="212"/>
+      <c r="AB17" s="212"/>
+      <c r="AC17" s="212"/>
+      <c r="AD17" s="212"/>
+      <c r="AE17" s="212"/>
       <c r="AF17" s="98"/>
       <c r="AG17" s="99"/>
       <c r="AH17" s="97"/>
       <c r="AI17" s="97"/>
       <c r="AJ17" s="97"/>
-      <c r="AK17" s="304"/>
+      <c r="AK17" s="222"/>
       <c r="AL17" s="99"/>
       <c r="AM17" s="190"/>
       <c r="AN17" s="97"/>
@@ -9473,13 +9469,13 @@
       <c r="DW17" s="100"/>
     </row>
     <row r="18" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="247"/>
-      <c r="B18" s="241"/>
+      <c r="A18" s="260"/>
+      <c r="B18" s="254"/>
       <c r="C18" s="187" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="251"/>
-      <c r="E18" s="241"/>
+      <c r="D18" s="264"/>
+      <c r="E18" s="254"/>
       <c r="F18" s="186">
         <v>44845</v>
       </c>
@@ -9490,7 +9486,7 @@
       <c r="I18" s="57"/>
       <c r="J18" s="57"/>
       <c r="K18" s="57"/>
-      <c r="L18" s="287"/>
+      <c r="L18" s="207"/>
       <c r="M18" s="59"/>
       <c r="N18" s="57"/>
       <c r="O18" s="57"/>
@@ -9502,20 +9498,20 @@
       <c r="U18" s="57"/>
       <c r="V18" s="58"/>
       <c r="W18" s="59"/>
-      <c r="X18" s="294"/>
-      <c r="Y18" s="294"/>
-      <c r="Z18" s="294"/>
-      <c r="AA18" s="294"/>
-      <c r="AB18" s="294"/>
-      <c r="AC18" s="294"/>
-      <c r="AD18" s="294"/>
-      <c r="AE18" s="294"/>
+      <c r="X18" s="212"/>
+      <c r="Y18" s="212"/>
+      <c r="Z18" s="212"/>
+      <c r="AA18" s="212"/>
+      <c r="AB18" s="212"/>
+      <c r="AC18" s="212"/>
+      <c r="AD18" s="212"/>
+      <c r="AE18" s="212"/>
       <c r="AF18" s="58"/>
       <c r="AG18" s="59"/>
       <c r="AH18" s="57"/>
       <c r="AI18" s="57"/>
       <c r="AJ18" s="57"/>
-      <c r="AK18" s="287"/>
+      <c r="AK18" s="207"/>
       <c r="AL18" s="59"/>
       <c r="AM18" s="191"/>
       <c r="AN18" s="57"/>
@@ -9608,16 +9604,16 @@
       <c r="DW18" s="60"/>
     </row>
     <row r="19" spans="1:127" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="243" t="s">
+      <c r="A19" s="256" t="s">
         <v>227</v>
       </c>
       <c r="B19" s="202" t="s">
         <v>225</v>
       </c>
       <c r="C19" s="187" t="s">
-        <v>245</v>
-      </c>
-      <c r="D19" s="251"/>
+        <v>246</v>
+      </c>
+      <c r="D19" s="264"/>
       <c r="E19" s="187" t="s">
         <v>247</v>
       </c>
@@ -9631,7 +9627,7 @@
       <c r="I19" s="87"/>
       <c r="J19" s="87"/>
       <c r="K19" s="87"/>
-      <c r="L19" s="286"/>
+      <c r="L19" s="206"/>
       <c r="M19" s="89"/>
       <c r="N19" s="87"/>
       <c r="O19" s="87"/>
@@ -9656,7 +9652,7 @@
       <c r="AH19" s="57"/>
       <c r="AI19" s="57"/>
       <c r="AJ19" s="57"/>
-      <c r="AK19" s="287"/>
+      <c r="AK19" s="207"/>
       <c r="AL19" s="59"/>
       <c r="AM19" s="193"/>
       <c r="AN19" s="87"/>
@@ -9749,14 +9745,14 @@
       <c r="DW19" s="90"/>
     </row>
     <row r="20" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A20" s="244"/>
+      <c r="A20" s="257"/>
       <c r="B20" s="187" t="s">
         <v>226</v>
       </c>
       <c r="C20" s="187" t="s">
-        <v>246</v>
-      </c>
-      <c r="D20" s="251"/>
+        <v>226</v>
+      </c>
+      <c r="D20" s="264"/>
       <c r="E20" s="187" t="s">
         <v>248</v>
       </c>
@@ -9770,7 +9766,7 @@
       <c r="I20" s="87"/>
       <c r="J20" s="87"/>
       <c r="K20" s="87"/>
-      <c r="L20" s="286"/>
+      <c r="L20" s="206"/>
       <c r="M20" s="89"/>
       <c r="N20" s="87"/>
       <c r="O20" s="87"/>
@@ -9791,11 +9787,11 @@
       <c r="AD20" s="57"/>
       <c r="AE20" s="57"/>
       <c r="AF20" s="58"/>
-      <c r="AG20" s="300"/>
-      <c r="AH20" s="294"/>
-      <c r="AI20" s="294"/>
-      <c r="AJ20" s="294"/>
-      <c r="AK20" s="313"/>
+      <c r="AG20" s="218"/>
+      <c r="AH20" s="212"/>
+      <c r="AI20" s="212"/>
+      <c r="AJ20" s="212"/>
+      <c r="AK20" s="228"/>
       <c r="AL20" s="200"/>
       <c r="AM20" s="193"/>
       <c r="AN20" s="87"/>
@@ -9888,14 +9884,14 @@
       <c r="DW20" s="90"/>
     </row>
     <row r="21" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="245"/>
+      <c r="A21" s="258"/>
       <c r="B21" s="188" t="s">
         <v>117</v>
       </c>
       <c r="C21" s="188" t="s">
         <v>118</v>
       </c>
-      <c r="D21" s="251"/>
+      <c r="D21" s="264"/>
       <c r="E21" s="188"/>
       <c r="F21" s="186">
         <v>44858</v>
@@ -9907,7 +9903,7 @@
       <c r="I21" s="77"/>
       <c r="J21" s="77"/>
       <c r="K21" s="77"/>
-      <c r="L21" s="288"/>
+      <c r="L21" s="208"/>
       <c r="M21" s="79"/>
       <c r="N21" s="77"/>
       <c r="O21" s="77"/>
@@ -9928,11 +9924,11 @@
       <c r="AD21" s="62"/>
       <c r="AE21" s="62"/>
       <c r="AF21" s="63"/>
-      <c r="AG21" s="303"/>
-      <c r="AH21" s="290"/>
-      <c r="AI21" s="290"/>
-      <c r="AJ21" s="290"/>
-      <c r="AK21" s="314"/>
+      <c r="AG21" s="221"/>
+      <c r="AH21" s="210"/>
+      <c r="AI21" s="210"/>
+      <c r="AJ21" s="210"/>
+      <c r="AK21" s="229"/>
       <c r="AL21" s="199"/>
       <c r="AM21" s="194"/>
       <c r="AN21" s="77"/>
@@ -10025,7 +10021,7 @@
       <c r="DW21" s="80"/>
     </row>
     <row r="22" spans="1:127" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="239" t="s">
+      <c r="A22" s="252" t="s">
         <v>224</v>
       </c>
       <c r="B22" s="189" t="s">
@@ -10034,7 +10030,7 @@
       <c r="C22" s="189" t="s">
         <v>124</v>
       </c>
-      <c r="D22" s="251"/>
+      <c r="D22" s="264"/>
       <c r="E22" s="189" t="s">
         <v>140</v>
       </c>
@@ -10053,7 +10049,7 @@
       <c r="N22" s="62"/>
       <c r="O22" s="62"/>
       <c r="P22" s="62"/>
-      <c r="Q22" s="285"/>
+      <c r="Q22" s="205"/>
       <c r="R22" s="64"/>
       <c r="S22" s="62"/>
       <c r="T22" s="62"/>
@@ -10073,9 +10069,9 @@
       <c r="AH22" s="106"/>
       <c r="AI22" s="106"/>
       <c r="AJ22" s="106"/>
-      <c r="AK22" s="315"/>
+      <c r="AK22" s="230"/>
       <c r="AL22" s="108"/>
-      <c r="AM22" s="299"/>
+      <c r="AM22" s="217"/>
       <c r="AN22" s="62"/>
       <c r="AO22" s="62"/>
       <c r="AP22" s="63"/>
@@ -10166,12 +10162,12 @@
       <c r="DW22" s="65"/>
     </row>
     <row r="23" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="240"/>
+      <c r="A23" s="253"/>
       <c r="B23" s="196" t="s">
         <v>92</v>
       </c>
       <c r="C23" s="196"/>
-      <c r="D23" s="252"/>
+      <c r="D23" s="265"/>
       <c r="E23" s="196" t="s">
         <v>143</v>
       </c>
@@ -10190,7 +10186,7 @@
       <c r="N23" s="110"/>
       <c r="O23" s="110"/>
       <c r="P23" s="110"/>
-      <c r="Q23" s="289"/>
+      <c r="Q23" s="209"/>
       <c r="R23" s="112"/>
       <c r="S23" s="110"/>
       <c r="T23" s="110"/>
@@ -10210,12 +10206,12 @@
       <c r="AH23" s="110"/>
       <c r="AI23" s="110"/>
       <c r="AJ23" s="110"/>
-      <c r="AK23" s="289"/>
+      <c r="AK23" s="209"/>
       <c r="AL23" s="112"/>
-      <c r="AM23" s="316"/>
+      <c r="AM23" s="231"/>
       <c r="AN23" s="197"/>
       <c r="AO23" s="197"/>
-      <c r="AP23" s="309"/>
+      <c r="AP23" s="227"/>
       <c r="AQ23" s="112"/>
       <c r="AR23" s="110"/>
       <c r="AS23" s="110"/>
@@ -10304,20 +10300,60 @@
     </row>
   </sheetData>
   <mergeCells count="102">
-    <mergeCell ref="CY9:CZ9"/>
-    <mergeCell ref="BU8:BY8"/>
-    <mergeCell ref="BZ8:CD8"/>
-    <mergeCell ref="AL9:AM9"/>
-    <mergeCell ref="AO9:AP9"/>
-    <mergeCell ref="BS9:BT9"/>
-    <mergeCell ref="BU9:BV9"/>
-    <mergeCell ref="BX9:BY9"/>
-    <mergeCell ref="BD9:BE9"/>
-    <mergeCell ref="BF9:BG9"/>
-    <mergeCell ref="BI9:BJ9"/>
-    <mergeCell ref="BK9:BL9"/>
-    <mergeCell ref="BN9:BO9"/>
-    <mergeCell ref="BP9:BQ9"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="CC9:CD9"/>
+    <mergeCell ref="BK8:BO8"/>
+    <mergeCell ref="BP8:BT8"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="AQ9:AR9"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="B8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="AB8:AF8"/>
+    <mergeCell ref="AG8:AK8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="D11:D23"/>
+    <mergeCell ref="AL8:AP8"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B11:B13"/>
     <mergeCell ref="DN8:DR8"/>
     <mergeCell ref="DS8:DW8"/>
     <mergeCell ref="CO8:CS8"/>
@@ -10342,20 +10378,23 @@
     <mergeCell ref="CR9:CS9"/>
     <mergeCell ref="CT9:CU9"/>
     <mergeCell ref="CW9:CX9"/>
+    <mergeCell ref="CY9:CZ9"/>
+    <mergeCell ref="BU8:BY8"/>
+    <mergeCell ref="BZ8:CD8"/>
+    <mergeCell ref="AL9:AM9"/>
+    <mergeCell ref="AO9:AP9"/>
+    <mergeCell ref="BS9:BT9"/>
+    <mergeCell ref="BU9:BV9"/>
+    <mergeCell ref="BX9:BY9"/>
+    <mergeCell ref="BD9:BE9"/>
+    <mergeCell ref="BF9:BG9"/>
+    <mergeCell ref="BI9:BJ9"/>
+    <mergeCell ref="BK9:BL9"/>
+    <mergeCell ref="BN9:BO9"/>
+    <mergeCell ref="BP9:BQ9"/>
     <mergeCell ref="CE8:CI8"/>
     <mergeCell ref="CJ8:CN8"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="D11:D23"/>
-    <mergeCell ref="AL8:AP8"/>
     <mergeCell ref="AQ8:AU8"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B11:B13"/>
     <mergeCell ref="AV8:AZ8"/>
     <mergeCell ref="BA8:BE8"/>
     <mergeCell ref="BF8:BJ8"/>
@@ -10363,49 +10402,6 @@
     <mergeCell ref="AY9:AZ9"/>
     <mergeCell ref="BA9:BB9"/>
     <mergeCell ref="BZ9:CA9"/>
-    <mergeCell ref="CC9:CD9"/>
-    <mergeCell ref="BK8:BO8"/>
-    <mergeCell ref="BP8:BT8"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="AQ9:AR9"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AJ9:AK9"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="B8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="AB8:AF8"/>
-    <mergeCell ref="AG8:AK8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="R8:V8"/>
-    <mergeCell ref="W8:AA8"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="F8:G8"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="H13:L13 T12 P13:AK13 AM13:DW19 AL11:AL19 H14:AK19 H20:DW23">
@@ -10669,19 +10665,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:127" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="215" t="s">
+      <c r="A1" s="287" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="215"/>
-      <c r="C1" s="215"/>
-      <c r="D1" s="215"/>
-      <c r="E1" s="215"/>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
-      <c r="H1" s="215"/>
-      <c r="I1" s="215"/>
-      <c r="J1" s="215"/>
-      <c r="K1" s="215"/>
+      <c r="B1" s="287"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
+      <c r="F1" s="287"/>
+      <c r="G1" s="287"/>
+      <c r="H1" s="287"/>
+      <c r="I1" s="287"/>
+      <c r="J1" s="287"/>
+      <c r="K1" s="287"/>
       <c r="L1" s="50"/>
       <c r="M1" s="50"/>
       <c r="N1" s="50"/>
@@ -10803,8 +10799,8 @@
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="221"/>
-      <c r="C2" s="221"/>
+      <c r="B2" s="288"/>
+      <c r="C2" s="288"/>
       <c r="D2" s="7"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -10934,8 +10930,8 @@
       <c r="A3" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="B3" s="221"/>
-      <c r="C3" s="221"/>
+      <c r="B3" s="288"/>
+      <c r="C3" s="288"/>
       <c r="D3" s="7"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -11065,8 +11061,8 @@
       <c r="A4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="221"/>
-      <c r="C4" s="221"/>
+      <c r="B4" s="288"/>
+      <c r="C4" s="288"/>
       <c r="D4" s="7"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -11196,37 +11192,37 @@
       <c r="A5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="221"/>
-      <c r="C5" s="221"/>
+      <c r="B5" s="288"/>
+      <c r="C5" s="288"/>
       <c r="D5" s="7"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="227" t="s">
+      <c r="I5" s="282" t="s">
         <v>191</v>
       </c>
-      <c r="J5" s="227"/>
-      <c r="K5" s="283" t="s">
+      <c r="J5" s="282"/>
+      <c r="K5" s="292" t="s">
         <v>192</v>
       </c>
-      <c r="L5" s="283"/>
-      <c r="M5" s="280" t="s">
+      <c r="L5" s="292"/>
+      <c r="M5" s="293" t="s">
         <v>193</v>
       </c>
-      <c r="N5" s="280"/>
-      <c r="O5" s="281" t="s">
+      <c r="N5" s="293"/>
+      <c r="O5" s="294" t="s">
         <v>194</v>
       </c>
-      <c r="P5" s="281"/>
-      <c r="Q5" s="282" t="s">
+      <c r="P5" s="294"/>
+      <c r="Q5" s="295" t="s">
         <v>195</v>
       </c>
-      <c r="R5" s="282"/>
-      <c r="S5" s="229" t="s">
+      <c r="R5" s="295"/>
+      <c r="S5" s="284" t="s">
         <v>196</v>
       </c>
-      <c r="T5" s="229"/>
+      <c r="T5" s="284"/>
       <c r="U5" s="150"/>
       <c r="V5" s="150"/>
       <c r="W5" s="50"/>
@@ -11594,523 +11590,523 @@
       <c r="DW7" s="8"/>
     </row>
     <row r="8" spans="1:127" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="253" t="s">
+      <c r="A8" s="266" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="235" t="s">
+      <c r="B8" s="276" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="236"/>
-      <c r="D8" s="216" t="s">
+      <c r="C8" s="277"/>
+      <c r="D8" s="280" t="s">
         <v>186</v>
       </c>
-      <c r="E8" s="216" t="s">
+      <c r="E8" s="280" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="231" t="s">
+      <c r="F8" s="290" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="232"/>
-      <c r="H8" s="234" t="s">
+      <c r="G8" s="291"/>
+      <c r="H8" s="286" t="s">
         <v>162</v>
       </c>
-      <c r="I8" s="219"/>
-      <c r="J8" s="219"/>
-      <c r="K8" s="219"/>
-      <c r="L8" s="220"/>
-      <c r="M8" s="218" t="s">
+      <c r="I8" s="246"/>
+      <c r="J8" s="246"/>
+      <c r="K8" s="246"/>
+      <c r="L8" s="247"/>
+      <c r="M8" s="245" t="s">
         <v>163</v>
       </c>
-      <c r="N8" s="219"/>
-      <c r="O8" s="219"/>
-      <c r="P8" s="219"/>
-      <c r="Q8" s="220"/>
-      <c r="R8" s="218" t="s">
+      <c r="N8" s="246"/>
+      <c r="O8" s="246"/>
+      <c r="P8" s="246"/>
+      <c r="Q8" s="247"/>
+      <c r="R8" s="245" t="s">
         <v>164</v>
       </c>
-      <c r="S8" s="219"/>
-      <c r="T8" s="219"/>
-      <c r="U8" s="219"/>
-      <c r="V8" s="220"/>
-      <c r="W8" s="218" t="s">
+      <c r="S8" s="246"/>
+      <c r="T8" s="246"/>
+      <c r="U8" s="246"/>
+      <c r="V8" s="247"/>
+      <c r="W8" s="245" t="s">
         <v>165</v>
       </c>
-      <c r="X8" s="219"/>
-      <c r="Y8" s="219"/>
-      <c r="Z8" s="219"/>
-      <c r="AA8" s="220"/>
-      <c r="AB8" s="218" t="s">
+      <c r="X8" s="246"/>
+      <c r="Y8" s="246"/>
+      <c r="Z8" s="246"/>
+      <c r="AA8" s="247"/>
+      <c r="AB8" s="245" t="s">
         <v>166</v>
       </c>
-      <c r="AC8" s="219"/>
-      <c r="AD8" s="219"/>
-      <c r="AE8" s="219"/>
-      <c r="AF8" s="220"/>
-      <c r="AG8" s="218" t="s">
+      <c r="AC8" s="246"/>
+      <c r="AD8" s="246"/>
+      <c r="AE8" s="246"/>
+      <c r="AF8" s="247"/>
+      <c r="AG8" s="245" t="s">
         <v>167</v>
       </c>
-      <c r="AH8" s="219"/>
-      <c r="AI8" s="219"/>
-      <c r="AJ8" s="219"/>
-      <c r="AK8" s="220"/>
-      <c r="AL8" s="218" t="s">
+      <c r="AH8" s="246"/>
+      <c r="AI8" s="246"/>
+      <c r="AJ8" s="246"/>
+      <c r="AK8" s="247"/>
+      <c r="AL8" s="245" t="s">
         <v>168</v>
       </c>
-      <c r="AM8" s="219"/>
-      <c r="AN8" s="219"/>
-      <c r="AO8" s="219"/>
-      <c r="AP8" s="220"/>
-      <c r="AQ8" s="218" t="s">
+      <c r="AM8" s="246"/>
+      <c r="AN8" s="246"/>
+      <c r="AO8" s="246"/>
+      <c r="AP8" s="247"/>
+      <c r="AQ8" s="245" t="s">
         <v>169</v>
       </c>
-      <c r="AR8" s="219"/>
-      <c r="AS8" s="219"/>
-      <c r="AT8" s="219"/>
-      <c r="AU8" s="220"/>
-      <c r="AV8" s="218" t="s">
+      <c r="AR8" s="246"/>
+      <c r="AS8" s="246"/>
+      <c r="AT8" s="246"/>
+      <c r="AU8" s="247"/>
+      <c r="AV8" s="245" t="s">
         <v>170</v>
       </c>
-      <c r="AW8" s="219"/>
-      <c r="AX8" s="219"/>
-      <c r="AY8" s="219"/>
-      <c r="AZ8" s="220"/>
-      <c r="BA8" s="218" t="s">
+      <c r="AW8" s="246"/>
+      <c r="AX8" s="246"/>
+      <c r="AY8" s="246"/>
+      <c r="AZ8" s="247"/>
+      <c r="BA8" s="245" t="s">
         <v>171</v>
       </c>
-      <c r="BB8" s="219"/>
-      <c r="BC8" s="219"/>
-      <c r="BD8" s="219"/>
-      <c r="BE8" s="220"/>
-      <c r="BF8" s="218" t="s">
+      <c r="BB8" s="246"/>
+      <c r="BC8" s="246"/>
+      <c r="BD8" s="246"/>
+      <c r="BE8" s="247"/>
+      <c r="BF8" s="245" t="s">
         <v>172</v>
       </c>
-      <c r="BG8" s="219"/>
-      <c r="BH8" s="219"/>
-      <c r="BI8" s="219"/>
-      <c r="BJ8" s="220"/>
-      <c r="BK8" s="218" t="s">
+      <c r="BG8" s="246"/>
+      <c r="BH8" s="246"/>
+      <c r="BI8" s="246"/>
+      <c r="BJ8" s="247"/>
+      <c r="BK8" s="245" t="s">
         <v>173</v>
       </c>
-      <c r="BL8" s="219"/>
-      <c r="BM8" s="219"/>
-      <c r="BN8" s="219"/>
-      <c r="BO8" s="220"/>
-      <c r="BP8" s="218" t="s">
+      <c r="BL8" s="246"/>
+      <c r="BM8" s="246"/>
+      <c r="BN8" s="246"/>
+      <c r="BO8" s="247"/>
+      <c r="BP8" s="245" t="s">
         <v>174</v>
       </c>
-      <c r="BQ8" s="219"/>
-      <c r="BR8" s="219"/>
-      <c r="BS8" s="219"/>
-      <c r="BT8" s="220"/>
-      <c r="BU8" s="218" t="s">
+      <c r="BQ8" s="246"/>
+      <c r="BR8" s="246"/>
+      <c r="BS8" s="246"/>
+      <c r="BT8" s="247"/>
+      <c r="BU8" s="245" t="s">
         <v>175</v>
       </c>
-      <c r="BV8" s="219"/>
-      <c r="BW8" s="219"/>
-      <c r="BX8" s="219"/>
-      <c r="BY8" s="220"/>
-      <c r="BZ8" s="218" t="s">
+      <c r="BV8" s="246"/>
+      <c r="BW8" s="246"/>
+      <c r="BX8" s="246"/>
+      <c r="BY8" s="247"/>
+      <c r="BZ8" s="245" t="s">
         <v>176</v>
       </c>
-      <c r="CA8" s="219"/>
-      <c r="CB8" s="219"/>
-      <c r="CC8" s="219"/>
-      <c r="CD8" s="220"/>
-      <c r="CE8" s="218" t="s">
+      <c r="CA8" s="246"/>
+      <c r="CB8" s="246"/>
+      <c r="CC8" s="246"/>
+      <c r="CD8" s="247"/>
+      <c r="CE8" s="245" t="s">
         <v>177</v>
       </c>
-      <c r="CF8" s="219"/>
-      <c r="CG8" s="219"/>
-      <c r="CH8" s="219"/>
-      <c r="CI8" s="220"/>
-      <c r="CJ8" s="218" t="s">
+      <c r="CF8" s="246"/>
+      <c r="CG8" s="246"/>
+      <c r="CH8" s="246"/>
+      <c r="CI8" s="247"/>
+      <c r="CJ8" s="245" t="s">
         <v>178</v>
       </c>
-      <c r="CK8" s="219"/>
-      <c r="CL8" s="219"/>
-      <c r="CM8" s="219"/>
-      <c r="CN8" s="220"/>
-      <c r="CO8" s="218" t="s">
+      <c r="CK8" s="246"/>
+      <c r="CL8" s="246"/>
+      <c r="CM8" s="246"/>
+      <c r="CN8" s="247"/>
+      <c r="CO8" s="245" t="s">
         <v>179</v>
       </c>
-      <c r="CP8" s="219"/>
-      <c r="CQ8" s="219"/>
-      <c r="CR8" s="219"/>
-      <c r="CS8" s="220"/>
-      <c r="CT8" s="218" t="s">
+      <c r="CP8" s="246"/>
+      <c r="CQ8" s="246"/>
+      <c r="CR8" s="246"/>
+      <c r="CS8" s="247"/>
+      <c r="CT8" s="245" t="s">
         <v>180</v>
       </c>
-      <c r="CU8" s="219"/>
-      <c r="CV8" s="219"/>
-      <c r="CW8" s="219"/>
-      <c r="CX8" s="220"/>
-      <c r="CY8" s="218" t="s">
+      <c r="CU8" s="246"/>
+      <c r="CV8" s="246"/>
+      <c r="CW8" s="246"/>
+      <c r="CX8" s="247"/>
+      <c r="CY8" s="245" t="s">
         <v>181</v>
       </c>
-      <c r="CZ8" s="219"/>
-      <c r="DA8" s="219"/>
-      <c r="DB8" s="219"/>
-      <c r="DC8" s="220"/>
-      <c r="DD8" s="218" t="s">
+      <c r="CZ8" s="246"/>
+      <c r="DA8" s="246"/>
+      <c r="DB8" s="246"/>
+      <c r="DC8" s="247"/>
+      <c r="DD8" s="245" t="s">
         <v>182</v>
       </c>
-      <c r="DE8" s="219"/>
-      <c r="DF8" s="219"/>
-      <c r="DG8" s="219"/>
-      <c r="DH8" s="220"/>
-      <c r="DI8" s="218" t="s">
+      <c r="DE8" s="246"/>
+      <c r="DF8" s="246"/>
+      <c r="DG8" s="246"/>
+      <c r="DH8" s="247"/>
+      <c r="DI8" s="245" t="s">
         <v>183</v>
       </c>
-      <c r="DJ8" s="219"/>
-      <c r="DK8" s="219"/>
-      <c r="DL8" s="219"/>
-      <c r="DM8" s="220"/>
-      <c r="DN8" s="218" t="s">
+      <c r="DJ8" s="246"/>
+      <c r="DK8" s="246"/>
+      <c r="DL8" s="246"/>
+      <c r="DM8" s="247"/>
+      <c r="DN8" s="245" t="s">
         <v>184</v>
       </c>
-      <c r="DO8" s="219"/>
-      <c r="DP8" s="219"/>
-      <c r="DQ8" s="219"/>
-      <c r="DR8" s="220"/>
-      <c r="DS8" s="218" t="s">
+      <c r="DO8" s="246"/>
+      <c r="DP8" s="246"/>
+      <c r="DQ8" s="246"/>
+      <c r="DR8" s="247"/>
+      <c r="DS8" s="245" t="s">
         <v>185</v>
       </c>
-      <c r="DT8" s="219"/>
-      <c r="DU8" s="219"/>
-      <c r="DV8" s="219"/>
-      <c r="DW8" s="257"/>
+      <c r="DT8" s="246"/>
+      <c r="DU8" s="246"/>
+      <c r="DV8" s="246"/>
+      <c r="DW8" s="250"/>
     </row>
     <row r="9" spans="1:127" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="254"/>
-      <c r="B9" s="237"/>
-      <c r="C9" s="238"/>
-      <c r="D9" s="217"/>
-      <c r="E9" s="217"/>
+      <c r="A9" s="267"/>
+      <c r="B9" s="278"/>
+      <c r="C9" s="279"/>
+      <c r="D9" s="281"/>
+      <c r="E9" s="281"/>
       <c r="F9" s="12" t="s">
         <v>160</v>
       </c>
       <c r="G9" s="13">
         <v>41061</v>
       </c>
-      <c r="H9" s="233">
+      <c r="H9" s="275">
         <f>G9</f>
         <v>41061</v>
       </c>
-      <c r="I9" s="224"/>
+      <c r="I9" s="244"/>
       <c r="J9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="K9" s="225">
+      <c r="K9" s="248">
         <f>L10</f>
         <v>41065</v>
       </c>
-      <c r="L9" s="226"/>
-      <c r="M9" s="223">
+      <c r="L9" s="249"/>
+      <c r="M9" s="243">
         <f>M10</f>
         <v>41068</v>
       </c>
-      <c r="N9" s="224"/>
+      <c r="N9" s="244"/>
       <c r="O9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="P9" s="225">
+      <c r="P9" s="248">
         <f>Q10</f>
         <v>41072</v>
       </c>
-      <c r="Q9" s="226"/>
-      <c r="R9" s="223">
+      <c r="Q9" s="249"/>
+      <c r="R9" s="243">
         <f>R10</f>
         <v>41075</v>
       </c>
-      <c r="S9" s="224"/>
+      <c r="S9" s="244"/>
       <c r="T9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="U9" s="225">
+      <c r="U9" s="248">
         <f>V10</f>
         <v>41079</v>
       </c>
-      <c r="V9" s="226"/>
-      <c r="W9" s="223">
+      <c r="V9" s="249"/>
+      <c r="W9" s="243">
         <f>W10</f>
         <v>41082</v>
       </c>
-      <c r="X9" s="224"/>
+      <c r="X9" s="244"/>
       <c r="Y9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="Z9" s="225">
+      <c r="Z9" s="248">
         <f>AA10</f>
         <v>41086</v>
       </c>
-      <c r="AA9" s="226"/>
-      <c r="AB9" s="223">
+      <c r="AA9" s="249"/>
+      <c r="AB9" s="243">
         <f>AB10</f>
         <v>41089</v>
       </c>
-      <c r="AC9" s="224"/>
+      <c r="AC9" s="244"/>
       <c r="AD9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="AE9" s="225">
+      <c r="AE9" s="248">
         <f>AF10</f>
         <v>41093</v>
       </c>
-      <c r="AF9" s="226"/>
-      <c r="AG9" s="223">
+      <c r="AF9" s="249"/>
+      <c r="AG9" s="243">
         <f>AG10</f>
         <v>41096</v>
       </c>
-      <c r="AH9" s="224"/>
+      <c r="AH9" s="244"/>
       <c r="AI9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="AJ9" s="225">
+      <c r="AJ9" s="248">
         <f>AK10</f>
         <v>41100</v>
       </c>
-      <c r="AK9" s="226"/>
-      <c r="AL9" s="223">
+      <c r="AK9" s="249"/>
+      <c r="AL9" s="243">
         <f>AL10</f>
         <v>41103</v>
       </c>
-      <c r="AM9" s="224"/>
+      <c r="AM9" s="244"/>
       <c r="AN9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="AO9" s="225">
+      <c r="AO9" s="248">
         <f>AP10</f>
         <v>41107</v>
       </c>
-      <c r="AP9" s="226"/>
-      <c r="AQ9" s="223">
+      <c r="AP9" s="249"/>
+      <c r="AQ9" s="243">
         <f>AQ10</f>
         <v>41110</v>
       </c>
-      <c r="AR9" s="224"/>
+      <c r="AR9" s="244"/>
       <c r="AS9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="AT9" s="225">
+      <c r="AT9" s="248">
         <f>AU10</f>
         <v>41114</v>
       </c>
-      <c r="AU9" s="226"/>
-      <c r="AV9" s="223">
+      <c r="AU9" s="249"/>
+      <c r="AV9" s="243">
         <f>AV10</f>
         <v>41117</v>
       </c>
-      <c r="AW9" s="224"/>
+      <c r="AW9" s="244"/>
       <c r="AX9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="AY9" s="225">
+      <c r="AY9" s="248">
         <f>AZ10</f>
         <v>41121</v>
       </c>
-      <c r="AZ9" s="226"/>
-      <c r="BA9" s="223">
+      <c r="AZ9" s="249"/>
+      <c r="BA9" s="243">
         <f>BA10</f>
         <v>41124</v>
       </c>
-      <c r="BB9" s="224"/>
+      <c r="BB9" s="244"/>
       <c r="BC9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="BD9" s="225">
+      <c r="BD9" s="248">
         <f>BE10</f>
         <v>41128</v>
       </c>
-      <c r="BE9" s="226"/>
-      <c r="BF9" s="223">
+      <c r="BE9" s="249"/>
+      <c r="BF9" s="243">
         <f>BF10</f>
         <v>41131</v>
       </c>
-      <c r="BG9" s="224"/>
+      <c r="BG9" s="244"/>
       <c r="BH9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="BI9" s="225">
+      <c r="BI9" s="248">
         <f>BJ10</f>
         <v>41135</v>
       </c>
-      <c r="BJ9" s="226"/>
-      <c r="BK9" s="223">
+      <c r="BJ9" s="249"/>
+      <c r="BK9" s="243">
         <f>BK10</f>
         <v>41138</v>
       </c>
-      <c r="BL9" s="224"/>
+      <c r="BL9" s="244"/>
       <c r="BM9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="BN9" s="225">
+      <c r="BN9" s="248">
         <f>BO10</f>
         <v>41142</v>
       </c>
-      <c r="BO9" s="226"/>
-      <c r="BP9" s="223">
+      <c r="BO9" s="249"/>
+      <c r="BP9" s="243">
         <f>BP10</f>
         <v>41145</v>
       </c>
-      <c r="BQ9" s="224"/>
+      <c r="BQ9" s="244"/>
       <c r="BR9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="BS9" s="225">
+      <c r="BS9" s="248">
         <f>BT10</f>
         <v>41149</v>
       </c>
-      <c r="BT9" s="226"/>
-      <c r="BU9" s="223">
+      <c r="BT9" s="249"/>
+      <c r="BU9" s="243">
         <f>BU10</f>
         <v>41152</v>
       </c>
-      <c r="BV9" s="224"/>
+      <c r="BV9" s="244"/>
       <c r="BW9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="BX9" s="225">
+      <c r="BX9" s="248">
         <f>BY10</f>
         <v>41156</v>
       </c>
-      <c r="BY9" s="226"/>
-      <c r="BZ9" s="223">
+      <c r="BY9" s="249"/>
+      <c r="BZ9" s="243">
         <f>BZ10</f>
         <v>41159</v>
       </c>
-      <c r="CA9" s="224"/>
+      <c r="CA9" s="244"/>
       <c r="CB9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="CC9" s="225">
+      <c r="CC9" s="248">
         <f>CD10</f>
         <v>41163</v>
       </c>
-      <c r="CD9" s="226"/>
-      <c r="CE9" s="223">
+      <c r="CD9" s="249"/>
+      <c r="CE9" s="243">
         <f>CE10</f>
         <v>41166</v>
       </c>
-      <c r="CF9" s="224"/>
+      <c r="CF9" s="244"/>
       <c r="CG9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="CH9" s="225">
+      <c r="CH9" s="248">
         <f>CI10</f>
         <v>41170</v>
       </c>
-      <c r="CI9" s="226"/>
-      <c r="CJ9" s="223">
+      <c r="CI9" s="249"/>
+      <c r="CJ9" s="243">
         <f>CJ10</f>
         <v>41173</v>
       </c>
-      <c r="CK9" s="224"/>
+      <c r="CK9" s="244"/>
       <c r="CL9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="CM9" s="225">
+      <c r="CM9" s="248">
         <f>CN10</f>
         <v>41177</v>
       </c>
-      <c r="CN9" s="226"/>
-      <c r="CO9" s="223">
+      <c r="CN9" s="249"/>
+      <c r="CO9" s="243">
         <f>CO10</f>
         <v>41180</v>
       </c>
-      <c r="CP9" s="224"/>
+      <c r="CP9" s="244"/>
       <c r="CQ9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="CR9" s="225">
+      <c r="CR9" s="248">
         <f>CS10</f>
         <v>41184</v>
       </c>
-      <c r="CS9" s="226"/>
-      <c r="CT9" s="223">
+      <c r="CS9" s="249"/>
+      <c r="CT9" s="243">
         <f>CT10</f>
         <v>41187</v>
       </c>
-      <c r="CU9" s="224"/>
+      <c r="CU9" s="244"/>
       <c r="CV9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="CW9" s="225">
+      <c r="CW9" s="248">
         <f>CX10</f>
         <v>41191</v>
       </c>
-      <c r="CX9" s="226"/>
-      <c r="CY9" s="223">
+      <c r="CX9" s="249"/>
+      <c r="CY9" s="243">
         <f>CY10</f>
         <v>41194</v>
       </c>
-      <c r="CZ9" s="224"/>
+      <c r="CZ9" s="244"/>
       <c r="DA9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="DB9" s="225">
+      <c r="DB9" s="248">
         <f>DC10</f>
         <v>41198</v>
       </c>
-      <c r="DC9" s="226"/>
-      <c r="DD9" s="223">
+      <c r="DC9" s="249"/>
+      <c r="DD9" s="243">
         <f>DD10</f>
         <v>41201</v>
       </c>
-      <c r="DE9" s="224"/>
+      <c r="DE9" s="244"/>
       <c r="DF9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="DG9" s="225">
+      <c r="DG9" s="248">
         <f>DH10</f>
         <v>41205</v>
       </c>
-      <c r="DH9" s="226"/>
-      <c r="DI9" s="223">
+      <c r="DH9" s="249"/>
+      <c r="DI9" s="243">
         <f>DI10</f>
         <v>41208</v>
       </c>
-      <c r="DJ9" s="224"/>
+      <c r="DJ9" s="244"/>
       <c r="DK9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="DL9" s="225">
+      <c r="DL9" s="248">
         <f>DM10</f>
         <v>41212</v>
       </c>
-      <c r="DM9" s="226"/>
-      <c r="DN9" s="223">
+      <c r="DM9" s="249"/>
+      <c r="DN9" s="243">
         <f>DN10</f>
         <v>41215</v>
       </c>
-      <c r="DO9" s="224"/>
+      <c r="DO9" s="244"/>
       <c r="DP9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="DQ9" s="225">
+      <c r="DQ9" s="248">
         <f>DR10</f>
         <v>41219</v>
       </c>
-      <c r="DR9" s="226"/>
-      <c r="DS9" s="223">
+      <c r="DR9" s="249"/>
+      <c r="DS9" s="243">
         <f>DS10</f>
         <v>41222</v>
       </c>
-      <c r="DT9" s="224"/>
+      <c r="DT9" s="244"/>
       <c r="DU9" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="DV9" s="225">
+      <c r="DV9" s="248">
         <f>DW10</f>
         <v>41226</v>
       </c>
-      <c r="DW9" s="258"/>
+      <c r="DW9" s="251"/>
     </row>
     <row r="10" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="255"/>
-      <c r="B10" s="237"/>
-      <c r="C10" s="238"/>
-      <c r="D10" s="217"/>
-      <c r="E10" s="217"/>
+      <c r="A10" s="268"/>
+      <c r="B10" s="278"/>
+      <c r="C10" s="279"/>
+      <c r="D10" s="281"/>
+      <c r="E10" s="281"/>
       <c r="F10" s="26" t="s">
         <v>48</v>
       </c>
@@ -12599,10 +12595,10 @@
       </c>
     </row>
     <row r="11" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A11" s="275" t="s">
+      <c r="A11" s="296" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="276" t="s">
+      <c r="B11" s="298" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -12740,8 +12736,8 @@
       <c r="DW11" s="55"/>
     </row>
     <row r="12" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A12" s="242"/>
-      <c r="B12" s="277"/>
+      <c r="A12" s="255"/>
+      <c r="B12" s="299"/>
       <c r="C12" s="14" t="s">
         <v>2</v>
       </c>
@@ -12877,8 +12873,8 @@
       <c r="DW12" s="60"/>
     </row>
     <row r="13" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A13" s="242"/>
-      <c r="B13" s="278"/>
+      <c r="A13" s="255"/>
+      <c r="B13" s="300"/>
       <c r="C13" s="20" t="s">
         <v>3</v>
       </c>
@@ -13014,8 +13010,8 @@
       <c r="DW13" s="65"/>
     </row>
     <row r="14" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A14" s="230"/>
-      <c r="B14" s="279" t="s">
+      <c r="A14" s="270"/>
+      <c r="B14" s="301" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="34" t="s">
@@ -13153,8 +13149,8 @@
       <c r="DW14" s="70"/>
     </row>
     <row r="15" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A15" s="230"/>
-      <c r="B15" s="278"/>
+      <c r="A15" s="270"/>
+      <c r="B15" s="300"/>
       <c r="C15" s="20" t="s">
         <v>20</v>
       </c>
@@ -13290,8 +13286,8 @@
       <c r="DW15" s="65"/>
     </row>
     <row r="16" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A16" s="230"/>
-      <c r="B16" s="279" t="s">
+      <c r="A16" s="270"/>
+      <c r="B16" s="301" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="34" t="s">
@@ -13431,8 +13427,8 @@
       <c r="DW16" s="70"/>
     </row>
     <row r="17" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A17" s="230"/>
-      <c r="B17" s="277"/>
+      <c r="A17" s="270"/>
+      <c r="B17" s="299"/>
       <c r="C17" s="18" t="s">
         <v>109</v>
       </c>
@@ -13570,8 +13566,8 @@
       <c r="DW17" s="75"/>
     </row>
     <row r="18" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A18" s="230"/>
-      <c r="B18" s="277"/>
+      <c r="A18" s="270"/>
+      <c r="B18" s="299"/>
       <c r="C18" s="18" t="s">
         <v>22</v>
       </c>
@@ -13707,8 +13703,8 @@
       <c r="DW18" s="75"/>
     </row>
     <row r="19" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A19" s="230"/>
-      <c r="B19" s="278"/>
+      <c r="A19" s="270"/>
+      <c r="B19" s="300"/>
       <c r="C19" s="20" t="s">
         <v>23</v>
       </c>
@@ -13844,8 +13840,8 @@
       <c r="DW19" s="65"/>
     </row>
     <row r="20" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A20" s="230"/>
-      <c r="B20" s="279" t="s">
+      <c r="A20" s="270"/>
+      <c r="B20" s="301" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="34" t="s">
@@ -13985,8 +13981,8 @@
       <c r="DW20" s="70"/>
     </row>
     <row r="21" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A21" s="230"/>
-      <c r="B21" s="277"/>
+      <c r="A21" s="270"/>
+      <c r="B21" s="299"/>
       <c r="C21" s="18" t="s">
         <v>26</v>
       </c>
@@ -14124,8 +14120,8 @@
       <c r="DW21" s="75"/>
     </row>
     <row r="22" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A22" s="230"/>
-      <c r="B22" s="278"/>
+      <c r="A22" s="270"/>
+      <c r="B22" s="300"/>
       <c r="C22" s="20" t="s">
         <v>27</v>
       </c>
@@ -14263,7 +14259,7 @@
       <c r="DW22" s="65"/>
     </row>
     <row r="23" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="267"/>
+      <c r="A23" s="297"/>
       <c r="B23" s="36" t="s">
         <v>28</v>
       </c>
@@ -14402,10 +14398,10 @@
       <c r="DW23" s="80"/>
     </row>
     <row r="24" spans="1:127" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="265" t="s">
+      <c r="A24" s="302" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="261" t="s">
+      <c r="B24" s="303" t="s">
         <v>144</v>
       </c>
       <c r="C24" s="32" t="s">
@@ -14414,7 +14410,7 @@
       <c r="D24" s="119" t="s">
         <v>188</v>
       </c>
-      <c r="E24" s="261" t="s">
+      <c r="E24" s="303" t="s">
         <v>152</v>
       </c>
       <c r="F24" s="138">
@@ -14545,15 +14541,15 @@
       <c r="DW24" s="85"/>
     </row>
     <row r="25" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A25" s="242"/>
-      <c r="B25" s="264"/>
+      <c r="A25" s="255"/>
+      <c r="B25" s="304"/>
       <c r="C25" s="14" t="s">
         <v>146</v>
       </c>
       <c r="D25" s="120" t="s">
         <v>188</v>
       </c>
-      <c r="E25" s="264"/>
+      <c r="E25" s="304"/>
       <c r="F25" s="16">
         <v>41061</v>
       </c>
@@ -14682,15 +14678,15 @@
       <c r="DW25" s="60"/>
     </row>
     <row r="26" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A26" s="242"/>
-      <c r="B26" s="262"/>
+      <c r="A26" s="255"/>
+      <c r="B26" s="305"/>
       <c r="C26" s="20" t="s">
         <v>147</v>
       </c>
       <c r="D26" s="115" t="s">
         <v>188</v>
       </c>
-      <c r="E26" s="262"/>
+      <c r="E26" s="305"/>
       <c r="F26" s="127">
         <v>41061</v>
       </c>
@@ -14819,8 +14815,8 @@
       <c r="DW26" s="65"/>
     </row>
     <row r="27" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A27" s="242"/>
-      <c r="B27" s="264" t="s">
+      <c r="A27" s="255"/>
+      <c r="B27" s="304" t="s">
         <v>148</v>
       </c>
       <c r="C27" s="24" t="s">
@@ -14829,7 +14825,7 @@
       <c r="D27" s="121" t="s">
         <v>188</v>
       </c>
-      <c r="E27" s="264" t="s">
+      <c r="E27" s="304" t="s">
         <v>153</v>
       </c>
       <c r="F27" s="140">
@@ -14960,15 +14956,15 @@
       <c r="DW27" s="90"/>
     </row>
     <row r="28" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A28" s="242"/>
-      <c r="B28" s="264"/>
+      <c r="A28" s="255"/>
+      <c r="B28" s="304"/>
       <c r="C28" s="14" t="s">
         <v>150</v>
       </c>
       <c r="D28" s="120" t="s">
         <v>188</v>
       </c>
-      <c r="E28" s="264"/>
+      <c r="E28" s="304"/>
       <c r="F28" s="16">
         <v>41061</v>
       </c>
@@ -15097,15 +15093,15 @@
       <c r="DW28" s="60"/>
     </row>
     <row r="29" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A29" s="242"/>
-      <c r="B29" s="264"/>
+      <c r="A29" s="255"/>
+      <c r="B29" s="304"/>
       <c r="C29" s="14" t="s">
         <v>151</v>
       </c>
       <c r="D29" s="120" t="s">
         <v>188</v>
       </c>
-      <c r="E29" s="264"/>
+      <c r="E29" s="304"/>
       <c r="F29" s="16">
         <v>41061</v>
       </c>
@@ -15234,15 +15230,15 @@
       <c r="DW29" s="60"/>
     </row>
     <row r="30" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="267"/>
-      <c r="B30" s="268"/>
+      <c r="A30" s="297"/>
+      <c r="B30" s="306"/>
       <c r="C30" s="30" t="s">
         <v>109</v>
       </c>
       <c r="D30" s="122" t="s">
         <v>188</v>
       </c>
-      <c r="E30" s="268"/>
+      <c r="E30" s="306"/>
       <c r="F30" s="142">
         <v>41061</v>
       </c>
@@ -15371,10 +15367,10 @@
       <c r="DW30" s="95"/>
     </row>
     <row r="31" spans="1:127" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="265" t="s">
+      <c r="A31" s="302" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="261" t="s">
+      <c r="B31" s="303" t="s">
         <v>55</v>
       </c>
       <c r="C31" s="32" t="s">
@@ -15512,8 +15508,8 @@
       <c r="DW31" s="85"/>
     </row>
     <row r="32" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A32" s="242"/>
-      <c r="B32" s="264"/>
+      <c r="A32" s="255"/>
+      <c r="B32" s="304"/>
       <c r="C32" s="14" t="s">
         <v>57</v>
       </c>
@@ -15649,8 +15645,8 @@
       <c r="DW32" s="60"/>
     </row>
     <row r="33" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A33" s="242"/>
-      <c r="B33" s="263" t="s">
+      <c r="A33" s="255"/>
+      <c r="B33" s="307" t="s">
         <v>58</v>
       </c>
       <c r="C33" s="22" t="s">
@@ -15790,8 +15786,8 @@
       <c r="DW33" s="100"/>
     </row>
     <row r="34" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A34" s="242"/>
-      <c r="B34" s="264"/>
+      <c r="A34" s="255"/>
+      <c r="B34" s="304"/>
       <c r="C34" s="14" t="s">
         <v>60</v>
       </c>
@@ -15929,8 +15925,8 @@
       <c r="DW34" s="60"/>
     </row>
     <row r="35" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A35" s="242"/>
-      <c r="B35" s="264"/>
+      <c r="A35" s="255"/>
+      <c r="B35" s="304"/>
       <c r="C35" s="14" t="s">
         <v>61</v>
       </c>
@@ -16068,8 +16064,8 @@
       <c r="DW35" s="60"/>
     </row>
     <row r="36" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A36" s="242"/>
-      <c r="B36" s="262"/>
+      <c r="A36" s="255"/>
+      <c r="B36" s="305"/>
       <c r="C36" s="20" t="s">
         <v>62</v>
       </c>
@@ -16207,7 +16203,7 @@
       <c r="DW36" s="65"/>
     </row>
     <row r="37" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A37" s="242"/>
+      <c r="A37" s="255"/>
       <c r="B37" s="39" t="s">
         <v>63</v>
       </c>
@@ -16348,8 +16344,8 @@
       <c r="DW37" s="105"/>
     </row>
     <row r="38" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A38" s="242"/>
-      <c r="B38" s="264" t="s">
+      <c r="A38" s="255"/>
+      <c r="B38" s="304" t="s">
         <v>65</v>
       </c>
       <c r="C38" s="24" t="s">
@@ -16489,8 +16485,8 @@
       <c r="DW38" s="90"/>
     </row>
     <row r="39" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A39" s="242"/>
-      <c r="B39" s="264"/>
+      <c r="A39" s="255"/>
+      <c r="B39" s="304"/>
       <c r="C39" s="14" t="s">
         <v>67</v>
       </c>
@@ -16628,8 +16624,8 @@
       <c r="DW39" s="60"/>
     </row>
     <row r="40" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A40" s="242"/>
-      <c r="B40" s="264"/>
+      <c r="A40" s="255"/>
+      <c r="B40" s="304"/>
       <c r="C40" s="14" t="s">
         <v>65</v>
       </c>
@@ -16767,8 +16763,8 @@
       <c r="DW40" s="60"/>
     </row>
     <row r="41" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A41" s="242"/>
-      <c r="B41" s="262"/>
+      <c r="A41" s="255"/>
+      <c r="B41" s="305"/>
       <c r="C41" s="20" t="s">
         <v>68</v>
       </c>
@@ -16904,8 +16900,8 @@
       <c r="DW41" s="65"/>
     </row>
     <row r="42" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A42" s="242"/>
-      <c r="B42" s="263" t="s">
+      <c r="A42" s="255"/>
+      <c r="B42" s="307" t="s">
         <v>69</v>
       </c>
       <c r="C42" s="22" t="s">
@@ -17045,8 +17041,8 @@
       <c r="DW42" s="90"/>
     </row>
     <row r="43" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A43" s="242"/>
-      <c r="B43" s="262"/>
+      <c r="A43" s="255"/>
+      <c r="B43" s="305"/>
       <c r="C43" s="20" t="s">
         <v>68</v>
       </c>
@@ -17182,7 +17178,7 @@
       <c r="DW43" s="65"/>
     </row>
     <row r="44" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A44" s="242"/>
+      <c r="A44" s="255"/>
       <c r="B44" s="41" t="s">
         <v>71</v>
       </c>
@@ -17323,8 +17319,8 @@
       <c r="DW44" s="109"/>
     </row>
     <row r="45" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A45" s="242"/>
-      <c r="B45" s="263" t="s">
+      <c r="A45" s="255"/>
+      <c r="B45" s="307" t="s">
         <v>73</v>
       </c>
       <c r="C45" s="22" t="s">
@@ -17462,8 +17458,8 @@
       <c r="DW45" s="100"/>
     </row>
     <row r="46" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A46" s="242"/>
-      <c r="B46" s="264"/>
+      <c r="A46" s="255"/>
+      <c r="B46" s="304"/>
       <c r="C46" s="14" t="s">
         <v>75</v>
       </c>
@@ -17601,8 +17597,8 @@
       <c r="DW46" s="60"/>
     </row>
     <row r="47" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A47" s="242"/>
-      <c r="B47" s="264"/>
+      <c r="A47" s="255"/>
+      <c r="B47" s="304"/>
       <c r="C47" s="14" t="s">
         <v>154</v>
       </c>
@@ -17740,8 +17736,8 @@
       <c r="DW47" s="60"/>
     </row>
     <row r="48" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A48" s="242"/>
-      <c r="B48" s="264"/>
+      <c r="A48" s="255"/>
+      <c r="B48" s="304"/>
       <c r="C48" s="14" t="s">
         <v>155</v>
       </c>
@@ -17879,8 +17875,8 @@
       <c r="DW48" s="60"/>
     </row>
     <row r="49" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A49" s="242"/>
-      <c r="B49" s="264"/>
+      <c r="A49" s="255"/>
+      <c r="B49" s="304"/>
       <c r="C49" s="14" t="s">
         <v>76</v>
       </c>
@@ -18016,8 +18012,8 @@
       <c r="DW49" s="60"/>
     </row>
     <row r="50" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A50" s="242"/>
-      <c r="B50" s="264"/>
+      <c r="A50" s="255"/>
+      <c r="B50" s="304"/>
       <c r="C50" s="14" t="s">
         <v>109</v>
       </c>
@@ -18153,8 +18149,8 @@
       <c r="DW50" s="60"/>
     </row>
     <row r="51" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A51" s="242"/>
-      <c r="B51" s="264"/>
+      <c r="A51" s="255"/>
+      <c r="B51" s="304"/>
       <c r="C51" s="14" t="s">
         <v>68</v>
       </c>
@@ -18290,8 +18286,8 @@
       <c r="DW51" s="60"/>
     </row>
     <row r="52" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A52" s="242"/>
-      <c r="B52" s="262"/>
+      <c r="A52" s="255"/>
+      <c r="B52" s="305"/>
       <c r="C52" s="20" t="s">
         <v>77</v>
       </c>
@@ -18427,8 +18423,8 @@
       <c r="DW52" s="65"/>
     </row>
     <row r="53" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A53" s="242"/>
-      <c r="B53" s="263" t="s">
+      <c r="A53" s="255"/>
+      <c r="B53" s="307" t="s">
         <v>78</v>
       </c>
       <c r="C53" s="22" t="s">
@@ -18568,8 +18564,8 @@
       <c r="DW53" s="100"/>
     </row>
     <row r="54" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A54" s="242"/>
-      <c r="B54" s="264"/>
+      <c r="A54" s="255"/>
+      <c r="B54" s="304"/>
       <c r="C54" s="14" t="s">
         <v>80</v>
       </c>
@@ -18705,8 +18701,8 @@
       <c r="DW54" s="60"/>
     </row>
     <row r="55" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A55" s="242"/>
-      <c r="B55" s="262"/>
+      <c r="A55" s="255"/>
+      <c r="B55" s="305"/>
       <c r="C55" s="20" t="s">
         <v>68</v>
       </c>
@@ -18842,8 +18838,8 @@
       <c r="DW55" s="65"/>
     </row>
     <row r="56" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A56" s="242"/>
-      <c r="B56" s="263" t="s">
+      <c r="A56" s="255"/>
+      <c r="B56" s="307" t="s">
         <v>81</v>
       </c>
       <c r="C56" s="22" t="s">
@@ -18983,8 +18979,8 @@
       <c r="DW56" s="100"/>
     </row>
     <row r="57" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A57" s="242"/>
-      <c r="B57" s="262"/>
+      <c r="A57" s="255"/>
+      <c r="B57" s="305"/>
       <c r="C57" s="20" t="s">
         <v>80</v>
       </c>
@@ -19120,7 +19116,7 @@
       <c r="DW57" s="65"/>
     </row>
     <row r="58" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A58" s="242"/>
+      <c r="A58" s="255"/>
       <c r="B58" s="39" t="s">
         <v>83</v>
       </c>
@@ -19261,8 +19257,8 @@
       <c r="DW58" s="105"/>
     </row>
     <row r="59" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A59" s="242"/>
-      <c r="B59" s="263" t="s">
+      <c r="A59" s="255"/>
+      <c r="B59" s="307" t="s">
         <v>85</v>
       </c>
       <c r="C59" s="22" t="s">
@@ -19271,7 +19267,7 @@
       <c r="D59" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="E59" s="273" t="s">
+      <c r="E59" s="313" t="s">
         <v>107</v>
       </c>
       <c r="F59" s="130">
@@ -19402,15 +19398,15 @@
       <c r="DW59" s="100"/>
     </row>
     <row r="60" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A60" s="242"/>
-      <c r="B60" s="264"/>
+      <c r="A60" s="255"/>
+      <c r="B60" s="304"/>
       <c r="C60" s="14" t="s">
         <v>87</v>
       </c>
       <c r="D60" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E60" s="271"/>
+      <c r="E60" s="311"/>
       <c r="F60" s="16">
         <v>41061</v>
       </c>
@@ -19539,15 +19535,15 @@
       <c r="DW60" s="60"/>
     </row>
     <row r="61" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A61" s="242"/>
-      <c r="B61" s="264"/>
+      <c r="A61" s="255"/>
+      <c r="B61" s="304"/>
       <c r="C61" s="14" t="s">
         <v>88</v>
       </c>
       <c r="D61" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E61" s="271"/>
+      <c r="E61" s="311"/>
       <c r="F61" s="16">
         <v>41061</v>
       </c>
@@ -19676,15 +19672,15 @@
       <c r="DW61" s="60"/>
     </row>
     <row r="62" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A62" s="242"/>
-      <c r="B62" s="264"/>
+      <c r="A62" s="255"/>
+      <c r="B62" s="304"/>
       <c r="C62" s="14" t="s">
         <v>89</v>
       </c>
       <c r="D62" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E62" s="271"/>
+      <c r="E62" s="311"/>
       <c r="F62" s="16">
         <v>41061</v>
       </c>
@@ -19813,15 +19809,15 @@
       <c r="DW62" s="60"/>
     </row>
     <row r="63" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A63" s="242"/>
-      <c r="B63" s="262"/>
+      <c r="A63" s="255"/>
+      <c r="B63" s="305"/>
       <c r="C63" s="20" t="s">
         <v>90</v>
       </c>
       <c r="D63" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="E63" s="274"/>
+      <c r="E63" s="314"/>
       <c r="F63" s="127">
         <v>41061</v>
       </c>
@@ -19950,8 +19946,8 @@
       <c r="DW63" s="65"/>
     </row>
     <row r="64" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A64" s="242"/>
-      <c r="B64" s="264" t="s">
+      <c r="A64" s="255"/>
+      <c r="B64" s="304" t="s">
         <v>91</v>
       </c>
       <c r="C64" s="24" t="s">
@@ -19960,7 +19956,7 @@
       <c r="D64" s="121" t="s">
         <v>188</v>
       </c>
-      <c r="E64" s="264" t="s">
+      <c r="E64" s="304" t="s">
         <v>108</v>
       </c>
       <c r="F64" s="140">
@@ -20091,15 +20087,15 @@
       <c r="DW64" s="90"/>
     </row>
     <row r="65" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="267"/>
-      <c r="B65" s="268"/>
+      <c r="A65" s="297"/>
+      <c r="B65" s="306"/>
       <c r="C65" s="30" t="s">
         <v>93</v>
       </c>
       <c r="D65" s="122" t="s">
         <v>188</v>
       </c>
-      <c r="E65" s="268"/>
+      <c r="E65" s="306"/>
       <c r="F65" s="142">
         <v>41061</v>
       </c>
@@ -20228,10 +20224,10 @@
       <c r="DW65" s="95"/>
     </row>
     <row r="66" spans="1:127" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="269" t="s">
+      <c r="A66" s="308" t="s">
         <v>30</v>
       </c>
-      <c r="B66" s="261" t="s">
+      <c r="B66" s="303" t="s">
         <v>31</v>
       </c>
       <c r="C66" s="32" t="s">
@@ -20240,7 +20236,7 @@
       <c r="D66" s="119" t="s">
         <v>189</v>
       </c>
-      <c r="E66" s="261" t="s">
+      <c r="E66" s="303" t="s">
         <v>130</v>
       </c>
       <c r="F66" s="138">
@@ -20371,15 +20367,15 @@
       <c r="DW66" s="85"/>
     </row>
     <row r="67" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A67" s="259"/>
-      <c r="B67" s="264"/>
+      <c r="A67" s="309"/>
+      <c r="B67" s="304"/>
       <c r="C67" s="14" t="s">
         <v>33</v>
       </c>
       <c r="D67" s="120" t="s">
         <v>189</v>
       </c>
-      <c r="E67" s="264"/>
+      <c r="E67" s="304"/>
       <c r="F67" s="16">
         <v>41061</v>
       </c>
@@ -20508,15 +20504,15 @@
       <c r="DW67" s="60"/>
     </row>
     <row r="68" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A68" s="259"/>
-      <c r="B68" s="264"/>
+      <c r="A68" s="309"/>
+      <c r="B68" s="304"/>
       <c r="C68" s="14" t="s">
         <v>34</v>
       </c>
       <c r="D68" s="120" t="s">
         <v>189</v>
       </c>
-      <c r="E68" s="264"/>
+      <c r="E68" s="304"/>
       <c r="F68" s="16">
         <v>41061</v>
       </c>
@@ -20645,15 +20641,15 @@
       <c r="DW68" s="60"/>
     </row>
     <row r="69" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A69" s="259"/>
-      <c r="B69" s="262"/>
+      <c r="A69" s="309"/>
+      <c r="B69" s="305"/>
       <c r="C69" s="20" t="s">
         <v>35</v>
       </c>
       <c r="D69" s="115" t="s">
         <v>189</v>
       </c>
-      <c r="E69" s="262"/>
+      <c r="E69" s="305"/>
       <c r="F69" s="127">
         <v>41061</v>
       </c>
@@ -20782,8 +20778,8 @@
       <c r="DW69" s="65"/>
     </row>
     <row r="70" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A70" s="259"/>
-      <c r="B70" s="263" t="s">
+      <c r="A70" s="309"/>
+      <c r="B70" s="307" t="s">
         <v>36</v>
       </c>
       <c r="C70" s="22" t="s">
@@ -20792,7 +20788,7 @@
       <c r="D70" s="123" t="s">
         <v>190</v>
       </c>
-      <c r="E70" s="263" t="s">
+      <c r="E70" s="307" t="s">
         <v>131</v>
       </c>
       <c r="F70" s="130">
@@ -20923,15 +20919,15 @@
       <c r="DW70" s="100"/>
     </row>
     <row r="71" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A71" s="259"/>
-      <c r="B71" s="264"/>
+      <c r="A71" s="309"/>
+      <c r="B71" s="304"/>
       <c r="C71" s="14" t="s">
         <v>38</v>
       </c>
       <c r="D71" s="120" t="s">
         <v>190</v>
       </c>
-      <c r="E71" s="264"/>
+      <c r="E71" s="304"/>
       <c r="F71" s="16">
         <v>41061</v>
       </c>
@@ -21060,15 +21056,15 @@
       <c r="DW71" s="60"/>
     </row>
     <row r="72" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A72" s="259"/>
-      <c r="B72" s="262"/>
+      <c r="A72" s="309"/>
+      <c r="B72" s="305"/>
       <c r="C72" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D72" s="115" t="s">
         <v>190</v>
       </c>
-      <c r="E72" s="262"/>
+      <c r="E72" s="305"/>
       <c r="F72" s="127">
         <v>41061</v>
       </c>
@@ -21197,8 +21193,8 @@
       <c r="DW72" s="65"/>
     </row>
     <row r="73" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A73" s="259"/>
-      <c r="B73" s="264" t="s">
+      <c r="A73" s="309"/>
+      <c r="B73" s="304" t="s">
         <v>40</v>
       </c>
       <c r="C73" s="24" t="s">
@@ -21207,7 +21203,7 @@
       <c r="D73" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="E73" s="271" t="s">
+      <c r="E73" s="311" t="s">
         <v>132</v>
       </c>
       <c r="F73" s="140">
@@ -21338,15 +21334,15 @@
       <c r="DW73" s="90"/>
     </row>
     <row r="74" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A74" s="259"/>
-      <c r="B74" s="264"/>
+      <c r="A74" s="309"/>
+      <c r="B74" s="304"/>
       <c r="C74" s="14" t="s">
         <v>42</v>
       </c>
       <c r="D74" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E74" s="271"/>
+      <c r="E74" s="311"/>
       <c r="F74" s="16">
         <v>41061</v>
       </c>
@@ -21475,15 +21471,15 @@
       <c r="DW74" s="60"/>
     </row>
     <row r="75" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A75" s="259"/>
-      <c r="B75" s="264"/>
+      <c r="A75" s="309"/>
+      <c r="B75" s="304"/>
       <c r="C75" s="14" t="s">
         <v>43</v>
       </c>
       <c r="D75" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E75" s="271"/>
+      <c r="E75" s="311"/>
       <c r="F75" s="16">
         <v>41061</v>
       </c>
@@ -21612,15 +21608,15 @@
       <c r="DW75" s="60"/>
     </row>
     <row r="76" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A76" s="259"/>
-      <c r="B76" s="264"/>
+      <c r="A76" s="309"/>
+      <c r="B76" s="304"/>
       <c r="C76" s="14" t="s">
         <v>44</v>
       </c>
       <c r="D76" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E76" s="271"/>
+      <c r="E76" s="311"/>
       <c r="F76" s="16">
         <v>41061</v>
       </c>
@@ -21749,15 +21745,15 @@
       <c r="DW76" s="60"/>
     </row>
     <row r="77" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="270"/>
-      <c r="B77" s="268"/>
+      <c r="A77" s="310"/>
+      <c r="B77" s="306"/>
       <c r="C77" s="30" t="s">
         <v>45</v>
       </c>
       <c r="D77" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="E77" s="272"/>
+      <c r="E77" s="312"/>
       <c r="F77" s="142">
         <v>41061</v>
       </c>
@@ -21886,10 +21882,10 @@
       <c r="DW77" s="95"/>
     </row>
     <row r="78" spans="1:127" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="265" t="s">
+      <c r="A78" s="302" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="261" t="s">
+      <c r="B78" s="303" t="s">
         <v>110</v>
       </c>
       <c r="C78" s="32" t="s">
@@ -22029,8 +22025,8 @@
       <c r="DW78" s="85"/>
     </row>
     <row r="79" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A79" s="266"/>
-      <c r="B79" s="264"/>
+      <c r="A79" s="316"/>
+      <c r="B79" s="304"/>
       <c r="C79" s="24" t="s">
         <v>112</v>
       </c>
@@ -22168,8 +22164,8 @@
       <c r="DW79" s="90"/>
     </row>
     <row r="80" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A80" s="266"/>
-      <c r="B80" s="262"/>
+      <c r="A80" s="316"/>
+      <c r="B80" s="305"/>
       <c r="C80" s="41" t="s">
         <v>109</v>
       </c>
@@ -22305,8 +22301,8 @@
       <c r="DW80" s="109"/>
     </row>
     <row r="81" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A81" s="266"/>
-      <c r="B81" s="263" t="s">
+      <c r="A81" s="316"/>
+      <c r="B81" s="307" t="s">
         <v>113</v>
       </c>
       <c r="C81" s="22" t="s">
@@ -22446,8 +22442,8 @@
       <c r="DW81" s="100"/>
     </row>
     <row r="82" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A82" s="266"/>
-      <c r="B82" s="264"/>
+      <c r="A82" s="316"/>
+      <c r="B82" s="304"/>
       <c r="C82" s="24" t="s">
         <v>115</v>
       </c>
@@ -22585,8 +22581,8 @@
       <c r="DW82" s="90"/>
     </row>
     <row r="83" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A83" s="242"/>
-      <c r="B83" s="262"/>
+      <c r="A83" s="255"/>
+      <c r="B83" s="305"/>
       <c r="C83" s="20" t="s">
         <v>116</v>
       </c>
@@ -22724,7 +22720,7 @@
       <c r="DW83" s="65"/>
     </row>
     <row r="84" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="267"/>
+      <c r="A84" s="297"/>
       <c r="B84" s="37" t="s">
         <v>117</v>
       </c>
@@ -22865,10 +22861,10 @@
       <c r="DW84" s="80"/>
     </row>
     <row r="85" spans="1:127" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="265" t="s">
+      <c r="A85" s="302" t="s">
         <v>9</v>
       </c>
-      <c r="B85" s="261" t="s">
+      <c r="B85" s="303" t="s">
         <v>119</v>
       </c>
       <c r="C85" s="32" t="s">
@@ -23006,8 +23002,8 @@
       <c r="DW85" s="85"/>
     </row>
     <row r="86" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A86" s="266"/>
-      <c r="B86" s="262"/>
+      <c r="A86" s="316"/>
+      <c r="B86" s="305"/>
       <c r="C86" s="41" t="s">
         <v>118</v>
       </c>
@@ -23143,8 +23139,8 @@
       <c r="DW86" s="109"/>
     </row>
     <row r="87" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A87" s="242"/>
-      <c r="B87" s="264" t="s">
+      <c r="A87" s="255"/>
+      <c r="B87" s="304" t="s">
         <v>120</v>
       </c>
       <c r="C87" s="24" t="s">
@@ -23282,8 +23278,8 @@
       <c r="DW87" s="90"/>
     </row>
     <row r="88" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="267"/>
-      <c r="B88" s="268"/>
+      <c r="A88" s="297"/>
+      <c r="B88" s="306"/>
       <c r="C88" s="30" t="s">
         <v>120</v>
       </c>
@@ -23419,10 +23415,10 @@
       <c r="DW88" s="95"/>
     </row>
     <row r="89" spans="1:127" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="259" t="s">
+      <c r="A89" s="309" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="261" t="s">
+      <c r="B89" s="303" t="s">
         <v>122</v>
       </c>
       <c r="C89" s="32" t="s">
@@ -23562,8 +23558,8 @@
       <c r="DW89" s="85"/>
     </row>
     <row r="90" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A90" s="259"/>
-      <c r="B90" s="262"/>
+      <c r="A90" s="309"/>
+      <c r="B90" s="305"/>
       <c r="C90" s="20" t="s">
         <v>124</v>
       </c>
@@ -23701,8 +23697,8 @@
       <c r="DW90" s="65"/>
     </row>
     <row r="91" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A91" s="259"/>
-      <c r="B91" s="263" t="s">
+      <c r="A91" s="309"/>
+      <c r="B91" s="307" t="s">
         <v>125</v>
       </c>
       <c r="C91" s="22" t="s">
@@ -23842,8 +23838,8 @@
       <c r="DW91" s="100"/>
     </row>
     <row r="92" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A92" s="259"/>
-      <c r="B92" s="264"/>
+      <c r="A92" s="309"/>
+      <c r="B92" s="304"/>
       <c r="C92" s="14" t="s">
         <v>127</v>
       </c>
@@ -23979,8 +23975,8 @@
       <c r="DW92" s="60"/>
     </row>
     <row r="93" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A93" s="259"/>
-      <c r="B93" s="264"/>
+      <c r="A93" s="309"/>
+      <c r="B93" s="304"/>
       <c r="C93" s="14" t="s">
         <v>128</v>
       </c>
@@ -24116,8 +24112,8 @@
       <c r="DW93" s="60"/>
     </row>
     <row r="94" spans="1:127" x14ac:dyDescent="0.3">
-      <c r="A94" s="259"/>
-      <c r="B94" s="262"/>
+      <c r="A94" s="309"/>
+      <c r="B94" s="305"/>
       <c r="C94" s="20" t="s">
         <v>129</v>
       </c>
@@ -24255,7 +24251,7 @@
       <c r="DW94" s="65"/>
     </row>
     <row r="95" spans="1:127" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="260"/>
+      <c r="A95" s="315"/>
       <c r="B95" s="43" t="s">
         <v>92</v>
       </c>
@@ -24395,30 +24391,84 @@
     </row>
   </sheetData>
   <mergeCells count="126">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="W8:AA8"/>
-    <mergeCell ref="AB8:AF8"/>
-    <mergeCell ref="AG8:AK8"/>
-    <mergeCell ref="AL8:AP8"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="AJ9:AK9"/>
-    <mergeCell ref="AL9:AM9"/>
-    <mergeCell ref="AO9:AP9"/>
+    <mergeCell ref="A89:A95"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="A78:A84"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="A66:A77"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="E66:E69"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="E70:E72"/>
+    <mergeCell ref="B73:B77"/>
+    <mergeCell ref="E73:E77"/>
+    <mergeCell ref="B45:B52"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="E59:E63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="A31:A65"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="DV9:DW9"/>
+    <mergeCell ref="A11:A23"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="DG9:DH9"/>
+    <mergeCell ref="DI9:DJ9"/>
+    <mergeCell ref="DL9:DM9"/>
+    <mergeCell ref="DN9:DO9"/>
+    <mergeCell ref="DQ9:DR9"/>
+    <mergeCell ref="DS9:DT9"/>
+    <mergeCell ref="CR9:CS9"/>
+    <mergeCell ref="CT9:CU9"/>
+    <mergeCell ref="CW9:CX9"/>
+    <mergeCell ref="CY9:CZ9"/>
+    <mergeCell ref="DB9:DC9"/>
+    <mergeCell ref="DD9:DE9"/>
+    <mergeCell ref="CC9:CD9"/>
+    <mergeCell ref="CE9:CF9"/>
+    <mergeCell ref="CH9:CI9"/>
+    <mergeCell ref="CJ9:CK9"/>
+    <mergeCell ref="CM9:CN9"/>
+    <mergeCell ref="CO9:CP9"/>
+    <mergeCell ref="BN9:BO9"/>
+    <mergeCell ref="BP9:BQ9"/>
+    <mergeCell ref="BS9:BT9"/>
+    <mergeCell ref="BU9:BV9"/>
+    <mergeCell ref="BX9:BY9"/>
+    <mergeCell ref="BZ9:CA9"/>
+    <mergeCell ref="AY9:AZ9"/>
+    <mergeCell ref="BA9:BB9"/>
+    <mergeCell ref="BD9:BE9"/>
+    <mergeCell ref="BF9:BG9"/>
+    <mergeCell ref="BI9:BJ9"/>
+    <mergeCell ref="BK9:BL9"/>
+    <mergeCell ref="AQ9:AR9"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
     <mergeCell ref="CY8:DC8"/>
     <mergeCell ref="DD8:DH8"/>
     <mergeCell ref="DI8:DM8"/>
@@ -24443,84 +24493,30 @@
     <mergeCell ref="BP8:BT8"/>
     <mergeCell ref="M8:Q8"/>
     <mergeCell ref="R8:V8"/>
-    <mergeCell ref="AQ9:AR9"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AV9:AW9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="BN9:BO9"/>
-    <mergeCell ref="BP9:BQ9"/>
-    <mergeCell ref="BS9:BT9"/>
-    <mergeCell ref="BU9:BV9"/>
-    <mergeCell ref="BX9:BY9"/>
-    <mergeCell ref="BZ9:CA9"/>
-    <mergeCell ref="AY9:AZ9"/>
-    <mergeCell ref="BA9:BB9"/>
-    <mergeCell ref="BD9:BE9"/>
-    <mergeCell ref="BF9:BG9"/>
-    <mergeCell ref="BI9:BJ9"/>
-    <mergeCell ref="BK9:BL9"/>
-    <mergeCell ref="DV9:DW9"/>
-    <mergeCell ref="A11:A23"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="DG9:DH9"/>
-    <mergeCell ref="DI9:DJ9"/>
-    <mergeCell ref="DL9:DM9"/>
-    <mergeCell ref="DN9:DO9"/>
-    <mergeCell ref="DQ9:DR9"/>
-    <mergeCell ref="DS9:DT9"/>
-    <mergeCell ref="CR9:CS9"/>
-    <mergeCell ref="CT9:CU9"/>
-    <mergeCell ref="CW9:CX9"/>
-    <mergeCell ref="CY9:CZ9"/>
-    <mergeCell ref="DB9:DC9"/>
-    <mergeCell ref="DD9:DE9"/>
-    <mergeCell ref="CC9:CD9"/>
-    <mergeCell ref="CE9:CF9"/>
-    <mergeCell ref="CH9:CI9"/>
-    <mergeCell ref="CJ9:CK9"/>
-    <mergeCell ref="CM9:CN9"/>
-    <mergeCell ref="CO9:CP9"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="A31:A65"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A66:A77"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="E66:E69"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="E70:E72"/>
-    <mergeCell ref="B73:B77"/>
-    <mergeCell ref="E73:E77"/>
-    <mergeCell ref="B45:B52"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="E59:E63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="A89:A95"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="A78:A84"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="A85:A88"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="AG8:AK8"/>
+    <mergeCell ref="AL8:AP8"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="AL9:AM9"/>
+    <mergeCell ref="AO9:AP9"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="AB8:AF8"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="H11:DW95">
